--- a/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
+++ b/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA5AA4AA-4872-4925-A755-C553C47564A7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5AFC0A2-C5B4-4508-A963-1FCB93085308}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17900" windowHeight="10980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="334">
-  <si>
-    <t>COVID-19 Cases and Fatalities by County as of 6/09 at 10:45AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="334">
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 6/10 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -812,7 +812,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/09 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/10 at 10:45AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -839,7 +839,7 @@
 Fatalities</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/09 at 3:00PM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/10 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -851,7 +851,7 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/09 at 3:00PM CST</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/10 at 3:00PM CST</t>
   </si>
   <si>
     <t>Total Tests
@@ -870,7 +870,7 @@
     <t>Tests include those performed by public labs (Laboratory Response Network) and private labs (commercial labs, hospitals, physician offices, and drive-thru sites) reported electronically and non-electronically to DSHS.</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/09 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/10 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -891,7 +891,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 6/09 at 9:30AM CST</t>
+    <t>Texas Statewide Hospitalization Data as of 6/10 at 9:30AM CST</t>
   </si>
   <si>
     <t>Hospital data</t>
@@ -912,7 +912,7 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 6/09 at 9:30AM CST</t>
+    <t>Number of COVID-19 Hospitalizations by Day as of 6/10 at 9:30AM CST</t>
   </si>
   <si>
     <t>Obs</t>
@@ -921,7 +921,7 @@
     <t>Hospitalizations</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 6/09 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 6/10 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -976,10 +976,10 @@
     <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
   </si>
   <si>
-    <t>Completed case investigations received by DSHS =          15,170</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 6/09 at 9:30 AM CST</t>
+    <t>Completed case investigations received by DSHS =          15,513</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 6/10 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -991,7 +991,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 6/09 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 6/10 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -1012,16 +1012,16 @@
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 6/09 at 9:30 AM CST</t>
+    <t>Age of Confirmed Fatalities as of 6/10 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Completed investigations received by DSHS =          664</t>
   </si>
   <si>
-    <t>Gender of Confirmed Fatalities as of 6/09 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 6/09 at 9:30 AM CST</t>
+    <t>Gender of Confirmed Fatalities as of 6/10 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 6/10 at 9:30 AM CST</t>
   </si>
   <si>
     <t>COVID-19
@@ -1044,21 +1044,20 @@
     <t>Number of Positive Antibody Tests Reported</t>
   </si>
   <si>
-    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/8 at 3:00PM CST</t>
+    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/9 at 3:00PM CST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="7">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="###,##0"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="##,###,##0"/>
     <numFmt numFmtId="167" formatCode="###,###,###,###,##0"/>
-    <numFmt numFmtId="168" formatCode="######&quot;%&quot;_);\(######&quot;%&quot;\)"/>
     <numFmt numFmtId="169" formatCode="##0"/>
-    <numFmt numFmtId="170" formatCode="######.0&quot;%&quot;_);\(######.0&quot;%&quot;\)"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1136,7 +1135,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1174,12 +1173,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFB0B7BB"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1210,16 +1218,28 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1237,37 +1257,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{B46B64FC-F855-45D9-A68C-217A2C49F4D9}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{6D133D87-63C3-4CFF-883E-0636D779A423}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1403,10 +1405,10 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
@@ -1414,11 +1416,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1458,7 +1460,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="C5" s="4">
         <v>5</v>
@@ -1502,7 +1504,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -1513,7 +1515,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -1524,7 +1526,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C13" s="4">
         <v>4</v>
@@ -1568,7 +1570,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -1579,10 +1581,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>473</v>
+        <v>507</v>
       </c>
       <c r="C16" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1590,10 +1592,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>3333</v>
+        <v>3513</v>
       </c>
       <c r="C17" s="4">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1634,7 +1636,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C21" s="4">
         <v>7</v>
@@ -1645,10 +1647,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="C22" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1656,10 +1658,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>634</v>
+        <v>665</v>
       </c>
       <c r="C23" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1711,7 +1713,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -1733,7 +1735,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
@@ -1744,7 +1746,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" s="4">
         <v>3</v>
@@ -1766,10 +1768,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>919</v>
+        <v>951</v>
       </c>
       <c r="C33" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1810,7 +1812,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -1821,7 +1823,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -1843,7 +1845,7 @@
         <v>41</v>
       </c>
       <c r="B40" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C40" s="4">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>1528</v>
+        <v>1546</v>
       </c>
       <c r="C45" s="4">
         <v>37</v>
@@ -1920,7 +1922,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -1931,7 +1933,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C48" s="4">
         <v>7</v>
@@ -1975,7 +1977,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
@@ -1997,7 +1999,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="4">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C54" s="4">
         <v>5</v>
@@ -2008,7 +2010,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C55" s="4">
         <v>0</v>
@@ -2019,7 +2021,7 @@
         <v>57</v>
       </c>
       <c r="B56" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
@@ -2041,7 +2043,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
@@ -2052,10 +2054,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>12347</v>
+        <v>12645</v>
       </c>
       <c r="C59" s="4">
-        <v>264</v>
+        <v>271</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2074,7 +2076,7 @@
         <v>62</v>
       </c>
       <c r="B61" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C61" s="4">
         <v>1</v>
@@ -2085,7 +2087,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="4">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C62" s="4">
         <v>13</v>
@@ -2107,10 +2109,10 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>1524</v>
+        <v>1559</v>
       </c>
       <c r="C64" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2173,7 +2175,7 @@
         <v>71</v>
       </c>
       <c r="B70" s="4">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="C70" s="4">
         <v>6</v>
@@ -2195,7 +2197,7 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>3512</v>
+        <v>3582</v>
       </c>
       <c r="C72" s="4">
         <v>93</v>
@@ -2206,10 +2208,10 @@
         <v>74</v>
       </c>
       <c r="B73" s="4">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="C73" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2239,7 +2241,7 @@
         <v>77</v>
       </c>
       <c r="B76" s="4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C76" s="4">
         <v>2</v>
@@ -2250,7 +2252,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C77" s="4">
         <v>2</v>
@@ -2294,7 +2296,7 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>2138</v>
+        <v>2225</v>
       </c>
       <c r="C81" s="4">
         <v>47</v>
@@ -2316,7 +2318,7 @@
         <v>84</v>
       </c>
       <c r="B83" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
@@ -2327,7 +2329,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="4">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
@@ -2349,7 +2351,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>1026</v>
+        <v>1051</v>
       </c>
       <c r="C86" s="4">
         <v>38</v>
@@ -2360,7 +2362,7 @@
         <v>88</v>
       </c>
       <c r="B87" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C87" s="4">
         <v>0</v>
@@ -2404,7 +2406,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="4">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C91" s="4">
         <v>3</v>
@@ -2415,7 +2417,7 @@
         <v>93</v>
       </c>
       <c r="B92" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C92" s="4">
         <v>3</v>
@@ -2426,10 +2428,10 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="C93" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2437,7 +2439,7 @@
         <v>95</v>
       </c>
       <c r="B94" s="4">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C94" s="4">
         <v>11</v>
@@ -2448,7 +2450,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C95" s="4">
         <v>1</v>
@@ -2459,7 +2461,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C96" s="4">
         <v>0</v>
@@ -2470,10 +2472,10 @@
         <v>98</v>
       </c>
       <c r="B97" s="4">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C97" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2503,7 +2505,7 @@
         <v>101</v>
       </c>
       <c r="B100" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C100" s="4">
         <v>2</v>
@@ -2525,7 +2527,7 @@
         <v>103</v>
       </c>
       <c r="B102" s="4">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C102" s="4">
         <v>5</v>
@@ -2536,7 +2538,7 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>14918</v>
+        <v>15238</v>
       </c>
       <c r="C103" s="4">
         <v>262</v>
@@ -2547,7 +2549,7 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C104" s="4">
         <v>28</v>
@@ -2580,7 +2582,7 @@
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>441</v>
+        <v>465</v>
       </c>
       <c r="C107" s="4">
         <v>5</v>
@@ -2613,7 +2615,7 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>759</v>
+        <v>804</v>
       </c>
       <c r="C110" s="4">
         <v>12</v>
@@ -2668,7 +2670,7 @@
         <v>116</v>
       </c>
       <c r="B115" s="4">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C115" s="4">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>117</v>
       </c>
       <c r="B116" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
@@ -2690,7 +2692,7 @@
         <v>118</v>
       </c>
       <c r="B117" s="4">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C117" s="4">
         <v>0</v>
@@ -2701,7 +2703,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="4">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="C118" s="4">
         <v>5</v>
@@ -2756,7 +2758,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C123" s="4">
         <v>1</v>
@@ -2778,10 +2780,10 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>647</v>
+        <v>1184</v>
       </c>
       <c r="C125" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2800,7 +2802,7 @@
         <v>128</v>
       </c>
       <c r="B127" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
@@ -2811,7 +2813,7 @@
         <v>129</v>
       </c>
       <c r="B128" s="4">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="C128" s="4">
         <v>4</v>
@@ -2844,7 +2846,7 @@
         <v>132</v>
       </c>
       <c r="B131" s="4">
-        <v>275</v>
+        <v>308</v>
       </c>
       <c r="C131" s="4">
         <v>2</v>
@@ -2855,7 +2857,7 @@
         <v>133</v>
       </c>
       <c r="B132" s="4">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C132" s="4">
         <v>0</v>
@@ -2965,7 +2967,7 @@
         <v>143</v>
       </c>
       <c r="B142" s="4">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C142" s="4">
         <v>11</v>
@@ -2976,7 +2978,7 @@
         <v>144</v>
       </c>
       <c r="B143" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C143" s="4">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>146</v>
       </c>
       <c r="B145" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C145" s="4">
         <v>1</v>
@@ -3009,7 +3011,7 @@
         <v>147</v>
       </c>
       <c r="B146" s="4">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C146" s="4">
         <v>2</v>
@@ -3031,7 +3033,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C148" s="4">
         <v>3</v>
@@ -3097,7 +3099,7 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="C154" s="4">
         <v>50</v>
@@ -3108,7 +3110,7 @@
         <v>156</v>
       </c>
       <c r="B155" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C155" s="4">
         <v>1</v>
@@ -3119,7 +3121,7 @@
         <v>157</v>
       </c>
       <c r="B156" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C156" s="4">
         <v>0</v>
@@ -3163,7 +3165,7 @@
         <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C160" s="4">
         <v>5</v>
@@ -3174,7 +3176,7 @@
         <v>162</v>
       </c>
       <c r="B161" s="4">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C161" s="4">
         <v>2</v>
@@ -3196,7 +3198,7 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="C163" s="4">
         <v>4</v>
@@ -3240,7 +3242,7 @@
         <v>168</v>
       </c>
       <c r="B167" s="4">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="C167" s="4">
         <v>13</v>
@@ -3251,7 +3253,7 @@
         <v>169</v>
       </c>
       <c r="B168" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C168" s="4">
         <v>1</v>
@@ -3295,7 +3297,7 @@
         <v>173</v>
       </c>
       <c r="B172" s="4">
-        <v>1090</v>
+        <v>1122</v>
       </c>
       <c r="C172" s="4">
         <v>31</v>
@@ -3339,7 +3341,7 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="C176" s="4">
         <v>21</v>
@@ -3353,7 +3355,7 @@
         <v>70</v>
       </c>
       <c r="C177" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3372,7 +3374,7 @@
         <v>180</v>
       </c>
       <c r="B179" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C179" s="4">
         <v>0</v>
@@ -3383,7 +3385,7 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C180" s="4">
         <v>3</v>
@@ -3416,7 +3418,7 @@
         <v>184</v>
       </c>
       <c r="B183" s="4">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C183" s="4">
         <v>2</v>
@@ -3449,7 +3451,7 @@
         <v>187</v>
       </c>
       <c r="B186" s="4">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C186" s="4">
         <v>1</v>
@@ -3471,7 +3473,7 @@
         <v>189</v>
       </c>
       <c r="B188" s="4">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="C188" s="4">
         <v>0</v>
@@ -3482,7 +3484,7 @@
         <v>190</v>
       </c>
       <c r="B189" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C189" s="4">
         <v>0</v>
@@ -3493,7 +3495,7 @@
         <v>191</v>
       </c>
       <c r="B190" s="4">
-        <v>2763</v>
+        <v>2766</v>
       </c>
       <c r="C190" s="4">
         <v>32</v>
@@ -3526,7 +3528,7 @@
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>737</v>
+        <v>740</v>
       </c>
       <c r="C193" s="4">
         <v>6</v>
@@ -3559,7 +3561,7 @@
         <v>197</v>
       </c>
       <c r="B196" s="4">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C196" s="4">
         <v>8</v>
@@ -3614,7 +3616,7 @@
         <v>202</v>
       </c>
       <c r="B201" s="4">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C201" s="4">
         <v>14</v>
@@ -3625,7 +3627,7 @@
         <v>203</v>
       </c>
       <c r="B202" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C202" s="4">
         <v>0</v>
@@ -3636,7 +3638,7 @@
         <v>204</v>
       </c>
       <c r="B203" s="4">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C203" s="4">
         <v>2</v>
@@ -3658,7 +3660,7 @@
         <v>206</v>
       </c>
       <c r="B205" s="4">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C205" s="4">
         <v>4</v>
@@ -3735,7 +3737,7 @@
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C212" s="4">
         <v>8</v>
@@ -3757,7 +3759,7 @@
         <v>215</v>
       </c>
       <c r="B214" s="4">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C214" s="4">
         <v>4</v>
@@ -3779,7 +3781,7 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C216" s="4">
         <v>0</v>
@@ -3845,10 +3847,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>6369</v>
+        <v>6433</v>
       </c>
       <c r="C222" s="4">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3856,7 +3858,7 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C223" s="4">
         <v>5</v>
@@ -3900,7 +3902,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C227" s="4">
         <v>2</v>
@@ -3922,10 +3924,10 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>3815</v>
+        <v>3976</v>
       </c>
       <c r="C229" s="4">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3977,7 +3979,7 @@
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C234" s="4">
         <v>0</v>
@@ -3999,7 +4001,7 @@
         <v>237</v>
       </c>
       <c r="B236" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C236" s="4">
         <v>1</v>
@@ -4010,10 +4012,10 @@
         <v>238</v>
       </c>
       <c r="B237" s="4">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="C237" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="238" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4021,7 +4023,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>1868</v>
+        <v>1842</v>
       </c>
       <c r="C238" s="4">
         <v>27</v>
@@ -4032,7 +4034,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4054,7 +4056,7 @@
         <v>242</v>
       </c>
       <c r="B241" s="4">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C241" s="4">
         <v>25</v>
@@ -4065,7 +4067,7 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>608</v>
+        <v>634</v>
       </c>
       <c r="C242" s="4">
         <v>20</v>
@@ -4076,7 +4078,7 @@
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C243" s="4">
         <v>1</v>
@@ -4120,7 +4122,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C247" s="4">
         <v>2</v>
@@ -4131,10 +4133,10 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>698</v>
+        <v>745</v>
       </c>
       <c r="C248" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4142,7 +4144,7 @@
         <v>250</v>
       </c>
       <c r="B249" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C249" s="4">
         <v>5</v>
@@ -4164,10 +4166,10 @@
         <v>252</v>
       </c>
       <c r="B251" s="4">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C251" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="252" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4186,7 +4188,7 @@
         <v>254</v>
       </c>
       <c r="B253" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C253" s="4">
         <v>0</v>
@@ -4197,7 +4199,7 @@
         <v>255</v>
       </c>
       <c r="B254" s="4">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C254" s="4">
         <v>1</v>
@@ -4230,10 +4232,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>77253</v>
+        <v>79757</v>
       </c>
       <c r="C257" s="4">
-        <v>1853</v>
+        <v>1885</v>
       </c>
     </row>
   </sheetData>
@@ -4252,22 +4254,22 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4285,10 +4287,11 @@
         <v>314</v>
       </c>
       <c r="B3" s="8">
-        <v>6778</v>
-      </c>
-      <c r="C3" s="13">
-        <v>44.680290046000003</v>
+        <v>6962</v>
+      </c>
+      <c r="C3" s="25">
+        <f>B3/B$6</f>
+        <v>0.44878489009218075</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4296,10 +4299,11 @@
         <v>315</v>
       </c>
       <c r="B4" s="8">
-        <v>8108</v>
-      </c>
-      <c r="C4" s="13">
-        <v>53.447593935</v>
+        <v>8264</v>
+      </c>
+      <c r="C4" s="25">
+        <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
+        <v>0.53271449751821054</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4307,10 +4311,11 @@
         <v>309</v>
       </c>
       <c r="B5" s="8">
-        <v>284</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1.8721160185000001</v>
+        <v>287</v>
+      </c>
+      <c r="C5" s="25">
+        <f t="shared" si="0"/>
+        <v>1.8500612389608716E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4318,25 +4323,26 @@
         <v>258</v>
       </c>
       <c r="B6" s="8">
-        <v>15170</v>
-      </c>
-      <c r="C6" s="13">
-        <v>100</v>
+        <v>15513</v>
+      </c>
+      <c r="C6" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4356,22 +4362,22 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4389,10 +4395,11 @@
         <v>318</v>
       </c>
       <c r="B3" s="8">
-        <v>503</v>
-      </c>
-      <c r="C3" s="13">
-        <v>3.3157547792000002</v>
+        <v>518</v>
+      </c>
+      <c r="C3" s="25">
+        <f>B3/B$9</f>
+        <v>3.3391349191001098E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4400,10 +4407,11 @@
         <v>319</v>
       </c>
       <c r="B4" s="8">
-        <v>2413</v>
-      </c>
-      <c r="C4" s="13">
-        <v>15.906394198999999</v>
+        <v>2523</v>
+      </c>
+      <c r="C4" s="25">
+        <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
+        <v>0.16263778766196094</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4411,10 +4419,11 @@
         <v>320</v>
       </c>
       <c r="B5" s="8">
-        <v>6034</v>
-      </c>
-      <c r="C5" s="13">
-        <v>39.775873433999998</v>
+        <v>6178</v>
+      </c>
+      <c r="C5" s="25">
+        <f t="shared" si="0"/>
+        <v>0.39824663185715209</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4422,10 +4431,11 @@
         <v>321</v>
       </c>
       <c r="B6" s="8">
-        <v>97</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0.63941990770000001</v>
+        <v>99</v>
+      </c>
+      <c r="C6" s="25">
+        <f t="shared" si="0"/>
+        <v>6.3817443434538773E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4433,10 +4443,11 @@
         <v>322</v>
       </c>
       <c r="B7" s="8">
-        <v>4174</v>
-      </c>
-      <c r="C7" s="13">
-        <v>27.514831905000001</v>
+        <v>4215</v>
+      </c>
+      <c r="C7" s="25">
+        <f t="shared" si="0"/>
+        <v>0.27170760007735445</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4444,10 +4455,11 @@
         <v>309</v>
       </c>
       <c r="B8" s="8">
-        <v>1949</v>
-      </c>
-      <c r="C8" s="13">
-        <v>12.847725775000001</v>
+        <v>1980</v>
+      </c>
+      <c r="C8" s="25">
+        <f t="shared" si="0"/>
+        <v>0.12763488686907754</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4455,25 +4467,26 @@
         <v>258</v>
       </c>
       <c r="B9" s="8">
-        <v>15170</v>
-      </c>
-      <c r="C9" s="13">
-        <v>100</v>
+        <v>15513</v>
+      </c>
+      <c r="C9" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4493,22 +4506,22 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -4525,10 +4538,11 @@
       <c r="A3" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B3" s="11">
-        <v>0</v>
-      </c>
-      <c r="C3" s="13">
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="25">
+        <f>B3/B$16</f>
         <v>0</v>
       </c>
     </row>
@@ -4536,10 +4550,11 @@
       <c r="A4" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B4" s="11">
-        <v>0</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="25">
+        <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
         <v>0</v>
       </c>
     </row>
@@ -4547,147 +4562,159 @@
       <c r="A5" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="13">
-        <v>0.30120481929999998</v>
+      <c r="C5" s="25">
+        <f t="shared" si="0"/>
+        <v>3.0120481927710845E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>11</v>
       </c>
-      <c r="C6" s="13">
-        <v>1.6566265060000001</v>
+      <c r="C6" s="25">
+        <f t="shared" si="0"/>
+        <v>1.6566265060240965E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>13</v>
       </c>
-      <c r="C7" s="13">
-        <v>1.9578313252999999</v>
+      <c r="C7" s="25">
+        <f t="shared" si="0"/>
+        <v>1.9578313253012049E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>26</v>
       </c>
-      <c r="C8" s="13">
-        <v>3.9156626505999998</v>
+      <c r="C8" s="25">
+        <f t="shared" si="0"/>
+        <v>3.9156626506024098E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>72</v>
       </c>
-      <c r="C9" s="13">
-        <v>10.843373494</v>
+      <c r="C9" s="25">
+        <f t="shared" si="0"/>
+        <v>0.10843373493975904</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="10">
         <v>60</v>
       </c>
-      <c r="C10" s="13">
-        <v>9.0361445783000001</v>
+      <c r="C10" s="25">
+        <f t="shared" si="0"/>
+        <v>9.036144578313253E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="10">
         <v>74</v>
       </c>
-      <c r="C11" s="13">
-        <v>11.144578313</v>
+      <c r="C11" s="25">
+        <f t="shared" si="0"/>
+        <v>0.11144578313253012</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>69</v>
       </c>
-      <c r="C12" s="13">
-        <v>10.391566265</v>
+      <c r="C12" s="25">
+        <f t="shared" si="0"/>
+        <v>0.10391566265060241</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <v>70</v>
       </c>
-      <c r="C13" s="13">
-        <v>10.542168674999999</v>
+      <c r="C13" s="25">
+        <f t="shared" si="0"/>
+        <v>0.10542168674698796</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>265</v>
       </c>
-      <c r="C14" s="13">
-        <v>39.909638553999997</v>
+      <c r="C14" s="25">
+        <f t="shared" si="0"/>
+        <v>0.3990963855421687</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="13">
-        <v>0.30120481929999998</v>
+      <c r="C15" s="25">
+        <f t="shared" si="0"/>
+        <v>3.0120481927710845E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>664</v>
       </c>
-      <c r="C16" s="13">
-        <v>100</v>
+      <c r="C16" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4707,22 +4734,22 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4739,59 +4766,63 @@
       <c r="A3" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>272</v>
       </c>
-      <c r="C3" s="13">
-        <v>40.963855422000002</v>
+      <c r="C3" s="25">
+        <f>B3/B$6</f>
+        <v>0.40963855421686746</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>364</v>
       </c>
-      <c r="C4" s="13">
-        <v>54.819277108000001</v>
+      <c r="C4" s="25">
+        <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
+        <v>0.54819277108433739</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>28</v>
       </c>
-      <c r="C5" s="13">
-        <v>4.2168674699000004</v>
+      <c r="C5" s="25">
+        <f t="shared" si="0"/>
+        <v>4.2168674698795178E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>664</v>
       </c>
-      <c r="C6" s="13">
-        <v>100</v>
+      <c r="C6" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4811,22 +4842,22 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4843,92 +4874,99 @@
       <c r="A3" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="10">
         <v>13</v>
       </c>
-      <c r="C3" s="13">
-        <v>1.9578313252999999</v>
+      <c r="C3" s="25">
+        <f>B3/B$9</f>
+        <v>1.9578313253012049E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="10">
         <v>85</v>
       </c>
-      <c r="C4" s="13">
-        <v>12.801204819000001</v>
+      <c r="C4" s="25">
+        <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
+        <v>0.12801204819277109</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>171</v>
       </c>
-      <c r="C5" s="13">
-        <v>25.753012047999999</v>
+      <c r="C5" s="25">
+        <f t="shared" si="0"/>
+        <v>0.25753012048192769</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="10">
         <v>5</v>
       </c>
-      <c r="C6" s="13">
-        <v>0.75301204820000001</v>
+      <c r="C6" s="25">
+        <f t="shared" si="0"/>
+        <v>7.5301204819277108E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>269</v>
       </c>
-      <c r="C7" s="13">
-        <v>40.512048192999998</v>
+      <c r="C7" s="25">
+        <f t="shared" si="0"/>
+        <v>0.40512048192771083</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="10">
         <v>121</v>
       </c>
-      <c r="C8" s="13">
-        <v>18.222891566000001</v>
+      <c r="C8" s="25">
+        <f t="shared" si="0"/>
+        <v>0.18222891566265059</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="10">
         <v>664</v>
       </c>
-      <c r="C9" s="13">
-        <v>100</v>
+      <c r="C9" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4937,21 +4975,21 @@
     <mergeCell ref="A12:C12"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:E1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
@@ -4960,22 +4998,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6284,6 +6322,23 @@
       </c>
       <c r="E79" s="4">
         <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>43992</v>
+      </c>
+      <c r="B80" s="4">
+        <v>79757</v>
+      </c>
+      <c r="C80" s="4">
+        <v>1885</v>
+      </c>
+      <c r="D80" s="4">
+        <v>2504</v>
+      </c>
+      <c r="E80" s="4">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -6306,17 +6361,17 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6328,17 +6383,17 @@
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>51140</v>
+        <v>52449</v>
       </c>
       <c r="B3" s="7">
-        <v>24260</v>
+        <v>25423</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="20" t="s">
         <v>269</v>
       </c>
-      <c r="B5" s="15"/>
+      <c r="B5" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6352,50 +6407,48 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:H72"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="18" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-    </row>
-    <row r="2" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="11" t="s">
         <v>327</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -6421,7 +6474,7 @@
       <c r="D3" s="8">
         <v>63751</v>
       </c>
-      <c r="E3" s="27">
+      <c r="E3" s="12">
         <v>0.1056</v>
       </c>
       <c r="F3" s="8"/>
@@ -6441,7 +6494,7 @@
       <c r="D4" s="8">
         <v>70938</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="12">
         <v>9.3299999999999994E-2</v>
       </c>
       <c r="F4" s="8"/>
@@ -6461,7 +6514,7 @@
       <c r="D5" s="8">
         <v>85357</v>
       </c>
-      <c r="E5" s="27">
+      <c r="E5" s="12">
         <v>8.8909998585200004E-2</v>
       </c>
       <c r="F5" s="8"/>
@@ -6481,7 +6534,7 @@
       <c r="D6" s="8">
         <v>88649</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="12">
         <v>0.1094</v>
       </c>
       <c r="F6" s="8"/>
@@ -6501,7 +6554,7 @@
       <c r="D7" s="8">
         <v>96258</v>
       </c>
-      <c r="E7" s="27">
+      <c r="E7" s="12">
         <v>0.11070000000000001</v>
       </c>
       <c r="F7" s="8"/>
@@ -6521,7 +6574,7 @@
       <c r="D8" s="8">
         <v>106134</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="12">
         <v>0.100351636462</v>
       </c>
       <c r="F8" s="8"/>
@@ -6541,7 +6594,7 @@
       <c r="D9" s="8">
         <v>115918</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="12">
         <v>0.1055125178708</v>
       </c>
       <c r="F9" s="8"/>
@@ -6561,7 +6614,7 @@
       <c r="D10" s="8">
         <v>120533</v>
       </c>
-      <c r="E10" s="27">
+      <c r="E10" s="12">
         <v>0.11360000000000001</v>
       </c>
       <c r="F10" s="8"/>
@@ -6581,7 +6634,7 @@
       <c r="D11" s="8">
         <v>124553</v>
       </c>
-      <c r="E11" s="27">
+      <c r="E11" s="12">
         <v>0.12479999999999999</v>
       </c>
       <c r="F11" s="8"/>
@@ -6601,7 +6654,7 @@
       <c r="D12" s="8">
         <v>133226</v>
       </c>
-      <c r="E12" s="27">
+      <c r="E12" s="12">
         <v>0.1386</v>
       </c>
       <c r="F12" s="8"/>
@@ -6621,7 +6674,7 @@
       <c r="D13" s="8">
         <v>146467</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="12">
         <v>0.1101</v>
       </c>
       <c r="F13" s="8"/>
@@ -6641,7 +6694,7 @@
       <c r="D14" s="8">
         <v>151810</v>
       </c>
-      <c r="E14" s="27">
+      <c r="E14" s="12">
         <v>0.1105</v>
       </c>
       <c r="F14" s="8"/>
@@ -6661,7 +6714,7 @@
       <c r="D15" s="8">
         <v>158547</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="12">
         <v>0.1188</v>
       </c>
       <c r="F15" s="8"/>
@@ -6681,7 +6734,7 @@
       <c r="D16" s="8">
         <v>169536</v>
       </c>
-      <c r="E16" s="27">
+      <c r="E16" s="12">
         <v>0.10630000000000001</v>
       </c>
       <c r="F16" s="8"/>
@@ -6701,7 +6754,7 @@
       <c r="D17" s="8">
         <v>176239</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="12">
         <v>0.1023</v>
       </c>
       <c r="F17" s="8"/>
@@ -6721,7 +6774,7 @@
       <c r="D18" s="8">
         <v>182710</v>
       </c>
-      <c r="E18" s="27">
+      <c r="E18" s="12">
         <v>9.35E-2</v>
       </c>
       <c r="F18" s="8"/>
@@ -6741,7 +6794,7 @@
       <c r="D19" s="8">
         <v>190394</v>
       </c>
-      <c r="E19" s="27">
+      <c r="E19" s="12">
         <v>9.7117268401900006E-2</v>
       </c>
       <c r="F19" s="8"/>
@@ -6761,7 +6814,7 @@
       <c r="D20" s="8">
         <v>205399</v>
       </c>
-      <c r="E20" s="27">
+      <c r="E20" s="12">
         <v>9.4500000000000001E-2</v>
       </c>
       <c r="F20" s="8"/>
@@ -6781,7 +6834,7 @@
       <c r="D21" s="8">
         <v>216783</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="12">
         <v>8.5800000000000001E-2</v>
       </c>
       <c r="F21" s="8"/>
@@ -6801,7 +6854,7 @@
       <c r="D22" s="8">
         <v>225078</v>
       </c>
-      <c r="E22" s="27">
+      <c r="E22" s="12">
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="F22" s="8"/>
@@ -6821,7 +6874,7 @@
       <c r="D23" s="8">
         <v>242547</v>
       </c>
-      <c r="E23" s="27">
+      <c r="E23" s="12">
         <v>7.4399999999999994E-2</v>
       </c>
       <c r="F23" s="8"/>
@@ -6841,7 +6894,7 @@
       <c r="D24" s="8">
         <v>262816</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="12">
         <v>6.3700000000000007E-2</v>
       </c>
       <c r="F24" s="8"/>
@@ -6861,7 +6914,7 @@
       <c r="D25" s="8">
         <v>276021</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="12">
         <v>6.1199999999999997E-2</v>
       </c>
       <c r="F25" s="8"/>
@@ -6881,7 +6934,7 @@
       <c r="D26" s="8">
         <v>290517</v>
       </c>
-      <c r="E26" s="27">
+      <c r="E26" s="12">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="F26" s="8"/>
@@ -6901,7 +6954,7 @@
       <c r="D27" s="8">
         <v>300384</v>
       </c>
-      <c r="E27" s="27">
+      <c r="E27" s="12">
         <v>6.2899999999999998E-2</v>
       </c>
       <c r="F27" s="8"/>
@@ -6921,7 +6974,7 @@
       <c r="D28" s="8">
         <v>314790</v>
       </c>
-      <c r="E28" s="27">
+      <c r="E28" s="12">
         <v>6.10670666381E-2</v>
       </c>
       <c r="F28" s="8"/>
@@ -6941,7 +6994,7 @@
       <c r="D29" s="8">
         <v>330300</v>
       </c>
-      <c r="E29" s="27">
+      <c r="E29" s="12">
         <v>5.8381327098900003E-2</v>
       </c>
       <c r="F29" s="8"/>
@@ -6961,7 +7014,7 @@
       <c r="D30" s="8">
         <v>351775</v>
       </c>
-      <c r="E30" s="27">
+      <c r="E30" s="12">
         <v>5.8799999999999998E-2</v>
       </c>
       <c r="F30" s="8"/>
@@ -6981,7 +7034,7 @@
       <c r="D31" s="8">
         <v>380648</v>
       </c>
-      <c r="E31" s="27">
+      <c r="E31" s="12">
         <v>5.7299999999999997E-2</v>
       </c>
       <c r="F31" s="8"/>
@@ -7001,7 +7054,7 @@
       <c r="D32" s="8">
         <v>390560</v>
       </c>
-      <c r="E32" s="27">
+      <c r="E32" s="12">
         <v>6.0400000000000002E-2</v>
       </c>
       <c r="F32" s="8"/>
@@ -7021,7 +7074,7 @@
       <c r="D33" s="8">
         <v>407398</v>
       </c>
-      <c r="E33" s="27">
+      <c r="E33" s="12">
         <v>6.0199999999999997E-2</v>
       </c>
       <c r="F33" s="8"/>
@@ -7041,7 +7094,7 @@
       <c r="D34" s="8">
         <v>427210</v>
       </c>
-      <c r="E34" s="27">
+      <c r="E34" s="12">
         <v>5.6754924069199998E-2</v>
       </c>
       <c r="F34" s="8"/>
@@ -7061,7 +7114,7 @@
       <c r="D35" s="8">
         <v>438938</v>
       </c>
-      <c r="E35" s="27">
+      <c r="E35" s="12">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F35" s="8"/>
@@ -7081,7 +7134,7 @@
       <c r="D36" s="8">
         <v>455162</v>
       </c>
-      <c r="E36" s="27">
+      <c r="E36" s="12">
         <v>5.8500000000000003E-2</v>
       </c>
       <c r="F36" s="8"/>
@@ -7101,7 +7154,7 @@
       <c r="D37" s="8">
         <v>477118</v>
       </c>
-      <c r="E37" s="27">
+      <c r="E37" s="12">
         <v>5.8900000000000001E-2</v>
       </c>
       <c r="F37" s="8"/>
@@ -7121,7 +7174,7 @@
       <c r="D38" s="8">
         <v>489294</v>
       </c>
-      <c r="E38" s="27">
+      <c r="E38" s="12">
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="F38" s="8"/>
@@ -7141,7 +7194,7 @@
       <c r="D39" s="8">
         <v>513978</v>
       </c>
-      <c r="E39" s="27">
+      <c r="E39" s="12">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F39" s="8"/>
@@ -7161,7 +7214,7 @@
       <c r="D40" s="8">
         <v>525697</v>
       </c>
-      <c r="E40" s="27">
+      <c r="E40" s="12">
         <v>6.3711443038399998E-2</v>
       </c>
       <c r="F40" s="8"/>
@@ -7181,7 +7234,7 @@
       <c r="D41" s="8">
         <v>538172</v>
       </c>
-      <c r="E41" s="27">
+      <c r="E41" s="12">
         <v>6.9199999999999998E-2</v>
       </c>
       <c r="F41" s="8"/>
@@ -7201,7 +7254,7 @@
       <c r="D42" s="8">
         <v>587431</v>
       </c>
-      <c r="E42" s="27">
+      <c r="E42" s="12">
         <v>5.3699999999999998E-2</v>
       </c>
       <c r="F42" s="8"/>
@@ -7221,7 +7274,7 @@
       <c r="D43" s="8">
         <v>623284</v>
       </c>
-      <c r="E43" s="27">
+      <c r="E43" s="12">
         <v>5.0299999999999997E-2</v>
       </c>
       <c r="F43" s="8"/>
@@ -7241,7 +7294,7 @@
       <c r="D44" s="8">
         <v>645992</v>
       </c>
-      <c r="E44" s="27">
+      <c r="E44" s="12">
         <v>5.0900000000000001E-2</v>
       </c>
       <c r="F44" s="8"/>
@@ -7261,7 +7314,7 @@
       <c r="D45" s="8">
         <v>678471</v>
       </c>
-      <c r="E45" s="27">
+      <c r="E45" s="12">
         <v>4.8300000000000003E-2</v>
       </c>
       <c r="F45" s="8">
@@ -7287,7 +7340,7 @@
       <c r="D46" s="8">
         <v>693276</v>
       </c>
-      <c r="E46" s="27">
+      <c r="E46" s="12">
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="F46" s="8">
@@ -7313,7 +7366,7 @@
       <c r="D47" s="8">
         <v>723013</v>
       </c>
-      <c r="E47" s="27">
+      <c r="E47" s="12">
         <v>4.4720144337000001E-2</v>
       </c>
       <c r="F47" s="8">
@@ -7339,7 +7392,7 @@
       <c r="D48" s="8">
         <v>744937</v>
       </c>
-      <c r="E48" s="27">
+      <c r="E48" s="12">
         <v>4.7E-2</v>
       </c>
       <c r="F48" s="8">
@@ -7365,7 +7418,7 @@
       <c r="D49" s="8">
         <v>770241</v>
       </c>
-      <c r="E49" s="27">
+      <c r="E49" s="12">
         <v>5.4300000000000001E-2</v>
       </c>
       <c r="F49" s="8">
@@ -7391,7 +7444,7 @@
       <c r="D50" s="8">
         <v>800433</v>
       </c>
-      <c r="E50" s="27">
+      <c r="E50" s="12">
         <v>5.5100000000000003E-2</v>
       </c>
       <c r="F50" s="8">
@@ -7417,7 +7470,7 @@
       <c r="D51" s="8">
         <v>834437</v>
       </c>
-      <c r="E51" s="27">
+      <c r="E51" s="12">
         <v>5.3900000000000003E-2</v>
       </c>
       <c r="F51" s="8">
@@ -7443,7 +7496,7 @@
       <c r="D52" s="8">
         <v>870935</v>
       </c>
-      <c r="E52" s="27" t="s">
+      <c r="E52" s="12" t="s">
         <v>274</v>
       </c>
       <c r="F52" s="8"/>
@@ -7465,7 +7518,7 @@
       <c r="D53" s="8">
         <v>886354</v>
       </c>
-      <c r="E53" s="27">
+      <c r="E53" s="12">
         <v>4.87E-2</v>
       </c>
       <c r="F53" s="8">
@@ -7491,7 +7544,7 @@
       <c r="D54" s="8">
         <v>906074</v>
       </c>
-      <c r="E54" s="27">
+      <c r="E54" s="12">
         <v>5.1499999999999997E-2</v>
       </c>
       <c r="F54" s="8">
@@ -7517,7 +7570,7 @@
       <c r="D55" s="8">
         <v>943239</v>
       </c>
-      <c r="E55" s="27">
+      <c r="E55" s="12">
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="F55" s="8">
@@ -7543,7 +7596,7 @@
       <c r="D56" s="8">
         <v>961861</v>
       </c>
-      <c r="E56" s="27">
+      <c r="E56" s="12">
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="F56" s="8">
@@ -7569,7 +7622,7 @@
       <c r="D57" s="8">
         <v>989994</v>
       </c>
-      <c r="E57" s="27">
+      <c r="E57" s="12">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="F57" s="8">
@@ -7595,7 +7648,7 @@
       <c r="D58" s="8">
         <v>1027449</v>
       </c>
-      <c r="E58" s="27">
+      <c r="E58" s="12">
         <v>4.5600000000000002E-2</v>
       </c>
       <c r="F58" s="8">
@@ -7621,7 +7674,7 @@
       <c r="D59" s="8">
         <v>1054793</v>
       </c>
-      <c r="E59" s="27" t="s">
+      <c r="E59" s="12" t="s">
         <v>274</v>
       </c>
       <c r="F59" s="8"/>
@@ -7643,7 +7696,7 @@
       <c r="D60" s="8">
         <v>1073491</v>
       </c>
-      <c r="E60" s="27">
+      <c r="E60" s="12">
         <v>5.43810873784E-2</v>
       </c>
       <c r="F60" s="8">
@@ -7669,7 +7722,7 @@
       <c r="D61" s="8">
         <v>1093676</v>
       </c>
-      <c r="E61" s="27">
+      <c r="E61" s="12">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="F61" s="8">
@@ -7695,7 +7748,7 @@
       <c r="D62" s="8">
         <v>1117274</v>
       </c>
-      <c r="E62" s="27">
+      <c r="E62" s="12">
         <v>6.6199999999999995E-2</v>
       </c>
       <c r="F62" s="8">
@@ -7721,7 +7774,7 @@
       <c r="D63" s="8">
         <v>1150868</v>
       </c>
-      <c r="E63" s="27">
+      <c r="E63" s="12">
         <v>6.2600000000000003E-2</v>
       </c>
       <c r="F63" s="8">
@@ -7747,7 +7800,7 @@
       <c r="D64" s="8">
         <v>1174948</v>
       </c>
-      <c r="E64" s="27">
+      <c r="E64" s="12">
         <v>6.0299999999999999E-2</v>
       </c>
       <c r="F64" s="8">
@@ -7760,7 +7813,7 @@
         <v>26422</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>43987</v>
       </c>
@@ -7773,7 +7826,7 @@
       <c r="D65" s="8">
         <v>1209187</v>
       </c>
-      <c r="E65" s="27">
+      <c r="E65" s="12">
         <v>6.4399999999999999E-2</v>
       </c>
       <c r="F65" s="8">
@@ -7786,7 +7839,7 @@
         <v>25963</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>43988</v>
       </c>
@@ -7799,7 +7852,7 @@
       <c r="D66" s="8">
         <v>1218955</v>
       </c>
-      <c r="E66" s="27">
+      <c r="E66" s="12">
         <v>7.5499999999999998E-2</v>
       </c>
       <c r="F66" s="8">
@@ -7812,7 +7865,7 @@
         <v>23452</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>43989</v>
       </c>
@@ -7825,7 +7878,7 @@
       <c r="D67" s="8">
         <v>1255899</v>
       </c>
-      <c r="E67" s="27">
+      <c r="E67" s="12">
         <v>7.1138170808796614E-2</v>
       </c>
       <c r="F67" s="8">
@@ -7838,7 +7891,7 @@
         <v>26058</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>43990</v>
       </c>
@@ -7851,7 +7904,7 @@
       <c r="D68" s="8">
         <v>1286139</v>
       </c>
-      <c r="E68" s="27">
+      <c r="E68" s="12">
         <v>6.6629016142145212E-2</v>
       </c>
       <c r="F68" s="8">
@@ -7863,41 +7916,66 @@
       <c r="H68" s="8">
         <v>27495</v>
       </c>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12"/>
-    </row>
-    <row r="69" spans="1:11" s="12" customFormat="1" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>43991</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="8"/>
+      <c r="B69" s="8">
+        <v>1161087</v>
+      </c>
+      <c r="C69" s="8">
+        <v>140962</v>
+      </c>
       <c r="D69" s="8">
         <v>1302049</v>
       </c>
-      <c r="E69" s="27"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-    </row>
-    <row r="71" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="16" t="s">
+      <c r="E69" s="12">
+        <v>6.9239691807230483E-2</v>
+      </c>
+      <c r="F69" s="8">
+        <v>22046</v>
+      </c>
+      <c r="G69" s="8">
+        <v>4351</v>
+      </c>
+      <c r="H69" s="8">
+        <v>26396</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>43992</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D70" s="8">
+        <v>1348893</v>
+      </c>
+      <c r="E70" s="12"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+    </row>
+    <row r="72" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="20" t="s">
         <v>275</v>
       </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="F71"/>
-      <c r="G71"/>
-      <c r="H71"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A72:D72"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -7911,17 +7989,17 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7936,7 +8014,7 @@
         <v>279</v>
       </c>
       <c r="B3" s="7">
-        <v>52387</v>
+        <v>53551</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7944,7 +8022,7 @@
         <v>280</v>
       </c>
       <c r="B4" s="7">
-        <v>1249662</v>
+        <v>1295342</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7952,14 +8030,14 @@
         <v>281</v>
       </c>
       <c r="B5" s="7">
-        <v>1302049</v>
+        <v>1348893</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="20" t="s">
         <v>282</v>
       </c>
-      <c r="B7" s="15"/>
+      <c r="B7" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -7972,55 +8050,55 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA54955-6901-4733-9D8F-E12EAC1DD87B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C192EF56-5C2B-4F50-90FE-09488962A87F}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.453125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.26953125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="19"/>
+    <col min="1" max="1" width="55.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="22"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="14" t="s">
         <v>277</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="15" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="16" t="s">
         <v>331</v>
       </c>
-      <c r="B3" s="23">
-        <v>138784</v>
+      <c r="B3" s="17">
+        <v>140962</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="B4" s="23">
-        <v>5710</v>
+      <c r="B4" s="17">
+        <v>5812</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>282</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8033,7 +8111,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
@@ -8041,17 +8119,17 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8066,7 +8144,7 @@
         <v>285</v>
       </c>
       <c r="B3" s="7">
-        <v>2056</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8074,7 +8152,7 @@
         <v>286</v>
       </c>
       <c r="B4" s="7">
-        <v>54738</v>
+        <v>56055</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8082,7 +8160,7 @@
         <v>287</v>
       </c>
       <c r="B5" s="7">
-        <v>15402</v>
+        <v>13645</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8090,7 +8168,7 @@
         <v>288</v>
       </c>
       <c r="B6" s="7">
-        <v>1723</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8098,12 +8176,19 @@
         <v>289</v>
       </c>
       <c r="B7" s="7">
-        <v>5911</v>
-      </c>
+        <v>5934</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -8112,15 +8197,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -8128,11 +8213,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -8871,7 +8956,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>67</v>
       </c>
@@ -8882,9 +8967,28 @@
         <v>2056</v>
       </c>
     </row>
+    <row r="70" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>68</v>
+      </c>
+      <c r="B70" s="6">
+        <v>43992</v>
+      </c>
+      <c r="C70" s="7">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A72:C72"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -8898,22 +9002,22 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -8931,10 +9035,11 @@
         <v>297</v>
       </c>
       <c r="B3" s="8">
-        <v>38</v>
-      </c>
-      <c r="C3" s="13">
-        <v>0.25049439680000002</v>
+        <v>40</v>
+      </c>
+      <c r="C3" s="25">
+        <f>B3/B$16</f>
+        <v>2.5784825630116677E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8942,10 +9047,11 @@
         <v>298</v>
       </c>
       <c r="B4" s="8">
-        <v>174</v>
-      </c>
-      <c r="C4" s="13">
-        <v>1.1470006591999999</v>
+        <v>177</v>
+      </c>
+      <c r="C4" s="25">
+        <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
+        <v>1.1409785341326629E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8953,10 +9059,11 @@
         <v>299</v>
       </c>
       <c r="B5" s="8">
-        <v>452</v>
-      </c>
-      <c r="C5" s="13">
-        <v>2.9795649308000001</v>
+        <v>463</v>
+      </c>
+      <c r="C5" s="25">
+        <f t="shared" si="0"/>
+        <v>2.9845935666860054E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8964,10 +9071,11 @@
         <v>300</v>
       </c>
       <c r="B6" s="8">
-        <v>2333</v>
-      </c>
-      <c r="C6" s="13">
-        <v>15.379037574</v>
+        <v>2417</v>
+      </c>
+      <c r="C6" s="25">
+        <f t="shared" si="0"/>
+        <v>0.15580480886998002</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8975,10 +9083,11 @@
         <v>301</v>
       </c>
       <c r="B7" s="8">
-        <v>2784</v>
-      </c>
-      <c r="C7" s="13">
-        <v>18.352010546999999</v>
+        <v>2853</v>
+      </c>
+      <c r="C7" s="25">
+        <f t="shared" si="0"/>
+        <v>0.18391026880680719</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8986,10 +9095,11 @@
         <v>302</v>
       </c>
       <c r="B8" s="8">
-        <v>2835</v>
-      </c>
-      <c r="C8" s="13">
-        <v>18.688200395999999</v>
+        <v>2897</v>
+      </c>
+      <c r="C8" s="25">
+        <f t="shared" si="0"/>
+        <v>0.18674659962612003</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8997,10 +9107,11 @@
         <v>303</v>
       </c>
       <c r="B9" s="8">
-        <v>2801</v>
-      </c>
-      <c r="C9" s="13">
-        <v>18.46407383</v>
+        <v>2847</v>
+      </c>
+      <c r="C9" s="25">
+        <f t="shared" si="0"/>
+        <v>0.18352349642235544</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9008,10 +9119,11 @@
         <v>304</v>
       </c>
       <c r="B10" s="8">
-        <v>1181</v>
-      </c>
-      <c r="C10" s="13">
-        <v>7.7851021752999996</v>
+        <v>1206</v>
+      </c>
+      <c r="C10" s="25">
+        <f t="shared" si="0"/>
+        <v>7.7741249274801777E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9019,10 +9131,11 @@
         <v>305</v>
       </c>
       <c r="B11" s="8">
-        <v>861</v>
-      </c>
-      <c r="C11" s="13">
-        <v>5.6756756757</v>
+        <v>874</v>
+      </c>
+      <c r="C11" s="25">
+        <f t="shared" si="0"/>
+        <v>5.6339844001804938E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9030,10 +9143,11 @@
         <v>306</v>
       </c>
       <c r="B12" s="8">
-        <v>559</v>
-      </c>
-      <c r="C12" s="13">
-        <v>3.6849044165999998</v>
+        <v>571</v>
+      </c>
+      <c r="C12" s="25">
+        <f t="shared" si="0"/>
+        <v>3.6807838586991555E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9041,10 +9155,11 @@
         <v>307</v>
       </c>
       <c r="B13" s="8">
-        <v>374</v>
-      </c>
-      <c r="C13" s="13">
-        <v>2.4653922215000001</v>
+        <v>383</v>
+      </c>
+      <c r="C13" s="25">
+        <f t="shared" si="0"/>
+        <v>2.4688970540836717E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9052,10 +9167,11 @@
         <v>308</v>
       </c>
       <c r="B14" s="8">
-        <v>655</v>
-      </c>
-      <c r="C14" s="13">
-        <v>4.3177323664999996</v>
+        <v>662</v>
+      </c>
+      <c r="C14" s="25">
+        <f t="shared" si="0"/>
+        <v>4.2673886417843102E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9065,8 +9181,9 @@
       <c r="B15" s="8">
         <v>123</v>
       </c>
-      <c r="C15" s="13">
-        <v>0.81081081079999995</v>
+      <c r="C15" s="25">
+        <f t="shared" si="0"/>
+        <v>7.9288338812608782E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9074,25 +9191,26 @@
         <v>258</v>
       </c>
       <c r="B16" s="8">
-        <v>15170</v>
-      </c>
-      <c r="C16" s="10">
-        <v>100</v>
+        <v>15513</v>
+      </c>
+      <c r="C16" s="25">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="20" t="s">
         <v>310</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="20" t="s">
         <v>311</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
+++ b/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5AFC0A2-C5B4-4508-A963-1FCB93085308}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4CE5881-510E-4B22-93C3-8268377AE26E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,14 +28,14 @@
     <sheet name="Fatalities by Gender" sheetId="12" r:id="rId13"/>
     <sheet name="Fatalities by Race-Ethnicity" sheetId="13" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="334">
-  <si>
-    <t>COVID-19 Cases and Fatalities by County as of 6/10 at 10:45AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="333">
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 6/11 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -812,10 +812,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/10 at 10:45AM CST</t>
-  </si>
-  <si>
-    <t>DISCLAIMER: All data are provisional and are subject to change.</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/11 at 10:45AM CST</t>
   </si>
   <si>
     <t>Date</t>
@@ -839,7 +836,7 @@
 Fatalities</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/10 at 3:00PM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/11 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -851,7 +848,7 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/10 at 3:00PM CST</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/11 at 3:00PM CST</t>
   </si>
   <si>
     <t>Total Tests
@@ -870,7 +867,7 @@
     <t>Tests include those performed by public labs (Laboratory Response Network) and private labs (commercial labs, hospitals, physician offices, and drive-thru sites) reported electronically and non-electronically to DSHS.</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/10 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/11 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -891,7 +888,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 6/10 at 9:30AM CST</t>
+    <t>Texas Statewide Hospitalization Data as of 6/11 at 9:30AM CST</t>
   </si>
   <si>
     <t>Hospital data</t>
@@ -912,7 +909,7 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 6/10 at 9:30AM CST</t>
+    <t>Number of COVID-19 Hospitalizations by Day as of 6/11 at 9:30AM CST</t>
   </si>
   <si>
     <t>Obs</t>
@@ -921,7 +918,7 @@
     <t>Hospitalizations</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 6/10 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 6/11 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -976,10 +973,10 @@
     <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
   </si>
   <si>
-    <t>Completed case investigations received by DSHS =          15,513</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 6/10 at 9:30 AM CST</t>
+    <t>Completed case investigations received by DSHS =          15,555</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 6/11 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -991,7 +988,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 6/10 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 6/11 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -1012,16 +1009,25 @@
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 6/10 at 9:30 AM CST</t>
+    <t>Age of Confirmed Fatalities as of 6/11 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Completed investigations received by DSHS =          664</t>
   </si>
   <si>
-    <t>Gender of Confirmed Fatalities as of 6/10 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 6/10 at 9:30 AM CST</t>
+    <t>Gender of Confirmed Fatalities as of 6/11 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 6/11 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>New Viral Tests Reported* (Average of previous 7 days)</t>
+  </si>
+  <si>
+    <t>New Antibody Tests Reported* (Average of previous 7 days)</t>
+  </si>
+  <si>
+    <t>New Total Tests Reported* (Average of previous 7 days)</t>
   </si>
   <si>
     <t>COVID-19
@@ -1029,22 +1035,13 @@
 Rate</t>
   </si>
   <si>
-    <t>New Viral Tests Reported* (Average of previous 7 days)</t>
-  </si>
-  <si>
-    <t>New Antibody Tests Reported* (Average of previous 7 days)</t>
-  </si>
-  <si>
-    <t>New Total Tests Reported* (Average of previous 7 days)</t>
-  </si>
-  <si>
     <t>Number of Antibody Tests Reported (included in total test numbers)</t>
   </si>
   <si>
     <t>Number of Positive Antibody Tests Reported</t>
   </si>
   <si>
-    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/9 at 3:00PM CST</t>
+    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/10 at 3:00PM CST</t>
   </si>
 </sst>
 </file>
@@ -1056,8 +1053,8 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="##,###,##0"/>
     <numFmt numFmtId="167" formatCode="###,###,###,###,##0"/>
-    <numFmt numFmtId="169" formatCode="##0"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="##0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1187,7 +1184,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1218,7 +1215,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1242,6 +1239,12 @@
     <xf numFmtId="166" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1249,6 +1252,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1260,16 +1266,10 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{6D133D87-63C3-4CFF-883E-0636D779A423}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{3AD2FF5E-98DC-4325-BDD1-A86147A620BF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1404,8 +1404,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1416,11 +1415,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1438,7 +1437,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
@@ -1504,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -1526,7 +1525,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -1548,7 +1547,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C13" s="4">
         <v>4</v>
@@ -1570,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -1581,7 +1580,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="C16" s="4">
         <v>6</v>
@@ -1592,7 +1591,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>3513</v>
+        <v>3648</v>
       </c>
       <c r="C17" s="4">
         <v>80</v>
@@ -1603,7 +1602,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -1636,7 +1635,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C21" s="4">
         <v>7</v>
@@ -1647,7 +1646,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>770</v>
+        <v>790</v>
       </c>
       <c r="C22" s="4">
         <v>11</v>
@@ -1658,7 +1657,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>665</v>
+        <v>684</v>
       </c>
       <c r="C23" s="4">
         <v>24</v>
@@ -1724,7 +1723,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
@@ -1735,7 +1734,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
@@ -1746,7 +1745,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C31" s="4">
         <v>3</v>
@@ -1757,7 +1756,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C32" s="4">
         <v>1</v>
@@ -1768,10 +1767,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>951</v>
+        <v>990</v>
       </c>
       <c r="C33" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1779,10 +1778,10 @@
         <v>35</v>
       </c>
       <c r="B34" s="4">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C34" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1801,7 +1800,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C36" s="4">
         <v>1</v>
@@ -1823,7 +1822,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -1878,7 +1877,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" s="4">
         <v>0</v>
@@ -1900,7 +1899,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>1546</v>
+        <v>1553</v>
       </c>
       <c r="C45" s="4">
         <v>37</v>
@@ -1922,7 +1921,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -1933,7 +1932,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C48" s="4">
         <v>7</v>
@@ -1966,7 +1965,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="4">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
@@ -1977,7 +1976,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
@@ -1999,7 +1998,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C54" s="4">
         <v>5</v>
@@ -2043,7 +2042,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
@@ -2054,10 +2053,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>12645</v>
+        <v>12945</v>
       </c>
       <c r="C59" s="4">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2076,7 +2075,7 @@
         <v>62</v>
       </c>
       <c r="B61" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C61" s="4">
         <v>1</v>
@@ -2087,10 +2086,10 @@
         <v>63</v>
       </c>
       <c r="B62" s="4">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C62" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2109,10 +2108,10 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>1559</v>
+        <v>1599</v>
       </c>
       <c r="C64" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2175,7 +2174,7 @@
         <v>71</v>
       </c>
       <c r="B70" s="4">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C70" s="4">
         <v>6</v>
@@ -2197,10 +2196,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>3582</v>
+        <v>3650</v>
       </c>
       <c r="C72" s="4">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2208,7 +2207,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="4">
-        <v>418</v>
+        <v>429</v>
       </c>
       <c r="C73" s="4">
         <v>18</v>
@@ -2219,7 +2218,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C74" s="4">
         <v>1</v>
@@ -2230,7 +2229,7 @@
         <v>76</v>
       </c>
       <c r="B75" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C75" s="4">
         <v>0</v>
@@ -2241,7 +2240,7 @@
         <v>77</v>
       </c>
       <c r="B76" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C76" s="4">
         <v>2</v>
@@ -2252,7 +2251,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="4">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C77" s="4">
         <v>2</v>
@@ -2296,7 +2295,7 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>2225</v>
+        <v>2299</v>
       </c>
       <c r="C81" s="4">
         <v>47</v>
@@ -2307,7 +2306,7 @@
         <v>83</v>
       </c>
       <c r="B82" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C82" s="4">
         <v>0</v>
@@ -2318,7 +2317,7 @@
         <v>84</v>
       </c>
       <c r="B83" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
@@ -2351,7 +2350,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>1051</v>
+        <v>1084</v>
       </c>
       <c r="C86" s="4">
         <v>38</v>
@@ -2362,7 +2361,7 @@
         <v>88</v>
       </c>
       <c r="B87" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87" s="4">
         <v>0</v>
@@ -2406,10 +2405,10 @@
         <v>92</v>
       </c>
       <c r="B91" s="4">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C91" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2417,7 +2416,7 @@
         <v>93</v>
       </c>
       <c r="B92" s="4">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C92" s="4">
         <v>3</v>
@@ -2428,7 +2427,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="C93" s="4">
         <v>4</v>
@@ -2439,7 +2438,7 @@
         <v>95</v>
       </c>
       <c r="B94" s="4">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C94" s="4">
         <v>11</v>
@@ -2461,7 +2460,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C96" s="4">
         <v>0</v>
@@ -2486,7 +2485,7 @@
         <v>2</v>
       </c>
       <c r="C98" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2538,10 +2537,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>15238</v>
+        <v>15552</v>
       </c>
       <c r="C103" s="4">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2549,7 +2548,7 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C104" s="4">
         <v>28</v>
@@ -2582,7 +2581,7 @@
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>465</v>
+        <v>492</v>
       </c>
       <c r="C107" s="4">
         <v>5</v>
@@ -2604,7 +2603,7 @@
         <v>110</v>
       </c>
       <c r="B109" s="4">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C109" s="4">
         <v>3</v>
@@ -2615,7 +2614,7 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>804</v>
+        <v>842</v>
       </c>
       <c r="C110" s="4">
         <v>12</v>
@@ -2626,7 +2625,7 @@
         <v>112</v>
       </c>
       <c r="B111" s="4">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C111" s="4">
         <v>1</v>
@@ -2637,7 +2636,7 @@
         <v>113</v>
       </c>
       <c r="B112" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C112" s="4">
         <v>1</v>
@@ -2659,7 +2658,7 @@
         <v>115</v>
       </c>
       <c r="B114" s="4">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C114" s="4">
         <v>0</v>
@@ -2681,7 +2680,7 @@
         <v>117</v>
       </c>
       <c r="B116" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
@@ -2703,7 +2702,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="4">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="C118" s="4">
         <v>5</v>
@@ -2747,7 +2746,7 @@
         <v>123</v>
       </c>
       <c r="B122" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C122" s="4">
         <v>1</v>
@@ -2780,7 +2779,7 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>1184</v>
+        <v>1187</v>
       </c>
       <c r="C125" s="4">
         <v>31</v>
@@ -2813,7 +2812,7 @@
         <v>129</v>
       </c>
       <c r="B128" s="4">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="C128" s="4">
         <v>4</v>
@@ -2824,7 +2823,7 @@
         <v>130</v>
       </c>
       <c r="B129" s="4">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -2846,10 +2845,10 @@
         <v>132</v>
       </c>
       <c r="B131" s="4">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="C131" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2967,7 +2966,7 @@
         <v>143</v>
       </c>
       <c r="B142" s="4">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C142" s="4">
         <v>11</v>
@@ -3000,7 +2999,7 @@
         <v>146</v>
       </c>
       <c r="B145" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C145" s="4">
         <v>1</v>
@@ -3011,7 +3010,7 @@
         <v>147</v>
       </c>
       <c r="B146" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C146" s="4">
         <v>2</v>
@@ -3033,7 +3032,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C148" s="4">
         <v>3</v>
@@ -3044,7 +3043,7 @@
         <v>150</v>
       </c>
       <c r="B149" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C149" s="4">
         <v>1</v>
@@ -3077,7 +3076,7 @@
         <v>153</v>
       </c>
       <c r="B152" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C152" s="4">
         <v>0</v>
@@ -3099,7 +3098,7 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="C154" s="4">
         <v>50</v>
@@ -3110,7 +3109,7 @@
         <v>156</v>
       </c>
       <c r="B155" s="4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C155" s="4">
         <v>1</v>
@@ -3121,7 +3120,7 @@
         <v>157</v>
       </c>
       <c r="B156" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C156" s="4">
         <v>0</v>
@@ -3154,7 +3153,7 @@
         <v>160</v>
       </c>
       <c r="B159" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C159" s="4">
         <v>0</v>
@@ -3176,7 +3175,7 @@
         <v>162</v>
       </c>
       <c r="B161" s="4">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C161" s="4">
         <v>2</v>
@@ -3198,7 +3197,7 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C163" s="4">
         <v>4</v>
@@ -3220,7 +3219,7 @@
         <v>166</v>
       </c>
       <c r="B165" s="4">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C165" s="4">
         <v>2</v>
@@ -3242,7 +3241,7 @@
         <v>168</v>
       </c>
       <c r="B167" s="4">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C167" s="4">
         <v>13</v>
@@ -3253,7 +3252,7 @@
         <v>169</v>
       </c>
       <c r="B168" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C168" s="4">
         <v>1</v>
@@ -3275,7 +3274,7 @@
         <v>171</v>
       </c>
       <c r="B170" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C170" s="4">
         <v>0</v>
@@ -3297,10 +3296,10 @@
         <v>173</v>
       </c>
       <c r="B172" s="4">
-        <v>1122</v>
+        <v>1162</v>
       </c>
       <c r="C172" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3308,7 +3307,7 @@
         <v>174</v>
       </c>
       <c r="B173" s="4">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C173" s="4">
         <v>14</v>
@@ -3319,7 +3318,7 @@
         <v>175</v>
       </c>
       <c r="B174" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C174" s="4">
         <v>0</v>
@@ -3341,10 +3340,10 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C176" s="4">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3352,7 +3351,7 @@
         <v>178</v>
       </c>
       <c r="B177" s="4">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C177" s="4">
         <v>3</v>
@@ -3385,7 +3384,7 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="C180" s="4">
         <v>3</v>
@@ -3429,7 +3428,7 @@
         <v>185</v>
       </c>
       <c r="B184" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C184" s="4">
         <v>2</v>
@@ -3462,7 +3461,7 @@
         <v>188</v>
       </c>
       <c r="B187" s="4">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C187" s="4">
         <v>0</v>
@@ -3495,10 +3494,10 @@
         <v>191</v>
       </c>
       <c r="B190" s="4">
-        <v>2766</v>
+        <v>2778</v>
       </c>
       <c r="C190" s="4">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3528,7 +3527,7 @@
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="C193" s="4">
         <v>6</v>
@@ -3561,7 +3560,7 @@
         <v>197</v>
       </c>
       <c r="B196" s="4">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C196" s="4">
         <v>8</v>
@@ -3605,7 +3604,7 @@
         <v>201</v>
       </c>
       <c r="B200" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -3616,7 +3615,7 @@
         <v>202</v>
       </c>
       <c r="B201" s="4">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="C201" s="4">
         <v>14</v>
@@ -3638,7 +3637,7 @@
         <v>204</v>
       </c>
       <c r="B203" s="4">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C203" s="4">
         <v>2</v>
@@ -3671,7 +3670,7 @@
         <v>207</v>
       </c>
       <c r="B206" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C206" s="4">
         <v>0</v>
@@ -3715,7 +3714,7 @@
         <v>211</v>
       </c>
       <c r="B210" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C210" s="4">
         <v>0</v>
@@ -3737,7 +3736,7 @@
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C212" s="4">
         <v>8</v>
@@ -3759,7 +3758,7 @@
         <v>215</v>
       </c>
       <c r="B214" s="4">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="C214" s="4">
         <v>4</v>
@@ -3770,7 +3769,7 @@
         <v>216</v>
       </c>
       <c r="B215" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C215" s="4">
         <v>0</v>
@@ -3781,7 +3780,7 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C216" s="4">
         <v>0</v>
@@ -3836,7 +3835,7 @@
         <v>222</v>
       </c>
       <c r="B221" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C221" s="4">
         <v>1</v>
@@ -3847,10 +3846,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>6433</v>
+        <v>6599</v>
       </c>
       <c r="C222" s="4">
-        <v>184</v>
+        <v>189</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3858,7 +3857,7 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C223" s="4">
         <v>5</v>
@@ -3902,7 +3901,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="C227" s="4">
         <v>2</v>
@@ -3913,7 +3912,7 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C228" s="4">
         <v>1</v>
@@ -3924,7 +3923,7 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>3976</v>
+        <v>4109</v>
       </c>
       <c r="C229" s="4">
         <v>99</v>
@@ -3979,7 +3978,7 @@
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C234" s="4">
         <v>0</v>
@@ -4001,7 +4000,7 @@
         <v>237</v>
       </c>
       <c r="B236" s="4">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C236" s="4">
         <v>1</v>
@@ -4012,7 +4011,7 @@
         <v>238</v>
       </c>
       <c r="B237" s="4">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C237" s="4">
         <v>8</v>
@@ -4023,7 +4022,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>1842</v>
+        <v>1866</v>
       </c>
       <c r="C238" s="4">
         <v>27</v>
@@ -4034,7 +4033,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4056,7 +4055,7 @@
         <v>242</v>
       </c>
       <c r="B241" s="4">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C241" s="4">
         <v>25</v>
@@ -4067,7 +4066,7 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>634</v>
+        <v>652</v>
       </c>
       <c r="C242" s="4">
         <v>20</v>
@@ -4078,7 +4077,7 @@
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C243" s="4">
         <v>1</v>
@@ -4100,7 +4099,7 @@
         <v>246</v>
       </c>
       <c r="B245" s="4">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C245" s="4">
         <v>2</v>
@@ -4122,10 +4121,10 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C247" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="248" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4133,7 +4132,7 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>745</v>
+        <v>763</v>
       </c>
       <c r="C248" s="4">
         <v>29</v>
@@ -4180,7 +4179,7 @@
         <v>51</v>
       </c>
       <c r="C252" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="253" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4199,7 +4198,7 @@
         <v>255</v>
       </c>
       <c r="B254" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C254" s="4">
         <v>1</v>
@@ -4232,10 +4231,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>79757</v>
+        <v>81583</v>
       </c>
       <c r="C257" s="4">
-        <v>1885</v>
+        <v>1920</v>
       </c>
     </row>
   </sheetData>
@@ -4253,69 +4252,69 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" customWidth="1"/>
+    <col min="3" max="3" width="7.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>312</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="20" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B3" s="8">
-        <v>6962</v>
-      </c>
-      <c r="C3" s="25">
+        <v>6980</v>
+      </c>
+      <c r="C3" s="19">
         <f>B3/B$6</f>
-        <v>0.44878489009218075</v>
+        <v>0.44873031179684991</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B4" s="8">
-        <v>8264</v>
-      </c>
-      <c r="C4" s="25">
+        <v>8288</v>
+      </c>
+      <c r="C4" s="19">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.53271449751821054</v>
+        <v>0.53281902925104463</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B5" s="8">
         <v>287</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="19">
         <f t="shared" si="0"/>
-        <v>1.8500612389608716E-2</v>
+        <v>1.8450658952105431E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4323,26 +4322,26 @@
         <v>258</v>
       </c>
       <c r="B6" s="8">
-        <v>15513</v>
-      </c>
-      <c r="C6" s="25">
+        <v>15555</v>
+      </c>
+      <c r="C6" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+    </row>
+    <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-    </row>
-    <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4361,105 +4360,105 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C9"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B3" s="8">
-        <v>518</v>
-      </c>
-      <c r="C3" s="25">
+        <v>519</v>
+      </c>
+      <c r="C3" s="19">
         <f>B3/B$9</f>
-        <v>3.3391349191001098E-2</v>
+        <v>3.3365477338476376E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="8">
-        <v>2523</v>
-      </c>
-      <c r="C4" s="25">
+        <v>2528</v>
+      </c>
+      <c r="C4" s="19">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.16263778766196094</v>
+        <v>0.16252009000321441</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B5" s="8">
-        <v>6178</v>
-      </c>
-      <c r="C5" s="25">
+        <v>6204</v>
+      </c>
+      <c r="C5" s="19">
         <f t="shared" si="0"/>
-        <v>0.39824663185715209</v>
+        <v>0.39884281581485054</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B6" s="8">
         <v>99</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="19">
         <f t="shared" si="0"/>
-        <v>6.3817443434538773E-3</v>
+        <v>6.364513018322083E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B7" s="8">
-        <v>4215</v>
-      </c>
-      <c r="C7" s="25">
+        <v>4224</v>
+      </c>
+      <c r="C7" s="19">
         <f t="shared" si="0"/>
-        <v>0.27170760007735445</v>
+        <v>0.27155255544840889</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B8" s="8">
-        <v>1980</v>
-      </c>
-      <c r="C8" s="25">
+        <v>1981</v>
+      </c>
+      <c r="C8" s="19">
         <f t="shared" si="0"/>
-        <v>0.12763488686907754</v>
+        <v>0.12735454837672774</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4467,26 +4466,26 @@
         <v>258</v>
       </c>
       <c r="B9" s="8">
-        <v>15513</v>
-      </c>
-      <c r="C9" s="25">
+        <v>15555</v>
+      </c>
+      <c r="C9" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+    </row>
+    <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-    </row>
-    <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4505,187 +4504,187 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1796875" customWidth="1"/>
+    <col min="3" max="3" width="7.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>323</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="20" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B3" s="10">
         <v>0</v>
       </c>
-      <c r="C3" s="25">
-        <f>B3/B$16</f>
+      <c r="C3" s="19">
+        <f t="shared" ref="C3:C16" si="0">B3/B$16</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B4" s="10">
         <v>0</v>
       </c>
-      <c r="C4" s="25">
-        <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
+      <c r="C4" s="19">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="19">
         <f t="shared" si="0"/>
         <v>3.0120481927710845E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B6" s="10">
         <v>11</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="19">
         <f t="shared" si="0"/>
         <v>1.6566265060240965E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B7" s="10">
         <v>13</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="19">
         <f t="shared" si="0"/>
         <v>1.9578313253012049E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B8" s="10">
         <v>26</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="19">
         <f t="shared" si="0"/>
         <v>3.9156626506024098E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B9" s="10">
         <v>72</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="19">
         <f t="shared" si="0"/>
         <v>0.10843373493975904</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B10" s="10">
         <v>60</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="19">
         <f t="shared" si="0"/>
         <v>9.036144578313253E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B11" s="10">
         <v>74</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="19">
         <f t="shared" si="0"/>
         <v>0.11144578313253012</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B12" s="10">
         <v>69</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="19">
         <f t="shared" si="0"/>
         <v>0.10391566265060241</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B13" s="10">
         <v>70</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="19">
         <f t="shared" si="0"/>
         <v>0.10542168674698796</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B14" s="10">
         <v>265</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="19">
         <f t="shared" si="0"/>
         <v>0.3990963855421687</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="19">
         <f t="shared" si="0"/>
         <v>3.0120481927710845E-3</v>
       </c>
@@ -4697,24 +4696,24 @@
       <c r="B16" s="10">
         <v>664</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
+      <c r="A18" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="A19" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4733,67 +4732,67 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C6"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="20" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B3" s="10">
         <v>272</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="19">
         <f>B3/B$6</f>
         <v>0.40963855421686746</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B4" s="10">
         <v>364</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="19">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
         <v>0.54819277108433739</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B5" s="10">
         <v>28</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="19">
         <f t="shared" si="0"/>
         <v>4.2168674698795178E-2</v>
       </c>
@@ -4805,24 +4804,24 @@
       <c r="B6" s="10">
         <v>664</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
+      <c r="A8" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4841,103 +4840,103 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>326</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B3" s="10">
         <v>13</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="19">
         <f>B3/B$9</f>
         <v>1.9578313253012049E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="10">
         <v>85</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="19">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
         <v>0.12801204819277109</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B5" s="10">
         <v>171</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="19">
         <f t="shared" si="0"/>
         <v>0.25753012048192769</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B6" s="10">
         <v>5</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="19">
         <f t="shared" si="0"/>
         <v>7.5301204819277108E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B7" s="10">
         <v>269</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="19">
         <f t="shared" si="0"/>
         <v>0.40512048192771083</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B8" s="10">
         <v>121</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="19">
         <f t="shared" si="0"/>
         <v>0.18222891566265059</v>
       </c>
@@ -4949,24 +4948,24 @@
       <c r="B9" s="10">
         <v>664</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="A11" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
+      <c r="A12" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4975,7 +4974,7 @@
     <mergeCell ref="A12:C12"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -4984,9 +4983,9 @@
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4998,239 +4997,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-    </row>
-    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+    </row>
+    <row r="2" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-    </row>
-    <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>265</v>
+    </row>
+    <row r="3" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>43916</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1394</v>
+      </c>
+      <c r="C3" s="4">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4">
+        <v>419</v>
+      </c>
+      <c r="E3" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B4" s="4">
-        <v>1394</v>
+        <v>1731</v>
       </c>
       <c r="C4" s="4">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4">
-        <v>419</v>
+        <v>337</v>
       </c>
       <c r="E4" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B5" s="4">
-        <v>1731</v>
+        <v>2048</v>
       </c>
       <c r="C5" s="4">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="E5" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B6" s="4">
-        <v>2048</v>
+        <v>2552</v>
       </c>
       <c r="C6" s="4">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4">
-        <v>317</v>
+        <v>504</v>
       </c>
       <c r="E6" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B7" s="4">
-        <v>2552</v>
+        <v>2874</v>
       </c>
       <c r="C7" s="4">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D7" s="4">
-        <v>504</v>
+        <v>322</v>
       </c>
       <c r="E7" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B8" s="4">
-        <v>2874</v>
+        <v>3266</v>
       </c>
       <c r="C8" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4">
-        <v>322</v>
+        <v>392</v>
       </c>
       <c r="E8" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B9" s="4">
-        <v>3266</v>
+        <v>3996</v>
       </c>
       <c r="C9" s="4">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D9" s="4">
-        <v>392</v>
+        <v>730</v>
       </c>
       <c r="E9" s="4">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B10" s="4">
-        <v>3996</v>
+        <v>4665</v>
       </c>
       <c r="C10" s="4">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D10" s="4">
-        <v>730</v>
+        <v>669</v>
       </c>
       <c r="E10" s="4">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B11" s="4">
-        <v>4665</v>
+        <v>5324</v>
       </c>
       <c r="C11" s="4">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D11" s="4">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="E11" s="4">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B12" s="4">
-        <v>5324</v>
+        <v>6112</v>
       </c>
       <c r="C12" s="4">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D12" s="4">
-        <v>659</v>
+        <v>788</v>
       </c>
       <c r="E12" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B13" s="4">
-        <v>6112</v>
+        <v>6793</v>
       </c>
       <c r="C13" s="4">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="D13" s="4">
-        <v>788</v>
+        <v>681</v>
       </c>
       <c r="E13" s="4">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B14" s="4">
-        <v>6793</v>
+        <v>7273</v>
       </c>
       <c r="C14" s="4">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D14" s="4">
-        <v>681</v>
+        <v>480</v>
       </c>
       <c r="E14" s="4">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B15" s="4">
-        <v>7273</v>
+        <v>8261</v>
       </c>
       <c r="C15" s="4">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="D15" s="4">
-        <v>480</v>
+        <v>988</v>
       </c>
       <c r="E15" s="4">
         <v>14</v>
@@ -5238,1113 +5245,1112 @@
     </row>
     <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B16" s="4">
-        <v>8261</v>
+        <v>9353</v>
       </c>
       <c r="C16" s="4">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D16" s="4">
-        <v>988</v>
+        <v>1092</v>
       </c>
       <c r="E16" s="4">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B17" s="4">
-        <v>9353</v>
+        <v>10230</v>
       </c>
       <c r="C17" s="4">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="D17" s="4">
-        <v>1092</v>
+        <v>877</v>
       </c>
       <c r="E17" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B18" s="4">
-        <v>10230</v>
+        <v>11671</v>
       </c>
       <c r="C18" s="4">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="D18" s="4">
-        <v>877</v>
+        <v>1441</v>
       </c>
       <c r="E18" s="4">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B19" s="4">
-        <v>11671</v>
+        <v>12561</v>
       </c>
       <c r="C19" s="4">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="D19" s="4">
-        <v>1441</v>
+        <v>890</v>
       </c>
       <c r="E19" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B20" s="4">
-        <v>12561</v>
+        <v>13484</v>
       </c>
       <c r="C20" s="4">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="D20" s="4">
-        <v>890</v>
+        <v>923</v>
       </c>
       <c r="E20" s="4">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B21" s="4">
-        <v>13484</v>
+        <v>13906</v>
       </c>
       <c r="C21" s="4">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="D21" s="4">
-        <v>923</v>
+        <v>422</v>
       </c>
       <c r="E21" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B22" s="4">
-        <v>13906</v>
+        <v>14624</v>
       </c>
       <c r="C22" s="4">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="D22" s="4">
-        <v>422</v>
+        <v>718</v>
       </c>
       <c r="E22" s="4">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B23" s="4">
-        <v>14624</v>
+        <v>15492</v>
       </c>
       <c r="C23" s="4">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="D23" s="4">
-        <v>718</v>
+        <v>868</v>
       </c>
       <c r="E23" s="4">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B24" s="4">
-        <v>15492</v>
+        <v>16455</v>
       </c>
       <c r="C24" s="4">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="D24" s="4">
-        <v>868</v>
+        <v>963</v>
       </c>
       <c r="E24" s="4">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B25" s="4">
-        <v>16455</v>
+        <v>17371</v>
       </c>
       <c r="C25" s="4">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="D25" s="4">
-        <v>963</v>
+        <v>916</v>
       </c>
       <c r="E25" s="4">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B26" s="4">
-        <v>17371</v>
+        <v>18260</v>
       </c>
       <c r="C26" s="4">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="D26" s="4">
-        <v>916</v>
+        <v>889</v>
       </c>
       <c r="E26" s="4">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B27" s="4">
-        <v>18260</v>
+        <v>18923</v>
       </c>
       <c r="C27" s="4">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="D27" s="4">
-        <v>889</v>
+        <v>663</v>
       </c>
       <c r="E27" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B28" s="4">
-        <v>18923</v>
+        <v>19458</v>
       </c>
       <c r="C28" s="4">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="D28" s="4">
-        <v>663</v>
+        <v>535</v>
       </c>
       <c r="E28" s="4">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B29" s="4">
-        <v>19458</v>
+        <v>20196</v>
       </c>
       <c r="C29" s="4">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="D29" s="4">
-        <v>535</v>
+        <v>738</v>
       </c>
       <c r="E29" s="4">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B30" s="4">
-        <v>20196</v>
+        <v>21069</v>
       </c>
       <c r="C30" s="4">
-        <v>517</v>
+        <v>543</v>
       </c>
       <c r="D30" s="4">
-        <v>738</v>
+        <v>873</v>
       </c>
       <c r="E30" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B31" s="4">
-        <v>21069</v>
+        <v>21944</v>
       </c>
       <c r="C31" s="4">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="D31" s="4">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="E31" s="4">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B32" s="4">
-        <v>21944</v>
+        <v>22806</v>
       </c>
       <c r="C32" s="4">
-        <v>561</v>
+        <v>593</v>
       </c>
       <c r="D32" s="4">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="E32" s="4">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B33" s="4">
-        <v>22806</v>
+        <v>23773</v>
       </c>
       <c r="C33" s="4">
-        <v>593</v>
+        <v>623</v>
       </c>
       <c r="D33" s="4">
-        <v>862</v>
+        <v>967</v>
       </c>
       <c r="E33" s="4">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B34" s="4">
-        <v>23773</v>
+        <v>24631</v>
       </c>
       <c r="C34" s="4">
-        <v>623</v>
+        <v>648</v>
       </c>
       <c r="D34" s="4">
-        <v>967</v>
+        <v>858</v>
       </c>
       <c r="E34" s="4">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B35" s="4">
-        <v>24631</v>
+        <v>25297</v>
       </c>
       <c r="C35" s="4">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="D35" s="4">
-        <v>858</v>
+        <v>666</v>
       </c>
       <c r="E35" s="4">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B36" s="4">
-        <v>25297</v>
+        <v>26171</v>
       </c>
       <c r="C36" s="4">
-        <v>663</v>
+        <v>690</v>
       </c>
       <c r="D36" s="4">
-        <v>666</v>
+        <v>874</v>
       </c>
       <c r="E36" s="4">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B37" s="4">
-        <v>26171</v>
+        <v>27054</v>
       </c>
       <c r="C37" s="4">
-        <v>690</v>
+        <v>732</v>
       </c>
       <c r="D37" s="4">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="E37" s="4">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B38" s="4">
-        <v>27054</v>
+        <v>28087</v>
       </c>
       <c r="C38" s="4">
-        <v>732</v>
+        <v>782</v>
       </c>
       <c r="D38" s="4">
-        <v>883</v>
+        <v>1033</v>
       </c>
       <c r="E38" s="4">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B39" s="4">
-        <v>28087</v>
+        <v>29229</v>
       </c>
       <c r="C39" s="4">
-        <v>782</v>
+        <v>816</v>
       </c>
       <c r="D39" s="4">
-        <v>1033</v>
+        <v>1142</v>
       </c>
       <c r="E39" s="4">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B40" s="4">
-        <v>29229</v>
+        <v>30522</v>
       </c>
       <c r="C40" s="4">
-        <v>816</v>
+        <v>847</v>
       </c>
       <c r="D40" s="4">
-        <v>1142</v>
+        <v>1293</v>
       </c>
       <c r="E40" s="4">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B41" s="4">
-        <v>30522</v>
+        <v>31548</v>
       </c>
       <c r="C41" s="4">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="D41" s="4">
-        <v>1293</v>
+        <v>1026</v>
       </c>
       <c r="E41" s="4">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B42" s="4">
-        <v>31548</v>
+        <v>32332</v>
       </c>
       <c r="C42" s="4">
-        <v>867</v>
+        <v>884</v>
       </c>
       <c r="D42" s="4">
-        <v>1026</v>
+        <v>784</v>
       </c>
       <c r="E42" s="4">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B43" s="4">
-        <v>32332</v>
+        <v>33369</v>
       </c>
       <c r="C43" s="4">
-        <v>884</v>
+        <v>906</v>
       </c>
       <c r="D43" s="4">
-        <v>784</v>
+        <v>1037</v>
       </c>
       <c r="E43" s="4">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B44" s="4">
-        <v>33369</v>
+        <v>34422</v>
       </c>
       <c r="C44" s="4">
-        <v>906</v>
+        <v>948</v>
       </c>
       <c r="D44" s="4">
-        <v>1037</v>
+        <v>1053</v>
       </c>
       <c r="E44" s="4">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B45" s="4">
-        <v>34422</v>
+        <v>35390</v>
       </c>
       <c r="C45" s="4">
-        <v>948</v>
+        <v>973</v>
       </c>
       <c r="D45" s="4">
-        <v>1053</v>
+        <v>968</v>
       </c>
       <c r="E45" s="4">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B46" s="4">
-        <v>35390</v>
+        <v>36609</v>
       </c>
       <c r="C46" s="4">
-        <v>973</v>
+        <v>1004</v>
       </c>
       <c r="D46" s="4">
-        <v>968</v>
+        <v>1219</v>
       </c>
       <c r="E46" s="4">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B47" s="4">
-        <v>36609</v>
+        <v>37860</v>
       </c>
       <c r="C47" s="4">
-        <v>1004</v>
+        <v>1049</v>
       </c>
       <c r="D47" s="4">
-        <v>1219</v>
+        <v>1251</v>
       </c>
       <c r="E47" s="4">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B48" s="4">
-        <v>37860</v>
+        <v>38869</v>
       </c>
       <c r="C48" s="4">
-        <v>1049</v>
+        <v>1088</v>
       </c>
       <c r="D48" s="4">
-        <v>1251</v>
+        <v>1009</v>
       </c>
       <c r="E48" s="4">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B49" s="4">
-        <v>38869</v>
+        <v>39869</v>
       </c>
       <c r="C49" s="4">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="D49" s="4">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="E49" s="4">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B50" s="4">
-        <v>39869</v>
+        <v>41048</v>
       </c>
       <c r="C50" s="4">
-        <v>1100</v>
+        <v>1133</v>
       </c>
       <c r="D50" s="4">
-        <v>1000</v>
+        <v>1179</v>
       </c>
       <c r="E50" s="4">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B51" s="4">
-        <v>41048</v>
+        <v>42403</v>
       </c>
       <c r="C51" s="4">
-        <v>1133</v>
+        <v>1158</v>
       </c>
       <c r="D51" s="4">
-        <v>1179</v>
+        <v>1355</v>
       </c>
       <c r="E51" s="4">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B52" s="4">
-        <v>42403</v>
+        <v>43851</v>
       </c>
       <c r="C52" s="4">
-        <v>1158</v>
+        <v>1216</v>
       </c>
       <c r="D52" s="4">
-        <v>1355</v>
+        <v>1448</v>
       </c>
       <c r="E52" s="4">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B53" s="4">
-        <v>43851</v>
+        <v>45198</v>
       </c>
       <c r="C53" s="4">
-        <v>1216</v>
+        <v>1272</v>
       </c>
       <c r="D53" s="4">
-        <v>1448</v>
+        <v>1347</v>
       </c>
       <c r="E53" s="4">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B54" s="4">
-        <v>45198</v>
+        <v>46999</v>
       </c>
       <c r="C54" s="4">
-        <v>1272</v>
+        <v>1305</v>
       </c>
       <c r="D54" s="4">
-        <v>1347</v>
+        <v>1801</v>
       </c>
       <c r="E54" s="4">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B55" s="4">
-        <v>46999</v>
+        <v>47784</v>
       </c>
       <c r="C55" s="4">
-        <v>1305</v>
+        <v>1336</v>
       </c>
       <c r="D55" s="4">
-        <v>1801</v>
+        <v>785</v>
       </c>
       <c r="E55" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B56" s="4">
-        <v>47784</v>
+        <v>48693</v>
       </c>
       <c r="C56" s="4">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D56" s="4">
-        <v>785</v>
+        <v>909</v>
       </c>
       <c r="E56" s="4">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B57" s="4">
-        <v>48693</v>
+        <v>49912</v>
       </c>
       <c r="C57" s="4">
-        <v>1347</v>
+        <v>1369</v>
       </c>
       <c r="D57" s="4">
-        <v>909</v>
+        <v>1219</v>
       </c>
       <c r="E57" s="4">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B58" s="4">
-        <v>49912</v>
+        <v>51323</v>
       </c>
       <c r="C58" s="4">
-        <v>1369</v>
+        <v>1419</v>
       </c>
       <c r="D58" s="4">
-        <v>1219</v>
+        <v>1411</v>
       </c>
       <c r="E58" s="4">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B59" s="4">
-        <v>51323</v>
+        <v>52268</v>
       </c>
       <c r="C59" s="4">
-        <v>1419</v>
+        <v>1440</v>
       </c>
       <c r="D59" s="4">
-        <v>1411</v>
+        <v>945</v>
       </c>
       <c r="E59" s="4">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B60" s="4">
-        <v>52268</v>
+        <v>53449</v>
       </c>
       <c r="C60" s="4">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="D60" s="4">
-        <v>945</v>
+        <v>1181</v>
       </c>
       <c r="E60" s="4">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B61" s="4">
-        <v>53449</v>
+        <v>54509</v>
       </c>
       <c r="C61" s="4">
-        <v>1480</v>
+        <v>1506</v>
       </c>
       <c r="D61" s="4">
-        <v>1181</v>
+        <v>1060</v>
       </c>
       <c r="E61" s="4">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B62" s="4">
-        <v>54509</v>
+        <v>55348</v>
       </c>
       <c r="C62" s="4">
-        <v>1506</v>
+        <v>1519</v>
       </c>
       <c r="D62" s="4">
-        <v>1060</v>
+        <v>839</v>
       </c>
       <c r="E62" s="4">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B63" s="4">
-        <v>55348</v>
+        <v>55971</v>
       </c>
       <c r="C63" s="4">
-        <v>1519</v>
+        <v>1527</v>
       </c>
       <c r="D63" s="4">
-        <v>839</v>
+        <v>623</v>
       </c>
       <c r="E63" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B64" s="4">
-        <v>55971</v>
+        <v>56560</v>
       </c>
       <c r="C64" s="4">
-        <v>1527</v>
+        <v>1536</v>
       </c>
       <c r="D64" s="4">
-        <v>623</v>
+        <v>589</v>
       </c>
       <c r="E64" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B65" s="4">
-        <v>56560</v>
+        <v>57921</v>
       </c>
       <c r="C65" s="4">
-        <v>1536</v>
+        <v>1562</v>
       </c>
       <c r="D65" s="4">
-        <v>589</v>
+        <v>1361</v>
       </c>
       <c r="E65" s="4">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B66" s="4">
-        <v>57921</v>
+        <v>59776</v>
       </c>
       <c r="C66" s="4">
-        <v>1562</v>
+        <v>1601</v>
       </c>
       <c r="D66" s="4">
-        <v>1361</v>
+        <v>1855</v>
       </c>
       <c r="E66" s="4">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B67" s="4">
-        <v>59776</v>
+        <v>61006</v>
       </c>
       <c r="C67" s="4">
-        <v>1601</v>
+        <v>1626</v>
       </c>
       <c r="D67" s="4">
-        <v>1855</v>
+        <v>1230</v>
       </c>
       <c r="E67" s="4">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B68" s="4">
-        <v>61006</v>
+        <v>62338</v>
       </c>
       <c r="C68" s="4">
-        <v>1626</v>
+        <v>1648</v>
       </c>
       <c r="D68" s="4">
-        <v>1230</v>
+        <v>1332</v>
       </c>
       <c r="E68" s="4">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B69" s="4">
-        <v>62338</v>
+        <v>64287</v>
       </c>
       <c r="C69" s="4">
-        <v>1648</v>
+        <v>1672</v>
       </c>
       <c r="D69" s="4">
-        <v>1332</v>
+        <v>1949</v>
       </c>
       <c r="E69" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B70" s="4">
-        <v>64287</v>
+        <v>64880</v>
       </c>
       <c r="C70" s="4">
-        <v>1672</v>
+        <v>1678</v>
       </c>
       <c r="D70" s="4">
-        <v>1949</v>
+        <v>593</v>
       </c>
       <c r="E70" s="4">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B71" s="4">
-        <v>64880</v>
+        <v>66568</v>
       </c>
       <c r="C71" s="4">
-        <v>1678</v>
+        <v>1698</v>
       </c>
       <c r="D71" s="4">
-        <v>593</v>
+        <v>1688</v>
       </c>
       <c r="E71" s="4">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B72" s="4">
-        <v>66568</v>
+        <v>68271</v>
       </c>
       <c r="C72" s="4">
-        <v>1698</v>
+        <v>1734</v>
       </c>
       <c r="D72" s="4">
-        <v>1688</v>
+        <v>1703</v>
       </c>
       <c r="E72" s="4">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B73" s="4">
-        <v>68271</v>
+        <v>69920</v>
       </c>
       <c r="C73" s="4">
-        <v>1734</v>
+        <v>1767</v>
       </c>
       <c r="D73" s="4">
-        <v>1703</v>
+        <v>1649</v>
       </c>
       <c r="E73" s="4">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B74" s="4">
-        <v>69920</v>
+        <v>71613</v>
       </c>
       <c r="C74" s="4">
-        <v>1767</v>
+        <v>1788</v>
       </c>
       <c r="D74" s="4">
-        <v>1649</v>
+        <v>1693</v>
       </c>
       <c r="E74" s="4">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B75" s="4">
-        <v>71613</v>
+        <v>73553</v>
       </c>
       <c r="C75" s="4">
-        <v>1788</v>
+        <v>1819</v>
       </c>
       <c r="D75" s="4">
-        <v>1693</v>
+        <v>1940</v>
       </c>
       <c r="E75" s="4">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B76" s="4">
-        <v>73553</v>
+        <v>74978</v>
       </c>
       <c r="C76" s="4">
-        <v>1819</v>
+        <v>1830</v>
       </c>
       <c r="D76" s="4">
-        <v>1940</v>
+        <v>1425</v>
       </c>
       <c r="E76" s="4">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B77" s="4">
-        <v>74978</v>
+        <v>75616</v>
       </c>
       <c r="C77" s="4">
-        <v>1830</v>
+        <v>1836</v>
       </c>
       <c r="D77" s="4">
-        <v>1425</v>
+        <v>638</v>
       </c>
       <c r="E77" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B78" s="4">
-        <v>75616</v>
+        <v>77253</v>
       </c>
       <c r="C78" s="4">
-        <v>1836</v>
+        <v>1853</v>
       </c>
       <c r="D78" s="4">
-        <v>638</v>
+        <v>1637</v>
       </c>
       <c r="E78" s="4">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B79" s="4">
-        <v>77253</v>
+        <v>79757</v>
       </c>
       <c r="C79" s="4">
-        <v>1853</v>
+        <v>1885</v>
       </c>
       <c r="D79" s="4">
-        <v>1637</v>
+        <v>2504</v>
       </c>
       <c r="E79" s="4">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B80" s="4">
-        <v>79757</v>
+        <v>81583</v>
       </c>
       <c r="C80" s="4">
-        <v>1885</v>
+        <v>1920</v>
       </c>
       <c r="D80" s="4">
-        <v>2504</v>
+        <v>1826</v>
       </c>
       <c r="E80" s="4">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6357,8 +6363,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6368,32 +6374,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="B1" s="19"/>
+      <c r="A1" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>52449</v>
+        <v>54096</v>
       </c>
       <c r="B3" s="7">
-        <v>25423</v>
+        <v>25567</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>269</v>
-      </c>
-      <c r="B5" s="19"/>
+      <c r="A5" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="B5" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6407,12 +6413,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H72"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:H1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6421,44 +6427,45 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
+        <v>269</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+    </row>
+    <row r="2" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>271</v>
-      </c>
       <c r="E2" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>328</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6466,10 +6473,10 @@
         <v>43925</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D3" s="8">
         <v>63751</v>
@@ -6486,10 +6493,10 @@
         <v>43926</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D4" s="8">
         <v>70938</v>
@@ -6506,10 +6513,10 @@
         <v>43927</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D5" s="8">
         <v>85357</v>
@@ -6526,10 +6533,10 @@
         <v>43928</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D6" s="8">
         <v>88649</v>
@@ -6546,10 +6553,10 @@
         <v>43929</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D7" s="8">
         <v>96258</v>
@@ -6566,10 +6573,10 @@
         <v>43930</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D8" s="8">
         <v>106134</v>
@@ -6586,10 +6593,10 @@
         <v>43931</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D9" s="8">
         <v>115918</v>
@@ -6606,10 +6613,10 @@
         <v>43932</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D10" s="8">
         <v>120533</v>
@@ -6626,10 +6633,10 @@
         <v>43933</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D11" s="8">
         <v>124553</v>
@@ -6646,10 +6653,10 @@
         <v>43934</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D12" s="8">
         <v>133226</v>
@@ -6666,10 +6673,10 @@
         <v>43935</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D13" s="8">
         <v>146467</v>
@@ -6686,10 +6693,10 @@
         <v>43936</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D14" s="8">
         <v>151810</v>
@@ -6706,10 +6713,10 @@
         <v>43937</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D15" s="8">
         <v>158547</v>
@@ -6726,10 +6733,10 @@
         <v>43938</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D16" s="8">
         <v>169536</v>
@@ -6746,10 +6753,10 @@
         <v>43939</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D17" s="8">
         <v>176239</v>
@@ -6766,10 +6773,10 @@
         <v>43940</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D18" s="8">
         <v>182710</v>
@@ -6786,10 +6793,10 @@
         <v>43941</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D19" s="8">
         <v>190394</v>
@@ -6806,10 +6813,10 @@
         <v>43942</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D20" s="8">
         <v>205399</v>
@@ -6826,10 +6833,10 @@
         <v>43943</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D21" s="8">
         <v>216783</v>
@@ -6846,10 +6853,10 @@
         <v>43944</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D22" s="8">
         <v>225078</v>
@@ -6866,10 +6873,10 @@
         <v>43945</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D23" s="8">
         <v>242547</v>
@@ -6886,10 +6893,10 @@
         <v>43946</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D24" s="8">
         <v>262816</v>
@@ -6906,10 +6913,10 @@
         <v>43947</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D25" s="8">
         <v>276021</v>
@@ -6926,10 +6933,10 @@
         <v>43948</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D26" s="8">
         <v>290517</v>
@@ -6946,10 +6953,10 @@
         <v>43949</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D27" s="8">
         <v>300384</v>
@@ -6966,10 +6973,10 @@
         <v>43950</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D28" s="8">
         <v>314790</v>
@@ -6986,10 +6993,10 @@
         <v>43951</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D29" s="8">
         <v>330300</v>
@@ -7006,10 +7013,10 @@
         <v>43952</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D30" s="8">
         <v>351775</v>
@@ -7026,10 +7033,10 @@
         <v>43953</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D31" s="8">
         <v>380648</v>
@@ -7046,10 +7053,10 @@
         <v>43954</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D32" s="8">
         <v>390560</v>
@@ -7066,10 +7073,10 @@
         <v>43955</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D33" s="8">
         <v>407398</v>
@@ -7086,10 +7093,10 @@
         <v>43956</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D34" s="8">
         <v>427210</v>
@@ -7106,10 +7113,10 @@
         <v>43957</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D35" s="8">
         <v>438938</v>
@@ -7126,10 +7133,10 @@
         <v>43958</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D36" s="8">
         <v>455162</v>
@@ -7146,10 +7153,10 @@
         <v>43959</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D37" s="8">
         <v>477118</v>
@@ -7405,7 +7412,7 @@
         <v>29538</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>43971</v>
       </c>
@@ -7431,7 +7438,7 @@
         <v>26116</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>43972</v>
       </c>
@@ -7457,7 +7464,7 @@
         <v>25307</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>43973</v>
       </c>
@@ -7483,21 +7490,21 @@
         <v>26921</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>43974</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D52" s="8">
         <v>870935</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -7505,7 +7512,7 @@
         <v>27495</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>43975</v>
       </c>
@@ -7531,7 +7538,7 @@
         <v>27583</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>43976</v>
       </c>
@@ -7557,7 +7564,7 @@
         <v>26152</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>43977</v>
       </c>
@@ -7583,7 +7590,7 @@
         <v>28329</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>43978</v>
       </c>
@@ -7609,7 +7616,7 @@
         <v>27374</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>43979</v>
       </c>
@@ -7635,7 +7642,7 @@
         <v>27080</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>43980</v>
       </c>
@@ -7661,7 +7668,7 @@
         <v>27573</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>43981</v>
       </c>
@@ -7675,7 +7682,7 @@
         <v>1054793</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -7683,7 +7690,7 @@
         <v>26265</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>43982</v>
       </c>
@@ -7709,7 +7716,7 @@
         <v>26734</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>43983</v>
       </c>
@@ -7735,7 +7742,7 @@
         <v>26800</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>43984</v>
       </c>
@@ -7749,7 +7756,7 @@
         <v>1117274</v>
       </c>
       <c r="E62" s="12">
-        <v>6.6199999999999995E-2</v>
+        <v>6.6236912120931343E-2</v>
       </c>
       <c r="F62" s="8">
         <v>21585</v>
@@ -7760,8 +7767,10 @@
       <c r="H62" s="8">
         <v>24862</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+    </row>
+    <row r="63" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>43985</v>
       </c>
@@ -7775,7 +7784,7 @@
         <v>1150868</v>
       </c>
       <c r="E63" s="12">
-        <v>6.2600000000000003E-2</v>
+        <v>6.2599418158065037E-2</v>
       </c>
       <c r="F63" s="8">
         <v>23620</v>
@@ -7786,8 +7795,11 @@
       <c r="H63" s="8">
         <v>27001</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I63" s="18"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+    </row>
+    <row r="64" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>43986</v>
       </c>
@@ -7801,7 +7813,7 @@
         <v>1174948</v>
       </c>
       <c r="E64" s="12">
-        <v>6.0299999999999999E-2</v>
+        <v>6.0272963321667726E-2</v>
       </c>
       <c r="F64" s="8">
         <v>24043</v>
@@ -7812,8 +7824,11 @@
       <c r="H64" s="8">
         <v>26422</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I64" s="18"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+    </row>
+    <row r="65" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>43987</v>
       </c>
@@ -7827,7 +7842,7 @@
         <v>1209187</v>
       </c>
       <c r="E65" s="12">
-        <v>6.4399999999999999E-2</v>
+        <v>6.4378489924739019E-2</v>
       </c>
       <c r="F65" s="8">
         <v>23537</v>
@@ -7838,34 +7853,40 @@
       <c r="H65" s="8">
         <v>25963</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+    </row>
+    <row r="66" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>43988</v>
       </c>
       <c r="B66" s="8">
-        <v>1100446</v>
+        <v>1092012</v>
       </c>
       <c r="C66" s="8">
-        <v>118509</v>
+        <v>126943</v>
       </c>
       <c r="D66" s="8">
         <v>1218955</v>
       </c>
       <c r="E66" s="12">
-        <v>7.5499999999999998E-2</v>
+        <v>8.00231185826311E-2</v>
       </c>
       <c r="F66" s="8">
-        <v>21226</v>
+        <v>20021</v>
       </c>
       <c r="G66" s="8">
-        <v>2226</v>
+        <v>3431</v>
       </c>
       <c r="H66" s="8">
         <v>23452</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I66" s="18"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+    </row>
+    <row r="67" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>43989</v>
       </c>
@@ -7890,8 +7911,11 @@
       <c r="H67" s="8">
         <v>26058</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I67" s="18"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+    </row>
+    <row r="68" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>43990</v>
       </c>
@@ -7916,8 +7940,11 @@
       <c r="H68" s="8">
         <v>27495</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I68" s="18"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+    </row>
+    <row r="69" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>43991</v>
       </c>
@@ -7942,36 +7969,68 @@
       <c r="H69" s="8">
         <v>26396</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I69" s="18"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+    </row>
+    <row r="70" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>43992</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C70" s="8" t="s">
-        <v>274</v>
+      <c r="B70" s="8">
+        <v>1206320</v>
+      </c>
+      <c r="C70" s="8">
+        <v>142573</v>
       </c>
       <c r="D70" s="8">
         <v>1348893</v>
       </c>
-      <c r="E70" s="12"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-    </row>
-    <row r="72" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="19"/>
+      <c r="E70" s="12">
+        <v>6.8464816856912941E-2</v>
+      </c>
+      <c r="F70" s="8">
+        <v>23966</v>
+      </c>
+      <c r="G70" s="8">
+        <v>4323</v>
+      </c>
+      <c r="H70" s="8">
+        <v>28289</v>
+      </c>
+      <c r="I70" s="18"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+    </row>
+    <row r="71" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>43993</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D71" s="8">
+        <v>1370131</v>
+      </c>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+    </row>
+    <row r="73" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A72:D72"/>
+    <mergeCell ref="A73:D73"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -7985,8 +8044,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7996,48 +8055,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>276</v>
-      </c>
-      <c r="B1" s="19"/>
+      <c r="A1" s="20" t="s">
+        <v>275</v>
+      </c>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B3" s="7">
-        <v>53551</v>
+        <v>55622</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B4" s="7">
-        <v>1295342</v>
+        <v>1314509</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1370131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
         <v>281</v>
       </c>
-      <c r="B5" s="7">
-        <v>1348893</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8050,11 +8109,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C192EF56-5C2B-4F50-90FE-09488962A87F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0352FB-F5E5-4618-9E2B-58A1771D224D}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -8064,41 +8123,41 @@
     <col min="3" max="16384" width="8.7265625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="12.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>333</v>
-      </c>
-      <c r="B1" s="22"/>
+    <row r="1" spans="1:2" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="B1" s="25"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>277</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B3" s="17">
-        <v>140962</v>
+        <v>142573</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B4" s="17">
-        <v>5812</v>
+        <v>5906</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="B6" s="22"/>
+      <c r="A6" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="B6" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8115,8 +8174,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8126,64 +8185,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>283</v>
-      </c>
-      <c r="B1" s="19"/>
+      <c r="A1" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B3" s="7">
-        <v>2153</v>
+        <v>2008</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B4" s="7">
-        <v>56055</v>
+        <v>53995</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B5" s="7">
-        <v>13645</v>
+        <v>13271</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B6" s="7">
-        <v>1508</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B7" s="7">
-        <v>5934</v>
+        <v>5515</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="B9" s="19"/>
+      <c r="A9" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8197,12 +8256,12 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C72"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8213,21 +8272,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>290</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="20" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8978,17 +9037,28 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="B72" s="19"/>
-      <c r="C72" s="19"/>
+    <row r="71" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>69</v>
+      </c>
+      <c r="B71" s="6">
+        <v>43993</v>
+      </c>
+      <c r="C71" s="7">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A73:C73"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9001,189 +9071,189 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C16"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
-        <v>293</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="20" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B3" s="8">
         <v>40</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="19">
         <f>B3/B$16</f>
-        <v>2.5784825630116677E-3</v>
+        <v>2.5715204114432656E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B4" s="8">
-        <v>177</v>
-      </c>
-      <c r="C4" s="25">
-        <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
-        <v>1.1409785341326629E-2</v>
+        <v>178</v>
+      </c>
+      <c r="C4" s="19">
+        <f t="shared" ref="C4:C15" si="0">B4/B$16</f>
+        <v>1.1443265830922533E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B5" s="8">
-        <v>463</v>
-      </c>
-      <c r="C5" s="25">
+        <v>465</v>
+      </c>
+      <c r="C5" s="19">
         <f t="shared" si="0"/>
-        <v>2.9845935666860054E-2</v>
+        <v>2.9893924783027964E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B6" s="8">
-        <v>2417</v>
-      </c>
-      <c r="C6" s="25">
+        <v>2424</v>
+      </c>
+      <c r="C6" s="19">
         <f t="shared" si="0"/>
-        <v>0.15580480886998002</v>
+        <v>0.1558341369334619</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B7" s="8">
-        <v>2853</v>
-      </c>
-      <c r="C7" s="25">
+        <v>2859</v>
+      </c>
+      <c r="C7" s="19">
         <f t="shared" si="0"/>
-        <v>0.18391026880680719</v>
+        <v>0.18379942140790742</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B8" s="8">
-        <v>2897</v>
-      </c>
-      <c r="C8" s="25">
+        <v>2901</v>
+      </c>
+      <c r="C8" s="19">
         <f t="shared" si="0"/>
-        <v>0.18674659962612003</v>
+        <v>0.18649951783992286</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B9" s="8">
-        <v>2847</v>
-      </c>
-      <c r="C9" s="25">
+        <v>2855</v>
+      </c>
+      <c r="C9" s="19">
         <f t="shared" si="0"/>
-        <v>0.18352349642235544</v>
+        <v>0.1835422693667631</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B10" s="8">
-        <v>1206</v>
-      </c>
-      <c r="C10" s="25">
+        <v>1211</v>
+      </c>
+      <c r="C10" s="19">
         <f t="shared" si="0"/>
-        <v>7.7741249274801777E-2</v>
+        <v>7.7852780456444878E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B11" s="8">
-        <v>874</v>
-      </c>
-      <c r="C11" s="25">
+        <v>876</v>
+      </c>
+      <c r="C11" s="19">
         <f t="shared" si="0"/>
-        <v>5.6339844001804938E-2</v>
+        <v>5.6316297010607523E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B12" s="8">
-        <v>571</v>
-      </c>
-      <c r="C12" s="25">
+        <v>577</v>
+      </c>
+      <c r="C12" s="19">
         <f t="shared" si="0"/>
-        <v>3.6807838586991555E-2</v>
+        <v>3.7094181935069109E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B13" s="8">
         <v>383</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="19">
         <f t="shared" si="0"/>
-        <v>2.4688970540836717E-2</v>
+        <v>2.4622307939569269E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B14" s="8">
-        <v>662</v>
-      </c>
-      <c r="C14" s="25">
+        <v>663</v>
+      </c>
+      <c r="C14" s="19">
         <f t="shared" si="0"/>
-        <v>4.2673886417843102E-2</v>
+        <v>4.2622950819672129E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B15" s="8">
         <v>123</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="19">
         <f t="shared" si="0"/>
-        <v>7.9288338812608782E-3</v>
+        <v>7.9074252651880426E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9191,26 +9261,26 @@
         <v>258</v>
       </c>
       <c r="B16" s="8">
-        <v>15513</v>
-      </c>
-      <c r="C16" s="25">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <v>15555</v>
+      </c>
+      <c r="C16" s="19">
+        <f>SUM(C3:C15)</f>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+    </row>
+    <row r="19" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-    </row>
-    <row r="19" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9219,6 +9289,6 @@
     <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
+++ b/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4CE5881-510E-4B22-93C3-8268377AE26E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{75C1DDA3-F58B-4F87-AE1A-6B261EE59E51}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
@@ -28,14 +28,14 @@
     <sheet name="Fatalities by Gender" sheetId="12" r:id="rId13"/>
     <sheet name="Fatalities by Race-Ethnicity" sheetId="13" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="333">
-  <si>
-    <t>COVID-19 Cases and Fatalities by County as of 6/11 at 10:45AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="334">
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 6/12 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -812,7 +812,10 @@
     <t>Total</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/11 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/12 at 10:45AM CST</t>
+  </si>
+  <si>
+    <t>DISCLAIMER: All data are provisional and are subject to change.</t>
   </si>
   <si>
     <t>Date</t>
@@ -836,7 +839,7 @@
 Fatalities</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/11 at 3:00PM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/12 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -848,7 +851,7 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/11 at 3:00PM CST</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/12 at 3:00PM CST</t>
   </si>
   <si>
     <t>Total Tests
@@ -867,7 +870,7 @@
     <t>Tests include those performed by public labs (Laboratory Response Network) and private labs (commercial labs, hospitals, physician offices, and drive-thru sites) reported electronically and non-electronically to DSHS.</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/11 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/12 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -888,7 +891,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 6/11 at 9:30AM CST</t>
+    <t>Texas Statewide Hospitalization Data as of 6/12 at 9:30AM CST</t>
   </si>
   <si>
     <t>Hospital data</t>
@@ -909,7 +912,7 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 6/11 at 9:30AM CST</t>
+    <t>Number of COVID-19 Hospitalizations by Day as of 6/12 at 9:30AM CST</t>
   </si>
   <si>
     <t>Obs</t>
@@ -918,7 +921,7 @@
     <t>Hospitalizations</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 6/11 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 6/12 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -973,10 +976,10 @@
     <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
   </si>
   <si>
-    <t>Completed case investigations received by DSHS =          15,555</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 6/11 at 9:30 AM CST</t>
+    <t>Completed case investigations received by DSHS =          15,620</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 6/12 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -988,7 +991,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 6/11 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 6/12 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -1009,25 +1012,16 @@
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 6/11 at 9:30 AM CST</t>
+    <t>Age of Confirmed Fatalities as of 6/12 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Completed investigations received by DSHS =          664</t>
   </si>
   <si>
-    <t>Gender of Confirmed Fatalities as of 6/11 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 6/11 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>New Viral Tests Reported* (Average of previous 7 days)</t>
-  </si>
-  <si>
-    <t>New Antibody Tests Reported* (Average of previous 7 days)</t>
-  </si>
-  <si>
-    <t>New Total Tests Reported* (Average of previous 7 days)</t>
+    <t>Gender of Confirmed Fatalities as of 6/12 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 6/12 at 9:30 AM CST</t>
   </si>
   <si>
     <t>COVID-19
@@ -1035,13 +1029,22 @@
 Rate</t>
   </si>
   <si>
+    <t>New Viral Tests Reported* (Average of previous 7 days)</t>
+  </si>
+  <si>
+    <t>New Antibody Tests Reported* (Average of previous 7 days)</t>
+  </si>
+  <si>
+    <t>New Total Tests Reported* (Average of previous 7 days)</t>
+  </si>
+  <si>
     <t>Number of Antibody Tests Reported (included in total test numbers)</t>
   </si>
   <si>
     <t>Number of Positive Antibody Tests Reported</t>
   </si>
   <si>
-    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/10 at 3:00PM CST</t>
+    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/11 at 3:00PM CST</t>
   </si>
 </sst>
 </file>
@@ -1184,7 +1187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1239,9 +1242,6 @@
     <xf numFmtId="166" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1269,7 +1269,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{3AD2FF5E-98DC-4325-BDD1-A86147A620BF}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{42715A78-E9B1-4B10-9FC6-29F6F569C518}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1404,6 +1404,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -1415,11 +1416,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1459,7 +1460,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="C5" s="4">
         <v>5</v>
@@ -1470,7 +1471,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -1492,7 +1493,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
@@ -1514,7 +1515,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -1525,7 +1526,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -1536,7 +1537,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
@@ -1547,7 +1548,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C13" s="4">
         <v>4</v>
@@ -1569,7 +1570,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -1580,7 +1581,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>530</v>
+        <v>574</v>
       </c>
       <c r="C16" s="4">
         <v>6</v>
@@ -1591,10 +1592,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>3648</v>
+        <v>3840</v>
       </c>
       <c r="C17" s="4">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1635,7 +1636,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C21" s="4">
         <v>7</v>
@@ -1646,7 +1647,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>790</v>
+        <v>813</v>
       </c>
       <c r="C22" s="4">
         <v>11</v>
@@ -1657,7 +1658,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>684</v>
+        <v>710</v>
       </c>
       <c r="C23" s="4">
         <v>24</v>
@@ -1712,7 +1713,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -1734,7 +1735,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
@@ -1745,7 +1746,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C31" s="4">
         <v>3</v>
@@ -1767,10 +1768,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>990</v>
+        <v>1031</v>
       </c>
       <c r="C33" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1800,7 +1801,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C36" s="4">
         <v>1</v>
@@ -1811,7 +1812,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -1822,7 +1823,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -1877,7 +1878,7 @@
         <v>44</v>
       </c>
       <c r="B43" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C43" s="4">
         <v>0</v>
@@ -1899,7 +1900,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>1553</v>
+        <v>1560</v>
       </c>
       <c r="C45" s="4">
         <v>37</v>
@@ -1921,7 +1922,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -1932,7 +1933,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C48" s="4">
         <v>7</v>
@@ -1976,7 +1977,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
@@ -2042,7 +2043,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
@@ -2053,10 +2054,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>12945</v>
+        <v>13257</v>
       </c>
       <c r="C59" s="4">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2075,7 +2076,7 @@
         <v>62</v>
       </c>
       <c r="B61" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C61" s="4">
         <v>1</v>
@@ -2086,7 +2087,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="4">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="C62" s="4">
         <v>14</v>
@@ -2108,7 +2109,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>1599</v>
+        <v>1632</v>
       </c>
       <c r="C64" s="4">
         <v>36</v>
@@ -2119,7 +2120,7 @@
         <v>66</v>
       </c>
       <c r="B65" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" s="4">
         <v>0</v>
@@ -2141,7 +2142,7 @@
         <v>68</v>
       </c>
       <c r="B67" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C67" s="4">
         <v>0</v>
@@ -2174,7 +2175,7 @@
         <v>71</v>
       </c>
       <c r="B70" s="4">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="C70" s="4">
         <v>6</v>
@@ -2196,10 +2197,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>3650</v>
+        <v>3695</v>
       </c>
       <c r="C72" s="4">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2207,7 +2208,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="4">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C73" s="4">
         <v>18</v>
@@ -2218,7 +2219,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C74" s="4">
         <v>1</v>
@@ -2240,7 +2241,7 @@
         <v>77</v>
       </c>
       <c r="B76" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C76" s="4">
         <v>2</v>
@@ -2251,7 +2252,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C77" s="4">
         <v>2</v>
@@ -2276,7 +2277,7 @@
         <v>16</v>
       </c>
       <c r="C79" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2295,7 +2296,7 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>2299</v>
+        <v>2320</v>
       </c>
       <c r="C81" s="4">
         <v>47</v>
@@ -2317,7 +2318,7 @@
         <v>84</v>
       </c>
       <c r="B83" s="4">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
@@ -2328,7 +2329,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="4">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
@@ -2350,10 +2351,10 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>1084</v>
+        <v>1114</v>
       </c>
       <c r="C86" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2416,7 +2417,7 @@
         <v>93</v>
       </c>
       <c r="B92" s="4">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C92" s="4">
         <v>3</v>
@@ -2427,7 +2428,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="C93" s="4">
         <v>4</v>
@@ -2449,7 +2450,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="C95" s="4">
         <v>1</v>
@@ -2460,7 +2461,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C96" s="4">
         <v>0</v>
@@ -2471,7 +2472,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="4">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="C97" s="4">
         <v>5</v>
@@ -2493,7 +2494,7 @@
         <v>100</v>
       </c>
       <c r="B99" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C99" s="4">
         <v>1</v>
@@ -2526,7 +2527,7 @@
         <v>103</v>
       </c>
       <c r="B102" s="4">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C102" s="4">
         <v>5</v>
@@ -2537,7 +2538,7 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>15552</v>
+        <v>15864</v>
       </c>
       <c r="C103" s="4">
         <v>267</v>
@@ -2548,7 +2549,7 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C104" s="4">
         <v>28</v>
@@ -2570,7 +2571,7 @@
         <v>107</v>
       </c>
       <c r="B106" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C106" s="4">
         <v>0</v>
@@ -2581,7 +2582,7 @@
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>492</v>
+        <v>574</v>
       </c>
       <c r="C107" s="4">
         <v>5</v>
@@ -2614,7 +2615,7 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>842</v>
+        <v>912</v>
       </c>
       <c r="C110" s="4">
         <v>12</v>
@@ -2625,7 +2626,7 @@
         <v>112</v>
       </c>
       <c r="B111" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C111" s="4">
         <v>1</v>
@@ -2647,7 +2648,7 @@
         <v>114</v>
       </c>
       <c r="B113" s="4">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C113" s="4">
         <v>4</v>
@@ -2669,7 +2670,7 @@
         <v>116</v>
       </c>
       <c r="B115" s="4">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C115" s="4">
         <v>0</v>
@@ -2691,7 +2692,7 @@
         <v>118</v>
       </c>
       <c r="B117" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C117" s="4">
         <v>0</v>
@@ -2702,7 +2703,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="4">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="C118" s="4">
         <v>5</v>
@@ -2713,7 +2714,7 @@
         <v>120</v>
       </c>
       <c r="B119" s="4">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C119" s="4">
         <v>0</v>
@@ -2779,7 +2780,7 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>1187</v>
+        <v>1222</v>
       </c>
       <c r="C125" s="4">
         <v>31</v>
@@ -2801,7 +2802,7 @@
         <v>128</v>
       </c>
       <c r="B127" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
@@ -2812,7 +2813,7 @@
         <v>129</v>
       </c>
       <c r="B128" s="4">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C128" s="4">
         <v>4</v>
@@ -2823,7 +2824,7 @@
         <v>130</v>
       </c>
       <c r="B129" s="4">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -2845,7 +2846,7 @@
         <v>132</v>
       </c>
       <c r="B131" s="4">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="C131" s="4">
         <v>3</v>
@@ -2966,7 +2967,7 @@
         <v>143</v>
       </c>
       <c r="B142" s="4">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C142" s="4">
         <v>11</v>
@@ -2977,7 +2978,7 @@
         <v>144</v>
       </c>
       <c r="B143" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C143" s="4">
         <v>0</v>
@@ -3010,7 +3011,7 @@
         <v>147</v>
       </c>
       <c r="B146" s="4">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C146" s="4">
         <v>2</v>
@@ -3032,7 +3033,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="C148" s="4">
         <v>3</v>
@@ -3098,10 +3099,10 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>775</v>
+        <v>790</v>
       </c>
       <c r="C154" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3131,7 +3132,7 @@
         <v>158</v>
       </c>
       <c r="B157" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C157" s="4">
         <v>1</v>
@@ -3164,7 +3165,7 @@
         <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C160" s="4">
         <v>5</v>
@@ -3197,7 +3198,7 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C163" s="4">
         <v>4</v>
@@ -3219,7 +3220,7 @@
         <v>166</v>
       </c>
       <c r="B165" s="4">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C165" s="4">
         <v>2</v>
@@ -3241,7 +3242,7 @@
         <v>168</v>
       </c>
       <c r="B167" s="4">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="C167" s="4">
         <v>13</v>
@@ -3252,7 +3253,7 @@
         <v>169</v>
       </c>
       <c r="B168" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C168" s="4">
         <v>1</v>
@@ -3296,7 +3297,7 @@
         <v>173</v>
       </c>
       <c r="B172" s="4">
-        <v>1162</v>
+        <v>1197</v>
       </c>
       <c r="C172" s="4">
         <v>32</v>
@@ -3307,7 +3308,7 @@
         <v>174</v>
       </c>
       <c r="B173" s="4">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="C173" s="4">
         <v>14</v>
@@ -3343,7 +3344,7 @@
         <v>317</v>
       </c>
       <c r="C176" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3351,7 +3352,7 @@
         <v>178</v>
       </c>
       <c r="B177" s="4">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="C177" s="4">
         <v>3</v>
@@ -3384,7 +3385,7 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="C180" s="4">
         <v>3</v>
@@ -3395,7 +3396,7 @@
         <v>182</v>
       </c>
       <c r="B181" s="4">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C181" s="4">
         <v>2</v>
@@ -3417,7 +3418,7 @@
         <v>184</v>
       </c>
       <c r="B183" s="4">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C183" s="4">
         <v>2</v>
@@ -3439,7 +3440,7 @@
         <v>186</v>
       </c>
       <c r="B185" s="4">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C185" s="4">
         <v>23</v>
@@ -3450,7 +3451,7 @@
         <v>187</v>
       </c>
       <c r="B186" s="4">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C186" s="4">
         <v>1</v>
@@ -3461,7 +3462,7 @@
         <v>188</v>
       </c>
       <c r="B187" s="4">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C187" s="4">
         <v>0</v>
@@ -3483,7 +3484,7 @@
         <v>190</v>
       </c>
       <c r="B189" s="4">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C189" s="4">
         <v>0</v>
@@ -3494,7 +3495,7 @@
         <v>191</v>
       </c>
       <c r="B190" s="4">
-        <v>2778</v>
+        <v>2783</v>
       </c>
       <c r="C190" s="4">
         <v>36</v>
@@ -3527,10 +3528,10 @@
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C193" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3560,7 +3561,7 @@
         <v>197</v>
       </c>
       <c r="B196" s="4">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C196" s="4">
         <v>8</v>
@@ -3571,7 +3572,7 @@
         <v>198</v>
       </c>
       <c r="B197" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C197" s="4">
         <v>0</v>
@@ -3604,7 +3605,7 @@
         <v>201</v>
       </c>
       <c r="B200" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -3615,7 +3616,7 @@
         <v>202</v>
       </c>
       <c r="B201" s="4">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C201" s="4">
         <v>14</v>
@@ -3659,7 +3660,7 @@
         <v>206</v>
       </c>
       <c r="B205" s="4">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C205" s="4">
         <v>4</v>
@@ -3714,7 +3715,7 @@
         <v>211</v>
       </c>
       <c r="B210" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C210" s="4">
         <v>0</v>
@@ -3736,7 +3737,7 @@
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C212" s="4">
         <v>8</v>
@@ -3780,7 +3781,7 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="C216" s="4">
         <v>0</v>
@@ -3835,7 +3836,7 @@
         <v>222</v>
       </c>
       <c r="B221" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C221" s="4">
         <v>1</v>
@@ -3846,10 +3847,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>6599</v>
+        <v>6824</v>
       </c>
       <c r="C222" s="4">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3857,7 +3858,7 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C223" s="4">
         <v>5</v>
@@ -3901,7 +3902,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="C227" s="4">
         <v>2</v>
@@ -3912,7 +3913,7 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C228" s="4">
         <v>1</v>
@@ -3923,10 +3924,10 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>4109</v>
+        <v>4238</v>
       </c>
       <c r="C229" s="4">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3956,7 +3957,7 @@
         <v>233</v>
       </c>
       <c r="B232" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C232" s="4">
         <v>0</v>
@@ -3978,7 +3979,7 @@
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C234" s="4">
         <v>0</v>
@@ -4022,7 +4023,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>1866</v>
+        <v>1868</v>
       </c>
       <c r="C238" s="4">
         <v>27</v>
@@ -4033,7 +4034,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4044,7 +4045,7 @@
         <v>241</v>
       </c>
       <c r="B240" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C240" s="4">
         <v>0</v>
@@ -4055,10 +4056,10 @@
         <v>242</v>
       </c>
       <c r="B241" s="4">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C241" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4066,7 +4067,7 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>652</v>
+        <v>661</v>
       </c>
       <c r="C242" s="4">
         <v>20</v>
@@ -4077,7 +4078,7 @@
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C243" s="4">
         <v>1</v>
@@ -4099,7 +4100,7 @@
         <v>246</v>
       </c>
       <c r="B245" s="4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C245" s="4">
         <v>2</v>
@@ -4121,7 +4122,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C247" s="4">
         <v>3</v>
@@ -4132,10 +4133,10 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>763</v>
+        <v>787</v>
       </c>
       <c r="C248" s="4">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4143,7 +4144,7 @@
         <v>250</v>
       </c>
       <c r="B249" s="4">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C249" s="4">
         <v>5</v>
@@ -4154,7 +4155,7 @@
         <v>251</v>
       </c>
       <c r="B250" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C250" s="4">
         <v>0</v>
@@ -4198,7 +4199,7 @@
         <v>255</v>
       </c>
       <c r="B254" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C254" s="4">
         <v>1</v>
@@ -4209,7 +4210,7 @@
         <v>256</v>
       </c>
       <c r="B255" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C255" s="4">
         <v>0</v>
@@ -4231,10 +4232,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>81583</v>
+        <v>83680</v>
       </c>
       <c r="C257" s="4">
-        <v>1920</v>
+        <v>1939</v>
       </c>
     </row>
   </sheetData>
@@ -4252,7 +4253,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4260,61 +4261,61 @@
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.90625" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="A1" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B3" s="8">
-        <v>6980</v>
-      </c>
-      <c r="C3" s="19">
+        <v>7006</v>
+      </c>
+      <c r="C3" s="18">
         <f>B3/B$6</f>
-        <v>0.44873031179684991</v>
+        <v>0.44852752880921892</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B4" s="8">
-        <v>8288</v>
-      </c>
-      <c r="C4" s="19">
+        <v>8325</v>
+      </c>
+      <c r="C4" s="18">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.53281902925104463</v>
+        <v>0.53297055057618437</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B5" s="8">
-        <v>287</v>
-      </c>
-      <c r="C5" s="19">
+        <v>289</v>
+      </c>
+      <c r="C5" s="18">
         <f t="shared" si="0"/>
-        <v>1.8450658952105431E-2</v>
+        <v>1.850192061459667E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4322,26 +4323,26 @@
         <v>258</v>
       </c>
       <c r="B6" s="8">
-        <v>15555</v>
-      </c>
-      <c r="C6" s="19">
+        <v>15620</v>
+      </c>
+      <c r="C6" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="A8" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="A9" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4360,7 +4361,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4368,97 +4369,97 @@
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="3" max="3" width="7.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>315</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="A1" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B3" s="8">
         <v>519</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <f>B3/B$9</f>
-        <v>3.3365477338476376E-2</v>
+        <v>3.3226632522407172E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B4" s="8">
-        <v>2528</v>
-      </c>
-      <c r="C4" s="19">
+        <v>2532</v>
+      </c>
+      <c r="C4" s="18">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.16252009000321441</v>
+        <v>0.16209987195902689</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B5" s="8">
-        <v>6204</v>
-      </c>
-      <c r="C5" s="19">
+        <v>6271</v>
+      </c>
+      <c r="C5" s="18">
         <f t="shared" si="0"/>
-        <v>0.39884281581485054</v>
+        <v>0.40147247119078106</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B6" s="8">
         <v>99</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <f t="shared" si="0"/>
-        <v>6.364513018322083E-3</v>
+        <v>6.3380281690140847E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B7" s="8">
-        <v>4224</v>
-      </c>
-      <c r="C7" s="19">
+        <v>4230</v>
+      </c>
+      <c r="C7" s="18">
         <f t="shared" si="0"/>
-        <v>0.27155255544840889</v>
+        <v>0.27080665813060179</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B8" s="8">
-        <v>1981</v>
-      </c>
-      <c r="C8" s="19">
+        <v>1969</v>
+      </c>
+      <c r="C8" s="18">
         <f t="shared" si="0"/>
-        <v>0.12735454837672774</v>
+        <v>0.12605633802816901</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4466,26 +4467,26 @@
         <v>258</v>
       </c>
       <c r="B9" s="8">
-        <v>15555</v>
-      </c>
-      <c r="C9" s="19">
+        <v>15620</v>
+      </c>
+      <c r="C9" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+      <c r="A11" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
+      <c r="A12" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4504,7 +4505,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4512,179 +4513,179 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6328125" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>322</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="A1" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B3" s="10">
         <v>0</v>
       </c>
-      <c r="C3" s="19">
-        <f t="shared" ref="C3:C16" si="0">B3/B$16</f>
+      <c r="C3" s="18">
+        <f>B3/B$16</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B4" s="10">
         <v>0</v>
       </c>
-      <c r="C4" s="19">
-        <f t="shared" si="0"/>
+      <c r="C4" s="18">
+        <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <f t="shared" si="0"/>
         <v>3.0120481927710845E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B6" s="10">
         <v>11</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <f t="shared" si="0"/>
         <v>1.6566265060240965E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B7" s="10">
         <v>13</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <f t="shared" si="0"/>
         <v>1.9578313253012049E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B8" s="10">
         <v>26</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <f t="shared" si="0"/>
         <v>3.9156626506024098E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B9" s="10">
         <v>72</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <f t="shared" si="0"/>
         <v>0.10843373493975904</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B10" s="10">
         <v>60</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="18">
         <f t="shared" si="0"/>
         <v>9.036144578313253E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B11" s="10">
         <v>74</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="18">
         <f t="shared" si="0"/>
         <v>0.11144578313253012</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B12" s="10">
         <v>69</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <f t="shared" si="0"/>
         <v>0.10391566265060241</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B13" s="10">
         <v>70</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="18">
         <f t="shared" si="0"/>
         <v>0.10542168674698796</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B14" s="10">
         <v>265</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <f t="shared" si="0"/>
         <v>0.3990963855421687</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <f t="shared" si="0"/>
         <v>3.0120481927710845E-3</v>
       </c>
@@ -4696,24 +4697,24 @@
       <c r="B16" s="10">
         <v>664</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
+      <c r="A18" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
+      <c r="A19" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4732,7 +4733,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4740,59 +4741,59 @@
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.1796875" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="A1" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B3" s="10">
         <v>272</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <f>B3/B$6</f>
         <v>0.40963855421686746</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B4" s="10">
         <v>364</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
         <v>0.54819277108433739</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B5" s="10">
         <v>28</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <f t="shared" si="0"/>
         <v>4.2168674698795178E-2</v>
       </c>
@@ -4804,24 +4805,24 @@
       <c r="B6" s="10">
         <v>664</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
+      <c r="A8" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="A9" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4840,7 +4841,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4848,95 +4849,95 @@
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.26953125" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="A1" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B3" s="10">
         <v>13</v>
       </c>
-      <c r="C3" s="19">
+      <c r="C3" s="18">
         <f>B3/B$9</f>
         <v>1.9578313253012049E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B4" s="10">
         <v>85</v>
       </c>
-      <c r="C4" s="19">
+      <c r="C4" s="18">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
         <v>0.12801204819277109</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B5" s="10">
         <v>171</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="18">
         <f t="shared" si="0"/>
         <v>0.25753012048192769</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B6" s="10">
         <v>5</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="18">
         <f t="shared" si="0"/>
         <v>7.5301204819277108E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B7" s="10">
         <v>269</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="18">
         <f t="shared" si="0"/>
         <v>0.40512048192771083</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B8" s="10">
         <v>121</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="18">
         <f t="shared" si="0"/>
         <v>0.18222891566265059</v>
       </c>
@@ -4948,24 +4949,24 @@
       <c r="B9" s="10">
         <v>664</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
+      <c r="A11" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
+      <c r="A12" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4974,18 +4975,18 @@
     <mergeCell ref="A12:C12"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4997,247 +4998,239 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-    </row>
-    <row r="2" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>43916</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1394</v>
-      </c>
-      <c r="C3" s="4">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4">
-        <v>419</v>
-      </c>
-      <c r="E3" s="4">
-        <v>6</v>
+      <c r="E3" s="5" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B4" s="4">
-        <v>1731</v>
+        <v>1394</v>
       </c>
       <c r="C4" s="4">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4">
-        <v>337</v>
+        <v>419</v>
       </c>
       <c r="E4" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B5" s="4">
-        <v>2048</v>
+        <v>1731</v>
       </c>
       <c r="C5" s="4">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="E5" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B6" s="4">
-        <v>2552</v>
+        <v>2048</v>
       </c>
       <c r="C6" s="4">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4">
-        <v>504</v>
+        <v>317</v>
       </c>
       <c r="E6" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B7" s="4">
-        <v>2874</v>
+        <v>2552</v>
       </c>
       <c r="C7" s="4">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D7" s="4">
-        <v>322</v>
+        <v>504</v>
       </c>
       <c r="E7" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B8" s="4">
-        <v>3266</v>
+        <v>2874</v>
       </c>
       <c r="C8" s="4">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D8" s="4">
-        <v>392</v>
+        <v>322</v>
       </c>
       <c r="E8" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B9" s="4">
-        <v>3996</v>
+        <v>3266</v>
       </c>
       <c r="C9" s="4">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D9" s="4">
-        <v>730</v>
+        <v>392</v>
       </c>
       <c r="E9" s="4">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="B10" s="4">
-        <v>4665</v>
+        <v>3996</v>
       </c>
       <c r="C10" s="4">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D10" s="4">
-        <v>669</v>
+        <v>730</v>
       </c>
       <c r="E10" s="4">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="B11" s="4">
-        <v>5324</v>
+        <v>4665</v>
       </c>
       <c r="C11" s="4">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D11" s="4">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="E11" s="4">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B12" s="4">
-        <v>6112</v>
+        <v>5324</v>
       </c>
       <c r="C12" s="4">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D12" s="4">
-        <v>788</v>
+        <v>659</v>
       </c>
       <c r="E12" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B13" s="4">
-        <v>6793</v>
+        <v>6112</v>
       </c>
       <c r="C13" s="4">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D13" s="4">
-        <v>681</v>
+        <v>788</v>
       </c>
       <c r="E13" s="4">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B14" s="4">
-        <v>7273</v>
+        <v>6793</v>
       </c>
       <c r="C14" s="4">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D14" s="4">
-        <v>480</v>
+        <v>681</v>
       </c>
       <c r="E14" s="4">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B15" s="4">
-        <v>8261</v>
+        <v>7273</v>
       </c>
       <c r="C15" s="4">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D15" s="4">
-        <v>988</v>
+        <v>480</v>
       </c>
       <c r="E15" s="4">
         <v>14</v>
@@ -5245,1112 +5238,1147 @@
     </row>
     <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B16" s="4">
-        <v>9353</v>
+        <v>8261</v>
       </c>
       <c r="C16" s="4">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="D16" s="4">
-        <v>1092</v>
+        <v>988</v>
       </c>
       <c r="E16" s="4">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B17" s="4">
-        <v>10230</v>
+        <v>9353</v>
       </c>
       <c r="C17" s="4">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="D17" s="4">
-        <v>877</v>
+        <v>1092</v>
       </c>
       <c r="E17" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="B18" s="4">
-        <v>11671</v>
+        <v>10230</v>
       </c>
       <c r="C18" s="4">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="D18" s="4">
-        <v>1441</v>
+        <v>877</v>
       </c>
       <c r="E18" s="4">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B19" s="4">
-        <v>12561</v>
+        <v>11671</v>
       </c>
       <c r="C19" s="4">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="D19" s="4">
-        <v>890</v>
+        <v>1441</v>
       </c>
       <c r="E19" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B20" s="4">
-        <v>13484</v>
+        <v>12561</v>
       </c>
       <c r="C20" s="4">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="D20" s="4">
-        <v>923</v>
+        <v>890</v>
       </c>
       <c r="E20" s="4">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>43934</v>
+        <v>43933</v>
       </c>
       <c r="B21" s="4">
-        <v>13906</v>
+        <v>13484</v>
       </c>
       <c r="C21" s="4">
-        <v>287</v>
+        <v>271</v>
       </c>
       <c r="D21" s="4">
-        <v>422</v>
+        <v>923</v>
       </c>
       <c r="E21" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>43935</v>
+        <v>43934</v>
       </c>
       <c r="B22" s="4">
-        <v>14624</v>
+        <v>13906</v>
       </c>
       <c r="C22" s="4">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="D22" s="4">
-        <v>718</v>
+        <v>422</v>
       </c>
       <c r="E22" s="4">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B23" s="4">
-        <v>15492</v>
+        <v>14624</v>
       </c>
       <c r="C23" s="4">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="D23" s="4">
-        <v>868</v>
+        <v>718</v>
       </c>
       <c r="E23" s="4">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B24" s="4">
-        <v>16455</v>
+        <v>15492</v>
       </c>
       <c r="C24" s="4">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="D24" s="4">
-        <v>963</v>
+        <v>868</v>
       </c>
       <c r="E24" s="4">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B25" s="4">
-        <v>17371</v>
+        <v>16455</v>
       </c>
       <c r="C25" s="4">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="D25" s="4">
-        <v>916</v>
+        <v>963</v>
       </c>
       <c r="E25" s="4">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B26" s="4">
-        <v>18260</v>
+        <v>17371</v>
       </c>
       <c r="C26" s="4">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="D26" s="4">
-        <v>889</v>
+        <v>916</v>
       </c>
       <c r="E26" s="4">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B27" s="4">
-        <v>18923</v>
+        <v>18260</v>
       </c>
       <c r="C27" s="4">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="D27" s="4">
-        <v>663</v>
+        <v>889</v>
       </c>
       <c r="E27" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B28" s="4">
-        <v>19458</v>
+        <v>18923</v>
       </c>
       <c r="C28" s="4">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="D28" s="4">
-        <v>535</v>
+        <v>663</v>
       </c>
       <c r="E28" s="4">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B29" s="4">
-        <v>20196</v>
+        <v>19458</v>
       </c>
       <c r="C29" s="4">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="D29" s="4">
-        <v>738</v>
+        <v>535</v>
       </c>
       <c r="E29" s="4">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B30" s="4">
-        <v>21069</v>
+        <v>20196</v>
       </c>
       <c r="C30" s="4">
-        <v>543</v>
+        <v>517</v>
       </c>
       <c r="D30" s="4">
-        <v>873</v>
+        <v>738</v>
       </c>
       <c r="E30" s="4">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B31" s="4">
-        <v>21944</v>
+        <v>21069</v>
       </c>
       <c r="C31" s="4">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="D31" s="4">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E31" s="4">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B32" s="4">
-        <v>22806</v>
+        <v>21944</v>
       </c>
       <c r="C32" s="4">
-        <v>593</v>
+        <v>561</v>
       </c>
       <c r="D32" s="4">
-        <v>862</v>
+        <v>875</v>
       </c>
       <c r="E32" s="4">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B33" s="4">
-        <v>23773</v>
+        <v>22806</v>
       </c>
       <c r="C33" s="4">
-        <v>623</v>
+        <v>593</v>
       </c>
       <c r="D33" s="4">
-        <v>967</v>
+        <v>862</v>
       </c>
       <c r="E33" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B34" s="4">
-        <v>24631</v>
+        <v>23773</v>
       </c>
       <c r="C34" s="4">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="D34" s="4">
-        <v>858</v>
+        <v>967</v>
       </c>
       <c r="E34" s="4">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B35" s="4">
-        <v>25297</v>
+        <v>24631</v>
       </c>
       <c r="C35" s="4">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="D35" s="4">
-        <v>666</v>
+        <v>858</v>
       </c>
       <c r="E35" s="4">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B36" s="4">
-        <v>26171</v>
+        <v>25297</v>
       </c>
       <c r="C36" s="4">
-        <v>690</v>
+        <v>663</v>
       </c>
       <c r="D36" s="4">
-        <v>874</v>
+        <v>666</v>
       </c>
       <c r="E36" s="4">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B37" s="4">
-        <v>27054</v>
+        <v>26171</v>
       </c>
       <c r="C37" s="4">
-        <v>732</v>
+        <v>690</v>
       </c>
       <c r="D37" s="4">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="E37" s="4">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B38" s="4">
-        <v>28087</v>
+        <v>27054</v>
       </c>
       <c r="C38" s="4">
-        <v>782</v>
+        <v>732</v>
       </c>
       <c r="D38" s="4">
-        <v>1033</v>
+        <v>883</v>
       </c>
       <c r="E38" s="4">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="B39" s="4">
-        <v>29229</v>
+        <v>28087</v>
       </c>
       <c r="C39" s="4">
-        <v>816</v>
+        <v>782</v>
       </c>
       <c r="D39" s="4">
-        <v>1142</v>
+        <v>1033</v>
       </c>
       <c r="E39" s="4">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B40" s="4">
-        <v>30522</v>
+        <v>29229</v>
       </c>
       <c r="C40" s="4">
-        <v>847</v>
+        <v>816</v>
       </c>
       <c r="D40" s="4">
-        <v>1293</v>
+        <v>1142</v>
       </c>
       <c r="E40" s="4">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B41" s="4">
-        <v>31548</v>
+        <v>30522</v>
       </c>
       <c r="C41" s="4">
-        <v>867</v>
+        <v>847</v>
       </c>
       <c r="D41" s="4">
-        <v>1026</v>
+        <v>1293</v>
       </c>
       <c r="E41" s="4">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B42" s="4">
-        <v>32332</v>
+        <v>31548</v>
       </c>
       <c r="C42" s="4">
-        <v>884</v>
+        <v>867</v>
       </c>
       <c r="D42" s="4">
-        <v>784</v>
+        <v>1026</v>
       </c>
       <c r="E42" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B43" s="4">
-        <v>33369</v>
+        <v>32332</v>
       </c>
       <c r="C43" s="4">
-        <v>906</v>
+        <v>884</v>
       </c>
       <c r="D43" s="4">
-        <v>1037</v>
+        <v>784</v>
       </c>
       <c r="E43" s="4">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B44" s="4">
-        <v>34422</v>
+        <v>33369</v>
       </c>
       <c r="C44" s="4">
-        <v>948</v>
+        <v>906</v>
       </c>
       <c r="D44" s="4">
-        <v>1053</v>
+        <v>1037</v>
       </c>
       <c r="E44" s="4">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B45" s="4">
-        <v>35390</v>
+        <v>34422</v>
       </c>
       <c r="C45" s="4">
-        <v>973</v>
+        <v>948</v>
       </c>
       <c r="D45" s="4">
-        <v>968</v>
+        <v>1053</v>
       </c>
       <c r="E45" s="4">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B46" s="4">
-        <v>36609</v>
+        <v>35390</v>
       </c>
       <c r="C46" s="4">
-        <v>1004</v>
+        <v>973</v>
       </c>
       <c r="D46" s="4">
-        <v>1219</v>
+        <v>968</v>
       </c>
       <c r="E46" s="4">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B47" s="4">
-        <v>37860</v>
+        <v>36609</v>
       </c>
       <c r="C47" s="4">
-        <v>1049</v>
+        <v>1004</v>
       </c>
       <c r="D47" s="4">
-        <v>1251</v>
+        <v>1219</v>
       </c>
       <c r="E47" s="4">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="B48" s="4">
-        <v>38869</v>
+        <v>37860</v>
       </c>
       <c r="C48" s="4">
-        <v>1088</v>
+        <v>1049</v>
       </c>
       <c r="D48" s="4">
-        <v>1009</v>
+        <v>1251</v>
       </c>
       <c r="E48" s="4">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B49" s="4">
-        <v>39869</v>
+        <v>38869</v>
       </c>
       <c r="C49" s="4">
-        <v>1100</v>
+        <v>1088</v>
       </c>
       <c r="D49" s="4">
-        <v>1000</v>
+        <v>1009</v>
       </c>
       <c r="E49" s="4">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B50" s="4">
-        <v>41048</v>
+        <v>39869</v>
       </c>
       <c r="C50" s="4">
-        <v>1133</v>
+        <v>1100</v>
       </c>
       <c r="D50" s="4">
-        <v>1179</v>
+        <v>1000</v>
       </c>
       <c r="E50" s="4">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B51" s="4">
-        <v>42403</v>
+        <v>41048</v>
       </c>
       <c r="C51" s="4">
-        <v>1158</v>
+        <v>1133</v>
       </c>
       <c r="D51" s="4">
-        <v>1355</v>
+        <v>1179</v>
       </c>
       <c r="E51" s="4">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B52" s="4">
-        <v>43851</v>
+        <v>42403</v>
       </c>
       <c r="C52" s="4">
-        <v>1216</v>
+        <v>1158</v>
       </c>
       <c r="D52" s="4">
-        <v>1448</v>
+        <v>1355</v>
       </c>
       <c r="E52" s="4">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B53" s="4">
-        <v>45198</v>
+        <v>43851</v>
       </c>
       <c r="C53" s="4">
-        <v>1272</v>
+        <v>1216</v>
       </c>
       <c r="D53" s="4">
-        <v>1347</v>
+        <v>1448</v>
       </c>
       <c r="E53" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B54" s="4">
-        <v>46999</v>
+        <v>45198</v>
       </c>
       <c r="C54" s="4">
-        <v>1305</v>
+        <v>1272</v>
       </c>
       <c r="D54" s="4">
-        <v>1801</v>
+        <v>1347</v>
       </c>
       <c r="E54" s="4">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B55" s="4">
-        <v>47784</v>
+        <v>46999</v>
       </c>
       <c r="C55" s="4">
-        <v>1336</v>
+        <v>1305</v>
       </c>
       <c r="D55" s="4">
-        <v>785</v>
+        <v>1801</v>
       </c>
       <c r="E55" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B56" s="4">
-        <v>48693</v>
+        <v>47784</v>
       </c>
       <c r="C56" s="4">
-        <v>1347</v>
+        <v>1336</v>
       </c>
       <c r="D56" s="4">
-        <v>909</v>
+        <v>785</v>
       </c>
       <c r="E56" s="4">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B57" s="4">
-        <v>49912</v>
+        <v>48693</v>
       </c>
       <c r="C57" s="4">
-        <v>1369</v>
+        <v>1347</v>
       </c>
       <c r="D57" s="4">
-        <v>1219</v>
+        <v>909</v>
       </c>
       <c r="E57" s="4">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B58" s="4">
-        <v>51323</v>
+        <v>49912</v>
       </c>
       <c r="C58" s="4">
-        <v>1419</v>
+        <v>1369</v>
       </c>
       <c r="D58" s="4">
-        <v>1411</v>
+        <v>1219</v>
       </c>
       <c r="E58" s="4">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B59" s="4">
-        <v>52268</v>
+        <v>51323</v>
       </c>
       <c r="C59" s="4">
-        <v>1440</v>
+        <v>1419</v>
       </c>
       <c r="D59" s="4">
-        <v>945</v>
+        <v>1411</v>
       </c>
       <c r="E59" s="4">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B60" s="4">
-        <v>53449</v>
+        <v>52268</v>
       </c>
       <c r="C60" s="4">
-        <v>1480</v>
+        <v>1440</v>
       </c>
       <c r="D60" s="4">
-        <v>1181</v>
+        <v>945</v>
       </c>
       <c r="E60" s="4">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B61" s="4">
-        <v>54509</v>
+        <v>53449</v>
       </c>
       <c r="C61" s="4">
-        <v>1506</v>
+        <v>1480</v>
       </c>
       <c r="D61" s="4">
-        <v>1060</v>
+        <v>1181</v>
       </c>
       <c r="E61" s="4">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B62" s="4">
-        <v>55348</v>
+        <v>54509</v>
       </c>
       <c r="C62" s="4">
-        <v>1519</v>
+        <v>1506</v>
       </c>
       <c r="D62" s="4">
-        <v>839</v>
+        <v>1060</v>
       </c>
       <c r="E62" s="4">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B63" s="4">
-        <v>55971</v>
+        <v>55348</v>
       </c>
       <c r="C63" s="4">
-        <v>1527</v>
+        <v>1519</v>
       </c>
       <c r="D63" s="4">
-        <v>623</v>
+        <v>839</v>
       </c>
       <c r="E63" s="4">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B64" s="4">
-        <v>56560</v>
+        <v>55971</v>
       </c>
       <c r="C64" s="4">
-        <v>1536</v>
+        <v>1527</v>
       </c>
       <c r="D64" s="4">
-        <v>589</v>
+        <v>623</v>
       </c>
       <c r="E64" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B65" s="4">
-        <v>57921</v>
+        <v>56560</v>
       </c>
       <c r="C65" s="4">
-        <v>1562</v>
+        <v>1536</v>
       </c>
       <c r="D65" s="4">
-        <v>1361</v>
+        <v>589</v>
       </c>
       <c r="E65" s="4">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B66" s="4">
-        <v>59776</v>
+        <v>57921</v>
       </c>
       <c r="C66" s="4">
-        <v>1601</v>
+        <v>1562</v>
       </c>
       <c r="D66" s="4">
-        <v>1855</v>
+        <v>1361</v>
       </c>
       <c r="E66" s="4">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B67" s="4">
-        <v>61006</v>
+        <v>59776</v>
       </c>
       <c r="C67" s="4">
-        <v>1626</v>
+        <v>1601</v>
       </c>
       <c r="D67" s="4">
-        <v>1230</v>
+        <v>1855</v>
       </c>
       <c r="E67" s="4">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B68" s="4">
-        <v>62338</v>
+        <v>61006</v>
       </c>
       <c r="C68" s="4">
-        <v>1648</v>
+        <v>1626</v>
       </c>
       <c r="D68" s="4">
-        <v>1332</v>
+        <v>1230</v>
       </c>
       <c r="E68" s="4">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B69" s="4">
-        <v>64287</v>
+        <v>62338</v>
       </c>
       <c r="C69" s="4">
-        <v>1672</v>
+        <v>1648</v>
       </c>
       <c r="D69" s="4">
-        <v>1949</v>
+        <v>1332</v>
       </c>
       <c r="E69" s="4">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B70" s="4">
-        <v>64880</v>
+        <v>64287</v>
       </c>
       <c r="C70" s="4">
-        <v>1678</v>
+        <v>1672</v>
       </c>
       <c r="D70" s="4">
-        <v>593</v>
+        <v>1949</v>
       </c>
       <c r="E70" s="4">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B71" s="4">
-        <v>66568</v>
+        <v>64880</v>
       </c>
       <c r="C71" s="4">
-        <v>1698</v>
+        <v>1678</v>
       </c>
       <c r="D71" s="4">
-        <v>1688</v>
+        <v>593</v>
       </c>
       <c r="E71" s="4">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>43985</v>
+        <v>43984</v>
       </c>
       <c r="B72" s="4">
-        <v>68271</v>
+        <v>66568</v>
       </c>
       <c r="C72" s="4">
-        <v>1734</v>
+        <v>1698</v>
       </c>
       <c r="D72" s="4">
-        <v>1703</v>
+        <v>1688</v>
       </c>
       <c r="E72" s="4">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>43986</v>
+        <v>43985</v>
       </c>
       <c r="B73" s="4">
-        <v>69920</v>
+        <v>68271</v>
       </c>
       <c r="C73" s="4">
-        <v>1767</v>
+        <v>1734</v>
       </c>
       <c r="D73" s="4">
-        <v>1649</v>
+        <v>1703</v>
       </c>
       <c r="E73" s="4">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>43987</v>
+        <v>43986</v>
       </c>
       <c r="B74" s="4">
-        <v>71613</v>
+        <v>69920</v>
       </c>
       <c r="C74" s="4">
-        <v>1788</v>
+        <v>1767</v>
       </c>
       <c r="D74" s="4">
-        <v>1693</v>
+        <v>1649</v>
       </c>
       <c r="E74" s="4">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>43988</v>
+        <v>43987</v>
       </c>
       <c r="B75" s="4">
-        <v>73553</v>
+        <v>71613</v>
       </c>
       <c r="C75" s="4">
-        <v>1819</v>
+        <v>1788</v>
       </c>
       <c r="D75" s="4">
-        <v>1940</v>
+        <v>1693</v>
       </c>
       <c r="E75" s="4">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>43989</v>
+        <v>43988</v>
       </c>
       <c r="B76" s="4">
-        <v>74978</v>
+        <v>73553</v>
       </c>
       <c r="C76" s="4">
-        <v>1830</v>
+        <v>1819</v>
       </c>
       <c r="D76" s="4">
-        <v>1425</v>
+        <v>1940</v>
       </c>
       <c r="E76" s="4">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>43990</v>
+        <v>43989</v>
       </c>
       <c r="B77" s="4">
-        <v>75616</v>
+        <v>74978</v>
       </c>
       <c r="C77" s="4">
-        <v>1836</v>
+        <v>1830</v>
       </c>
       <c r="D77" s="4">
-        <v>638</v>
+        <v>1425</v>
       </c>
       <c r="E77" s="4">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>43991</v>
+        <v>43990</v>
       </c>
       <c r="B78" s="4">
-        <v>77253</v>
+        <v>75616</v>
       </c>
       <c r="C78" s="4">
-        <v>1853</v>
+        <v>1836</v>
       </c>
       <c r="D78" s="4">
-        <v>1637</v>
+        <v>638</v>
       </c>
       <c r="E78" s="4">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>43992</v>
+        <v>43991</v>
       </c>
       <c r="B79" s="4">
-        <v>79757</v>
+        <v>77253</v>
       </c>
       <c r="C79" s="4">
-        <v>1885</v>
+        <v>1853</v>
       </c>
       <c r="D79" s="4">
-        <v>2504</v>
+        <v>1637</v>
       </c>
       <c r="E79" s="4">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
+        <v>43992</v>
+      </c>
+      <c r="B80" s="4">
+        <v>79757</v>
+      </c>
+      <c r="C80" s="4">
+        <v>1885</v>
+      </c>
+      <c r="D80" s="4">
+        <v>2504</v>
+      </c>
+      <c r="E80" s="4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
         <v>43993</v>
       </c>
-      <c r="B80" s="4">
+      <c r="B81" s="4">
         <v>81583</v>
       </c>
-      <c r="C80" s="4">
+      <c r="C81" s="4">
         <v>1920</v>
       </c>
-      <c r="D80" s="4">
+      <c r="D81" s="4">
         <v>1826</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E81" s="4">
         <v>35</v>
       </c>
     </row>
+    <row r="82" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>43994</v>
+      </c>
+      <c r="B82" s="4">
+        <v>83680</v>
+      </c>
+      <c r="C82" s="4">
+        <v>1939</v>
+      </c>
+      <c r="D82" s="4">
+        <v>2097</v>
+      </c>
+      <c r="E82" s="4">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6363,7 +6391,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -6374,32 +6402,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="B1" s="21"/>
+      <c r="A1" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>54096</v>
+        <v>55258</v>
       </c>
       <c r="B3" s="7">
-        <v>25567</v>
+        <v>26483</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
-        <v>268</v>
-      </c>
-      <c r="B5" s="21"/>
+      <c r="A5" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6413,12 +6441,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="M65" sqref="M65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6427,45 +6455,44 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>269</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" ht="89.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>270</v>
-      </c>
       <c r="E2" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>329</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>326</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>327</v>
-      </c>
       <c r="H2" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6473,10 +6500,10 @@
         <v>43925</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D3" s="8">
         <v>63751</v>
@@ -6493,10 +6520,10 @@
         <v>43926</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D4" s="8">
         <v>70938</v>
@@ -6513,10 +6540,10 @@
         <v>43927</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D5" s="8">
         <v>85357</v>
@@ -6533,10 +6560,10 @@
         <v>43928</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D6" s="8">
         <v>88649</v>
@@ -6553,10 +6580,10 @@
         <v>43929</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D7" s="8">
         <v>96258</v>
@@ -6573,10 +6600,10 @@
         <v>43930</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D8" s="8">
         <v>106134</v>
@@ -6593,10 +6620,10 @@
         <v>43931</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D9" s="8">
         <v>115918</v>
@@ -6613,10 +6640,10 @@
         <v>43932</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D10" s="8">
         <v>120533</v>
@@ -6633,10 +6660,10 @@
         <v>43933</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D11" s="8">
         <v>124553</v>
@@ -6653,10 +6680,10 @@
         <v>43934</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D12" s="8">
         <v>133226</v>
@@ -6673,10 +6700,10 @@
         <v>43935</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D13" s="8">
         <v>146467</v>
@@ -6693,10 +6720,10 @@
         <v>43936</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D14" s="8">
         <v>151810</v>
@@ -6713,10 +6740,10 @@
         <v>43937</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D15" s="8">
         <v>158547</v>
@@ -6733,10 +6760,10 @@
         <v>43938</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D16" s="8">
         <v>169536</v>
@@ -6753,10 +6780,10 @@
         <v>43939</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D17" s="8">
         <v>176239</v>
@@ -6773,10 +6800,10 @@
         <v>43940</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D18" s="8">
         <v>182710</v>
@@ -6793,10 +6820,10 @@
         <v>43941</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D19" s="8">
         <v>190394</v>
@@ -6813,10 +6840,10 @@
         <v>43942</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D20" s="8">
         <v>205399</v>
@@ -6833,10 +6860,10 @@
         <v>43943</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D21" s="8">
         <v>216783</v>
@@ -6853,10 +6880,10 @@
         <v>43944</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D22" s="8">
         <v>225078</v>
@@ -6873,10 +6900,10 @@
         <v>43945</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D23" s="8">
         <v>242547</v>
@@ -6893,10 +6920,10 @@
         <v>43946</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D24" s="8">
         <v>262816</v>
@@ -6913,10 +6940,10 @@
         <v>43947</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D25" s="8">
         <v>276021</v>
@@ -6933,10 +6960,10 @@
         <v>43948</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D26" s="8">
         <v>290517</v>
@@ -6953,10 +6980,10 @@
         <v>43949</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D27" s="8">
         <v>300384</v>
@@ -6973,10 +7000,10 @@
         <v>43950</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D28" s="8">
         <v>314790</v>
@@ -6993,10 +7020,10 @@
         <v>43951</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D29" s="8">
         <v>330300</v>
@@ -7013,10 +7040,10 @@
         <v>43952</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D30" s="8">
         <v>351775</v>
@@ -7033,10 +7060,10 @@
         <v>43953</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D31" s="8">
         <v>380648</v>
@@ -7053,10 +7080,10 @@
         <v>43954</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D32" s="8">
         <v>390560</v>
@@ -7073,10 +7100,10 @@
         <v>43955</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D33" s="8">
         <v>407398</v>
@@ -7093,10 +7120,10 @@
         <v>43956</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D34" s="8">
         <v>427210</v>
@@ -7113,10 +7140,10 @@
         <v>43957</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D35" s="8">
         <v>438938</v>
@@ -7133,10 +7160,10 @@
         <v>43958</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D36" s="8">
         <v>455162</v>
@@ -7153,10 +7180,10 @@
         <v>43959</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D37" s="8">
         <v>477118</v>
@@ -7412,7 +7439,7 @@
         <v>29538</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>43971</v>
       </c>
@@ -7438,7 +7465,7 @@
         <v>26116</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
         <v>43972</v>
       </c>
@@ -7464,7 +7491,7 @@
         <v>25307</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
         <v>43973</v>
       </c>
@@ -7490,21 +7517,21 @@
         <v>26921</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>43974</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D52" s="8">
         <v>870935</v>
       </c>
       <c r="E52" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -7512,7 +7539,7 @@
         <v>27495</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>43975</v>
       </c>
@@ -7538,7 +7565,7 @@
         <v>27583</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
         <v>43976</v>
       </c>
@@ -7564,7 +7591,7 @@
         <v>26152</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
         <v>43977</v>
       </c>
@@ -7590,7 +7617,7 @@
         <v>28329</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
         <v>43978</v>
       </c>
@@ -7616,7 +7643,7 @@
         <v>27374</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
         <v>43979</v>
       </c>
@@ -7642,7 +7669,7 @@
         <v>27080</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>43980</v>
       </c>
@@ -7668,7 +7695,7 @@
         <v>27573</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
         <v>43981</v>
       </c>
@@ -7682,7 +7709,7 @@
         <v>1054793</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -7690,7 +7717,7 @@
         <v>26265</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
         <v>43982</v>
       </c>
@@ -7716,7 +7743,7 @@
         <v>26734</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
         <v>43983</v>
       </c>
@@ -7742,7 +7769,7 @@
         <v>26800</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
         <v>43984</v>
       </c>
@@ -7767,10 +7794,8 @@
       <c r="H62" s="8">
         <v>24862</v>
       </c>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-    </row>
-    <row r="63" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
         <v>43985</v>
       </c>
@@ -7795,11 +7820,8 @@
       <c r="H63" s="8">
         <v>27001</v>
       </c>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-    </row>
-    <row r="64" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
         <v>43986</v>
       </c>
@@ -7824,11 +7846,8 @@
       <c r="H64" s="8">
         <v>26422</v>
       </c>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-    </row>
-    <row r="65" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
         <v>43987</v>
       </c>
@@ -7853,11 +7872,8 @@
       <c r="H65" s="8">
         <v>25963</v>
       </c>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-    </row>
-    <row r="66" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
         <v>43988</v>
       </c>
@@ -7882,11 +7898,8 @@
       <c r="H66" s="8">
         <v>23452</v>
       </c>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-    </row>
-    <row r="67" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>43989</v>
       </c>
@@ -7911,11 +7924,8 @@
       <c r="H67" s="8">
         <v>26058</v>
       </c>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-    </row>
-    <row r="68" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
         <v>43990</v>
       </c>
@@ -7940,11 +7950,8 @@
       <c r="H68" s="8">
         <v>27495</v>
       </c>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-    </row>
-    <row r="69" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
         <v>43991</v>
       </c>
@@ -7969,11 +7976,8 @@
       <c r="H69" s="8">
         <v>26396</v>
       </c>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-    </row>
-    <row r="70" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
         <v>43992</v>
       </c>
@@ -7998,39 +8002,62 @@
       <c r="H70" s="8">
         <v>28289</v>
       </c>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-    </row>
-    <row r="71" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
         <v>43993</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>273</v>
+      <c r="B71" s="8">
+        <v>1226957</v>
+      </c>
+      <c r="C71" s="8">
+        <v>143174</v>
       </c>
       <c r="D71" s="8">
         <v>1370131</v>
       </c>
-      <c r="E71" s="8"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-    </row>
-    <row r="73" spans="1:11" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
+      <c r="E71" s="12">
+        <v>7.0522006760147776E-2</v>
+      </c>
+      <c r="F71" s="8">
+        <v>23626</v>
+      </c>
+      <c r="G71" s="8">
+        <v>4257</v>
+      </c>
+      <c r="H71" s="8">
+        <v>27883</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>43994</v>
+      </c>
+      <c r="B72" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
+      <c r="C72" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D72" s="8">
+        <v>1404369</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+    </row>
+    <row r="74" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
+      <c r="D74" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A74:D74"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -8044,7 +8071,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -8055,48 +8082,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="B1" s="21"/>
+      <c r="A1" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B3" s="7">
-        <v>55622</v>
+        <v>57493</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B4" s="7">
-        <v>1314509</v>
+        <v>1346876</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B5" s="7">
-        <v>1370131</v>
+        <v>1404369</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="B7" s="21"/>
+      <c r="A7" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="B7" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8109,7 +8136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE0352FB-F5E5-4618-9E2B-58A1771D224D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132EF70C-D153-4D98-B898-CEEA278F132D}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8124,40 +8151,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>332</v>
-      </c>
-      <c r="B1" s="25"/>
+      <c r="A1" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="24"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B3" s="17">
-        <v>142573</v>
+        <v>143174</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B4" s="17">
-        <v>5906</v>
+        <v>5925</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="B6" s="25"/>
+      <c r="A6" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8174,8 +8201,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8185,64 +8212,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="B1" s="21"/>
+      <c r="A1" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B3" s="7">
-        <v>2008</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B4" s="7">
-        <v>53995</v>
+        <v>57028</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B5" s="7">
-        <v>13271</v>
+        <v>14033</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B6" s="7">
-        <v>1419</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B7" s="7">
-        <v>5515</v>
+        <v>5814</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="B9" s="21"/>
+      <c r="A9" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8256,12 +8283,12 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8272,21 +8299,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>289</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="A1" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9048,17 +9075,28 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="22" t="s">
-        <v>281</v>
-      </c>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
+    <row r="72" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>70</v>
+      </c>
+      <c r="B72" s="6">
+        <v>43994</v>
+      </c>
+      <c r="C72" s="7">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="A74:C74"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9071,7 +9109,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -9079,181 +9117,181 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>292</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
+      <c r="A1" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B3" s="8">
-        <v>40</v>
-      </c>
-      <c r="C3" s="19">
+        <v>41</v>
+      </c>
+      <c r="C3" s="18">
         <f>B3/B$16</f>
-        <v>2.5715204114432656E-3</v>
+        <v>2.6248399487836106E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B4" s="8">
-        <v>178</v>
-      </c>
-      <c r="C4" s="19">
-        <f t="shared" ref="C4:C15" si="0">B4/B$16</f>
-        <v>1.1443265830922533E-2</v>
+        <v>180</v>
+      </c>
+      <c r="C4" s="18">
+        <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
+        <v>1.1523687580025609E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B5" s="8">
-        <v>465</v>
-      </c>
-      <c r="C5" s="19">
+        <v>470</v>
+      </c>
+      <c r="C5" s="18">
         <f t="shared" si="0"/>
-        <v>2.9893924783027964E-2</v>
+        <v>3.0089628681177975E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B6" s="8">
-        <v>2424</v>
-      </c>
-      <c r="C6" s="19">
+        <v>2434</v>
+      </c>
+      <c r="C6" s="18">
         <f t="shared" si="0"/>
-        <v>0.1558341369334619</v>
+        <v>0.1558258642765685</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B7" s="8">
-        <v>2859</v>
-      </c>
-      <c r="C7" s="19">
+        <v>2861</v>
+      </c>
+      <c r="C7" s="18">
         <f t="shared" si="0"/>
-        <v>0.18379942140790742</v>
+        <v>0.18316261203585146</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B8" s="8">
-        <v>2901</v>
-      </c>
-      <c r="C8" s="19">
+        <v>2924</v>
+      </c>
+      <c r="C8" s="18">
         <f t="shared" si="0"/>
-        <v>0.18649951783992286</v>
+        <v>0.18719590268886044</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B9" s="8">
         <v>2855</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="18">
         <f t="shared" si="0"/>
-        <v>0.1835422693667631</v>
+        <v>0.18277848911651728</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B10" s="8">
-        <v>1211</v>
-      </c>
-      <c r="C10" s="19">
+        <v>1216</v>
+      </c>
+      <c r="C10" s="18">
         <f t="shared" si="0"/>
-        <v>7.7852780456444878E-2</v>
+        <v>7.7848911651728553E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B11" s="8">
-        <v>876</v>
-      </c>
-      <c r="C11" s="19">
+        <v>882</v>
+      </c>
+      <c r="C11" s="18">
         <f t="shared" si="0"/>
-        <v>5.6316297010607523E-2</v>
+        <v>5.6466069142125479E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B12" s="8">
-        <v>577</v>
-      </c>
-      <c r="C12" s="19">
+        <v>584</v>
+      </c>
+      <c r="C12" s="18">
         <f t="shared" si="0"/>
-        <v>3.7094181935069109E-2</v>
+        <v>3.7387964148527526E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B13" s="8">
-        <v>383</v>
-      </c>
-      <c r="C13" s="19">
+        <v>387</v>
+      </c>
+      <c r="C13" s="18">
         <f t="shared" si="0"/>
-        <v>2.4622307939569269E-2</v>
+        <v>2.4775928297055057E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B14" s="8">
         <v>663</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="18">
         <f t="shared" si="0"/>
-        <v>4.2622950819672129E-2</v>
+        <v>4.2445582586427659E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B15" s="8">
         <v>123</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <f t="shared" si="0"/>
-        <v>7.9074252651880426E-3</v>
+        <v>7.8745198463508331E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9261,26 +9299,26 @@
         <v>258</v>
       </c>
       <c r="B16" s="8">
-        <v>15555</v>
-      </c>
-      <c r="C16" s="19">
-        <f>SUM(C3:C15)</f>
-        <v>0.99999999999999989</v>
+        <v>15620</v>
+      </c>
+      <c r="C16" s="18">
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
+      <c r="A18" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>310</v>
-      </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
+      <c r="A19" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9289,6 +9327,6 @@
     <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
+++ b/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{75C1DDA3-F58B-4F87-AE1A-6B261EE59E51}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FF0CCD1-DC85-4218-8979-869BD21F43AE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="334">
   <si>
-    <t>COVID-19 Cases and Fatalities by County as of 6/12 at 10:45AM CST</t>
+    <t>COVID-19 Cases and Fatalities by County as of 6/13 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -812,7 +812,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/12 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/13 at 10:45AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -839,7 +839,7 @@
 Fatalities</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/12 at 3:00PM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/13 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -851,7 +851,7 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/12 at 3:00PM CST</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/13 at 3:00PM CST</t>
   </si>
   <si>
     <t>Total Tests
@@ -870,7 +870,7 @@
     <t>Tests include those performed by public labs (Laboratory Response Network) and private labs (commercial labs, hospitals, physician offices, and drive-thru sites) reported electronically and non-electronically to DSHS.</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/12 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/13 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -891,7 +891,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 6/12 at 9:30AM CST</t>
+    <t>Texas Statewide Hospitalization Data as of 6/13 at 9:30AM CST</t>
   </si>
   <si>
     <t>Hospital data</t>
@@ -912,7 +912,7 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 6/12 at 9:30AM CST</t>
+    <t>Number of COVID-19 Hospitalizations by Day as of 6/13 at 9:30AM CST</t>
   </si>
   <si>
     <t>Obs</t>
@@ -921,7 +921,7 @@
     <t>Hospitalizations</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 6/12 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 6/13 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -976,10 +976,10 @@
     <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
   </si>
   <si>
-    <t>Completed case investigations received by DSHS =          15,620</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 6/12 at 9:30 AM CST</t>
+    <t>Completed case investigations received by DSHS =          15,682</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 6/13 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -991,7 +991,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 6/12 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 6/13 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -1012,16 +1012,16 @@
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 6/12 at 9:30 AM CST</t>
+    <t>Age of Confirmed Fatalities as of 6/13 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Completed investigations received by DSHS =          664</t>
   </si>
   <si>
-    <t>Gender of Confirmed Fatalities as of 6/12 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 6/12 at 9:30 AM CST</t>
+    <t>Gender of Confirmed Fatalities as of 6/13 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 6/13 at 9:30 AM CST</t>
   </si>
   <si>
     <t>COVID-19
@@ -1044,7 +1044,7 @@
     <t>Number of Positive Antibody Tests Reported</t>
   </si>
   <si>
-    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/11 at 3:00PM CST</t>
+    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/12 at 3:00PM CST</t>
   </si>
 </sst>
 </file>
@@ -1056,8 +1056,8 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="##,###,##0"/>
     <numFmt numFmtId="167" formatCode="###,###,###,###,##0"/>
-    <numFmt numFmtId="168" formatCode="##0"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
+    <numFmt numFmtId="169" formatCode="##0"/>
+    <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1218,14 +1218,32 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1242,34 +1260,16 @@
     <xf numFmtId="166" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="170" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{42715A78-E9B1-4B10-9FC6-29F6F569C518}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{45A906E0-E301-4AE3-8F0F-7A3194A8E1A9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1404,7 +1404,6 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -1416,11 +1415,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1438,7 +1437,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C3" s="4">
         <v>0</v>
@@ -1449,7 +1448,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
@@ -1504,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -1515,7 +1514,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -1526,7 +1525,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
@@ -1548,7 +1547,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C13" s="4">
         <v>4</v>
@@ -1581,7 +1580,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>574</v>
+        <v>605</v>
       </c>
       <c r="C16" s="4">
         <v>6</v>
@@ -1592,10 +1591,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>3840</v>
+        <v>4012</v>
       </c>
       <c r="C17" s="4">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1636,7 +1635,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C21" s="4">
         <v>7</v>
@@ -1658,7 +1657,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="C23" s="4">
         <v>24</v>
@@ -1669,7 +1668,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
@@ -1713,7 +1712,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -1724,7 +1723,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
@@ -1735,7 +1734,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
@@ -1757,10 +1756,10 @@
         <v>33</v>
       </c>
       <c r="B32" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C32" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1768,7 +1767,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>1031</v>
+        <v>1081</v>
       </c>
       <c r="C33" s="4">
         <v>44</v>
@@ -1779,7 +1778,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="4">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
@@ -1812,7 +1811,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -1823,7 +1822,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -1900,7 +1899,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>1560</v>
+        <v>1638</v>
       </c>
       <c r="C45" s="4">
         <v>37</v>
@@ -1922,7 +1921,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -1933,7 +1932,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C48" s="4">
         <v>7</v>
@@ -2043,7 +2042,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
@@ -2054,10 +2053,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>13257</v>
+        <v>13585</v>
       </c>
       <c r="C59" s="4">
-        <v>277</v>
+        <v>280</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2076,7 +2075,7 @@
         <v>62</v>
       </c>
       <c r="B61" s="4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C61" s="4">
         <v>1</v>
@@ -2087,7 +2086,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="4">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="C62" s="4">
         <v>14</v>
@@ -2109,7 +2108,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>1632</v>
+        <v>1687</v>
       </c>
       <c r="C64" s="4">
         <v>36</v>
@@ -2175,7 +2174,7 @@
         <v>71</v>
       </c>
       <c r="B70" s="4">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="C70" s="4">
         <v>6</v>
@@ -2197,10 +2196,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>3695</v>
+        <v>3794</v>
       </c>
       <c r="C72" s="4">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2208,10 +2207,10 @@
         <v>74</v>
       </c>
       <c r="B73" s="4">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="C73" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2219,7 +2218,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="4">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C74" s="4">
         <v>1</v>
@@ -2241,7 +2240,7 @@
         <v>77</v>
       </c>
       <c r="B76" s="4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C76" s="4">
         <v>2</v>
@@ -2252,7 +2251,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C77" s="4">
         <v>2</v>
@@ -2296,7 +2295,7 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>2320</v>
+        <v>2358</v>
       </c>
       <c r="C81" s="4">
         <v>47</v>
@@ -2307,7 +2306,7 @@
         <v>83</v>
       </c>
       <c r="B82" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C82" s="4">
         <v>0</v>
@@ -2329,7 +2328,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="4">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
@@ -2340,7 +2339,7 @@
         <v>86</v>
       </c>
       <c r="B85" s="4">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C85" s="4">
         <v>0</v>
@@ -2351,7 +2350,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>1114</v>
+        <v>1166</v>
       </c>
       <c r="C86" s="4">
         <v>40</v>
@@ -2373,7 +2372,7 @@
         <v>89</v>
       </c>
       <c r="B88" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C88" s="4">
         <v>0</v>
@@ -2384,7 +2383,7 @@
         <v>90</v>
       </c>
       <c r="B89" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C89" s="4">
         <v>0</v>
@@ -2406,7 +2405,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="4">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="C91" s="4">
         <v>4</v>
@@ -2428,7 +2427,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="C93" s="4">
         <v>4</v>
@@ -2439,7 +2438,7 @@
         <v>95</v>
       </c>
       <c r="B94" s="4">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C94" s="4">
         <v>11</v>
@@ -2450,10 +2449,10 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C95" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2461,7 +2460,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C96" s="4">
         <v>0</v>
@@ -2527,7 +2526,7 @@
         <v>103</v>
       </c>
       <c r="B102" s="4">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C102" s="4">
         <v>5</v>
@@ -2538,10 +2537,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>15864</v>
+        <v>16188</v>
       </c>
       <c r="C103" s="4">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2549,7 +2548,7 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C104" s="4">
         <v>28</v>
@@ -2560,7 +2559,7 @@
         <v>106</v>
       </c>
       <c r="B105" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C105" s="4">
         <v>2</v>
@@ -2582,7 +2581,7 @@
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>574</v>
+        <v>673</v>
       </c>
       <c r="C107" s="4">
         <v>5</v>
@@ -2604,7 +2603,7 @@
         <v>110</v>
       </c>
       <c r="B109" s="4">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C109" s="4">
         <v>3</v>
@@ -2615,7 +2614,7 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>912</v>
+        <v>967</v>
       </c>
       <c r="C110" s="4">
         <v>12</v>
@@ -2626,7 +2625,7 @@
         <v>112</v>
       </c>
       <c r="B111" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C111" s="4">
         <v>1</v>
@@ -2648,7 +2647,7 @@
         <v>114</v>
       </c>
       <c r="B113" s="4">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C113" s="4">
         <v>4</v>
@@ -2670,7 +2669,7 @@
         <v>116</v>
       </c>
       <c r="B115" s="4">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C115" s="4">
         <v>0</v>
@@ -2692,7 +2691,7 @@
         <v>118</v>
       </c>
       <c r="B117" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C117" s="4">
         <v>0</v>
@@ -2703,7 +2702,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="4">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="C118" s="4">
         <v>5</v>
@@ -2780,7 +2779,7 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>1222</v>
+        <v>1233</v>
       </c>
       <c r="C125" s="4">
         <v>31</v>
@@ -2813,7 +2812,7 @@
         <v>129</v>
       </c>
       <c r="B128" s="4">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C128" s="4">
         <v>4</v>
@@ -2824,7 +2823,7 @@
         <v>130</v>
       </c>
       <c r="B129" s="4">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -2846,7 +2845,7 @@
         <v>132</v>
       </c>
       <c r="B131" s="4">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="C131" s="4">
         <v>3</v>
@@ -2978,7 +2977,7 @@
         <v>144</v>
       </c>
       <c r="B143" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C143" s="4">
         <v>0</v>
@@ -3000,7 +2999,7 @@
         <v>146</v>
       </c>
       <c r="B145" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C145" s="4">
         <v>1</v>
@@ -3044,7 +3043,7 @@
         <v>150</v>
       </c>
       <c r="B149" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C149" s="4">
         <v>1</v>
@@ -3099,7 +3098,7 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>790</v>
+        <v>813</v>
       </c>
       <c r="C154" s="4">
         <v>51</v>
@@ -3110,7 +3109,7 @@
         <v>156</v>
       </c>
       <c r="B155" s="4">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C155" s="4">
         <v>1</v>
@@ -3121,7 +3120,7 @@
         <v>157</v>
       </c>
       <c r="B156" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C156" s="4">
         <v>0</v>
@@ -3165,7 +3164,7 @@
         <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C160" s="4">
         <v>5</v>
@@ -3176,7 +3175,7 @@
         <v>162</v>
       </c>
       <c r="B161" s="4">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="C161" s="4">
         <v>2</v>
@@ -3198,7 +3197,7 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C163" s="4">
         <v>4</v>
@@ -3220,7 +3219,7 @@
         <v>166</v>
       </c>
       <c r="B165" s="4">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C165" s="4">
         <v>2</v>
@@ -3242,7 +3241,7 @@
         <v>168</v>
       </c>
       <c r="B167" s="4">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C167" s="4">
         <v>13</v>
@@ -3253,7 +3252,7 @@
         <v>169</v>
       </c>
       <c r="B168" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C168" s="4">
         <v>1</v>
@@ -3297,7 +3296,7 @@
         <v>173</v>
       </c>
       <c r="B172" s="4">
-        <v>1197</v>
+        <v>1258</v>
       </c>
       <c r="C172" s="4">
         <v>32</v>
@@ -3308,7 +3307,7 @@
         <v>174</v>
       </c>
       <c r="B173" s="4">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="C173" s="4">
         <v>14</v>
@@ -3319,7 +3318,7 @@
         <v>175</v>
       </c>
       <c r="B174" s="4">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C174" s="4">
         <v>0</v>
@@ -3341,7 +3340,7 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="C176" s="4">
         <v>25</v>
@@ -3352,7 +3351,7 @@
         <v>178</v>
       </c>
       <c r="B177" s="4">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C177" s="4">
         <v>3</v>
@@ -3374,7 +3373,7 @@
         <v>180</v>
       </c>
       <c r="B179" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C179" s="4">
         <v>0</v>
@@ -3385,7 +3384,7 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="C180" s="4">
         <v>3</v>
@@ -3418,7 +3417,7 @@
         <v>184</v>
       </c>
       <c r="B183" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C183" s="4">
         <v>2</v>
@@ -3451,7 +3450,7 @@
         <v>187</v>
       </c>
       <c r="B186" s="4">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C186" s="4">
         <v>1</v>
@@ -3462,7 +3461,7 @@
         <v>188</v>
       </c>
       <c r="B187" s="4">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C187" s="4">
         <v>0</v>
@@ -3495,7 +3494,7 @@
         <v>191</v>
       </c>
       <c r="B190" s="4">
-        <v>2783</v>
+        <v>2785</v>
       </c>
       <c r="C190" s="4">
         <v>36</v>
@@ -3517,7 +3516,7 @@
         <v>193</v>
       </c>
       <c r="B192" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C192" s="4">
         <v>0</v>
@@ -3528,7 +3527,7 @@
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C193" s="4">
         <v>7</v>
@@ -3561,7 +3560,7 @@
         <v>197</v>
       </c>
       <c r="B196" s="4">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C196" s="4">
         <v>8</v>
@@ -3616,7 +3615,7 @@
         <v>202</v>
       </c>
       <c r="B201" s="4">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C201" s="4">
         <v>14</v>
@@ -3638,7 +3637,7 @@
         <v>204</v>
       </c>
       <c r="B203" s="4">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C203" s="4">
         <v>2</v>
@@ -3693,7 +3692,7 @@
         <v>209</v>
       </c>
       <c r="B208" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C208" s="4">
         <v>0</v>
@@ -3704,7 +3703,7 @@
         <v>210</v>
       </c>
       <c r="B209" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C209" s="4">
         <v>0</v>
@@ -3737,7 +3736,7 @@
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C212" s="4">
         <v>8</v>
@@ -3759,7 +3758,7 @@
         <v>215</v>
       </c>
       <c r="B214" s="4">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="C214" s="4">
         <v>4</v>
@@ -3781,7 +3780,7 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="C216" s="4">
         <v>0</v>
@@ -3792,7 +3791,7 @@
         <v>218</v>
       </c>
       <c r="B217" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C217" s="4">
         <v>0</v>
@@ -3847,10 +3846,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>6824</v>
+        <v>7120</v>
       </c>
       <c r="C222" s="4">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3902,7 +3901,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>580</v>
+        <v>626</v>
       </c>
       <c r="C227" s="4">
         <v>2</v>
@@ -3913,7 +3912,7 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C228" s="4">
         <v>1</v>
@@ -3924,10 +3923,10 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>4238</v>
+        <v>4314</v>
       </c>
       <c r="C229" s="4">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4001,7 +4000,7 @@
         <v>237</v>
       </c>
       <c r="B236" s="4">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C236" s="4">
         <v>1</v>
@@ -4012,7 +4011,7 @@
         <v>238</v>
       </c>
       <c r="B237" s="4">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C237" s="4">
         <v>8</v>
@@ -4023,7 +4022,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>1868</v>
+        <v>1870</v>
       </c>
       <c r="C238" s="4">
         <v>27</v>
@@ -4034,7 +4033,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4056,7 +4055,7 @@
         <v>242</v>
       </c>
       <c r="B241" s="4">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C241" s="4">
         <v>26</v>
@@ -4067,7 +4066,7 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>661</v>
+        <v>675</v>
       </c>
       <c r="C242" s="4">
         <v>20</v>
@@ -4078,7 +4077,7 @@
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C243" s="4">
         <v>1</v>
@@ -4100,7 +4099,7 @@
         <v>246</v>
       </c>
       <c r="B245" s="4">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C245" s="4">
         <v>2</v>
@@ -4122,7 +4121,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C247" s="4">
         <v>3</v>
@@ -4133,7 +4132,7 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>787</v>
+        <v>820</v>
       </c>
       <c r="C248" s="4">
         <v>30</v>
@@ -4144,7 +4143,7 @@
         <v>250</v>
       </c>
       <c r="B249" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C249" s="4">
         <v>5</v>
@@ -4166,7 +4165,7 @@
         <v>252</v>
       </c>
       <c r="B251" s="4">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C251" s="4">
         <v>5</v>
@@ -4177,7 +4176,7 @@
         <v>253</v>
       </c>
       <c r="B252" s="4">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C252" s="4">
         <v>5</v>
@@ -4188,7 +4187,7 @@
         <v>254</v>
       </c>
       <c r="B253" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C253" s="4">
         <v>0</v>
@@ -4199,7 +4198,7 @@
         <v>255</v>
       </c>
       <c r="B254" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C254" s="4">
         <v>1</v>
@@ -4221,7 +4220,7 @@
         <v>257</v>
       </c>
       <c r="B256" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C256" s="4">
         <v>0</v>
@@ -4232,10 +4231,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>83680</v>
+        <v>86011</v>
       </c>
       <c r="C257" s="4">
-        <v>1939</v>
+        <v>1957</v>
       </c>
     </row>
   </sheetData>
@@ -4253,7 +4252,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="G13" sqref="G13"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4261,15 +4260,15 @@
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4289,9 +4288,9 @@
       <c r="B3" s="8">
         <v>7006</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="25">
         <f>B3/B$6</f>
-        <v>0.44852752880921892</v>
+        <v>0.44675424053054458</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4299,11 +4298,11 @@
         <v>315</v>
       </c>
       <c r="B4" s="8">
-        <v>8325</v>
-      </c>
-      <c r="C4" s="18">
+        <v>8386</v>
+      </c>
+      <c r="C4" s="25">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.53297055057618437</v>
+        <v>0.53475322025251881</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4311,11 +4310,11 @@
         <v>309</v>
       </c>
       <c r="B5" s="8">
-        <v>289</v>
-      </c>
-      <c r="C5" s="18">
+        <v>290</v>
+      </c>
+      <c r="C5" s="25">
         <f t="shared" si="0"/>
-        <v>1.850192061459667E-2</v>
+        <v>1.8492539216936617E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4323,26 +4322,26 @@
         <v>258</v>
       </c>
       <c r="B6" s="8">
-        <v>15620</v>
-      </c>
-      <c r="C6" s="18">
+        <v>15682</v>
+      </c>
+      <c r="C6" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4361,7 +4360,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="G13" sqref="G13"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4369,15 +4368,15 @@
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.26953125" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4397,9 +4396,9 @@
       <c r="B3" s="8">
         <v>519</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="25">
         <f>B3/B$9</f>
-        <v>3.3226632522407172E-2</v>
+        <v>3.3095268460655532E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4407,11 +4406,11 @@
         <v>319</v>
       </c>
       <c r="B4" s="8">
-        <v>2532</v>
-      </c>
-      <c r="C4" s="18">
+        <v>2552</v>
+      </c>
+      <c r="C4" s="25">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.16209987195902689</v>
+        <v>0.16273434510904222</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4419,11 +4418,11 @@
         <v>320</v>
       </c>
       <c r="B5" s="8">
-        <v>6271</v>
-      </c>
-      <c r="C5" s="18">
+        <v>6286</v>
+      </c>
+      <c r="C5" s="25">
         <f t="shared" si="0"/>
-        <v>0.40147247119078106</v>
+        <v>0.40084172937125367</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4433,9 +4432,9 @@
       <c r="B6" s="8">
         <v>99</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="25">
         <f t="shared" si="0"/>
-        <v>6.3380281690140847E-3</v>
+        <v>6.3129702844025E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4443,11 +4442,11 @@
         <v>322</v>
       </c>
       <c r="B7" s="8">
-        <v>4230</v>
-      </c>
-      <c r="C7" s="18">
+        <v>4257</v>
+      </c>
+      <c r="C7" s="25">
         <f t="shared" si="0"/>
-        <v>0.27080665813060179</v>
+        <v>0.27145772222930747</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4457,9 +4456,9 @@
       <c r="B8" s="8">
         <v>1969</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="25">
         <f t="shared" si="0"/>
-        <v>0.12605633802816901</v>
+        <v>0.1255579645453386</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4467,26 +4466,26 @@
         <v>258</v>
       </c>
       <c r="B9" s="8">
-        <v>15620</v>
-      </c>
-      <c r="C9" s="18">
+        <v>15682</v>
+      </c>
+      <c r="C9" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4505,7 +4504,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="G13" sqref="G13"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4513,15 +4512,15 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.90625" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -4541,7 +4540,7 @@
       <c r="B3" s="10">
         <v>0</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="25">
         <f>B3/B$16</f>
         <v>0</v>
       </c>
@@ -4553,7 +4552,7 @@
       <c r="B4" s="10">
         <v>0</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="25">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
         <v>0</v>
       </c>
@@ -4565,7 +4564,7 @@
       <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="25">
         <f t="shared" si="0"/>
         <v>3.0120481927710845E-3</v>
       </c>
@@ -4577,7 +4576,7 @@
       <c r="B6" s="10">
         <v>11</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="25">
         <f t="shared" si="0"/>
         <v>1.6566265060240965E-2</v>
       </c>
@@ -4589,7 +4588,7 @@
       <c r="B7" s="10">
         <v>13</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="25">
         <f t="shared" si="0"/>
         <v>1.9578313253012049E-2</v>
       </c>
@@ -4601,7 +4600,7 @@
       <c r="B8" s="10">
         <v>26</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="25">
         <f t="shared" si="0"/>
         <v>3.9156626506024098E-2</v>
       </c>
@@ -4613,7 +4612,7 @@
       <c r="B9" s="10">
         <v>72</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="25">
         <f t="shared" si="0"/>
         <v>0.10843373493975904</v>
       </c>
@@ -4625,7 +4624,7 @@
       <c r="B10" s="10">
         <v>60</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="25">
         <f t="shared" si="0"/>
         <v>9.036144578313253E-2</v>
       </c>
@@ -4637,7 +4636,7 @@
       <c r="B11" s="10">
         <v>74</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="25">
         <f t="shared" si="0"/>
         <v>0.11144578313253012</v>
       </c>
@@ -4649,7 +4648,7 @@
       <c r="B12" s="10">
         <v>69</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="25">
         <f t="shared" si="0"/>
         <v>0.10391566265060241</v>
       </c>
@@ -4661,7 +4660,7 @@
       <c r="B13" s="10">
         <v>70</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="25">
         <f t="shared" si="0"/>
         <v>0.10542168674698796</v>
       </c>
@@ -4673,7 +4672,7 @@
       <c r="B14" s="10">
         <v>265</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="25">
         <f t="shared" si="0"/>
         <v>0.3990963855421687</v>
       </c>
@@ -4685,7 +4684,7 @@
       <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="25">
         <f t="shared" si="0"/>
         <v>3.0120481927710845E-3</v>
       </c>
@@ -4697,24 +4696,24 @@
       <c r="B16" s="10">
         <v>664</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4733,7 +4732,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="G13" sqref="G13"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4741,15 +4740,15 @@
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4769,9 +4768,8 @@
       <c r="B3" s="10">
         <v>272</v>
       </c>
-      <c r="C3" s="18">
-        <f>B3/B$6</f>
-        <v>0.40963855421686746</v>
+      <c r="C3" s="25">
+        <v>0.44675424053054458</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4781,9 +4779,8 @@
       <c r="B4" s="10">
         <v>364</v>
       </c>
-      <c r="C4" s="18">
-        <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.54819277108433739</v>
+      <c r="C4" s="25">
+        <v>0.53475322025251881</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4793,9 +4790,8 @@
       <c r="B5" s="10">
         <v>28</v>
       </c>
-      <c r="C5" s="18">
-        <f t="shared" si="0"/>
-        <v>4.2168674698795178E-2</v>
+      <c r="C5" s="25">
+        <v>1.8492539216936617E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4805,24 +4801,23 @@
       <c r="B6" s="10">
         <v>664</v>
       </c>
-      <c r="C6" s="18">
-        <f t="shared" si="0"/>
+      <c r="C6" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4841,7 +4836,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="G13" sqref="G13"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4849,15 +4844,15 @@
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4877,7 +4872,7 @@
       <c r="B3" s="10">
         <v>13</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="25">
         <f>B3/B$9</f>
         <v>1.9578313253012049E-2</v>
       </c>
@@ -4889,7 +4884,7 @@
       <c r="B4" s="10">
         <v>85</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="25">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
         <v>0.12801204819277109</v>
       </c>
@@ -4901,7 +4896,7 @@
       <c r="B5" s="10">
         <v>171</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="25">
         <f t="shared" si="0"/>
         <v>0.25753012048192769</v>
       </c>
@@ -4913,7 +4908,7 @@
       <c r="B6" s="10">
         <v>5</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="25">
         <f t="shared" si="0"/>
         <v>7.5301204819277108E-3</v>
       </c>
@@ -4925,7 +4920,7 @@
       <c r="B7" s="10">
         <v>269</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="25">
         <f t="shared" si="0"/>
         <v>0.40512048192771083</v>
       </c>
@@ -4937,7 +4932,7 @@
       <c r="B8" s="10">
         <v>121</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="25">
         <f t="shared" si="0"/>
         <v>0.18222891566265059</v>
       </c>
@@ -4949,24 +4944,24 @@
       <c r="B9" s="10">
         <v>664</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4975,18 +4970,18 @@
     <mergeCell ref="A12:C12"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:E2"/>
+      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4998,22 +4993,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6373,6 +6368,23 @@
       </c>
       <c r="E82" s="4">
         <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>43995</v>
+      </c>
+      <c r="B83" s="4">
+        <v>86011</v>
+      </c>
+      <c r="C83" s="4">
+        <v>1957</v>
+      </c>
+      <c r="D83" s="4">
+        <v>2331</v>
+      </c>
+      <c r="E83" s="4">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -6391,7 +6403,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="G13" sqref="G13"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -6402,10 +6414,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6417,17 +6429,17 @@
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>55258</v>
+        <v>56535</v>
       </c>
       <c r="B3" s="7">
-        <v>26483</v>
+        <v>27519</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="B5" s="20"/>
+      <c r="B5" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6441,12 +6453,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="M65" sqref="M65"/>
+      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6458,18 +6470,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-    </row>
-    <row r="2" spans="1:8" ht="89.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" ht="89" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>261</v>
       </c>
@@ -6482,7 +6494,7 @@
       <c r="D2" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="14" t="s">
         <v>327</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -6508,7 +6520,7 @@
       <c r="D3" s="8">
         <v>63751</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="15">
         <v>0.1056</v>
       </c>
       <c r="F3" s="8"/>
@@ -6528,7 +6540,7 @@
       <c r="D4" s="8">
         <v>70938</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="15">
         <v>9.3299999999999994E-2</v>
       </c>
       <c r="F4" s="8"/>
@@ -6548,7 +6560,7 @@
       <c r="D5" s="8">
         <v>85357</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="15">
         <v>8.8909998585200004E-2</v>
       </c>
       <c r="F5" s="8"/>
@@ -6568,7 +6580,7 @@
       <c r="D6" s="8">
         <v>88649</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="15">
         <v>0.1094</v>
       </c>
       <c r="F6" s="8"/>
@@ -6588,7 +6600,7 @@
       <c r="D7" s="8">
         <v>96258</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="15">
         <v>0.11070000000000001</v>
       </c>
       <c r="F7" s="8"/>
@@ -6608,7 +6620,7 @@
       <c r="D8" s="8">
         <v>106134</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="15">
         <v>0.100351636462</v>
       </c>
       <c r="F8" s="8"/>
@@ -6628,7 +6640,7 @@
       <c r="D9" s="8">
         <v>115918</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="15">
         <v>0.1055125178708</v>
       </c>
       <c r="F9" s="8"/>
@@ -6648,7 +6660,7 @@
       <c r="D10" s="8">
         <v>120533</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="15">
         <v>0.11360000000000001</v>
       </c>
       <c r="F10" s="8"/>
@@ -6668,7 +6680,7 @@
       <c r="D11" s="8">
         <v>124553</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="15">
         <v>0.12479999999999999</v>
       </c>
       <c r="F11" s="8"/>
@@ -6688,7 +6700,7 @@
       <c r="D12" s="8">
         <v>133226</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="15">
         <v>0.1386</v>
       </c>
       <c r="F12" s="8"/>
@@ -6708,7 +6720,7 @@
       <c r="D13" s="8">
         <v>146467</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="15">
         <v>0.1101</v>
       </c>
       <c r="F13" s="8"/>
@@ -6728,7 +6740,7 @@
       <c r="D14" s="8">
         <v>151810</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="15">
         <v>0.1105</v>
       </c>
       <c r="F14" s="8"/>
@@ -6748,7 +6760,7 @@
       <c r="D15" s="8">
         <v>158547</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="15">
         <v>0.1188</v>
       </c>
       <c r="F15" s="8"/>
@@ -6768,7 +6780,7 @@
       <c r="D16" s="8">
         <v>169536</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="15">
         <v>0.10630000000000001</v>
       </c>
       <c r="F16" s="8"/>
@@ -6788,7 +6800,7 @@
       <c r="D17" s="8">
         <v>176239</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="15">
         <v>0.1023</v>
       </c>
       <c r="F17" s="8"/>
@@ -6808,7 +6820,7 @@
       <c r="D18" s="8">
         <v>182710</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="15">
         <v>9.35E-2</v>
       </c>
       <c r="F18" s="8"/>
@@ -6828,7 +6840,7 @@
       <c r="D19" s="8">
         <v>190394</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="15">
         <v>9.7117268401900006E-2</v>
       </c>
       <c r="F19" s="8"/>
@@ -6848,7 +6860,7 @@
       <c r="D20" s="8">
         <v>205399</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="15">
         <v>9.4500000000000001E-2</v>
       </c>
       <c r="F20" s="8"/>
@@ -6868,7 +6880,7 @@
       <c r="D21" s="8">
         <v>216783</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="15">
         <v>8.5800000000000001E-2</v>
       </c>
       <c r="F21" s="8"/>
@@ -6888,7 +6900,7 @@
       <c r="D22" s="8">
         <v>225078</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="15">
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="F22" s="8"/>
@@ -6908,7 +6920,7 @@
       <c r="D23" s="8">
         <v>242547</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="15">
         <v>7.4399999999999994E-2</v>
       </c>
       <c r="F23" s="8"/>
@@ -6928,7 +6940,7 @@
       <c r="D24" s="8">
         <v>262816</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="15">
         <v>6.3700000000000007E-2</v>
       </c>
       <c r="F24" s="8"/>
@@ -6948,7 +6960,7 @@
       <c r="D25" s="8">
         <v>276021</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="15">
         <v>6.1199999999999997E-2</v>
       </c>
       <c r="F25" s="8"/>
@@ -6968,7 +6980,7 @@
       <c r="D26" s="8">
         <v>290517</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="15">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="F26" s="8"/>
@@ -6988,7 +7000,7 @@
       <c r="D27" s="8">
         <v>300384</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27" s="15">
         <v>6.2899999999999998E-2</v>
       </c>
       <c r="F27" s="8"/>
@@ -7008,7 +7020,7 @@
       <c r="D28" s="8">
         <v>314790</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="15">
         <v>6.10670666381E-2</v>
       </c>
       <c r="F28" s="8"/>
@@ -7028,7 +7040,7 @@
       <c r="D29" s="8">
         <v>330300</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29" s="15">
         <v>5.8381327098900003E-2</v>
       </c>
       <c r="F29" s="8"/>
@@ -7048,7 +7060,7 @@
       <c r="D30" s="8">
         <v>351775</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="15">
         <v>5.8799999999999998E-2</v>
       </c>
       <c r="F30" s="8"/>
@@ -7068,7 +7080,7 @@
       <c r="D31" s="8">
         <v>380648</v>
       </c>
-      <c r="E31" s="12">
+      <c r="E31" s="15">
         <v>5.7299999999999997E-2</v>
       </c>
       <c r="F31" s="8"/>
@@ -7088,7 +7100,7 @@
       <c r="D32" s="8">
         <v>390560</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32" s="15">
         <v>6.0400000000000002E-2</v>
       </c>
       <c r="F32" s="8"/>
@@ -7108,7 +7120,7 @@
       <c r="D33" s="8">
         <v>407398</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="15">
         <v>6.0199999999999997E-2</v>
       </c>
       <c r="F33" s="8"/>
@@ -7128,7 +7140,7 @@
       <c r="D34" s="8">
         <v>427210</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="15">
         <v>5.6754924069199998E-2</v>
       </c>
       <c r="F34" s="8"/>
@@ -7148,7 +7160,7 @@
       <c r="D35" s="8">
         <v>438938</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="15">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F35" s="8"/>
@@ -7168,7 +7180,7 @@
       <c r="D36" s="8">
         <v>455162</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="15">
         <v>5.8500000000000003E-2</v>
       </c>
       <c r="F36" s="8"/>
@@ -7188,7 +7200,7 @@
       <c r="D37" s="8">
         <v>477118</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="15">
         <v>5.8900000000000001E-2</v>
       </c>
       <c r="F37" s="8"/>
@@ -7208,7 +7220,7 @@
       <c r="D38" s="8">
         <v>489294</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="15">
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="F38" s="8"/>
@@ -7228,7 +7240,7 @@
       <c r="D39" s="8">
         <v>513978</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="15">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F39" s="8"/>
@@ -7248,7 +7260,7 @@
       <c r="D40" s="8">
         <v>525697</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40" s="15">
         <v>6.3711443038399998E-2</v>
       </c>
       <c r="F40" s="8"/>
@@ -7268,7 +7280,7 @@
       <c r="D41" s="8">
         <v>538172</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="15">
         <v>6.9199999999999998E-2</v>
       </c>
       <c r="F41" s="8"/>
@@ -7288,7 +7300,7 @@
       <c r="D42" s="8">
         <v>587431</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42" s="15">
         <v>5.3699999999999998E-2</v>
       </c>
       <c r="F42" s="8"/>
@@ -7308,7 +7320,7 @@
       <c r="D43" s="8">
         <v>623284</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="15">
         <v>5.0299999999999997E-2</v>
       </c>
       <c r="F43" s="8"/>
@@ -7328,7 +7340,7 @@
       <c r="D44" s="8">
         <v>645992</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44" s="15">
         <v>5.0900000000000001E-2</v>
       </c>
       <c r="F44" s="8"/>
@@ -7348,7 +7360,7 @@
       <c r="D45" s="8">
         <v>678471</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="15">
         <v>4.8300000000000003E-2</v>
       </c>
       <c r="F45" s="8">
@@ -7374,7 +7386,7 @@
       <c r="D46" s="8">
         <v>693276</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="15">
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="F46" s="8">
@@ -7400,7 +7412,7 @@
       <c r="D47" s="8">
         <v>723013</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="15">
         <v>4.4720144337000001E-2</v>
       </c>
       <c r="F47" s="8">
@@ -7426,7 +7438,7 @@
       <c r="D48" s="8">
         <v>744937</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="15">
         <v>4.7E-2</v>
       </c>
       <c r="F48" s="8">
@@ -7452,7 +7464,7 @@
       <c r="D49" s="8">
         <v>770241</v>
       </c>
-      <c r="E49" s="12">
+      <c r="E49" s="15">
         <v>5.4300000000000001E-2</v>
       </c>
       <c r="F49" s="8">
@@ -7478,7 +7490,7 @@
       <c r="D50" s="8">
         <v>800433</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="15">
         <v>5.5100000000000003E-2</v>
       </c>
       <c r="F50" s="8">
@@ -7504,7 +7516,7 @@
       <c r="D51" s="8">
         <v>834437</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="15">
         <v>5.3900000000000003E-2</v>
       </c>
       <c r="F51" s="8">
@@ -7530,7 +7542,7 @@
       <c r="D52" s="8">
         <v>870935</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="15" t="s">
         <v>274</v>
       </c>
       <c r="F52" s="8"/>
@@ -7552,7 +7564,7 @@
       <c r="D53" s="8">
         <v>886354</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="15">
         <v>4.87E-2</v>
       </c>
       <c r="F53" s="8">
@@ -7578,7 +7590,7 @@
       <c r="D54" s="8">
         <v>906074</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54" s="15">
         <v>5.1499999999999997E-2</v>
       </c>
       <c r="F54" s="8">
@@ -7604,7 +7616,7 @@
       <c r="D55" s="8">
         <v>943239</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="15">
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="F55" s="8">
@@ -7630,7 +7642,7 @@
       <c r="D56" s="8">
         <v>961861</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="15">
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="F56" s="8">
@@ -7656,7 +7668,7 @@
       <c r="D57" s="8">
         <v>989994</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="15">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="F57" s="8">
@@ -7682,7 +7694,7 @@
       <c r="D58" s="8">
         <v>1027449</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58" s="15">
         <v>4.5600000000000002E-2</v>
       </c>
       <c r="F58" s="8">
@@ -7708,7 +7720,7 @@
       <c r="D59" s="8">
         <v>1054793</v>
       </c>
-      <c r="E59" s="12" t="s">
+      <c r="E59" s="15" t="s">
         <v>274</v>
       </c>
       <c r="F59" s="8"/>
@@ -7730,7 +7742,7 @@
       <c r="D60" s="8">
         <v>1073491</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60" s="15">
         <v>5.43810873784E-2</v>
       </c>
       <c r="F60" s="8">
@@ -7756,7 +7768,7 @@
       <c r="D61" s="8">
         <v>1093676</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E61" s="15">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="F61" s="8">
@@ -7782,7 +7794,7 @@
       <c r="D62" s="8">
         <v>1117274</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62" s="15">
         <v>6.6236912120931343E-2</v>
       </c>
       <c r="F62" s="8">
@@ -7808,7 +7820,7 @@
       <c r="D63" s="8">
         <v>1150868</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E63" s="15">
         <v>6.2599418158065037E-2</v>
       </c>
       <c r="F63" s="8">
@@ -7834,7 +7846,7 @@
       <c r="D64" s="8">
         <v>1174948</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="15">
         <v>6.0272963321667726E-2</v>
       </c>
       <c r="F64" s="8">
@@ -7860,7 +7872,7 @@
       <c r="D65" s="8">
         <v>1209187</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E65" s="15">
         <v>6.4378489924739019E-2</v>
       </c>
       <c r="F65" s="8">
@@ -7886,7 +7898,7 @@
       <c r="D66" s="8">
         <v>1218955</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E66" s="15">
         <v>8.00231185826311E-2</v>
       </c>
       <c r="F66" s="8">
@@ -7912,7 +7924,7 @@
       <c r="D67" s="8">
         <v>1255899</v>
       </c>
-      <c r="E67" s="12">
+      <c r="E67" s="15">
         <v>7.1138170808796614E-2</v>
       </c>
       <c r="F67" s="8">
@@ -7938,7 +7950,7 @@
       <c r="D68" s="8">
         <v>1286139</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="15">
         <v>6.6629016142145212E-2</v>
       </c>
       <c r="F68" s="8">
@@ -7964,7 +7976,7 @@
       <c r="D69" s="8">
         <v>1302049</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E69" s="15">
         <v>6.9239691807230483E-2</v>
       </c>
       <c r="F69" s="8">
@@ -7990,7 +8002,7 @@
       <c r="D70" s="8">
         <v>1348893</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E70" s="15">
         <v>6.8464816856912941E-2</v>
       </c>
       <c r="F70" s="8">
@@ -8016,7 +8028,7 @@
       <c r="D71" s="8">
         <v>1370131</v>
       </c>
-      <c r="E71" s="12">
+      <c r="E71" s="15">
         <v>7.0522006760147776E-2</v>
       </c>
       <c r="F71" s="8">
@@ -8033,31 +8045,57 @@
       <c r="A72" s="6">
         <v>43994</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>274</v>
+      <c r="B72" s="8">
+        <v>1260319</v>
+      </c>
+      <c r="C72" s="8">
+        <v>144050</v>
       </c>
       <c r="D72" s="8">
         <v>1404369</v>
       </c>
-      <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-    </row>
-    <row r="74" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="21" t="s">
+      <c r="E72" s="15">
+        <v>7.2239317057985419E-2</v>
+      </c>
+      <c r="F72" s="8">
+        <v>23863</v>
+      </c>
+      <c r="G72" s="8">
+        <v>4020</v>
+      </c>
+      <c r="H72" s="8">
+        <v>27883</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>43995</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D73" s="8">
+        <v>1442950</v>
+      </c>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+    </row>
+    <row r="75" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A74:D74"/>
+    <mergeCell ref="A75:D75"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -8071,7 +8109,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="G13" sqref="G13"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -8082,10 +8120,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8100,7 +8138,7 @@
         <v>279</v>
       </c>
       <c r="B3" s="7">
-        <v>57493</v>
+        <v>59651</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8108,7 +8146,7 @@
         <v>280</v>
       </c>
       <c r="B4" s="7">
-        <v>1346876</v>
+        <v>1383299</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8116,14 +8154,14 @@
         <v>281</v>
       </c>
       <c r="B5" s="7">
-        <v>1404369</v>
+        <v>1442950</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8136,7 +8174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132EF70C-D153-4D98-B898-CEEA278F132D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E112417B-F6A7-4BF6-BCB3-9732B3C2BDCC}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8145,46 +8183,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.26953125" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="13"/>
+    <col min="1" max="1" width="55.453125" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="17" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="20" t="s">
         <v>277</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="21" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="B3" s="17">
-        <v>143174</v>
+      <c r="B3" s="23">
+        <v>144050</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="22" t="s">
         <v>332</v>
       </c>
-      <c r="B4" s="17">
-        <v>5925</v>
+      <c r="B4" s="23">
+        <v>5963</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="B6" s="24"/>
+      <c r="B6" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8192,6 +8230,7 @@
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8201,8 +8240,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8212,10 +8251,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="20"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8230,7 +8269,7 @@
         <v>285</v>
       </c>
       <c r="B3" s="7">
-        <v>2166</v>
+        <v>2242</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8238,7 +8277,7 @@
         <v>286</v>
       </c>
       <c r="B4" s="7">
-        <v>57028</v>
+        <v>56596</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8246,7 +8285,7 @@
         <v>287</v>
       </c>
       <c r="B5" s="7">
-        <v>14033</v>
+        <v>13571</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8254,7 +8293,7 @@
         <v>288</v>
       </c>
       <c r="B6" s="7">
-        <v>1502</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8262,14 +8301,14 @@
         <v>289</v>
       </c>
       <c r="B7" s="7">
-        <v>5814</v>
+        <v>5725</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8283,12 +8322,12 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8299,11 +8338,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -9086,17 +9125,28 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="21" t="s">
+    <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>71</v>
+      </c>
+      <c r="B73" s="6">
+        <v>43995</v>
+      </c>
+      <c r="C73" s="7">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="A75:C75"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9109,7 +9159,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="G13" sqref="G13"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -9121,11 +9171,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
@@ -9145,9 +9195,9 @@
       <c r="B3" s="8">
         <v>41</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="25">
         <f>B3/B$16</f>
-        <v>2.6248399487836106E-3</v>
+        <v>2.6144624410151768E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9157,9 +9207,9 @@
       <c r="B4" s="8">
         <v>180</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="25">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
-        <v>1.1523687580025609E-2</v>
+        <v>1.1478127789822727E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9167,11 +9217,11 @@
         <v>299</v>
       </c>
       <c r="B5" s="8">
-        <v>470</v>
-      </c>
-      <c r="C5" s="18">
+        <v>471</v>
+      </c>
+      <c r="C5" s="25">
         <f t="shared" si="0"/>
-        <v>3.0089628681177975E-2</v>
+        <v>3.0034434383369467E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9179,11 +9229,11 @@
         <v>300</v>
       </c>
       <c r="B6" s="8">
-        <v>2434</v>
-      </c>
-      <c r="C6" s="18">
+        <v>2436</v>
+      </c>
+      <c r="C6" s="25">
         <f t="shared" si="0"/>
-        <v>0.1558258642765685</v>
+        <v>0.15533732942226758</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9191,11 +9241,11 @@
         <v>301</v>
       </c>
       <c r="B7" s="8">
-        <v>2861</v>
-      </c>
-      <c r="C7" s="18">
+        <v>2869</v>
+      </c>
+      <c r="C7" s="25">
         <f t="shared" si="0"/>
-        <v>0.18316261203585146</v>
+        <v>0.18294860349445224</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9203,11 +9253,11 @@
         <v>302</v>
       </c>
       <c r="B8" s="8">
-        <v>2924</v>
-      </c>
-      <c r="C8" s="18">
+        <v>2931</v>
+      </c>
+      <c r="C8" s="25">
         <f t="shared" si="0"/>
-        <v>0.18719590268886044</v>
+        <v>0.18690218084428006</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9215,11 +9265,11 @@
         <v>303</v>
       </c>
       <c r="B9" s="8">
-        <v>2855</v>
-      </c>
-      <c r="C9" s="18">
+        <v>2873</v>
+      </c>
+      <c r="C9" s="25">
         <f t="shared" si="0"/>
-        <v>0.18277848911651728</v>
+        <v>0.18320367300089274</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9227,11 +9277,11 @@
         <v>304</v>
       </c>
       <c r="B10" s="8">
-        <v>1216</v>
-      </c>
-      <c r="C10" s="18">
+        <v>1224</v>
+      </c>
+      <c r="C10" s="25">
         <f t="shared" si="0"/>
-        <v>7.7848911651728553E-2</v>
+        <v>7.8051268970794535E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9239,11 +9289,11 @@
         <v>305</v>
       </c>
       <c r="B11" s="8">
-        <v>882</v>
-      </c>
-      <c r="C11" s="18">
+        <v>887</v>
+      </c>
+      <c r="C11" s="25">
         <f t="shared" si="0"/>
-        <v>5.6466069142125479E-2</v>
+        <v>5.6561663053181992E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9251,11 +9301,11 @@
         <v>306</v>
       </c>
       <c r="B12" s="8">
-        <v>584</v>
-      </c>
-      <c r="C12" s="18">
+        <v>592</v>
+      </c>
+      <c r="C12" s="25">
         <f t="shared" si="0"/>
-        <v>3.7387964148527526E-2</v>
+        <v>3.7750286953194746E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9263,11 +9313,11 @@
         <v>307</v>
       </c>
       <c r="B13" s="8">
-        <v>387</v>
-      </c>
-      <c r="C13" s="18">
+        <v>391</v>
+      </c>
+      <c r="C13" s="25">
         <f t="shared" si="0"/>
-        <v>2.4775928297055057E-2</v>
+        <v>2.4933044254559368E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9275,11 +9325,11 @@
         <v>308</v>
       </c>
       <c r="B14" s="8">
-        <v>663</v>
-      </c>
-      <c r="C14" s="18">
+        <v>664</v>
+      </c>
+      <c r="C14" s="25">
         <f t="shared" si="0"/>
-        <v>4.2445582586427659E-2</v>
+        <v>4.2341538069123837E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9289,9 +9339,9 @@
       <c r="B15" s="8">
         <v>123</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="25">
         <f t="shared" si="0"/>
-        <v>7.8745198463508331E-3</v>
+        <v>7.8433873230455298E-3</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9299,26 +9349,26 @@
         <v>258</v>
       </c>
       <c r="B16" s="8">
-        <v>15620</v>
-      </c>
-      <c r="C16" s="18">
+        <v>15682</v>
+      </c>
+      <c r="C16" s="25">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9327,6 +9377,6 @@
     <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
+++ b/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3FF0CCD1-DC85-4218-8979-869BD21F43AE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD769B9C-7A30-422D-B7B3-7F0C15C05DF7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,14 +28,14 @@
     <sheet name="Fatalities by Gender" sheetId="12" r:id="rId13"/>
     <sheet name="Fatalities by Race-Ethnicity" sheetId="13" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="334">
-  <si>
-    <t>COVID-19 Cases and Fatalities by County as of 6/13 at 10:45AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="333">
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 6/14 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -812,10 +812,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/13 at 10:45AM CST</t>
-  </si>
-  <si>
-    <t>DISCLAIMER: All data are provisional and are subject to change.</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/14 at 10:45AM CST</t>
   </si>
   <si>
     <t>Date</t>
@@ -839,7 +836,7 @@
 Fatalities</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/13 at 3:00PM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/14 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -851,7 +848,7 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/13 at 3:00PM CST</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/14 at 3:00PM CST</t>
   </si>
   <si>
     <t>Total Tests
@@ -870,7 +867,7 @@
     <t>Tests include those performed by public labs (Laboratory Response Network) and private labs (commercial labs, hospitals, physician offices, and drive-thru sites) reported electronically and non-electronically to DSHS.</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/13 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/14 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -891,7 +888,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 6/13 at 9:30AM CST</t>
+    <t>Texas Statewide Hospitalization Data as of 6/14 at 9:30AM CST</t>
   </si>
   <si>
     <t>Hospital data</t>
@@ -912,7 +909,7 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 6/13 at 9:30AM CST</t>
+    <t>Number of COVID-19 Hospitalizations by Day as of 6/14 at 9:30AM CST</t>
   </si>
   <si>
     <t>Obs</t>
@@ -921,7 +918,7 @@
     <t>Hospitalizations</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 6/13 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 6/14 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -979,7 +976,7 @@
     <t>Completed case investigations received by DSHS =          15,682</t>
   </si>
   <si>
-    <t>Gender of Confirmed Cases as of 6/13 at 9:30 AM CST</t>
+    <t>Gender of Confirmed Cases as of 6/14 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -991,7 +988,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 6/13 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 6/14 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -1012,16 +1009,16 @@
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 6/13 at 9:30 AM CST</t>
+    <t>Age of Confirmed Fatalities as of 6/14 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Completed investigations received by DSHS =          664</t>
   </si>
   <si>
-    <t>Gender of Confirmed Fatalities as of 6/13 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 6/13 at 9:30 AM CST</t>
+    <t>Gender of Confirmed Fatalities as of 6/14 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 6/14 at 9:30 AM CST</t>
   </si>
   <si>
     <t>COVID-19
@@ -1044,7 +1041,7 @@
     <t>Number of Positive Antibody Tests Reported</t>
   </si>
   <si>
-    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/12 at 3:00PM CST</t>
+    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/13 at 3:00PM CST</t>
   </si>
 </sst>
 </file>
@@ -1057,7 +1054,7 @@
     <numFmt numFmtId="166" formatCode="##,###,##0"/>
     <numFmt numFmtId="167" formatCode="###,###,###,###,##0"/>
     <numFmt numFmtId="169" formatCode="##0"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1263,13 +1260,13 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{45A906E0-E301-4AE3-8F0F-7A3194A8E1A9}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{C8ADC678-0E68-4A99-A593-361838161460}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1547,7 +1544,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C13" s="4">
         <v>4</v>
@@ -1580,7 +1577,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>605</v>
+        <v>629</v>
       </c>
       <c r="C16" s="4">
         <v>6</v>
@@ -1591,10 +1588,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>4012</v>
+        <v>4242</v>
       </c>
       <c r="C17" s="4">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1635,7 +1632,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C21" s="4">
         <v>7</v>
@@ -1646,10 +1643,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>813</v>
+        <v>850</v>
       </c>
       <c r="C22" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1657,10 +1654,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>721</v>
+        <v>781</v>
       </c>
       <c r="C23" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1668,7 +1665,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
@@ -1690,7 +1687,7 @@
         <v>27</v>
       </c>
       <c r="B26" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C26" s="4">
         <v>0</v>
@@ -1723,7 +1720,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
@@ -1734,7 +1731,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>95</v>
+        <v>147</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
@@ -1767,7 +1764,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>1081</v>
+        <v>1138</v>
       </c>
       <c r="C33" s="4">
         <v>44</v>
@@ -1778,7 +1775,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="4">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
@@ -1803,7 +1800,7 @@
         <v>34</v>
       </c>
       <c r="C36" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1822,7 +1819,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -1899,7 +1896,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>1638</v>
+        <v>1647</v>
       </c>
       <c r="C45" s="4">
         <v>37</v>
@@ -1932,7 +1929,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="C48" s="4">
         <v>7</v>
@@ -1976,7 +1973,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
@@ -2053,10 +2050,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>13585</v>
+        <v>13930</v>
       </c>
       <c r="C59" s="4">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2108,7 +2105,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>1687</v>
+        <v>1719</v>
       </c>
       <c r="C64" s="4">
         <v>36</v>
@@ -2196,7 +2193,7 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>3794</v>
+        <v>3834</v>
       </c>
       <c r="C72" s="4">
         <v>100</v>
@@ -2229,7 +2226,7 @@
         <v>76</v>
       </c>
       <c r="B75" s="4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C75" s="4">
         <v>0</v>
@@ -2251,7 +2248,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C77" s="4">
         <v>2</v>
@@ -2295,10 +2292,10 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>2358</v>
+        <v>2385</v>
       </c>
       <c r="C81" s="4">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2328,7 +2325,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="4">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
@@ -2350,7 +2347,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>1166</v>
+        <v>1237</v>
       </c>
       <c r="C86" s="4">
         <v>40</v>
@@ -2405,7 +2402,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="4">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C91" s="4">
         <v>4</v>
@@ -2449,7 +2446,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C95" s="4">
         <v>2</v>
@@ -2460,7 +2457,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="C96" s="4">
         <v>0</v>
@@ -2471,7 +2468,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="4">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C97" s="4">
         <v>5</v>
@@ -2537,10 +2534,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>16188</v>
+        <v>16568</v>
       </c>
       <c r="C103" s="4">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2548,7 +2545,7 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C104" s="4">
         <v>28</v>
@@ -2669,7 +2666,7 @@
         <v>116</v>
       </c>
       <c r="B115" s="4">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C115" s="4">
         <v>0</v>
@@ -2746,7 +2743,7 @@
         <v>123</v>
       </c>
       <c r="B122" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C122" s="4">
         <v>1</v>
@@ -2779,7 +2776,7 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>1233</v>
+        <v>1235</v>
       </c>
       <c r="C125" s="4">
         <v>31</v>
@@ -2801,7 +2798,7 @@
         <v>128</v>
       </c>
       <c r="B127" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
@@ -2856,7 +2853,7 @@
         <v>133</v>
       </c>
       <c r="B132" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C132" s="4">
         <v>0</v>
@@ -2966,7 +2963,7 @@
         <v>143</v>
       </c>
       <c r="B142" s="4">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C142" s="4">
         <v>11</v>
@@ -3032,7 +3029,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C148" s="4">
         <v>3</v>
@@ -3043,7 +3040,7 @@
         <v>150</v>
       </c>
       <c r="B149" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C149" s="4">
         <v>1</v>
@@ -3098,7 +3095,7 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>813</v>
+        <v>847</v>
       </c>
       <c r="C154" s="4">
         <v>51</v>
@@ -3164,7 +3161,7 @@
         <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C160" s="4">
         <v>5</v>
@@ -3197,7 +3194,7 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C163" s="4">
         <v>4</v>
@@ -3252,7 +3249,7 @@
         <v>169</v>
       </c>
       <c r="B168" s="4">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C168" s="4">
         <v>1</v>
@@ -3318,7 +3315,7 @@
         <v>175</v>
       </c>
       <c r="B174" s="4">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C174" s="4">
         <v>0</v>
@@ -3439,7 +3436,7 @@
         <v>186</v>
       </c>
       <c r="B185" s="4">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C185" s="4">
         <v>23</v>
@@ -3527,7 +3524,7 @@
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="C193" s="4">
         <v>7</v>
@@ -3736,7 +3733,7 @@
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C212" s="4">
         <v>8</v>
@@ -3780,7 +3777,7 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="C216" s="4">
         <v>0</v>
@@ -3846,10 +3843,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>7120</v>
+        <v>7253</v>
       </c>
       <c r="C222" s="4">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3857,7 +3854,7 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C223" s="4">
         <v>5</v>
@@ -3901,7 +3898,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C227" s="4">
         <v>2</v>
@@ -3912,7 +3909,7 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="C228" s="4">
         <v>1</v>
@@ -3923,7 +3920,7 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>4314</v>
+        <v>4461</v>
       </c>
       <c r="C229" s="4">
         <v>104</v>
@@ -3978,7 +3975,7 @@
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C234" s="4">
         <v>0</v>
@@ -4011,7 +4008,7 @@
         <v>238</v>
       </c>
       <c r="B237" s="4">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C237" s="4">
         <v>8</v>
@@ -4022,7 +4019,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="C238" s="4">
         <v>27</v>
@@ -4033,7 +4030,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4077,7 +4074,7 @@
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C243" s="4">
         <v>1</v>
@@ -4121,7 +4118,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C247" s="4">
         <v>3</v>
@@ -4132,7 +4129,7 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>820</v>
+        <v>862</v>
       </c>
       <c r="C248" s="4">
         <v>30</v>
@@ -4209,7 +4206,7 @@
         <v>256</v>
       </c>
       <c r="B255" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C255" s="4">
         <v>0</v>
@@ -4231,10 +4228,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>86011</v>
+        <v>87854</v>
       </c>
       <c r="C257" s="4">
-        <v>1957</v>
+        <v>1976</v>
       </c>
     </row>
   </sheetData>
@@ -4252,7 +4249,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4260,30 +4257,30 @@
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B3" s="8">
         <v>7006</v>
@@ -4295,7 +4292,7 @@
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B4" s="8">
         <v>8386</v>
@@ -4307,7 +4304,7 @@
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B5" s="8">
         <v>290</v>
@@ -4331,14 +4328,14 @@
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -4360,7 +4357,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4368,30 +4365,30 @@
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B3" s="8">
         <v>519</v>
@@ -4403,7 +4400,7 @@
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="8">
         <v>2552</v>
@@ -4415,7 +4412,7 @@
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B5" s="8">
         <v>6286</v>
@@ -4427,7 +4424,7 @@
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B6" s="8">
         <v>99</v>
@@ -4439,7 +4436,7 @@
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B7" s="8">
         <v>4257</v>
@@ -4451,7 +4448,7 @@
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B8" s="8">
         <v>1969</v>
@@ -4475,14 +4472,14 @@
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -4504,7 +4501,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4512,30 +4509,30 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" customWidth="1"/>
+    <col min="3" max="3" width="7.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B3" s="10">
         <v>0</v>
@@ -4547,7 +4544,7 @@
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B4" s="10">
         <v>0</v>
@@ -4559,7 +4556,7 @@
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B5" s="10">
         <v>2</v>
@@ -4571,7 +4568,7 @@
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B6" s="10">
         <v>11</v>
@@ -4583,7 +4580,7 @@
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B7" s="10">
         <v>13</v>
@@ -4595,7 +4592,7 @@
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B8" s="10">
         <v>26</v>
@@ -4607,7 +4604,7 @@
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B9" s="10">
         <v>72</v>
@@ -4619,7 +4616,7 @@
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B10" s="10">
         <v>60</v>
@@ -4631,7 +4628,7 @@
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B11" s="10">
         <v>74</v>
@@ -4643,7 +4640,7 @@
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B12" s="10">
         <v>69</v>
@@ -4655,7 +4652,7 @@
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B13" s="10">
         <v>70</v>
@@ -4667,7 +4664,7 @@
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B14" s="10">
         <v>265</v>
@@ -4679,7 +4676,7 @@
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B15" s="10">
         <v>2</v>
@@ -4703,14 +4700,14 @@
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -4732,7 +4729,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4740,58 +4737,61 @@
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.90625" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B3" s="10">
         <v>272</v>
       </c>
       <c r="C3" s="25">
-        <v>0.44675424053054458</v>
+        <f>B3/B$6</f>
+        <v>0.40963855421686746</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B4" s="10">
         <v>364</v>
       </c>
       <c r="C4" s="25">
-        <v>0.53475322025251881</v>
+        <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
+        <v>0.54819277108433739</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B5" s="10">
         <v>28</v>
       </c>
       <c r="C5" s="25">
-        <v>1.8492539216936617E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.2168674698795178E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4802,19 +4802,20 @@
         <v>664</v>
       </c>
       <c r="C6" s="25">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -4826,7 +4827,7 @@
     <mergeCell ref="A9:C9"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4836,7 +4837,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4844,30 +4845,30 @@
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="3" max="3" width="7.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B3" s="10">
         <v>13</v>
@@ -4879,7 +4880,7 @@
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B4" s="10">
         <v>85</v>
@@ -4891,7 +4892,7 @@
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B5" s="10">
         <v>171</v>
@@ -4903,7 +4904,7 @@
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B6" s="10">
         <v>5</v>
@@ -4915,7 +4916,7 @@
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B7" s="10">
         <v>269</v>
@@ -4927,7 +4928,7 @@
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B8" s="10">
         <v>121</v>
@@ -4951,14 +4952,14 @@
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -4979,9 +4980,9 @@
   <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="G13" sqref="G13"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5001,231 +5002,239 @@
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
     </row>
-    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+    <row r="2" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>265</v>
+    </row>
+    <row r="3" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>43916</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1394</v>
+      </c>
+      <c r="C3" s="4">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4">
+        <v>419</v>
+      </c>
+      <c r="E3" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B4" s="4">
-        <v>1394</v>
+        <v>1731</v>
       </c>
       <c r="C4" s="4">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4">
-        <v>419</v>
+        <v>337</v>
       </c>
       <c r="E4" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B5" s="4">
-        <v>1731</v>
+        <v>2048</v>
       </c>
       <c r="C5" s="4">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="E5" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B6" s="4">
-        <v>2048</v>
+        <v>2552</v>
       </c>
       <c r="C6" s="4">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4">
-        <v>317</v>
+        <v>504</v>
       </c>
       <c r="E6" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B7" s="4">
-        <v>2552</v>
+        <v>2874</v>
       </c>
       <c r="C7" s="4">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D7" s="4">
-        <v>504</v>
+        <v>322</v>
       </c>
       <c r="E7" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B8" s="4">
-        <v>2874</v>
+        <v>3266</v>
       </c>
       <c r="C8" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4">
-        <v>322</v>
+        <v>392</v>
       </c>
       <c r="E8" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B9" s="4">
-        <v>3266</v>
+        <v>3996</v>
       </c>
       <c r="C9" s="4">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D9" s="4">
-        <v>392</v>
+        <v>730</v>
       </c>
       <c r="E9" s="4">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B10" s="4">
-        <v>3996</v>
+        <v>4665</v>
       </c>
       <c r="C10" s="4">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D10" s="4">
-        <v>730</v>
+        <v>669</v>
       </c>
       <c r="E10" s="4">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B11" s="4">
-        <v>4665</v>
+        <v>5324</v>
       </c>
       <c r="C11" s="4">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D11" s="4">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="E11" s="4">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B12" s="4">
-        <v>5324</v>
+        <v>6112</v>
       </c>
       <c r="C12" s="4">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D12" s="4">
-        <v>659</v>
+        <v>788</v>
       </c>
       <c r="E12" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B13" s="4">
-        <v>6112</v>
+        <v>6793</v>
       </c>
       <c r="C13" s="4">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="D13" s="4">
-        <v>788</v>
+        <v>681</v>
       </c>
       <c r="E13" s="4">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B14" s="4">
-        <v>6793</v>
+        <v>7273</v>
       </c>
       <c r="C14" s="4">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D14" s="4">
-        <v>681</v>
+        <v>480</v>
       </c>
       <c r="E14" s="4">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B15" s="4">
-        <v>7273</v>
+        <v>8261</v>
       </c>
       <c r="C15" s="4">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="D15" s="4">
-        <v>480</v>
+        <v>988</v>
       </c>
       <c r="E15" s="4">
         <v>14</v>
@@ -5233,1164 +5242,1163 @@
     </row>
     <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B16" s="4">
-        <v>8261</v>
+        <v>9353</v>
       </c>
       <c r="C16" s="4">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D16" s="4">
-        <v>988</v>
+        <v>1092</v>
       </c>
       <c r="E16" s="4">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B17" s="4">
-        <v>9353</v>
+        <v>10230</v>
       </c>
       <c r="C17" s="4">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="D17" s="4">
-        <v>1092</v>
+        <v>877</v>
       </c>
       <c r="E17" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B18" s="4">
-        <v>10230</v>
+        <v>11671</v>
       </c>
       <c r="C18" s="4">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="D18" s="4">
-        <v>877</v>
+        <v>1441</v>
       </c>
       <c r="E18" s="4">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B19" s="4">
-        <v>11671</v>
+        <v>12561</v>
       </c>
       <c r="C19" s="4">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="D19" s="4">
-        <v>1441</v>
+        <v>890</v>
       </c>
       <c r="E19" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B20" s="4">
-        <v>12561</v>
+        <v>13484</v>
       </c>
       <c r="C20" s="4">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="D20" s="4">
-        <v>890</v>
+        <v>923</v>
       </c>
       <c r="E20" s="4">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B21" s="4">
-        <v>13484</v>
+        <v>13906</v>
       </c>
       <c r="C21" s="4">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="D21" s="4">
-        <v>923</v>
+        <v>422</v>
       </c>
       <c r="E21" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B22" s="4">
-        <v>13906</v>
+        <v>14624</v>
       </c>
       <c r="C22" s="4">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="D22" s="4">
-        <v>422</v>
+        <v>718</v>
       </c>
       <c r="E22" s="4">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B23" s="4">
-        <v>14624</v>
+        <v>15492</v>
       </c>
       <c r="C23" s="4">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="D23" s="4">
-        <v>718</v>
+        <v>868</v>
       </c>
       <c r="E23" s="4">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B24" s="4">
-        <v>15492</v>
+        <v>16455</v>
       </c>
       <c r="C24" s="4">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="D24" s="4">
-        <v>868</v>
+        <v>963</v>
       </c>
       <c r="E24" s="4">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B25" s="4">
-        <v>16455</v>
+        <v>17371</v>
       </c>
       <c r="C25" s="4">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="D25" s="4">
-        <v>963</v>
+        <v>916</v>
       </c>
       <c r="E25" s="4">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B26" s="4">
-        <v>17371</v>
+        <v>18260</v>
       </c>
       <c r="C26" s="4">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="D26" s="4">
-        <v>916</v>
+        <v>889</v>
       </c>
       <c r="E26" s="4">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B27" s="4">
-        <v>18260</v>
+        <v>18923</v>
       </c>
       <c r="C27" s="4">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="D27" s="4">
-        <v>889</v>
+        <v>663</v>
       </c>
       <c r="E27" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B28" s="4">
-        <v>18923</v>
+        <v>19458</v>
       </c>
       <c r="C28" s="4">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="D28" s="4">
-        <v>663</v>
+        <v>535</v>
       </c>
       <c r="E28" s="4">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B29" s="4">
-        <v>19458</v>
+        <v>20196</v>
       </c>
       <c r="C29" s="4">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="D29" s="4">
-        <v>535</v>
+        <v>738</v>
       </c>
       <c r="E29" s="4">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B30" s="4">
-        <v>20196</v>
+        <v>21069</v>
       </c>
       <c r="C30" s="4">
-        <v>517</v>
+        <v>543</v>
       </c>
       <c r="D30" s="4">
-        <v>738</v>
+        <v>873</v>
       </c>
       <c r="E30" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B31" s="4">
-        <v>21069</v>
+        <v>21944</v>
       </c>
       <c r="C31" s="4">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="D31" s="4">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="E31" s="4">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B32" s="4">
-        <v>21944</v>
+        <v>22806</v>
       </c>
       <c r="C32" s="4">
-        <v>561</v>
+        <v>593</v>
       </c>
       <c r="D32" s="4">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="E32" s="4">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B33" s="4">
-        <v>22806</v>
+        <v>23773</v>
       </c>
       <c r="C33" s="4">
-        <v>593</v>
+        <v>623</v>
       </c>
       <c r="D33" s="4">
-        <v>862</v>
+        <v>967</v>
       </c>
       <c r="E33" s="4">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B34" s="4">
-        <v>23773</v>
+        <v>24631</v>
       </c>
       <c r="C34" s="4">
-        <v>623</v>
+        <v>648</v>
       </c>
       <c r="D34" s="4">
-        <v>967</v>
+        <v>858</v>
       </c>
       <c r="E34" s="4">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B35" s="4">
-        <v>24631</v>
+        <v>25297</v>
       </c>
       <c r="C35" s="4">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="D35" s="4">
-        <v>858</v>
+        <v>666</v>
       </c>
       <c r="E35" s="4">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B36" s="4">
-        <v>25297</v>
+        <v>26171</v>
       </c>
       <c r="C36" s="4">
-        <v>663</v>
+        <v>690</v>
       </c>
       <c r="D36" s="4">
-        <v>666</v>
+        <v>874</v>
       </c>
       <c r="E36" s="4">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B37" s="4">
-        <v>26171</v>
+        <v>27054</v>
       </c>
       <c r="C37" s="4">
-        <v>690</v>
+        <v>732</v>
       </c>
       <c r="D37" s="4">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="E37" s="4">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B38" s="4">
-        <v>27054</v>
+        <v>28087</v>
       </c>
       <c r="C38" s="4">
-        <v>732</v>
+        <v>782</v>
       </c>
       <c r="D38" s="4">
-        <v>883</v>
+        <v>1033</v>
       </c>
       <c r="E38" s="4">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B39" s="4">
-        <v>28087</v>
+        <v>29229</v>
       </c>
       <c r="C39" s="4">
-        <v>782</v>
+        <v>816</v>
       </c>
       <c r="D39" s="4">
-        <v>1033</v>
+        <v>1142</v>
       </c>
       <c r="E39" s="4">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B40" s="4">
-        <v>29229</v>
+        <v>30522</v>
       </c>
       <c r="C40" s="4">
-        <v>816</v>
+        <v>847</v>
       </c>
       <c r="D40" s="4">
-        <v>1142</v>
+        <v>1293</v>
       </c>
       <c r="E40" s="4">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B41" s="4">
-        <v>30522</v>
+        <v>31548</v>
       </c>
       <c r="C41" s="4">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="D41" s="4">
-        <v>1293</v>
+        <v>1026</v>
       </c>
       <c r="E41" s="4">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B42" s="4">
-        <v>31548</v>
+        <v>32332</v>
       </c>
       <c r="C42" s="4">
-        <v>867</v>
+        <v>884</v>
       </c>
       <c r="D42" s="4">
-        <v>1026</v>
+        <v>784</v>
       </c>
       <c r="E42" s="4">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B43" s="4">
-        <v>32332</v>
+        <v>33369</v>
       </c>
       <c r="C43" s="4">
-        <v>884</v>
+        <v>906</v>
       </c>
       <c r="D43" s="4">
-        <v>784</v>
+        <v>1037</v>
       </c>
       <c r="E43" s="4">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B44" s="4">
-        <v>33369</v>
+        <v>34422</v>
       </c>
       <c r="C44" s="4">
-        <v>906</v>
+        <v>948</v>
       </c>
       <c r="D44" s="4">
-        <v>1037</v>
+        <v>1053</v>
       </c>
       <c r="E44" s="4">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B45" s="4">
-        <v>34422</v>
+        <v>35390</v>
       </c>
       <c r="C45" s="4">
-        <v>948</v>
+        <v>973</v>
       </c>
       <c r="D45" s="4">
-        <v>1053</v>
+        <v>968</v>
       </c>
       <c r="E45" s="4">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B46" s="4">
-        <v>35390</v>
+        <v>36609</v>
       </c>
       <c r="C46" s="4">
-        <v>973</v>
+        <v>1004</v>
       </c>
       <c r="D46" s="4">
-        <v>968</v>
+        <v>1219</v>
       </c>
       <c r="E46" s="4">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B47" s="4">
-        <v>36609</v>
+        <v>37860</v>
       </c>
       <c r="C47" s="4">
-        <v>1004</v>
+        <v>1049</v>
       </c>
       <c r="D47" s="4">
-        <v>1219</v>
+        <v>1251</v>
       </c>
       <c r="E47" s="4">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B48" s="4">
-        <v>37860</v>
+        <v>38869</v>
       </c>
       <c r="C48" s="4">
-        <v>1049</v>
+        <v>1088</v>
       </c>
       <c r="D48" s="4">
-        <v>1251</v>
+        <v>1009</v>
       </c>
       <c r="E48" s="4">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B49" s="4">
-        <v>38869</v>
+        <v>39869</v>
       </c>
       <c r="C49" s="4">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="D49" s="4">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="E49" s="4">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B50" s="4">
-        <v>39869</v>
+        <v>41048</v>
       </c>
       <c r="C50" s="4">
-        <v>1100</v>
+        <v>1133</v>
       </c>
       <c r="D50" s="4">
-        <v>1000</v>
+        <v>1179</v>
       </c>
       <c r="E50" s="4">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B51" s="4">
-        <v>41048</v>
+        <v>42403</v>
       </c>
       <c r="C51" s="4">
-        <v>1133</v>
+        <v>1158</v>
       </c>
       <c r="D51" s="4">
-        <v>1179</v>
+        <v>1355</v>
       </c>
       <c r="E51" s="4">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B52" s="4">
-        <v>42403</v>
+        <v>43851</v>
       </c>
       <c r="C52" s="4">
-        <v>1158</v>
+        <v>1216</v>
       </c>
       <c r="D52" s="4">
-        <v>1355</v>
+        <v>1448</v>
       </c>
       <c r="E52" s="4">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B53" s="4">
-        <v>43851</v>
+        <v>45198</v>
       </c>
       <c r="C53" s="4">
-        <v>1216</v>
+        <v>1272</v>
       </c>
       <c r="D53" s="4">
-        <v>1448</v>
+        <v>1347</v>
       </c>
       <c r="E53" s="4">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B54" s="4">
-        <v>45198</v>
+        <v>46999</v>
       </c>
       <c r="C54" s="4">
-        <v>1272</v>
+        <v>1305</v>
       </c>
       <c r="D54" s="4">
-        <v>1347</v>
+        <v>1801</v>
       </c>
       <c r="E54" s="4">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B55" s="4">
-        <v>46999</v>
+        <v>47784</v>
       </c>
       <c r="C55" s="4">
-        <v>1305</v>
+        <v>1336</v>
       </c>
       <c r="D55" s="4">
-        <v>1801</v>
+        <v>785</v>
       </c>
       <c r="E55" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B56" s="4">
-        <v>47784</v>
+        <v>48693</v>
       </c>
       <c r="C56" s="4">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D56" s="4">
-        <v>785</v>
+        <v>909</v>
       </c>
       <c r="E56" s="4">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B57" s="4">
-        <v>48693</v>
+        <v>49912</v>
       </c>
       <c r="C57" s="4">
-        <v>1347</v>
+        <v>1369</v>
       </c>
       <c r="D57" s="4">
-        <v>909</v>
+        <v>1219</v>
       </c>
       <c r="E57" s="4">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B58" s="4">
-        <v>49912</v>
+        <v>51323</v>
       </c>
       <c r="C58" s="4">
-        <v>1369</v>
+        <v>1419</v>
       </c>
       <c r="D58" s="4">
-        <v>1219</v>
+        <v>1411</v>
       </c>
       <c r="E58" s="4">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B59" s="4">
-        <v>51323</v>
+        <v>52268</v>
       </c>
       <c r="C59" s="4">
-        <v>1419</v>
+        <v>1440</v>
       </c>
       <c r="D59" s="4">
-        <v>1411</v>
+        <v>945</v>
       </c>
       <c r="E59" s="4">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B60" s="4">
-        <v>52268</v>
+        <v>53449</v>
       </c>
       <c r="C60" s="4">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="D60" s="4">
-        <v>945</v>
+        <v>1181</v>
       </c>
       <c r="E60" s="4">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B61" s="4">
-        <v>53449</v>
+        <v>54509</v>
       </c>
       <c r="C61" s="4">
-        <v>1480</v>
+        <v>1506</v>
       </c>
       <c r="D61" s="4">
-        <v>1181</v>
+        <v>1060</v>
       </c>
       <c r="E61" s="4">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B62" s="4">
-        <v>54509</v>
+        <v>55348</v>
       </c>
       <c r="C62" s="4">
-        <v>1506</v>
+        <v>1519</v>
       </c>
       <c r="D62" s="4">
-        <v>1060</v>
+        <v>839</v>
       </c>
       <c r="E62" s="4">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B63" s="4">
-        <v>55348</v>
+        <v>55971</v>
       </c>
       <c r="C63" s="4">
-        <v>1519</v>
+        <v>1527</v>
       </c>
       <c r="D63" s="4">
-        <v>839</v>
+        <v>623</v>
       </c>
       <c r="E63" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B64" s="4">
-        <v>55971</v>
+        <v>56560</v>
       </c>
       <c r="C64" s="4">
-        <v>1527</v>
+        <v>1536</v>
       </c>
       <c r="D64" s="4">
-        <v>623</v>
+        <v>589</v>
       </c>
       <c r="E64" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B65" s="4">
-        <v>56560</v>
+        <v>57921</v>
       </c>
       <c r="C65" s="4">
-        <v>1536</v>
+        <v>1562</v>
       </c>
       <c r="D65" s="4">
-        <v>589</v>
+        <v>1361</v>
       </c>
       <c r="E65" s="4">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B66" s="4">
-        <v>57921</v>
+        <v>59776</v>
       </c>
       <c r="C66" s="4">
-        <v>1562</v>
+        <v>1601</v>
       </c>
       <c r="D66" s="4">
-        <v>1361</v>
+        <v>1855</v>
       </c>
       <c r="E66" s="4">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B67" s="4">
-        <v>59776</v>
+        <v>61006</v>
       </c>
       <c r="C67" s="4">
-        <v>1601</v>
+        <v>1626</v>
       </c>
       <c r="D67" s="4">
-        <v>1855</v>
+        <v>1230</v>
       </c>
       <c r="E67" s="4">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B68" s="4">
-        <v>61006</v>
+        <v>62338</v>
       </c>
       <c r="C68" s="4">
-        <v>1626</v>
+        <v>1648</v>
       </c>
       <c r="D68" s="4">
-        <v>1230</v>
+        <v>1332</v>
       </c>
       <c r="E68" s="4">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B69" s="4">
-        <v>62338</v>
+        <v>64287</v>
       </c>
       <c r="C69" s="4">
-        <v>1648</v>
+        <v>1672</v>
       </c>
       <c r="D69" s="4">
-        <v>1332</v>
+        <v>1949</v>
       </c>
       <c r="E69" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B70" s="4">
-        <v>64287</v>
+        <v>64880</v>
       </c>
       <c r="C70" s="4">
-        <v>1672</v>
+        <v>1678</v>
       </c>
       <c r="D70" s="4">
-        <v>1949</v>
+        <v>593</v>
       </c>
       <c r="E70" s="4">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B71" s="4">
-        <v>64880</v>
+        <v>66568</v>
       </c>
       <c r="C71" s="4">
-        <v>1678</v>
+        <v>1698</v>
       </c>
       <c r="D71" s="4">
-        <v>593</v>
+        <v>1688</v>
       </c>
       <c r="E71" s="4">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B72" s="4">
-        <v>66568</v>
+        <v>68271</v>
       </c>
       <c r="C72" s="4">
-        <v>1698</v>
+        <v>1734</v>
       </c>
       <c r="D72" s="4">
-        <v>1688</v>
+        <v>1703</v>
       </c>
       <c r="E72" s="4">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B73" s="4">
-        <v>68271</v>
+        <v>69920</v>
       </c>
       <c r="C73" s="4">
-        <v>1734</v>
+        <v>1767</v>
       </c>
       <c r="D73" s="4">
-        <v>1703</v>
+        <v>1649</v>
       </c>
       <c r="E73" s="4">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B74" s="4">
-        <v>69920</v>
+        <v>71613</v>
       </c>
       <c r="C74" s="4">
-        <v>1767</v>
+        <v>1788</v>
       </c>
       <c r="D74" s="4">
-        <v>1649</v>
+        <v>1693</v>
       </c>
       <c r="E74" s="4">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B75" s="4">
-        <v>71613</v>
+        <v>73553</v>
       </c>
       <c r="C75" s="4">
-        <v>1788</v>
+        <v>1819</v>
       </c>
       <c r="D75" s="4">
-        <v>1693</v>
+        <v>1940</v>
       </c>
       <c r="E75" s="4">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B76" s="4">
-        <v>73553</v>
+        <v>74978</v>
       </c>
       <c r="C76" s="4">
-        <v>1819</v>
+        <v>1830</v>
       </c>
       <c r="D76" s="4">
-        <v>1940</v>
+        <v>1425</v>
       </c>
       <c r="E76" s="4">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B77" s="4">
-        <v>74978</v>
+        <v>75616</v>
       </c>
       <c r="C77" s="4">
-        <v>1830</v>
+        <v>1836</v>
       </c>
       <c r="D77" s="4">
-        <v>1425</v>
+        <v>638</v>
       </c>
       <c r="E77" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B78" s="4">
-        <v>75616</v>
+        <v>77253</v>
       </c>
       <c r="C78" s="4">
-        <v>1836</v>
+        <v>1853</v>
       </c>
       <c r="D78" s="4">
-        <v>638</v>
+        <v>1637</v>
       </c>
       <c r="E78" s="4">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B79" s="4">
-        <v>77253</v>
+        <v>79757</v>
       </c>
       <c r="C79" s="4">
-        <v>1853</v>
+        <v>1885</v>
       </c>
       <c r="D79" s="4">
-        <v>1637</v>
+        <v>2504</v>
       </c>
       <c r="E79" s="4">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B80" s="4">
-        <v>79757</v>
+        <v>81583</v>
       </c>
       <c r="C80" s="4">
-        <v>1885</v>
+        <v>1920</v>
       </c>
       <c r="D80" s="4">
-        <v>2504</v>
+        <v>1826</v>
       </c>
       <c r="E80" s="4">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B81" s="4">
-        <v>81583</v>
+        <v>83680</v>
       </c>
       <c r="C81" s="4">
-        <v>1920</v>
+        <v>1939</v>
       </c>
       <c r="D81" s="4">
-        <v>1826</v>
+        <v>2097</v>
       </c>
       <c r="E81" s="4">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B82" s="4">
-        <v>83680</v>
+        <v>86011</v>
       </c>
       <c r="C82" s="4">
-        <v>1939</v>
+        <v>1957</v>
       </c>
       <c r="D82" s="4">
-        <v>2097</v>
+        <v>2331</v>
       </c>
       <c r="E82" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B83" s="4">
-        <v>86011</v>
+        <v>87854</v>
       </c>
       <c r="C83" s="4">
-        <v>1957</v>
+        <v>1976</v>
       </c>
       <c r="D83" s="4">
-        <v>2331</v>
+        <v>1843</v>
       </c>
       <c r="E83" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6403,8 +6411,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="G13" sqref="G13"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6415,29 +6423,29 @@
   <sheetData>
     <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>56535</v>
+        <v>58341</v>
       </c>
       <c r="B3" s="7">
-        <v>27519</v>
+        <v>27537</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B5" s="12"/>
     </row>
@@ -6453,11 +6461,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H76"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="G13" sqref="G13"/>
+      <pane ySplit="2" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -6471,7 +6479,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -6481,30 +6489,30 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="89" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="88" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>273</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>329</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6512,10 +6520,10 @@
         <v>43925</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D3" s="8">
         <v>63751</v>
@@ -6532,10 +6540,10 @@
         <v>43926</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D4" s="8">
         <v>70938</v>
@@ -6552,10 +6560,10 @@
         <v>43927</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D5" s="8">
         <v>85357</v>
@@ -6572,10 +6580,10 @@
         <v>43928</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D6" s="8">
         <v>88649</v>
@@ -6592,10 +6600,10 @@
         <v>43929</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D7" s="8">
         <v>96258</v>
@@ -6612,10 +6620,10 @@
         <v>43930</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D8" s="8">
         <v>106134</v>
@@ -6632,10 +6640,10 @@
         <v>43931</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D9" s="8">
         <v>115918</v>
@@ -6652,10 +6660,10 @@
         <v>43932</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D10" s="8">
         <v>120533</v>
@@ -6672,10 +6680,10 @@
         <v>43933</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D11" s="8">
         <v>124553</v>
@@ -6692,10 +6700,10 @@
         <v>43934</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D12" s="8">
         <v>133226</v>
@@ -6712,10 +6720,10 @@
         <v>43935</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D13" s="8">
         <v>146467</v>
@@ -6732,10 +6740,10 @@
         <v>43936</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D14" s="8">
         <v>151810</v>
@@ -6752,10 +6760,10 @@
         <v>43937</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D15" s="8">
         <v>158547</v>
@@ -6772,10 +6780,10 @@
         <v>43938</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D16" s="8">
         <v>169536</v>
@@ -6792,10 +6800,10 @@
         <v>43939</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D17" s="8">
         <v>176239</v>
@@ -6812,10 +6820,10 @@
         <v>43940</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D18" s="8">
         <v>182710</v>
@@ -6832,10 +6840,10 @@
         <v>43941</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D19" s="8">
         <v>190394</v>
@@ -6852,10 +6860,10 @@
         <v>43942</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D20" s="8">
         <v>205399</v>
@@ -6872,10 +6880,10 @@
         <v>43943</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D21" s="8">
         <v>216783</v>
@@ -6892,10 +6900,10 @@
         <v>43944</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D22" s="8">
         <v>225078</v>
@@ -6912,10 +6920,10 @@
         <v>43945</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D23" s="8">
         <v>242547</v>
@@ -6932,10 +6940,10 @@
         <v>43946</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D24" s="8">
         <v>262816</v>
@@ -6952,10 +6960,10 @@
         <v>43947</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D25" s="8">
         <v>276021</v>
@@ -6972,10 +6980,10 @@
         <v>43948</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D26" s="8">
         <v>290517</v>
@@ -6992,10 +7000,10 @@
         <v>43949</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D27" s="8">
         <v>300384</v>
@@ -7012,10 +7020,10 @@
         <v>43950</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D28" s="8">
         <v>314790</v>
@@ -7032,10 +7040,10 @@
         <v>43951</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D29" s="8">
         <v>330300</v>
@@ -7052,10 +7060,10 @@
         <v>43952</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D30" s="8">
         <v>351775</v>
@@ -7072,10 +7080,10 @@
         <v>43953</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D31" s="8">
         <v>380648</v>
@@ -7092,10 +7100,10 @@
         <v>43954</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D32" s="8">
         <v>390560</v>
@@ -7112,10 +7120,10 @@
         <v>43955</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D33" s="8">
         <v>407398</v>
@@ -7132,10 +7140,10 @@
         <v>43956</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D34" s="8">
         <v>427210</v>
@@ -7152,10 +7160,10 @@
         <v>43957</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D35" s="8">
         <v>438938</v>
@@ -7172,10 +7180,10 @@
         <v>43958</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D36" s="8">
         <v>455162</v>
@@ -7192,10 +7200,10 @@
         <v>43959</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D37" s="8">
         <v>477118</v>
@@ -7534,16 +7542,16 @@
         <v>43974</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D52" s="8">
         <v>870935</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -7721,7 +7729,7 @@
         <v>1054793</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -8071,31 +8079,57 @@
       <c r="A73" s="6">
         <v>43995</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>274</v>
+      <c r="B73" s="8">
+        <v>1295983</v>
+      </c>
+      <c r="C73" s="8">
+        <v>146967</v>
       </c>
       <c r="D73" s="8">
         <v>1442950</v>
       </c>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-    </row>
-    <row r="75" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
+      <c r="E73" s="15">
+        <v>6.1077310009756289E-2</v>
+      </c>
+      <c r="F73" s="8">
+        <v>29139</v>
+      </c>
+      <c r="G73" s="8">
+        <v>2861</v>
+      </c>
+      <c r="H73" s="8">
+        <v>31999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>43996</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D74" s="8">
+        <v>1463851</v>
+      </c>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+    </row>
+    <row r="76" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A76:D76"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -8109,7 +8143,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -8121,45 +8155,45 @@
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B3" s="7">
-        <v>59651</v>
+        <v>61394</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B4" s="7">
-        <v>1383299</v>
+        <v>1402457</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B5" s="7">
-        <v>1442950</v>
+        <v>1463851</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B7" s="12"/>
     </row>
@@ -8174,11 +8208,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E112417B-F6A7-4BF6-BCB3-9732B3C2BDCC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0BA125-ED00-41FD-9158-C09F215C3A88}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
@@ -8190,37 +8224,37 @@
   <sheetData>
     <row r="1" spans="1:2" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>276</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>277</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B3" s="23">
-        <v>144050</v>
+        <v>146967</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B4" s="23">
-        <v>5963</v>
+        <v>6062</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B6" s="18"/>
     </row>
@@ -8240,7 +8274,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -8252,61 +8286,61 @@
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B1" s="12"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B3" s="7">
-        <v>2242</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B4" s="7">
-        <v>56596</v>
+        <v>55208</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B5" s="7">
-        <v>13571</v>
+        <v>14660</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B6" s="7">
-        <v>1498</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B7" s="7">
-        <v>5725</v>
+        <v>5843</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B9" s="12"/>
     </row>
@@ -8322,11 +8356,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="G13" sqref="G13"/>
+      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -8339,20 +8373,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8597,7 +8631,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -9136,17 +9170,28 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
+    <row r="74" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>72</v>
+      </c>
+      <c r="B74" s="6">
+        <v>43996</v>
+      </c>
+      <c r="C74" s="7">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="A76:C76"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9159,7 +9204,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -9167,30 +9212,30 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B3" s="8">
         <v>41</v>
@@ -9202,7 +9247,7 @@
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B4" s="8">
         <v>180</v>
@@ -9214,7 +9259,7 @@
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B5" s="8">
         <v>471</v>
@@ -9226,7 +9271,7 @@
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B6" s="8">
         <v>2436</v>
@@ -9238,7 +9283,7 @@
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B7" s="8">
         <v>2869</v>
@@ -9250,7 +9295,7 @@
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B8" s="8">
         <v>2931</v>
@@ -9262,7 +9307,7 @@
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B9" s="8">
         <v>2873</v>
@@ -9274,7 +9319,7 @@
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B10" s="8">
         <v>1224</v>
@@ -9286,7 +9331,7 @@
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B11" s="8">
         <v>887</v>
@@ -9298,7 +9343,7 @@
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B12" s="8">
         <v>592</v>
@@ -9310,7 +9355,7 @@
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B13" s="8">
         <v>391</v>
@@ -9322,7 +9367,7 @@
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B14" s="8">
         <v>664</v>
@@ -9334,7 +9379,7 @@
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B15" s="8">
         <v>123</v>
@@ -9358,14 +9403,14 @@
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
     </row>
     <row r="19" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -9377,6 +9422,6 @@
     <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
+++ b/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD769B9C-7A30-422D-B7B3-7F0C15C05DF7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A43C692-1B55-4516-BF0D-BD2B7FADBB24}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
@@ -28,14 +28,14 @@
     <sheet name="Fatalities by Gender" sheetId="12" r:id="rId13"/>
     <sheet name="Fatalities by Race-Ethnicity" sheetId="13" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="333">
-  <si>
-    <t>COVID-19 Cases and Fatalities by County as of 6/14 at 10:45AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="334">
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 6/15 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -812,7 +812,10 @@
     <t>Total</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/14 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/15 at 10:45AM CST</t>
+  </si>
+  <si>
+    <t>DISCLAIMER: All data are provisional and are subject to change.</t>
   </si>
   <si>
     <t>Date</t>
@@ -836,7 +839,7 @@
 Fatalities</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/14 at 3:00PM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/15 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -848,7 +851,7 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/14 at 3:00PM CST</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/15 at 3:00PM CST</t>
   </si>
   <si>
     <t>Total Tests
@@ -867,7 +870,7 @@
     <t>Tests include those performed by public labs (Laboratory Response Network) and private labs (commercial labs, hospitals, physician offices, and drive-thru sites) reported electronically and non-electronically to DSHS.</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/14 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/15 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -888,7 +891,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 6/14 at 9:30AM CST</t>
+    <t>Texas Statewide Hospitalization Data as of 6/15 at 9:30AM CST</t>
   </si>
   <si>
     <t>Hospital data</t>
@@ -909,7 +912,7 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 6/14 at 9:30AM CST</t>
+    <t>Number of COVID-19 Hospitalizations by Day as of 6/15 at 9:30AM CST</t>
   </si>
   <si>
     <t>Obs</t>
@@ -918,7 +921,7 @@
     <t>Hospitalizations</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 6/14 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 6/15 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -976,7 +979,7 @@
     <t>Completed case investigations received by DSHS =          15,682</t>
   </si>
   <si>
-    <t>Gender of Confirmed Cases as of 6/14 at 9:30 AM CST</t>
+    <t>Gender of Confirmed Cases as of 6/15 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -988,7 +991,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 6/14 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 6/15 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -1009,16 +1012,16 @@
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 6/14 at 9:30 AM CST</t>
+    <t>Age of Confirmed Fatalities as of 6/15 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Completed investigations received by DSHS =          664</t>
   </si>
   <si>
-    <t>Gender of Confirmed Fatalities as of 6/14 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 6/14 at 9:30 AM CST</t>
+    <t>Gender of Confirmed Fatalities as of 6/15 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 6/15 at 9:30 AM CST</t>
   </si>
   <si>
     <t>COVID-19
@@ -1041,7 +1044,7 @@
     <t>Number of Positive Antibody Tests Reported</t>
   </si>
   <si>
-    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/13 at 3:00PM CST</t>
+    <t>Number of COVID-19 Antibody Tests and Positives Texas as of 6/14 at 3:00PM CST</t>
   </si>
 </sst>
 </file>
@@ -1053,8 +1056,8 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="##,###,##0"/>
     <numFmt numFmtId="167" formatCode="###,###,###,###,##0"/>
-    <numFmt numFmtId="169" formatCode="##0"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="##0"/>
+    <numFmt numFmtId="169" formatCode="0.0%"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -1067,17 +1070,20 @@
       <sz val="11"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9.5"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9.5"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9.5"/>
@@ -1215,32 +1221,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1257,16 +1245,34 @@
     <xf numFmtId="166" fontId="4" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{C8ADC678-0E68-4A99-A593-361838161460}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{C00761E2-774A-4FC8-B229-F34B27F37AE8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1401,7 +1407,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1412,11 +1419,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1588,7 +1595,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>4242</v>
+        <v>4393</v>
       </c>
       <c r="C17" s="4">
         <v>88</v>
@@ -1632,7 +1639,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C21" s="4">
         <v>7</v>
@@ -1643,10 +1650,10 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>850</v>
+        <v>864</v>
       </c>
       <c r="C22" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1654,7 +1661,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>781</v>
+        <v>803</v>
       </c>
       <c r="C23" s="4">
         <v>25</v>
@@ -1665,7 +1672,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
@@ -1775,7 +1782,7 @@
         <v>35</v>
       </c>
       <c r="B34" s="4">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
@@ -1819,7 +1826,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
@@ -1896,7 +1903,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>1647</v>
+        <v>1667</v>
       </c>
       <c r="C45" s="4">
         <v>37</v>
@@ -1918,7 +1925,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -2050,10 +2057,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>13930</v>
+        <v>14232</v>
       </c>
       <c r="C59" s="4">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2105,7 +2112,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>1719</v>
+        <v>1736</v>
       </c>
       <c r="C64" s="4">
         <v>36</v>
@@ -2193,10 +2200,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>3834</v>
+        <v>3911</v>
       </c>
       <c r="C72" s="4">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2347,7 +2354,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>1237</v>
+        <v>1255</v>
       </c>
       <c r="C86" s="4">
         <v>40</v>
@@ -2424,7 +2431,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="C93" s="4">
         <v>4</v>
@@ -2534,7 +2541,7 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>16568</v>
+        <v>16778</v>
       </c>
       <c r="C103" s="4">
         <v>275</v>
@@ -2545,7 +2552,7 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C104" s="4">
         <v>28</v>
@@ -2611,7 +2618,7 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>967</v>
+        <v>1050</v>
       </c>
       <c r="C110" s="4">
         <v>12</v>
@@ -2776,7 +2783,7 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>1235</v>
+        <v>1242</v>
       </c>
       <c r="C125" s="4">
         <v>31</v>
@@ -3029,7 +3036,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="C148" s="4">
         <v>3</v>
@@ -3095,7 +3102,7 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="C154" s="4">
         <v>51</v>
@@ -3128,7 +3135,7 @@
         <v>158</v>
       </c>
       <c r="B157" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C157" s="4">
         <v>1</v>
@@ -3139,7 +3146,7 @@
         <v>159</v>
       </c>
       <c r="B158" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C158" s="4">
         <v>1</v>
@@ -3161,7 +3168,7 @@
         <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C160" s="4">
         <v>5</v>
@@ -3194,7 +3201,7 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="C163" s="4">
         <v>4</v>
@@ -3436,7 +3443,7 @@
         <v>186</v>
       </c>
       <c r="B185" s="4">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C185" s="4">
         <v>23</v>
@@ -3634,7 +3641,7 @@
         <v>204</v>
       </c>
       <c r="B203" s="4">
-        <v>70</v>
+        <v>128</v>
       </c>
       <c r="C203" s="4">
         <v>2</v>
@@ -3733,7 +3740,7 @@
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C212" s="4">
         <v>8</v>
@@ -3777,7 +3784,7 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C216" s="4">
         <v>0</v>
@@ -3843,10 +3850,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>7253</v>
+        <v>7334</v>
       </c>
       <c r="C222" s="4">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3898,7 +3905,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C227" s="4">
         <v>2</v>
@@ -3909,7 +3916,7 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C228" s="4">
         <v>1</v>
@@ -3920,7 +3927,7 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>4461</v>
+        <v>4545</v>
       </c>
       <c r="C229" s="4">
         <v>104</v>
@@ -3953,7 +3960,7 @@
         <v>233</v>
       </c>
       <c r="B232" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C232" s="4">
         <v>0</v>
@@ -3964,7 +3971,7 @@
         <v>234</v>
       </c>
       <c r="B233" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C233" s="4">
         <v>0</v>
@@ -3975,7 +3982,7 @@
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C234" s="4">
         <v>0</v>
@@ -4019,7 +4026,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>1871</v>
+        <v>1878</v>
       </c>
       <c r="C238" s="4">
         <v>27</v>
@@ -4030,7 +4037,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4118,7 +4125,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C247" s="4">
         <v>3</v>
@@ -4129,7 +4136,7 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>862</v>
+        <v>904</v>
       </c>
       <c r="C248" s="4">
         <v>30</v>
@@ -4228,10 +4235,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>87854</v>
+        <v>89108</v>
       </c>
       <c r="C257" s="4">
-        <v>1976</v>
+        <v>1983</v>
       </c>
     </row>
   </sheetData>
@@ -4249,7 +4256,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4257,59 +4264,59 @@
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B3" s="8">
         <v>7006</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="18">
         <f>B3/B$6</f>
         <v>0.44675424053054458</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B4" s="8">
         <v>8386</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="18">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
         <v>0.53475322025251881</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B5" s="8">
         <v>290</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="18">
         <f t="shared" si="0"/>
         <v>1.8492539216936617E-2</v>
       </c>
@@ -4321,24 +4328,24 @@
       <c r="B6" s="8">
         <v>15682</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="A9" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4357,7 +4364,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4365,95 +4372,95 @@
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B3" s="8">
         <v>519</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="18">
         <f>B3/B$9</f>
         <v>3.3095268460655532E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B4" s="8">
         <v>2552</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="18">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
         <v>0.16273434510904222</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B5" s="8">
         <v>6286</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="18">
         <f t="shared" si="0"/>
         <v>0.40084172937125367</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B6" s="8">
         <v>99</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="18">
         <f t="shared" si="0"/>
         <v>6.3129702844025E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B7" s="8">
         <v>4257</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="18">
         <f t="shared" si="0"/>
         <v>0.27145772222930747</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B8" s="8">
         <v>1969</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="18">
         <f t="shared" si="0"/>
         <v>0.1255579645453386</v>
       </c>
@@ -4465,24 +4472,24 @@
       <c r="B9" s="8">
         <v>15682</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="A12" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4501,7 +4508,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4509,179 +4516,179 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.90625" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B3" s="10">
         <v>0</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="18">
         <f>B3/B$16</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B4" s="10">
         <v>0</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="18">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B5" s="10">
         <v>2</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="18">
         <f t="shared" si="0"/>
         <v>3.0120481927710845E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B6" s="10">
         <v>11</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="18">
         <f t="shared" si="0"/>
         <v>1.6566265060240965E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B7" s="10">
         <v>13</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="18">
         <f t="shared" si="0"/>
         <v>1.9578313253012049E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B8" s="10">
         <v>26</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="18">
         <f t="shared" si="0"/>
         <v>3.9156626506024098E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B9" s="10">
         <v>72</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="18">
         <f t="shared" si="0"/>
         <v>0.10843373493975904</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B10" s="10">
         <v>60</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="18">
         <f t="shared" si="0"/>
         <v>9.036144578313253E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B11" s="10">
         <v>74</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="18">
         <f t="shared" si="0"/>
         <v>0.11144578313253012</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B12" s="10">
         <v>69</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="18">
         <f t="shared" si="0"/>
         <v>0.10391566265060241</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B13" s="10">
         <v>70</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="18">
         <f t="shared" si="0"/>
         <v>0.10542168674698796</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B14" s="10">
         <v>265</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="18">
         <f t="shared" si="0"/>
         <v>0.3990963855421687</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B15" s="10">
         <v>2</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="18">
         <f t="shared" si="0"/>
         <v>3.0120481927710845E-3</v>
       </c>
@@ -4693,24 +4700,24 @@
       <c r="B16" s="10">
         <v>664</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="A18" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="A19" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4729,7 +4736,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4737,59 +4744,59 @@
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B3" s="10">
         <v>272</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="18">
         <f>B3/B$6</f>
         <v>0.40963855421686746</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B4" s="10">
         <v>364</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="18">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
         <v>0.54819277108433739</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B5" s="10">
         <v>28</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="18">
         <f t="shared" si="0"/>
         <v>4.2168674698795178E-2</v>
       </c>
@@ -4801,24 +4808,24 @@
       <c r="B6" s="10">
         <v>664</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="A8" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="A9" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4827,7 +4834,7 @@
     <mergeCell ref="A9:C9"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -4837,7 +4844,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4845,95 +4852,95 @@
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.90625" customWidth="1"/>
+    <col min="3" max="3" width="6.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B3" s="10">
         <v>13</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="18">
         <f>B3/B$9</f>
         <v>1.9578313253012049E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B4" s="10">
         <v>85</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="18">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
         <v>0.12801204819277109</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B5" s="10">
         <v>171</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="18">
         <f t="shared" si="0"/>
         <v>0.25753012048192769</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B6" s="10">
         <v>5</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="18">
         <f t="shared" si="0"/>
         <v>7.5301204819277108E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B7" s="10">
         <v>269</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="18">
         <f t="shared" si="0"/>
         <v>0.40512048192771083</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B8" s="10">
         <v>121</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="18">
         <f t="shared" si="0"/>
         <v>0.18222891566265059</v>
       </c>
@@ -4945,24 +4952,24 @@
       <c r="B9" s="10">
         <v>664</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="A12" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4971,17 +4978,17 @@
     <mergeCell ref="A12:C12"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -4994,247 +5001,239 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="19" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-    </row>
-    <row r="2" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+    </row>
+    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>43916</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1394</v>
-      </c>
-      <c r="C3" s="4">
-        <v>18</v>
-      </c>
-      <c r="D3" s="4">
-        <v>419</v>
-      </c>
-      <c r="E3" s="4">
-        <v>6</v>
+      <c r="E3" s="5" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>43917</v>
+        <v>43916</v>
       </c>
       <c r="B4" s="4">
-        <v>1731</v>
+        <v>1394</v>
       </c>
       <c r="C4" s="4">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4">
-        <v>337</v>
+        <v>419</v>
       </c>
       <c r="E4" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>43918</v>
+        <v>43917</v>
       </c>
       <c r="B5" s="4">
-        <v>2048</v>
+        <v>1731</v>
       </c>
       <c r="C5" s="4">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="E5" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>43919</v>
+        <v>43918</v>
       </c>
       <c r="B6" s="4">
-        <v>2552</v>
+        <v>2048</v>
       </c>
       <c r="C6" s="4">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D6" s="4">
-        <v>504</v>
+        <v>317</v>
       </c>
       <c r="E6" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>43920</v>
+        <v>43919</v>
       </c>
       <c r="B7" s="4">
-        <v>2874</v>
+        <v>2552</v>
       </c>
       <c r="C7" s="4">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D7" s="4">
-        <v>322</v>
+        <v>504</v>
       </c>
       <c r="E7" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>43921</v>
+        <v>43920</v>
       </c>
       <c r="B8" s="4">
-        <v>3266</v>
+        <v>2874</v>
       </c>
       <c r="C8" s="4">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D8" s="4">
-        <v>392</v>
+        <v>322</v>
       </c>
       <c r="E8" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>43922</v>
+        <v>43921</v>
       </c>
       <c r="B9" s="4">
-        <v>3996</v>
+        <v>3266</v>
       </c>
       <c r="C9" s="4">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D9" s="4">
-        <v>730</v>
+        <v>392</v>
       </c>
       <c r="E9" s="4">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>43923</v>
+        <v>43922</v>
       </c>
       <c r="B10" s="4">
-        <v>4665</v>
+        <v>3996</v>
       </c>
       <c r="C10" s="4">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="D10" s="4">
-        <v>669</v>
+        <v>730</v>
       </c>
       <c r="E10" s="4">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>43924</v>
+        <v>43923</v>
       </c>
       <c r="B11" s="4">
-        <v>5324</v>
+        <v>4665</v>
       </c>
       <c r="C11" s="4">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="D11" s="4">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="E11" s="4">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>43925</v>
+        <v>43924</v>
       </c>
       <c r="B12" s="4">
-        <v>6112</v>
+        <v>5324</v>
       </c>
       <c r="C12" s="4">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D12" s="4">
-        <v>788</v>
+        <v>659</v>
       </c>
       <c r="E12" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>43926</v>
+        <v>43925</v>
       </c>
       <c r="B13" s="4">
-        <v>6793</v>
+        <v>6112</v>
       </c>
       <c r="C13" s="4">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D13" s="4">
-        <v>681</v>
+        <v>788</v>
       </c>
       <c r="E13" s="4">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>43927</v>
+        <v>43926</v>
       </c>
       <c r="B14" s="4">
-        <v>7273</v>
+        <v>6793</v>
       </c>
       <c r="C14" s="4">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="D14" s="4">
-        <v>480</v>
+        <v>681</v>
       </c>
       <c r="E14" s="4">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>43928</v>
+        <v>43927</v>
       </c>
       <c r="B15" s="4">
-        <v>8261</v>
+        <v>7273</v>
       </c>
       <c r="C15" s="4">
-        <v>154</v>
+        <v>140</v>
       </c>
       <c r="D15" s="4">
-        <v>988</v>
+        <v>480</v>
       </c>
       <c r="E15" s="4">
         <v>14</v>
@@ -5242,1163 +5241,1198 @@
     </row>
     <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>43929</v>
+        <v>43928</v>
       </c>
       <c r="B16" s="4">
-        <v>9353</v>
+        <v>8261</v>
       </c>
       <c r="C16" s="4">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="D16" s="4">
-        <v>1092</v>
+        <v>988</v>
       </c>
       <c r="E16" s="4">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>43930</v>
+        <v>43929</v>
       </c>
       <c r="B17" s="4">
-        <v>10230</v>
+        <v>9353</v>
       </c>
       <c r="C17" s="4">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="D17" s="4">
-        <v>877</v>
+        <v>1092</v>
       </c>
       <c r="E17" s="4">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>43931</v>
+        <v>43930</v>
       </c>
       <c r="B18" s="4">
-        <v>11671</v>
+        <v>10230</v>
       </c>
       <c r="C18" s="4">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="D18" s="4">
-        <v>1441</v>
+        <v>877</v>
       </c>
       <c r="E18" s="4">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>43932</v>
+        <v>43931</v>
       </c>
       <c r="B19" s="4">
-        <v>12561</v>
+        <v>11671</v>
       </c>
       <c r="C19" s="4">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="D19" s="4">
-        <v>890</v>
+        <v>1441</v>
       </c>
       <c r="E19" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>43933</v>
+        <v>43932</v>
       </c>
       <c r="B20" s="4">
-        <v>13484</v>
+        <v>12561</v>
       </c>
       <c r="C20" s="4">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="D20" s="4">
-        <v>923</v>
+        <v>890</v>
       </c>
       <c r="E20" s="4">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
+        <v>43933</v>
+      </c>
+      <c r="B21" s="4">
+        <v>13484</v>
+      </c>
+      <c r="C21" s="4">
+        <v>271</v>
+      </c>
+      <c r="D21" s="4">
+        <v>923</v>
+      </c>
+      <c r="E21" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>43934</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B22" s="4">
         <v>13906</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C22" s="4">
         <v>287</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D22" s="4">
         <v>422</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E22" s="4">
         <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
-        <v>43935</v>
-      </c>
-      <c r="B22" s="4">
-        <v>14624</v>
-      </c>
-      <c r="C22" s="4">
-        <v>318</v>
-      </c>
-      <c r="D22" s="4">
-        <v>718</v>
-      </c>
-      <c r="E22" s="4">
-        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>43936</v>
+        <v>43935</v>
       </c>
       <c r="B23" s="4">
-        <v>15492</v>
+        <v>14624</v>
       </c>
       <c r="C23" s="4">
-        <v>364</v>
+        <v>318</v>
       </c>
       <c r="D23" s="4">
-        <v>868</v>
+        <v>718</v>
       </c>
       <c r="E23" s="4">
-        <v>46</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>43937</v>
+        <v>43936</v>
       </c>
       <c r="B24" s="4">
-        <v>16455</v>
+        <v>15492</v>
       </c>
       <c r="C24" s="4">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="D24" s="4">
-        <v>963</v>
+        <v>868</v>
       </c>
       <c r="E24" s="4">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>43938</v>
+        <v>43937</v>
       </c>
       <c r="B25" s="4">
-        <v>17371</v>
+        <v>16455</v>
       </c>
       <c r="C25" s="4">
-        <v>428</v>
+        <v>393</v>
       </c>
       <c r="D25" s="4">
-        <v>916</v>
+        <v>963</v>
       </c>
       <c r="E25" s="4">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>43939</v>
+        <v>43938</v>
       </c>
       <c r="B26" s="4">
-        <v>18260</v>
+        <v>17371</v>
       </c>
       <c r="C26" s="4">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="D26" s="4">
-        <v>889</v>
+        <v>916</v>
       </c>
       <c r="E26" s="4">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>43940</v>
+        <v>43939</v>
       </c>
       <c r="B27" s="4">
-        <v>18923</v>
+        <v>18260</v>
       </c>
       <c r="C27" s="4">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="D27" s="4">
-        <v>663</v>
+        <v>889</v>
       </c>
       <c r="E27" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>43941</v>
+        <v>43940</v>
       </c>
       <c r="B28" s="4">
-        <v>19458</v>
+        <v>18923</v>
       </c>
       <c r="C28" s="4">
-        <v>495</v>
+        <v>477</v>
       </c>
       <c r="D28" s="4">
-        <v>535</v>
+        <v>663</v>
       </c>
       <c r="E28" s="4">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>43942</v>
+        <v>43941</v>
       </c>
       <c r="B29" s="4">
-        <v>20196</v>
+        <v>19458</v>
       </c>
       <c r="C29" s="4">
-        <v>517</v>
+        <v>495</v>
       </c>
       <c r="D29" s="4">
-        <v>738</v>
+        <v>535</v>
       </c>
       <c r="E29" s="4">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>43943</v>
+        <v>43942</v>
       </c>
       <c r="B30" s="4">
-        <v>21069</v>
+        <v>20196</v>
       </c>
       <c r="C30" s="4">
-        <v>543</v>
+        <v>517</v>
       </c>
       <c r="D30" s="4">
-        <v>873</v>
+        <v>738</v>
       </c>
       <c r="E30" s="4">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>43944</v>
+        <v>43943</v>
       </c>
       <c r="B31" s="4">
-        <v>21944</v>
+        <v>21069</v>
       </c>
       <c r="C31" s="4">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="D31" s="4">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E31" s="4">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>43945</v>
+        <v>43944</v>
       </c>
       <c r="B32" s="4">
-        <v>22806</v>
+        <v>21944</v>
       </c>
       <c r="C32" s="4">
-        <v>593</v>
+        <v>561</v>
       </c>
       <c r="D32" s="4">
-        <v>862</v>
+        <v>875</v>
       </c>
       <c r="E32" s="4">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>43946</v>
+        <v>43945</v>
       </c>
       <c r="B33" s="4">
-        <v>23773</v>
+        <v>22806</v>
       </c>
       <c r="C33" s="4">
-        <v>623</v>
+        <v>593</v>
       </c>
       <c r="D33" s="4">
-        <v>967</v>
+        <v>862</v>
       </c>
       <c r="E33" s="4">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>43947</v>
+        <v>43946</v>
       </c>
       <c r="B34" s="4">
-        <v>24631</v>
+        <v>23773</v>
       </c>
       <c r="C34" s="4">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="D34" s="4">
-        <v>858</v>
+        <v>967</v>
       </c>
       <c r="E34" s="4">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>43948</v>
+        <v>43947</v>
       </c>
       <c r="B35" s="4">
-        <v>25297</v>
+        <v>24631</v>
       </c>
       <c r="C35" s="4">
-        <v>663</v>
+        <v>648</v>
       </c>
       <c r="D35" s="4">
-        <v>666</v>
+        <v>858</v>
       </c>
       <c r="E35" s="4">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>43949</v>
+        <v>43948</v>
       </c>
       <c r="B36" s="4">
-        <v>26171</v>
+        <v>25297</v>
       </c>
       <c r="C36" s="4">
-        <v>690</v>
+        <v>663</v>
       </c>
       <c r="D36" s="4">
-        <v>874</v>
+        <v>666</v>
       </c>
       <c r="E36" s="4">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>43950</v>
+        <v>43949</v>
       </c>
       <c r="B37" s="4">
-        <v>27054</v>
+        <v>26171</v>
       </c>
       <c r="C37" s="4">
-        <v>732</v>
+        <v>690</v>
       </c>
       <c r="D37" s="4">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="E37" s="4">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>43951</v>
+        <v>43950</v>
       </c>
       <c r="B38" s="4">
-        <v>28087</v>
+        <v>27054</v>
       </c>
       <c r="C38" s="4">
-        <v>782</v>
+        <v>732</v>
       </c>
       <c r="D38" s="4">
-        <v>1033</v>
+        <v>883</v>
       </c>
       <c r="E38" s="4">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>43952</v>
+        <v>43951</v>
       </c>
       <c r="B39" s="4">
-        <v>29229</v>
+        <v>28087</v>
       </c>
       <c r="C39" s="4">
-        <v>816</v>
+        <v>782</v>
       </c>
       <c r="D39" s="4">
-        <v>1142</v>
+        <v>1033</v>
       </c>
       <c r="E39" s="4">
-        <v>34</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>43953</v>
+        <v>43952</v>
       </c>
       <c r="B40" s="4">
-        <v>30522</v>
+        <v>29229</v>
       </c>
       <c r="C40" s="4">
-        <v>847</v>
+        <v>816</v>
       </c>
       <c r="D40" s="4">
-        <v>1293</v>
+        <v>1142</v>
       </c>
       <c r="E40" s="4">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>43954</v>
+        <v>43953</v>
       </c>
       <c r="B41" s="4">
-        <v>31548</v>
+        <v>30522</v>
       </c>
       <c r="C41" s="4">
-        <v>867</v>
+        <v>847</v>
       </c>
       <c r="D41" s="4">
-        <v>1026</v>
+        <v>1293</v>
       </c>
       <c r="E41" s="4">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>43955</v>
+        <v>43954</v>
       </c>
       <c r="B42" s="4">
-        <v>32332</v>
+        <v>31548</v>
       </c>
       <c r="C42" s="4">
-        <v>884</v>
+        <v>867</v>
       </c>
       <c r="D42" s="4">
-        <v>784</v>
+        <v>1026</v>
       </c>
       <c r="E42" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>43956</v>
+        <v>43955</v>
       </c>
       <c r="B43" s="4">
-        <v>33369</v>
+        <v>32332</v>
       </c>
       <c r="C43" s="4">
-        <v>906</v>
+        <v>884</v>
       </c>
       <c r="D43" s="4">
-        <v>1037</v>
+        <v>784</v>
       </c>
       <c r="E43" s="4">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>43957</v>
+        <v>43956</v>
       </c>
       <c r="B44" s="4">
-        <v>34422</v>
+        <v>33369</v>
       </c>
       <c r="C44" s="4">
-        <v>948</v>
+        <v>906</v>
       </c>
       <c r="D44" s="4">
-        <v>1053</v>
+        <v>1037</v>
       </c>
       <c r="E44" s="4">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>43958</v>
+        <v>43957</v>
       </c>
       <c r="B45" s="4">
-        <v>35390</v>
+        <v>34422</v>
       </c>
       <c r="C45" s="4">
-        <v>973</v>
+        <v>948</v>
       </c>
       <c r="D45" s="4">
-        <v>968</v>
+        <v>1053</v>
       </c>
       <c r="E45" s="4">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>43959</v>
+        <v>43958</v>
       </c>
       <c r="B46" s="4">
-        <v>36609</v>
+        <v>35390</v>
       </c>
       <c r="C46" s="4">
-        <v>1004</v>
+        <v>973</v>
       </c>
       <c r="D46" s="4">
-        <v>1219</v>
+        <v>968</v>
       </c>
       <c r="E46" s="4">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>43960</v>
+        <v>43959</v>
       </c>
       <c r="B47" s="4">
-        <v>37860</v>
+        <v>36609</v>
       </c>
       <c r="C47" s="4">
-        <v>1049</v>
+        <v>1004</v>
       </c>
       <c r="D47" s="4">
-        <v>1251</v>
+        <v>1219</v>
       </c>
       <c r="E47" s="4">
-        <v>45</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>43961</v>
+        <v>43960</v>
       </c>
       <c r="B48" s="4">
-        <v>38869</v>
+        <v>37860</v>
       </c>
       <c r="C48" s="4">
-        <v>1088</v>
+        <v>1049</v>
       </c>
       <c r="D48" s="4">
-        <v>1009</v>
+        <v>1251</v>
       </c>
       <c r="E48" s="4">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>43962</v>
+        <v>43961</v>
       </c>
       <c r="B49" s="4">
-        <v>39869</v>
+        <v>38869</v>
       </c>
       <c r="C49" s="4">
-        <v>1100</v>
+        <v>1088</v>
       </c>
       <c r="D49" s="4">
-        <v>1000</v>
+        <v>1009</v>
       </c>
       <c r="E49" s="4">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>43963</v>
+        <v>43962</v>
       </c>
       <c r="B50" s="4">
-        <v>41048</v>
+        <v>39869</v>
       </c>
       <c r="C50" s="4">
-        <v>1133</v>
+        <v>1100</v>
       </c>
       <c r="D50" s="4">
-        <v>1179</v>
+        <v>1000</v>
       </c>
       <c r="E50" s="4">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>43964</v>
+        <v>43963</v>
       </c>
       <c r="B51" s="4">
-        <v>42403</v>
+        <v>41048</v>
       </c>
       <c r="C51" s="4">
-        <v>1158</v>
+        <v>1133</v>
       </c>
       <c r="D51" s="4">
-        <v>1355</v>
+        <v>1179</v>
       </c>
       <c r="E51" s="4">
-        <v>25</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>43965</v>
+        <v>43964</v>
       </c>
       <c r="B52" s="4">
-        <v>43851</v>
+        <v>42403</v>
       </c>
       <c r="C52" s="4">
-        <v>1216</v>
+        <v>1158</v>
       </c>
       <c r="D52" s="4">
-        <v>1448</v>
+        <v>1355</v>
       </c>
       <c r="E52" s="4">
-        <v>58</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>43966</v>
+        <v>43965</v>
       </c>
       <c r="B53" s="4">
-        <v>45198</v>
+        <v>43851</v>
       </c>
       <c r="C53" s="4">
-        <v>1272</v>
+        <v>1216</v>
       </c>
       <c r="D53" s="4">
-        <v>1347</v>
+        <v>1448</v>
       </c>
       <c r="E53" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>43967</v>
+        <v>43966</v>
       </c>
       <c r="B54" s="4">
-        <v>46999</v>
+        <v>45198</v>
       </c>
       <c r="C54" s="4">
-        <v>1305</v>
+        <v>1272</v>
       </c>
       <c r="D54" s="4">
-        <v>1801</v>
+        <v>1347</v>
       </c>
       <c r="E54" s="4">
-        <v>33</v>
+        <v>56</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>43968</v>
+        <v>43967</v>
       </c>
       <c r="B55" s="4">
-        <v>47784</v>
+        <v>46999</v>
       </c>
       <c r="C55" s="4">
-        <v>1336</v>
+        <v>1305</v>
       </c>
       <c r="D55" s="4">
-        <v>785</v>
+        <v>1801</v>
       </c>
       <c r="E55" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>43969</v>
+        <v>43968</v>
       </c>
       <c r="B56" s="4">
-        <v>48693</v>
+        <v>47784</v>
       </c>
       <c r="C56" s="4">
-        <v>1347</v>
+        <v>1336</v>
       </c>
       <c r="D56" s="4">
-        <v>909</v>
+        <v>785</v>
       </c>
       <c r="E56" s="4">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>43970</v>
+        <v>43969</v>
       </c>
       <c r="B57" s="4">
-        <v>49912</v>
+        <v>48693</v>
       </c>
       <c r="C57" s="4">
-        <v>1369</v>
+        <v>1347</v>
       </c>
       <c r="D57" s="4">
-        <v>1219</v>
+        <v>909</v>
       </c>
       <c r="E57" s="4">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>43971</v>
+        <v>43970</v>
       </c>
       <c r="B58" s="4">
-        <v>51323</v>
+        <v>49912</v>
       </c>
       <c r="C58" s="4">
-        <v>1419</v>
+        <v>1369</v>
       </c>
       <c r="D58" s="4">
-        <v>1411</v>
+        <v>1219</v>
       </c>
       <c r="E58" s="4">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>43972</v>
+        <v>43971</v>
       </c>
       <c r="B59" s="4">
-        <v>52268</v>
+        <v>51323</v>
       </c>
       <c r="C59" s="4">
-        <v>1440</v>
+        <v>1419</v>
       </c>
       <c r="D59" s="4">
-        <v>945</v>
+        <v>1411</v>
       </c>
       <c r="E59" s="4">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>43973</v>
+        <v>43972</v>
       </c>
       <c r="B60" s="4">
-        <v>53449</v>
+        <v>52268</v>
       </c>
       <c r="C60" s="4">
-        <v>1480</v>
+        <v>1440</v>
       </c>
       <c r="D60" s="4">
-        <v>1181</v>
+        <v>945</v>
       </c>
       <c r="E60" s="4">
-        <v>40</v>
+        <v>21</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="B61" s="4">
-        <v>54509</v>
+        <v>53449</v>
       </c>
       <c r="C61" s="4">
-        <v>1506</v>
+        <v>1480</v>
       </c>
       <c r="D61" s="4">
-        <v>1060</v>
+        <v>1181</v>
       </c>
       <c r="E61" s="4">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>43975</v>
+        <v>43974</v>
       </c>
       <c r="B62" s="4">
-        <v>55348</v>
+        <v>54509</v>
       </c>
       <c r="C62" s="4">
-        <v>1519</v>
+        <v>1506</v>
       </c>
       <c r="D62" s="4">
-        <v>839</v>
+        <v>1060</v>
       </c>
       <c r="E62" s="4">
-        <v>13</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>43976</v>
+        <v>43975</v>
       </c>
       <c r="B63" s="4">
-        <v>55971</v>
+        <v>55348</v>
       </c>
       <c r="C63" s="4">
-        <v>1527</v>
+        <v>1519</v>
       </c>
       <c r="D63" s="4">
-        <v>623</v>
+        <v>839</v>
       </c>
       <c r="E63" s="4">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>43977</v>
+        <v>43976</v>
       </c>
       <c r="B64" s="4">
-        <v>56560</v>
+        <v>55971</v>
       </c>
       <c r="C64" s="4">
-        <v>1536</v>
+        <v>1527</v>
       </c>
       <c r="D64" s="4">
-        <v>589</v>
+        <v>623</v>
       </c>
       <c r="E64" s="4">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>43978</v>
+        <v>43977</v>
       </c>
       <c r="B65" s="4">
-        <v>57921</v>
+        <v>56560</v>
       </c>
       <c r="C65" s="4">
-        <v>1562</v>
+        <v>1536</v>
       </c>
       <c r="D65" s="4">
-        <v>1361</v>
+        <v>589</v>
       </c>
       <c r="E65" s="4">
-        <v>26</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>43979</v>
+        <v>43978</v>
       </c>
       <c r="B66" s="4">
-        <v>59776</v>
+        <v>57921</v>
       </c>
       <c r="C66" s="4">
-        <v>1601</v>
+        <v>1562</v>
       </c>
       <c r="D66" s="4">
-        <v>1855</v>
+        <v>1361</v>
       </c>
       <c r="E66" s="4">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>43980</v>
+        <v>43979</v>
       </c>
       <c r="B67" s="4">
-        <v>61006</v>
+        <v>59776</v>
       </c>
       <c r="C67" s="4">
-        <v>1626</v>
+        <v>1601</v>
       </c>
       <c r="D67" s="4">
-        <v>1230</v>
+        <v>1855</v>
       </c>
       <c r="E67" s="4">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>43981</v>
+        <v>43980</v>
       </c>
       <c r="B68" s="4">
-        <v>62338</v>
+        <v>61006</v>
       </c>
       <c r="C68" s="4">
-        <v>1648</v>
+        <v>1626</v>
       </c>
       <c r="D68" s="4">
-        <v>1332</v>
+        <v>1230</v>
       </c>
       <c r="E68" s="4">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>43982</v>
+        <v>43981</v>
       </c>
       <c r="B69" s="4">
-        <v>64287</v>
+        <v>62338</v>
       </c>
       <c r="C69" s="4">
-        <v>1672</v>
+        <v>1648</v>
       </c>
       <c r="D69" s="4">
-        <v>1949</v>
+        <v>1332</v>
       </c>
       <c r="E69" s="4">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>43983</v>
+        <v>43982</v>
       </c>
       <c r="B70" s="4">
-        <v>64880</v>
+        <v>64287</v>
       </c>
       <c r="C70" s="4">
-        <v>1678</v>
+        <v>1672</v>
       </c>
       <c r="D70" s="4">
-        <v>593</v>
+        <v>1949</v>
       </c>
       <c r="E70" s="4">
-        <v>6</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>43984</v>
+        <v>43983</v>
       </c>
       <c r="B71" s="4">
-        <v>66568</v>
+        <v>64880</v>
       </c>
       <c r="C71" s="4">
-        <v>1698</v>
+        <v>1678</v>
       </c>
       <c r="D71" s="4">
-        <v>1688</v>
+        <v>593</v>
       </c>
       <c r="E71" s="4">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>43985</v>
+        <v>43984</v>
       </c>
       <c r="B72" s="4">
-        <v>68271</v>
+        <v>66568</v>
       </c>
       <c r="C72" s="4">
-        <v>1734</v>
+        <v>1698</v>
       </c>
       <c r="D72" s="4">
-        <v>1703</v>
+        <v>1688</v>
       </c>
       <c r="E72" s="4">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>43986</v>
+        <v>43985</v>
       </c>
       <c r="B73" s="4">
-        <v>69920</v>
+        <v>68271</v>
       </c>
       <c r="C73" s="4">
-        <v>1767</v>
+        <v>1734</v>
       </c>
       <c r="D73" s="4">
-        <v>1649</v>
+        <v>1703</v>
       </c>
       <c r="E73" s="4">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>43987</v>
+        <v>43986</v>
       </c>
       <c r="B74" s="4">
-        <v>71613</v>
+        <v>69920</v>
       </c>
       <c r="C74" s="4">
-        <v>1788</v>
+        <v>1767</v>
       </c>
       <c r="D74" s="4">
-        <v>1693</v>
+        <v>1649</v>
       </c>
       <c r="E74" s="4">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>43988</v>
+        <v>43987</v>
       </c>
       <c r="B75" s="4">
-        <v>73553</v>
+        <v>71613</v>
       </c>
       <c r="C75" s="4">
-        <v>1819</v>
+        <v>1788</v>
       </c>
       <c r="D75" s="4">
-        <v>1940</v>
+        <v>1693</v>
       </c>
       <c r="E75" s="4">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>43989</v>
+        <v>43988</v>
       </c>
       <c r="B76" s="4">
-        <v>74978</v>
+        <v>73553</v>
       </c>
       <c r="C76" s="4">
-        <v>1830</v>
+        <v>1819</v>
       </c>
       <c r="D76" s="4">
-        <v>1425</v>
+        <v>1940</v>
       </c>
       <c r="E76" s="4">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>43990</v>
+        <v>43989</v>
       </c>
       <c r="B77" s="4">
-        <v>75616</v>
+        <v>74978</v>
       </c>
       <c r="C77" s="4">
-        <v>1836</v>
+        <v>1830</v>
       </c>
       <c r="D77" s="4">
-        <v>638</v>
+        <v>1425</v>
       </c>
       <c r="E77" s="4">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>43991</v>
+        <v>43990</v>
       </c>
       <c r="B78" s="4">
-        <v>77253</v>
+        <v>75616</v>
       </c>
       <c r="C78" s="4">
-        <v>1853</v>
+        <v>1836</v>
       </c>
       <c r="D78" s="4">
-        <v>1637</v>
+        <v>638</v>
       </c>
       <c r="E78" s="4">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>43992</v>
+        <v>43991</v>
       </c>
       <c r="B79" s="4">
-        <v>79757</v>
+        <v>77253</v>
       </c>
       <c r="C79" s="4">
-        <v>1885</v>
+        <v>1853</v>
       </c>
       <c r="D79" s="4">
-        <v>2504</v>
+        <v>1637</v>
       </c>
       <c r="E79" s="4">
-        <v>32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>43993</v>
+        <v>43992</v>
       </c>
       <c r="B80" s="4">
-        <v>81583</v>
+        <v>79757</v>
       </c>
       <c r="C80" s="4">
-        <v>1920</v>
+        <v>1885</v>
       </c>
       <c r="D80" s="4">
-        <v>1826</v>
+        <v>2504</v>
       </c>
       <c r="E80" s="4">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <v>43994</v>
+        <v>43993</v>
       </c>
       <c r="B81" s="4">
-        <v>83680</v>
+        <v>81583</v>
       </c>
       <c r="C81" s="4">
-        <v>1939</v>
+        <v>1920</v>
       </c>
       <c r="D81" s="4">
-        <v>2097</v>
+        <v>1826</v>
       </c>
       <c r="E81" s="4">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <v>43995</v>
+        <v>43994</v>
       </c>
       <c r="B82" s="4">
-        <v>86011</v>
+        <v>83680</v>
       </c>
       <c r="C82" s="4">
-        <v>1957</v>
+        <v>1939</v>
       </c>
       <c r="D82" s="4">
-        <v>2331</v>
+        <v>2097</v>
       </c>
       <c r="E82" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
+        <v>43995</v>
+      </c>
+      <c r="B83" s="4">
+        <v>86011</v>
+      </c>
+      <c r="C83" s="4">
+        <v>1957</v>
+      </c>
+      <c r="D83" s="4">
+        <v>2331</v>
+      </c>
+      <c r="E83" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
         <v>43996</v>
       </c>
-      <c r="B83" s="4">
+      <c r="B84" s="4">
         <v>87854</v>
       </c>
-      <c r="C83" s="4">
+      <c r="C84" s="4">
         <v>1976</v>
       </c>
-      <c r="D83" s="4">
+      <c r="D84" s="4">
         <v>1843</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E84" s="4">
         <v>19</v>
       </c>
     </row>
+    <row r="85" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <v>43997</v>
+      </c>
+      <c r="B85" s="4">
+        <v>89108</v>
+      </c>
+      <c r="C85" s="4">
+        <v>1983</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1254</v>
+      </c>
+      <c r="E85" s="4">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6411,8 +6445,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6422,32 +6456,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="B1" s="12"/>
+      <c r="A1" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>58341</v>
+        <v>59089</v>
       </c>
       <c r="B3" s="7">
-        <v>27537</v>
+        <v>28036</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="B5" s="12"/>
+      <c r="A5" s="21" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6461,11 +6495,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
@@ -6478,41 +6512,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" ht="88" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>326</v>
+      <c r="E2" s="11" t="s">
+        <v>327</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6520,15 +6554,15 @@
         <v>43925</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D3" s="8">
         <v>63751</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="12">
         <v>0.1056</v>
       </c>
       <c r="F3" s="8"/>
@@ -6540,15 +6574,15 @@
         <v>43926</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D4" s="8">
         <v>70938</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="12">
         <v>9.3299999999999994E-2</v>
       </c>
       <c r="F4" s="8"/>
@@ -6560,15 +6594,15 @@
         <v>43927</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D5" s="8">
         <v>85357</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="12">
         <v>8.8909998585200004E-2</v>
       </c>
       <c r="F5" s="8"/>
@@ -6580,15 +6614,15 @@
         <v>43928</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D6" s="8">
         <v>88649</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="12">
         <v>0.1094</v>
       </c>
       <c r="F6" s="8"/>
@@ -6600,15 +6634,15 @@
         <v>43929</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D7" s="8">
         <v>96258</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="12">
         <v>0.11070000000000001</v>
       </c>
       <c r="F7" s="8"/>
@@ -6620,15 +6654,15 @@
         <v>43930</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D8" s="8">
         <v>106134</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="12">
         <v>0.100351636462</v>
       </c>
       <c r="F8" s="8"/>
@@ -6640,15 +6674,15 @@
         <v>43931</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D9" s="8">
         <v>115918</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="12">
         <v>0.1055125178708</v>
       </c>
       <c r="F9" s="8"/>
@@ -6660,15 +6694,15 @@
         <v>43932</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D10" s="8">
         <v>120533</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="12">
         <v>0.11360000000000001</v>
       </c>
       <c r="F10" s="8"/>
@@ -6680,15 +6714,15 @@
         <v>43933</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D11" s="8">
         <v>124553</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="12">
         <v>0.12479999999999999</v>
       </c>
       <c r="F11" s="8"/>
@@ -6700,15 +6734,15 @@
         <v>43934</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D12" s="8">
         <v>133226</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="12">
         <v>0.1386</v>
       </c>
       <c r="F12" s="8"/>
@@ -6720,15 +6754,15 @@
         <v>43935</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D13" s="8">
         <v>146467</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="12">
         <v>0.1101</v>
       </c>
       <c r="F13" s="8"/>
@@ -6740,15 +6774,15 @@
         <v>43936</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D14" s="8">
         <v>151810</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="12">
         <v>0.1105</v>
       </c>
       <c r="F14" s="8"/>
@@ -6760,15 +6794,15 @@
         <v>43937</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D15" s="8">
         <v>158547</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="12">
         <v>0.1188</v>
       </c>
       <c r="F15" s="8"/>
@@ -6780,15 +6814,15 @@
         <v>43938</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D16" s="8">
         <v>169536</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="12">
         <v>0.10630000000000001</v>
       </c>
       <c r="F16" s="8"/>
@@ -6800,15 +6834,15 @@
         <v>43939</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D17" s="8">
         <v>176239</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="12">
         <v>0.1023</v>
       </c>
       <c r="F17" s="8"/>
@@ -6820,15 +6854,15 @@
         <v>43940</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D18" s="8">
         <v>182710</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="12">
         <v>9.35E-2</v>
       </c>
       <c r="F18" s="8"/>
@@ -6840,15 +6874,15 @@
         <v>43941</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D19" s="8">
         <v>190394</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="12">
         <v>9.7117268401900006E-2</v>
       </c>
       <c r="F19" s="8"/>
@@ -6860,15 +6894,15 @@
         <v>43942</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D20" s="8">
         <v>205399</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="12">
         <v>9.4500000000000001E-2</v>
       </c>
       <c r="F20" s="8"/>
@@ -6880,15 +6914,15 @@
         <v>43943</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D21" s="8">
         <v>216783</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="12">
         <v>8.5800000000000001E-2</v>
       </c>
       <c r="F21" s="8"/>
@@ -6900,15 +6934,15 @@
         <v>43944</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D22" s="8">
         <v>225078</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="12">
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="F22" s="8"/>
@@ -6920,15 +6954,15 @@
         <v>43945</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D23" s="8">
         <v>242547</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="12">
         <v>7.4399999999999994E-2</v>
       </c>
       <c r="F23" s="8"/>
@@ -6940,15 +6974,15 @@
         <v>43946</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D24" s="8">
         <v>262816</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="12">
         <v>6.3700000000000007E-2</v>
       </c>
       <c r="F24" s="8"/>
@@ -6960,15 +6994,15 @@
         <v>43947</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D25" s="8">
         <v>276021</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="12">
         <v>6.1199999999999997E-2</v>
       </c>
       <c r="F25" s="8"/>
@@ -6980,15 +7014,15 @@
         <v>43948</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D26" s="8">
         <v>290517</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="12">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="F26" s="8"/>
@@ -7000,15 +7034,15 @@
         <v>43949</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D27" s="8">
         <v>300384</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="12">
         <v>6.2899999999999998E-2</v>
       </c>
       <c r="F27" s="8"/>
@@ -7020,15 +7054,15 @@
         <v>43950</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D28" s="8">
         <v>314790</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="12">
         <v>6.10670666381E-2</v>
       </c>
       <c r="F28" s="8"/>
@@ -7040,15 +7074,15 @@
         <v>43951</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D29" s="8">
         <v>330300</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="12">
         <v>5.8381327098900003E-2</v>
       </c>
       <c r="F29" s="8"/>
@@ -7060,15 +7094,15 @@
         <v>43952</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D30" s="8">
         <v>351775</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="12">
         <v>5.8799999999999998E-2</v>
       </c>
       <c r="F30" s="8"/>
@@ -7080,15 +7114,15 @@
         <v>43953</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D31" s="8">
         <v>380648</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="12">
         <v>5.7299999999999997E-2</v>
       </c>
       <c r="F31" s="8"/>
@@ -7100,15 +7134,15 @@
         <v>43954</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D32" s="8">
         <v>390560</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="12">
         <v>6.0400000000000002E-2</v>
       </c>
       <c r="F32" s="8"/>
@@ -7120,15 +7154,15 @@
         <v>43955</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D33" s="8">
         <v>407398</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="12">
         <v>6.0199999999999997E-2</v>
       </c>
       <c r="F33" s="8"/>
@@ -7140,15 +7174,15 @@
         <v>43956</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D34" s="8">
         <v>427210</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="12">
         <v>5.6754924069199998E-2</v>
       </c>
       <c r="F34" s="8"/>
@@ -7160,15 +7194,15 @@
         <v>43957</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D35" s="8">
         <v>438938</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="12">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F35" s="8"/>
@@ -7180,15 +7214,15 @@
         <v>43958</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D36" s="8">
         <v>455162</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="12">
         <v>5.8500000000000003E-2</v>
       </c>
       <c r="F36" s="8"/>
@@ -7200,15 +7234,15 @@
         <v>43959</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D37" s="8">
         <v>477118</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="12">
         <v>5.8900000000000001E-2</v>
       </c>
       <c r="F37" s="8"/>
@@ -7228,7 +7262,7 @@
       <c r="D38" s="8">
         <v>489294</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="12">
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="F38" s="8"/>
@@ -7248,7 +7282,7 @@
       <c r="D39" s="8">
         <v>513978</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="12">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F39" s="8"/>
@@ -7268,7 +7302,7 @@
       <c r="D40" s="8">
         <v>525697</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="12">
         <v>6.3711443038399998E-2</v>
       </c>
       <c r="F40" s="8"/>
@@ -7288,7 +7322,7 @@
       <c r="D41" s="8">
         <v>538172</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="12">
         <v>6.9199999999999998E-2</v>
       </c>
       <c r="F41" s="8"/>
@@ -7308,7 +7342,7 @@
       <c r="D42" s="8">
         <v>587431</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="12">
         <v>5.3699999999999998E-2</v>
       </c>
       <c r="F42" s="8"/>
@@ -7328,7 +7362,7 @@
       <c r="D43" s="8">
         <v>623284</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="12">
         <v>5.0299999999999997E-2</v>
       </c>
       <c r="F43" s="8"/>
@@ -7348,7 +7382,7 @@
       <c r="D44" s="8">
         <v>645992</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="12">
         <v>5.0900000000000001E-2</v>
       </c>
       <c r="F44" s="8"/>
@@ -7368,7 +7402,7 @@
       <c r="D45" s="8">
         <v>678471</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="12">
         <v>4.8300000000000003E-2</v>
       </c>
       <c r="F45" s="8">
@@ -7394,7 +7428,7 @@
       <c r="D46" s="8">
         <v>693276</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="12">
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="F46" s="8">
@@ -7420,7 +7454,7 @@
       <c r="D47" s="8">
         <v>723013</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="12">
         <v>4.4720144337000001E-2</v>
       </c>
       <c r="F47" s="8">
@@ -7446,7 +7480,7 @@
       <c r="D48" s="8">
         <v>744937</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="12">
         <v>4.7E-2</v>
       </c>
       <c r="F48" s="8">
@@ -7472,7 +7506,7 @@
       <c r="D49" s="8">
         <v>770241</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="12">
         <v>5.4300000000000001E-2</v>
       </c>
       <c r="F49" s="8">
@@ -7498,7 +7532,7 @@
       <c r="D50" s="8">
         <v>800433</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="12">
         <v>5.5100000000000003E-2</v>
       </c>
       <c r="F50" s="8">
@@ -7524,7 +7558,7 @@
       <c r="D51" s="8">
         <v>834437</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="12">
         <v>5.3900000000000003E-2</v>
       </c>
       <c r="F51" s="8">
@@ -7542,16 +7576,16 @@
         <v>43974</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D52" s="8">
         <v>870935</v>
       </c>
-      <c r="E52" s="15" t="s">
-        <v>273</v>
+      <c r="E52" s="12" t="s">
+        <v>274</v>
       </c>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
@@ -7572,7 +7606,7 @@
       <c r="D53" s="8">
         <v>886354</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="12">
         <v>4.87E-2</v>
       </c>
       <c r="F53" s="8">
@@ -7598,7 +7632,7 @@
       <c r="D54" s="8">
         <v>906074</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="12">
         <v>5.1499999999999997E-2</v>
       </c>
       <c r="F54" s="8">
@@ -7624,7 +7658,7 @@
       <c r="D55" s="8">
         <v>943239</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="12">
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="F55" s="8">
@@ -7650,7 +7684,7 @@
       <c r="D56" s="8">
         <v>961861</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="12">
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="F56" s="8">
@@ -7676,7 +7710,7 @@
       <c r="D57" s="8">
         <v>989994</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="12">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="F57" s="8">
@@ -7702,7 +7736,7 @@
       <c r="D58" s="8">
         <v>1027449</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="12">
         <v>4.5600000000000002E-2</v>
       </c>
       <c r="F58" s="8">
@@ -7728,8 +7762,8 @@
       <c r="D59" s="8">
         <v>1054793</v>
       </c>
-      <c r="E59" s="15" t="s">
-        <v>273</v>
+      <c r="E59" s="12" t="s">
+        <v>274</v>
       </c>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -7750,7 +7784,7 @@
       <c r="D60" s="8">
         <v>1073491</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="12">
         <v>5.43810873784E-2</v>
       </c>
       <c r="F60" s="8">
@@ -7776,7 +7810,7 @@
       <c r="D61" s="8">
         <v>1093676</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="12">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="F61" s="8">
@@ -7802,7 +7836,7 @@
       <c r="D62" s="8">
         <v>1117274</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E62" s="12">
         <v>6.6236912120931343E-2</v>
       </c>
       <c r="F62" s="8">
@@ -7828,7 +7862,7 @@
       <c r="D63" s="8">
         <v>1150868</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E63" s="12">
         <v>6.2599418158065037E-2</v>
       </c>
       <c r="F63" s="8">
@@ -7854,7 +7888,7 @@
       <c r="D64" s="8">
         <v>1174948</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E64" s="12">
         <v>6.0272963321667726E-2</v>
       </c>
       <c r="F64" s="8">
@@ -7880,7 +7914,7 @@
       <c r="D65" s="8">
         <v>1209187</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E65" s="12">
         <v>6.4378489924739019E-2</v>
       </c>
       <c r="F65" s="8">
@@ -7906,7 +7940,7 @@
       <c r="D66" s="8">
         <v>1218955</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E66" s="12">
         <v>8.00231185826311E-2</v>
       </c>
       <c r="F66" s="8">
@@ -7932,7 +7966,7 @@
       <c r="D67" s="8">
         <v>1255899</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E67" s="12">
         <v>7.1138170808796614E-2</v>
       </c>
       <c r="F67" s="8">
@@ -7958,7 +7992,7 @@
       <c r="D68" s="8">
         <v>1286139</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E68" s="12">
         <v>6.6629016142145212E-2</v>
       </c>
       <c r="F68" s="8">
@@ -7984,7 +8018,7 @@
       <c r="D69" s="8">
         <v>1302049</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E69" s="12">
         <v>6.9239691807230483E-2</v>
       </c>
       <c r="F69" s="8">
@@ -8010,7 +8044,7 @@
       <c r="D70" s="8">
         <v>1348893</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E70" s="12">
         <v>6.8464816856912941E-2</v>
       </c>
       <c r="F70" s="8">
@@ -8036,7 +8070,7 @@
       <c r="D71" s="8">
         <v>1370131</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E71" s="12">
         <v>7.0522006760147776E-2</v>
       </c>
       <c r="F71" s="8">
@@ -8062,7 +8096,7 @@
       <c r="D72" s="8">
         <v>1404369</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E72" s="12">
         <v>7.2239317057985419E-2</v>
       </c>
       <c r="F72" s="8">
@@ -8088,7 +8122,7 @@
       <c r="D73" s="8">
         <v>1442950</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E73" s="12">
         <v>6.1077310009756289E-2</v>
       </c>
       <c r="F73" s="8">
@@ -8105,31 +8139,57 @@
       <c r="A74" s="6">
         <v>43996</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>273</v>
+      <c r="B74" s="8">
+        <v>1314761</v>
+      </c>
+      <c r="C74" s="8">
+        <v>149090</v>
       </c>
       <c r="D74" s="8">
         <v>1463851</v>
       </c>
-      <c r="E74" s="8"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-    </row>
-    <row r="76" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
+      <c r="E74" s="12">
+        <v>6.6219239373601788E-2</v>
+      </c>
+      <c r="F74" s="8">
+        <v>27778</v>
+      </c>
+      <c r="G74" s="8">
+        <v>1930</v>
+      </c>
+      <c r="H74" s="8">
+        <v>29707</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
+        <v>43997</v>
+      </c>
+      <c r="B75" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
+      <c r="C75" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D75" s="8">
+        <v>1499015</v>
+      </c>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+    </row>
+    <row r="77" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A76:D76"/>
+    <mergeCell ref="A77:D77"/>
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -8143,7 +8203,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -8154,48 +8214,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="B1" s="12"/>
+      <c r="A1" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B3" s="7">
-        <v>61394</v>
+        <v>62621</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B4" s="7">
-        <v>1402457</v>
+        <v>1436394</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B5" s="7">
-        <v>1463851</v>
+        <v>1499015</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="B7" s="12"/>
+      <c r="A7" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="B7" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8208,55 +8268,55 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA0BA125-ED00-41FD-9158-C09F215C3A88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4E5169B-9BEE-4D25-AAC5-EEF9F7952767}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.453125" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.26953125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="19"/>
+    <col min="1" max="1" width="55.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26953125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="24"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="B3" s="17">
+        <v>149090</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="18"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="B3" s="23">
-        <v>146967</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>331</v>
-      </c>
-      <c r="B4" s="23">
-        <v>6062</v>
+      <c r="B4" s="17">
+        <v>6135</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
-        <v>281</v>
-      </c>
-      <c r="B6" s="18"/>
+      <c r="A6" s="25" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8274,8 +8334,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8285,64 +8345,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="B1" s="12"/>
+      <c r="A1" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B3" s="7">
-        <v>2287</v>
+        <v>2326</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B4" s="7">
-        <v>55208</v>
+        <v>51365</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B5" s="7">
-        <v>14660</v>
+        <v>14525</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B6" s="7">
-        <v>1597</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B7" s="7">
-        <v>5843</v>
+        <v>5626</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="B9" s="12"/>
+      <c r="A9" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8356,12 +8416,12 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8372,21 +8432,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -8631,7 +8691,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -9181,17 +9241,28 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
+    <row r="75" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>73</v>
+      </c>
+      <c r="B75" s="6">
+        <v>43997</v>
+      </c>
+      <c r="C75" s="7">
+        <v>2326</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="21" t="s">
+        <v>282</v>
+      </c>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9204,7 +9275,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -9212,179 +9283,179 @@
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7265625" customWidth="1"/>
+    <col min="3" max="3" width="7.36328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B3" s="8">
         <v>41</v>
       </c>
-      <c r="C3" s="25">
+      <c r="C3" s="18">
         <f>B3/B$16</f>
         <v>2.6144624410151768E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B4" s="8">
         <v>180</v>
       </c>
-      <c r="C4" s="25">
+      <c r="C4" s="18">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
         <v>1.1478127789822727E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B5" s="8">
         <v>471</v>
       </c>
-      <c r="C5" s="25">
+      <c r="C5" s="18">
         <f t="shared" si="0"/>
         <v>3.0034434383369467E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B6" s="8">
         <v>2436</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="18">
         <f t="shared" si="0"/>
         <v>0.15533732942226758</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B7" s="8">
         <v>2869</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="18">
         <f t="shared" si="0"/>
         <v>0.18294860349445224</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B8" s="8">
         <v>2931</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="18">
         <f t="shared" si="0"/>
         <v>0.18690218084428006</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B9" s="8">
         <v>2873</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="18">
         <f t="shared" si="0"/>
         <v>0.18320367300089274</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B10" s="8">
         <v>1224</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="18">
         <f t="shared" si="0"/>
         <v>7.8051268970794535E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B11" s="8">
         <v>887</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="18">
         <f t="shared" si="0"/>
         <v>5.6561663053181992E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B12" s="8">
         <v>592</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="18">
         <f t="shared" si="0"/>
         <v>3.7750286953194746E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B13" s="8">
         <v>391</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="18">
         <f t="shared" si="0"/>
         <v>2.4933044254559368E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B14" s="8">
         <v>664</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="18">
         <f t="shared" si="0"/>
         <v>4.2341538069123837E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B15" s="8">
         <v>123</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="18">
         <f t="shared" si="0"/>
         <v>7.8433873230455298E-3</v>
       </c>
@@ -9396,24 +9467,24 @@
       <c r="B16" s="8">
         <v>15682</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="18">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="A18" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
     </row>
     <row r="19" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="A19" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
+++ b/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
@@ -8,34 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E3957526-2821-446B-9EC3-138C7A45A3E2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A6EAF1CD-4AAD-4D41-9BC9-721282FC8617}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21080" windowHeight="11060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
     <sheet name="Trends" sheetId="2" r:id="rId2"/>
     <sheet name="Recoveries" sheetId="3" r:id="rId3"/>
-    <sheet name="Tests by day" sheetId="4" r:id="rId4"/>
-    <sheet name="Tests" sheetId="5" r:id="rId5"/>
-    <sheet name="Antibody Tests" sheetId="6" r:id="rId6"/>
-    <sheet name="Hospitalizations" sheetId="7" r:id="rId7"/>
-    <sheet name="Hospitalization by Day" sheetId="8" r:id="rId8"/>
-    <sheet name="Cases by Age Group" sheetId="9" r:id="rId9"/>
-    <sheet name="Cases by Gender" sheetId="10" r:id="rId10"/>
-    <sheet name="Cases by RaceEthnicity" sheetId="11" r:id="rId11"/>
-    <sheet name="Fatalities by Age Group" sheetId="12" r:id="rId12"/>
-    <sheet name="Fatalities by Gender" sheetId="13" r:id="rId13"/>
-    <sheet name="Fatalities by Race-Ethnicity" sheetId="14" r:id="rId14"/>
+    <sheet name="Tests by day" sheetId="14" r:id="rId4"/>
+    <sheet name="Tests" sheetId="4" r:id="rId5"/>
+    <sheet name="Antibody Tests" sheetId="5" r:id="rId6"/>
+    <sheet name="Hospitalizations" sheetId="6" r:id="rId7"/>
+    <sheet name="Hospitalization by Day" sheetId="7" r:id="rId8"/>
+    <sheet name="Cases by Age Group" sheetId="8" r:id="rId9"/>
+    <sheet name="Cases by Gender" sheetId="9" r:id="rId10"/>
+    <sheet name="Cases by RaceEthnicity" sheetId="10" r:id="rId11"/>
+    <sheet name="Fatalities by Age Group" sheetId="11" r:id="rId12"/>
+    <sheet name="Fatalities by Gender" sheetId="12" r:id="rId13"/>
+    <sheet name="Fatalities by Race-Ethnicity" sheetId="13" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="336">
-  <si>
-    <t>COVID-19 Cases and Fatalities by County as of 6/24 at 10:45AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="337">
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 6/25 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -812,7 +812,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/24 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/25 at 10:45AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -842,7 +842,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/24 at 3:00PM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/25 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -854,7 +854,170 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/24 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/25 at 3:00PM CST</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Total People Tested in Texas by Public Health Lab</t>
+  </si>
+  <si>
+    <t>No. Tests by Commercial labs*</t>
+  </si>
+  <si>
+    <t>Total Tests</t>
+  </si>
+  <si>
+    <t>*Unable to deduplicate figures for Commercial labs.</t>
+  </si>
+  <si>
+    <t>Number of COVID-19 Antibody Tests in Texas as of 6/24 at 3:00PM CST</t>
+  </si>
+  <si>
+    <t>Antibody Tests</t>
+  </si>
+  <si>
+    <t>Total Number of Antibody Tests Reported (included in total test numbers)</t>
+  </si>
+  <si>
+    <t>Number of Positive Antibody Tests Reported</t>
+  </si>
+  <si>
+    <t>Texas Statewide Hospitalization Data as of 6/25 at 9:30AM CST</t>
+  </si>
+  <si>
+    <t>Hospital data</t>
+  </si>
+  <si>
+    <t>Lab Confirmed COVID-19 Patients Currently in Texas Hospitals</t>
+  </si>
+  <si>
+    <t>Total Texas Staffed Hospital Beds</t>
+  </si>
+  <si>
+    <t>Available Texas Hospital Beds</t>
+  </si>
+  <si>
+    <t>Available Texas ICU Beds</t>
+  </si>
+  <si>
+    <t>Available Texas Ventilators</t>
+  </si>
+  <si>
+    <t>Number of COVID-19 Hospitalizations by Day as of 6/25 at 9:30AM CST</t>
+  </si>
+  <si>
+    <t>Obs</t>
+  </si>
+  <si>
+    <t>Hospitalizations</t>
+  </si>
+  <si>
+    <t>Age of Confirmed Cases as of 6/25 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Age
+Groupings</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>&lt;1 year</t>
+  </si>
+  <si>
+    <t>1-9 years</t>
+  </si>
+  <si>
+    <t>10-19 years</t>
+  </si>
+  <si>
+    <t>20-29 years</t>
+  </si>
+  <si>
+    <t>30-39 years</t>
+  </si>
+  <si>
+    <t>40-49 years</t>
+  </si>
+  <si>
+    <t>50-59 years</t>
+  </si>
+  <si>
+    <t>60-64 years</t>
+  </si>
+  <si>
+    <t>65-69 years</t>
+  </si>
+  <si>
+    <t>70-74 years</t>
+  </si>
+  <si>
+    <t>75-79 years</t>
+  </si>
+  <si>
+    <t>80+ years</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
+  </si>
+  <si>
+    <t>Completed case investigations received by DSHS =          20,579</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 6/25 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Cases as of 6/25 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity</t>
+  </si>
+  <si>
+    <t>Asian</t>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>Hispanic</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Age of Confirmed Fatalities as of 6/25 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Completed investigations received by DSHS =          662</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Fatalities as of 6/25 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 6/25 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Viral Tests</t>
@@ -895,173 +1058,13 @@
     <t>Tests include those performed by public labs (Laboratory Response Network) and private labs (commercial labs, hospitals, physician offices, and drive-thru sites) reported electronically and non-electronically to DSHS.</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/24 at 3:00PM CST</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t>Total People Tested in Texas by Public Health Lab</t>
-  </si>
-  <si>
-    <t>No. Tests by Commercial labs*</t>
-  </si>
-  <si>
-    <t>Total Tests</t>
-  </si>
-  <si>
-    <t>*Unable to deduplicate figures for Commercial labs.</t>
-  </si>
-  <si>
-    <t>Number of COVID-19 Antibody Tests in Texas as of 6/23 at 3:00PM CST</t>
-  </si>
-  <si>
-    <t>Texas Statewide Hospitalization Data as of 6/24 at 9:30AM CST</t>
-  </si>
-  <si>
-    <t>Hospital data</t>
-  </si>
-  <si>
-    <t>Lab Confirmed COVID-19 Patients Currently in Texas Hospitals</t>
-  </si>
-  <si>
-    <t>Total Texas Staffed Hospital Beds</t>
-  </si>
-  <si>
-    <t>Available Texas Hospital Beds</t>
-  </si>
-  <si>
-    <t>Available Texas ICU Beds</t>
-  </si>
-  <si>
-    <t>Available Texas Ventilators</t>
-  </si>
-  <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 6/24 at 9:30AM CST</t>
-  </si>
-  <si>
-    <t>Obs</t>
-  </si>
-  <si>
-    <t>Hospitalizations</t>
-  </si>
-  <si>
-    <t>Age of Confirmed Cases as of 6/24 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Age
-Groupings</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>&lt;1 year</t>
-  </si>
-  <si>
-    <t>1-9 years</t>
-  </si>
-  <si>
-    <t>10-19 years</t>
-  </si>
-  <si>
-    <t>20-29 years</t>
-  </si>
-  <si>
-    <t>30-39 years</t>
-  </si>
-  <si>
-    <t>40-49 years</t>
-  </si>
-  <si>
-    <t>50-59 years</t>
-  </si>
-  <si>
-    <t>60-64 years</t>
-  </si>
-  <si>
-    <t>65-69 years</t>
-  </si>
-  <si>
-    <t>70-74 years</t>
-  </si>
-  <si>
-    <t>75-79 years</t>
-  </si>
-  <si>
-    <t>80+ years</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
-  </si>
-  <si>
-    <t>Completed case investigations received by DSHS =          20,255</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 6/24 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 6/24 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity</t>
-  </si>
-  <si>
-    <t>Asian</t>
-  </si>
-  <si>
-    <t>Black</t>
-  </si>
-  <si>
-    <t>Hispanic</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Age of Confirmed Fatalities as of 6/24 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Completed investigations received by DSHS =          662</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Fatalities as of 6/24 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 6/24 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>06/16/2020-TDCJ*</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/25 at 3:00PM CST</t>
+  </si>
+  <si>
+    <t>06/16/20-TDCJ*</t>
   </si>
   <si>
     <t>* The total reported cases for June 16 include 2,622 new cases and an additional 1,476 cases that were previously diagnosed among Texas Department of Criminal Justice inmates.</t>
-  </si>
-  <si>
-    <t>Number of Antibody Tests Reported (included in total test numbers)</t>
-  </si>
-  <si>
-    <t>Number of Positive Antibody Tests Reported</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1081,7 @@
     <numFmt numFmtId="170" formatCode="##0"/>
     <numFmt numFmtId="171" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="9.5"/>
       <color rgb="FF000000"/>
@@ -1107,20 +1110,8 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.5"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
-      <sz val="9.5"/>
-      <color rgb="FF112277"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9.5"/>
+      <sz val="11"/>
       <color rgb="FF112277"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1191,12 +1182,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1236,37 +1226,19 @@
     <xf numFmtId="170" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="4" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1275,22 +1247,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 3" xfId="2" xr:uid="{8B1BDA7C-875E-488F-AEF7-417074DEB142}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1426,11 +1394,11 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B34:B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
@@ -1438,11 +1406,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1460,7 +1428,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -1471,7 +1439,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
@@ -1482,7 +1450,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>426</v>
+        <v>445</v>
       </c>
       <c r="C5" s="4">
         <v>6</v>
@@ -1526,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -1548,7 +1516,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -1570,10 +1538,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="C13" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1592,7 +1560,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -1603,7 +1571,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>925</v>
+        <v>1009</v>
       </c>
       <c r="C16" s="4">
         <v>11</v>
@@ -1614,10 +1582,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>7467</v>
+        <v>7814</v>
       </c>
       <c r="C17" s="4">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1658,7 +1626,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="C21" s="4">
         <v>13</v>
@@ -1669,7 +1637,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>1838</v>
+        <v>1913</v>
       </c>
       <c r="C22" s="4">
         <v>19</v>
@@ -1680,10 +1648,10 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>1305</v>
+        <v>1377</v>
       </c>
       <c r="C23" s="4">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1691,7 +1659,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="4">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
@@ -1702,7 +1670,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="4">
         <v>0</v>
@@ -1724,7 +1692,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C27" s="4">
         <v>10</v>
@@ -1735,7 +1703,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -1768,7 +1736,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="C31" s="4">
         <v>3</v>
@@ -1790,10 +1758,10 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>1758</v>
+        <v>1881</v>
       </c>
       <c r="C33" s="4">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1823,7 +1791,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C36" s="4">
         <v>2</v>
@@ -1834,7 +1802,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -1845,7 +1813,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C38" s="4">
         <v>2</v>
@@ -1856,7 +1824,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="4">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C39" s="4">
         <v>2</v>
@@ -1922,10 +1890,10 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>2359</v>
+        <v>2449</v>
       </c>
       <c r="C45" s="4">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1944,7 +1912,7 @@
         <v>48</v>
       </c>
       <c r="B47" s="4">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
@@ -1955,7 +1923,7 @@
         <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>332</v>
+        <v>374</v>
       </c>
       <c r="C48" s="4">
         <v>7</v>
@@ -1977,7 +1945,7 @@
         <v>51</v>
       </c>
       <c r="B50" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C50" s="4">
         <v>0</v>
@@ -1999,7 +1967,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
@@ -2021,10 +1989,10 @@
         <v>55</v>
       </c>
       <c r="B54" s="4">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C54" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2065,7 +2033,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
@@ -2076,10 +2044,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>17744</v>
+        <v>18135</v>
       </c>
       <c r="C59" s="4">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2098,7 +2066,7 @@
         <v>62</v>
       </c>
       <c r="B61" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C61" s="4">
         <v>1</v>
@@ -2109,7 +2077,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="4">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C62" s="4">
         <v>16</v>
@@ -2131,10 +2099,10 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>2302</v>
+        <v>2417</v>
       </c>
       <c r="C64" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2153,7 +2121,7 @@
         <v>67</v>
       </c>
       <c r="B66" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C66" s="4">
         <v>0</v>
@@ -2175,7 +2143,7 @@
         <v>69</v>
       </c>
       <c r="B68" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" s="4">
         <v>0</v>
@@ -2197,7 +2165,7 @@
         <v>71</v>
       </c>
       <c r="B70" s="4">
-        <v>396</v>
+        <v>434</v>
       </c>
       <c r="C70" s="4">
         <v>7</v>
@@ -2208,7 +2176,7 @@
         <v>72</v>
       </c>
       <c r="B71" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C71" s="4">
         <v>0</v>
@@ -2219,10 +2187,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>4809</v>
+        <v>4984</v>
       </c>
       <c r="C72" s="4">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2274,7 +2242,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="4">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C77" s="4">
         <v>2</v>
@@ -2296,7 +2264,7 @@
         <v>80</v>
       </c>
       <c r="B79" s="4">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C79" s="4">
         <v>0</v>
@@ -2318,10 +2286,10 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>3176</v>
+        <v>3267</v>
       </c>
       <c r="C81" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2329,7 +2297,7 @@
         <v>83</v>
       </c>
       <c r="B82" s="4">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C82" s="4">
         <v>0</v>
@@ -2340,7 +2308,7 @@
         <v>84</v>
       </c>
       <c r="B83" s="4">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
@@ -2362,7 +2330,7 @@
         <v>86</v>
       </c>
       <c r="B85" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C85" s="4">
         <v>0</v>
@@ -2373,7 +2341,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>2040</v>
+        <v>2266</v>
       </c>
       <c r="C86" s="4">
         <v>40</v>
@@ -2384,7 +2352,7 @@
         <v>88</v>
       </c>
       <c r="B87" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C87" s="4">
         <v>0</v>
@@ -2395,7 +2363,7 @@
         <v>89</v>
       </c>
       <c r="B88" s="4">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C88" s="4">
         <v>0</v>
@@ -2417,7 +2385,7 @@
         <v>91</v>
       </c>
       <c r="B90" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" s="4">
         <v>0</v>
@@ -2428,7 +2396,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="4">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C91" s="4">
         <v>4</v>
@@ -2450,7 +2418,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="C93" s="4">
         <v>5</v>
@@ -2461,10 +2429,10 @@
         <v>95</v>
       </c>
       <c r="B94" s="4">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C94" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2472,7 +2440,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C95" s="4">
         <v>2</v>
@@ -2483,7 +2451,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>467</v>
+        <v>563</v>
       </c>
       <c r="C96" s="4">
         <v>1</v>
@@ -2494,10 +2462,10 @@
         <v>98</v>
       </c>
       <c r="B97" s="4">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="C97" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2527,7 +2495,7 @@
         <v>101</v>
       </c>
       <c r="B100" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C100" s="4">
         <v>2</v>
@@ -2549,7 +2517,7 @@
         <v>103</v>
       </c>
       <c r="B102" s="4">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C102" s="4">
         <v>5</v>
@@ -2560,10 +2528,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>24421</v>
+        <v>25786</v>
       </c>
       <c r="C103" s="4">
-        <v>335</v>
+        <v>346</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2571,7 +2539,7 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C104" s="4">
         <v>33</v>
@@ -2604,7 +2572,7 @@
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>2001</v>
+        <v>2194</v>
       </c>
       <c r="C107" s="4">
         <v>5</v>
@@ -2615,7 +2583,7 @@
         <v>109</v>
       </c>
       <c r="B108" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C108" s="4">
         <v>0</v>
@@ -2626,7 +2594,7 @@
         <v>110</v>
       </c>
       <c r="B109" s="4">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C109" s="4">
         <v>4</v>
@@ -2637,10 +2605,10 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>2130</v>
+        <v>2503</v>
       </c>
       <c r="C110" s="4">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2648,7 +2616,7 @@
         <v>112</v>
       </c>
       <c r="B111" s="4">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C111" s="4">
         <v>1</v>
@@ -2681,10 +2649,10 @@
         <v>115</v>
       </c>
       <c r="B114" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C114" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2703,7 +2671,7 @@
         <v>117</v>
       </c>
       <c r="B116" s="4">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
@@ -2725,7 +2693,7 @@
         <v>119</v>
       </c>
       <c r="B118" s="4">
-        <v>319</v>
+        <v>330</v>
       </c>
       <c r="C118" s="4">
         <v>5</v>
@@ -2736,7 +2704,7 @@
         <v>120</v>
       </c>
       <c r="B119" s="4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C119" s="4">
         <v>0</v>
@@ -2769,7 +2737,7 @@
         <v>123</v>
       </c>
       <c r="B122" s="4">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C122" s="4">
         <v>1</v>
@@ -2780,7 +2748,7 @@
         <v>124</v>
       </c>
       <c r="B123" s="4">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C123" s="4">
         <v>1</v>
@@ -2802,7 +2770,7 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>1486</v>
+        <v>1520</v>
       </c>
       <c r="C125" s="4">
         <v>32</v>
@@ -2813,7 +2781,7 @@
         <v>127</v>
       </c>
       <c r="B126" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C126" s="4">
         <v>0</v>
@@ -2824,7 +2792,7 @@
         <v>128</v>
       </c>
       <c r="B127" s="4">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
@@ -2857,7 +2825,7 @@
         <v>131</v>
       </c>
       <c r="B130" s="4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C130" s="4">
         <v>0</v>
@@ -2879,7 +2847,7 @@
         <v>133</v>
       </c>
       <c r="B132" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C132" s="4">
         <v>0</v>
@@ -2912,7 +2880,7 @@
         <v>136</v>
       </c>
       <c r="B135" s="4">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="C135" s="4">
         <v>1</v>
@@ -2956,7 +2924,7 @@
         <v>140</v>
       </c>
       <c r="B139" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C139" s="4">
         <v>1</v>
@@ -2989,7 +2957,7 @@
         <v>143</v>
       </c>
       <c r="B142" s="4">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C142" s="4">
         <v>13</v>
@@ -3000,7 +2968,7 @@
         <v>144</v>
       </c>
       <c r="B143" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C143" s="4">
         <v>0</v>
@@ -3022,7 +2990,7 @@
         <v>146</v>
       </c>
       <c r="B145" s="4">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C145" s="4">
         <v>1</v>
@@ -3033,7 +3001,7 @@
         <v>147</v>
       </c>
       <c r="B146" s="4">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C146" s="4">
         <v>4</v>
@@ -3055,7 +3023,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C148" s="4">
         <v>3</v>
@@ -3099,7 +3067,7 @@
         <v>153</v>
       </c>
       <c r="B152" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C152" s="4">
         <v>0</v>
@@ -3121,7 +3089,7 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>1547</v>
+        <v>1665</v>
       </c>
       <c r="C154" s="4">
         <v>51</v>
@@ -3132,7 +3100,7 @@
         <v>156</v>
       </c>
       <c r="B155" s="4">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C155" s="4">
         <v>1</v>
@@ -3143,7 +3111,7 @@
         <v>157</v>
       </c>
       <c r="B156" s="4">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C156" s="4">
         <v>0</v>
@@ -3165,7 +3133,7 @@
         <v>159</v>
       </c>
       <c r="B158" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" s="4">
         <v>1</v>
@@ -3198,7 +3166,7 @@
         <v>162</v>
       </c>
       <c r="B161" s="4">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="C161" s="4">
         <v>2</v>
@@ -3220,10 +3188,10 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="C163" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3264,7 +3232,7 @@
         <v>168</v>
       </c>
       <c r="B167" s="4">
-        <v>454</v>
+        <v>494</v>
       </c>
       <c r="C167" s="4">
         <v>14</v>
@@ -3275,7 +3243,7 @@
         <v>169</v>
       </c>
       <c r="B168" s="4">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C168" s="4">
         <v>1</v>
@@ -3297,7 +3265,7 @@
         <v>171</v>
       </c>
       <c r="B170" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C170" s="4">
         <v>0</v>
@@ -3319,10 +3287,10 @@
         <v>173</v>
       </c>
       <c r="B172" s="4">
-        <v>1737</v>
+        <v>1831</v>
       </c>
       <c r="C172" s="4">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3330,7 +3298,7 @@
         <v>174</v>
       </c>
       <c r="B173" s="4">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="C173" s="4">
         <v>14</v>
@@ -3363,7 +3331,7 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C176" s="4">
         <v>26</v>
@@ -3374,10 +3342,10 @@
         <v>178</v>
       </c>
       <c r="B177" s="4">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="C177" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3396,7 +3364,7 @@
         <v>180</v>
       </c>
       <c r="B179" s="4">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C179" s="4">
         <v>0</v>
@@ -3407,7 +3375,7 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>813</v>
+        <v>1028</v>
       </c>
       <c r="C180" s="4">
         <v>6</v>
@@ -3440,7 +3408,7 @@
         <v>184</v>
       </c>
       <c r="B183" s="4">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C183" s="4">
         <v>3</v>
@@ -3462,10 +3430,10 @@
         <v>186</v>
       </c>
       <c r="B185" s="4">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C185" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3484,7 +3452,7 @@
         <v>188</v>
       </c>
       <c r="B187" s="4">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C187" s="4">
         <v>3</v>
@@ -3495,7 +3463,7 @@
         <v>189</v>
       </c>
       <c r="B188" s="4">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C188" s="4">
         <v>0</v>
@@ -3506,7 +3474,7 @@
         <v>190</v>
       </c>
       <c r="B189" s="4">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C189" s="4">
         <v>0</v>
@@ -3517,7 +3485,7 @@
         <v>191</v>
       </c>
       <c r="B190" s="4">
-        <v>2838</v>
+        <v>2843</v>
       </c>
       <c r="C190" s="4">
         <v>39</v>
@@ -3550,7 +3518,7 @@
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>793</v>
+        <v>809</v>
       </c>
       <c r="C193" s="4">
         <v>6</v>
@@ -3583,7 +3551,7 @@
         <v>197</v>
       </c>
       <c r="B196" s="4">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C196" s="4">
         <v>8</v>
@@ -3594,7 +3562,7 @@
         <v>198</v>
       </c>
       <c r="B197" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C197" s="4">
         <v>0</v>
@@ -3605,7 +3573,7 @@
         <v>199</v>
       </c>
       <c r="B198" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C198" s="4">
         <v>0</v>
@@ -3660,7 +3628,7 @@
         <v>204</v>
       </c>
       <c r="B203" s="4">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="C203" s="4">
         <v>2</v>
@@ -3682,7 +3650,7 @@
         <v>206</v>
       </c>
       <c r="B205" s="4">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C205" s="4">
         <v>6</v>
@@ -3693,7 +3661,7 @@
         <v>207</v>
       </c>
       <c r="B206" s="4">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C206" s="4">
         <v>0</v>
@@ -3704,7 +3672,7 @@
         <v>208</v>
       </c>
       <c r="B207" s="4">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="C207" s="4">
         <v>0</v>
@@ -3737,7 +3705,7 @@
         <v>211</v>
       </c>
       <c r="B210" s="4">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C210" s="4">
         <v>0</v>
@@ -3759,7 +3727,7 @@
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C212" s="4">
         <v>9</v>
@@ -3781,7 +3749,7 @@
         <v>215</v>
       </c>
       <c r="B214" s="4">
-        <v>392</v>
+        <v>422</v>
       </c>
       <c r="C214" s="4">
         <v>4</v>
@@ -3803,7 +3771,7 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>355</v>
+        <v>373</v>
       </c>
       <c r="C216" s="4">
         <v>3</v>
@@ -3858,7 +3826,7 @@
         <v>222</v>
       </c>
       <c r="B221" s="4">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C221" s="4">
         <v>1</v>
@@ -3869,10 +3837,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>9386</v>
+        <v>9846</v>
       </c>
       <c r="C222" s="4">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3880,7 +3848,7 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="C223" s="4">
         <v>5</v>
@@ -3902,7 +3870,7 @@
         <v>226</v>
       </c>
       <c r="B225" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C225" s="4">
         <v>0</v>
@@ -3935,7 +3903,7 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="C228" s="4">
         <v>1</v>
@@ -3946,10 +3914,10 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>6596</v>
+        <v>6914</v>
       </c>
       <c r="C229" s="4">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3957,7 +3925,7 @@
         <v>231</v>
       </c>
       <c r="B230" s="4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C230" s="4">
         <v>0</v>
@@ -4001,10 +3969,10 @@
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C234" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4023,7 +3991,7 @@
         <v>237</v>
       </c>
       <c r="B236" s="4">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C236" s="4">
         <v>3</v>
@@ -4034,7 +4002,7 @@
         <v>238</v>
       </c>
       <c r="B237" s="4">
-        <v>346</v>
+        <v>372</v>
       </c>
       <c r="C237" s="4">
         <v>8</v>
@@ -4045,7 +4013,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>1950</v>
+        <v>1960</v>
       </c>
       <c r="C238" s="4">
         <v>28</v>
@@ -4056,7 +4024,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4067,7 +4035,7 @@
         <v>241</v>
       </c>
       <c r="B240" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C240" s="4">
         <v>0</v>
@@ -4078,7 +4046,7 @@
         <v>242</v>
       </c>
       <c r="B241" s="4">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C241" s="4">
         <v>27</v>
@@ -4089,7 +4057,7 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>1003</v>
+        <v>1045</v>
       </c>
       <c r="C242" s="4">
         <v>23</v>
@@ -4100,7 +4068,7 @@
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C243" s="4">
         <v>1</v>
@@ -4122,7 +4090,7 @@
         <v>246</v>
       </c>
       <c r="B245" s="4">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="C245" s="4">
         <v>2</v>
@@ -4144,7 +4112,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C247" s="4">
         <v>3</v>
@@ -4155,7 +4123,7 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>1498</v>
+        <v>1614</v>
       </c>
       <c r="C248" s="4">
         <v>32</v>
@@ -4166,7 +4134,7 @@
         <v>250</v>
       </c>
       <c r="B249" s="4">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C249" s="4">
         <v>5</v>
@@ -4177,7 +4145,7 @@
         <v>251</v>
       </c>
       <c r="B250" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C250" s="4">
         <v>0</v>
@@ -4210,7 +4178,7 @@
         <v>254</v>
       </c>
       <c r="B253" s="4">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C253" s="4">
         <v>0</v>
@@ -4232,7 +4200,7 @@
         <v>256</v>
       </c>
       <c r="B255" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C255" s="4">
         <v>0</v>
@@ -4243,7 +4211,7 @@
         <v>257</v>
       </c>
       <c r="B256" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C256" s="4">
         <v>0</v>
@@ -4254,10 +4222,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>125921</v>
+        <v>131917</v>
       </c>
       <c r="C257" s="4">
-        <v>2249</v>
+        <v>2296</v>
       </c>
     </row>
   </sheetData>
@@ -4270,16 +4238,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -4287,57 +4255,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="A1" s="18" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B3" s="11">
-        <v>9902</v>
-      </c>
-      <c r="C3" s="18">
+        <v>10055</v>
+      </c>
+      <c r="C3" s="17">
         <f>B3/B$6</f>
-        <v>0.48886694643297951</v>
+        <v>0.48860488847854611</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B4" s="11">
-        <v>10167</v>
-      </c>
-      <c r="C4" s="18">
+        <v>10336</v>
+      </c>
+      <c r="C4" s="17">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.50195013576894598</v>
+        <v>0.50225958501384904</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B5" s="11">
-        <v>186</v>
-      </c>
-      <c r="C5" s="18">
+        <v>188</v>
+      </c>
+      <c r="C5" s="17">
         <f t="shared" si="0"/>
-        <v>9.1829177980745497E-3</v>
+        <v>9.1355265076048398E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4345,26 +4313,26 @@
         <v>258</v>
       </c>
       <c r="B6" s="11">
-        <v>20255</v>
-      </c>
-      <c r="C6" s="18">
+        <v>20579</v>
+      </c>
+      <c r="C6" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>316</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4378,16 +4346,16 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -4395,93 +4363,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>321</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="A1" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B3" s="11">
-        <v>598</v>
-      </c>
-      <c r="C3" s="18">
+        <v>599</v>
+      </c>
+      <c r="C3" s="17">
         <f>B3/B$9</f>
-        <v>2.9523574426067636E-2</v>
+        <v>2.9107342436464356E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B4" s="11">
-        <v>2431</v>
-      </c>
-      <c r="C4" s="18">
+        <v>2460</v>
+      </c>
+      <c r="C4" s="17">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.12001974821031844</v>
+        <v>0.11953933621653141</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B5" s="11">
-        <v>7186</v>
-      </c>
-      <c r="C5" s="18">
+        <v>7364</v>
+      </c>
+      <c r="C5" s="17">
         <f t="shared" si="0"/>
-        <v>0.35477659837077263</v>
+        <v>0.35784051703192576</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B6" s="11">
         <v>117</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <f t="shared" si="0"/>
-        <v>5.7763515181436685E-3</v>
+        <v>5.6854074542008843E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B7" s="11">
-        <v>5431</v>
-      </c>
-      <c r="C7" s="18">
+        <v>5505</v>
+      </c>
+      <c r="C7" s="17">
         <f t="shared" si="0"/>
-        <v>0.26813132559861763</v>
+        <v>0.26750570970406723</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B8" s="11">
-        <v>4492</v>
-      </c>
-      <c r="C8" s="18">
+        <v>4534</v>
+      </c>
+      <c r="C8" s="17">
         <f t="shared" si="0"/>
-        <v>0.22177240187607997</v>
+        <v>0.22032168715681033</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4489,26 +4457,26 @@
         <v>258</v>
       </c>
       <c r="B9" s="11">
-        <v>20255</v>
-      </c>
-      <c r="C9" s="18">
+        <v>20579</v>
+      </c>
+      <c r="C9" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
+      <c r="A11" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>316</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="A12" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4522,16 +4490,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -4539,175 +4507,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="A1" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B3" s="12">
         <v>0</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <f>B3/B$16</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B4" s="12">
         <v>0</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B5" s="12">
         <v>0</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B6" s="12">
         <v>11</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <f t="shared" si="0"/>
         <v>1.6616314199395771E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B7" s="12">
         <v>13</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <f t="shared" si="0"/>
         <v>1.9637462235649546E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B8" s="12">
         <v>26</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <f t="shared" si="0"/>
         <v>3.9274924471299093E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B9" s="12">
         <v>72</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <f t="shared" si="0"/>
         <v>0.10876132930513595</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B10" s="12">
         <v>60</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="17">
         <f t="shared" si="0"/>
         <v>9.0634441087613288E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B11" s="12">
         <v>74</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="17">
         <f t="shared" si="0"/>
         <v>0.11178247734138973</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B12" s="12">
         <v>69</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="17">
         <f t="shared" si="0"/>
         <v>0.10422960725075529</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B13" s="12">
         <v>70</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <f t="shared" si="0"/>
         <v>0.10574018126888217</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B14" s="12">
         <v>265</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="17">
         <f t="shared" si="0"/>
         <v>0.40030211480362538</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B15" s="12">
         <v>2</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <f t="shared" si="0"/>
         <v>3.0211480362537764E-3</v>
       </c>
@@ -4719,24 +4687,24 @@
       <c r="B16" s="12">
         <v>662</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+      <c r="A18" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="A19" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4745,21 +4713,21 @@
     <mergeCell ref="A19:C19"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -4767,55 +4735,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="A1" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B3" s="12">
         <v>271</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <f>B3/B$6</f>
         <v>0.40936555891238668</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B4" s="12">
         <v>363</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
         <v>0.54833836858006046</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B5" s="12">
         <v>28</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <f t="shared" si="0"/>
         <v>4.2296072507552872E-2</v>
       </c>
@@ -4827,24 +4795,24 @@
       <c r="B6" s="12">
         <v>662</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
+      <c r="A8" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
+      <c r="A9" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4853,21 +4821,21 @@
     <mergeCell ref="A9:C9"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -4875,91 +4843,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="A1" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B3" s="12">
         <v>13</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <f>B3/B$9</f>
         <v>1.9637462235649546E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B4" s="12">
         <v>85</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="17">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
         <v>0.12839879154078551</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B5" s="12">
         <v>171</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="17">
         <f t="shared" si="0"/>
         <v>0.2583081570996979</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B6" s="12">
         <v>5</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <f t="shared" si="0"/>
         <v>7.5528700906344415E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B7" s="12">
         <v>269</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="17">
         <f t="shared" si="0"/>
         <v>0.40634441087613293</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B8" s="12">
         <v>119</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="17">
         <f t="shared" si="0"/>
         <v>0.1797583081570997</v>
       </c>
@@ -4971,24 +4939,24 @@
       <c r="B9" s="12">
         <v>662</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
+      <c r="A11" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>329</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
+      <c r="A12" s="20" t="s">
+        <v>323</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4997,45 +4965,45 @@
     <mergeCell ref="A12:C12"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A78" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="A93" sqref="A93"/>
+      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="A98" sqref="A98:E98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" customWidth="1"/>
     <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="18" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
@@ -6467,7 +6435,7 @@
     </row>
     <row r="87" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B87" s="4">
         <v>93206</v>
@@ -6618,20 +6586,37 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="44" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="26" t="s">
-        <v>333</v>
-      </c>
-      <c r="B97" s="26"/>
-      <c r="C97" s="26"/>
-      <c r="D97" s="26"/>
-      <c r="E97" s="26"/>
+    <row r="96" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <v>44007</v>
+      </c>
+      <c r="B96" s="4">
+        <v>131917</v>
+      </c>
+      <c r="C96" s="4">
+        <v>2296</v>
+      </c>
+      <c r="D96" s="4">
+        <v>5996</v>
+      </c>
+      <c r="E96" s="4">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="35.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="B98" s="22"/>
+      <c r="C98" s="22"/>
+      <c r="D98" s="22"/>
+      <c r="E98" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A97:E97"/>
+    <mergeCell ref="A98:E98"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6644,21 +6629,21 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -6670,17 +6655,17 @@
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>72898.2</v>
+        <v>74496.2</v>
       </c>
       <c r="B3" s="8">
-        <v>50774</v>
+        <v>55125</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="25"/>
+      <c r="B5" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6693,13 +6678,13 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:K86"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BE9051D-1754-43E0-8A33-5BC45D5BE7C0}">
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" sqref="A1:H1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6707,46 +6692,46 @@
     <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="15" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="A1" s="21" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>261</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>272</v>
+        <v>326</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>273</v>
+        <v>327</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>275</v>
+        <v>328</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>329</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>276</v>
+        <v>330</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>277</v>
+        <v>331</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>278</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6762,7 +6747,7 @@
       <c r="D3" s="8">
         <v>63751</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="14">
         <v>0.1056</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -6788,7 +6773,7 @@
       <c r="D4" s="8">
         <v>70938</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="14">
         <v>9.3299999999999994E-2</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -6814,7 +6799,7 @@
       <c r="D5" s="8">
         <v>85357</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="14">
         <v>8.8909998585200004E-2</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -6840,7 +6825,7 @@
       <c r="D6" s="8">
         <v>88649</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="14">
         <v>0.1094</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -6866,7 +6851,7 @@
       <c r="D7" s="8">
         <v>96258</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="14">
         <v>0.11070000000000001</v>
       </c>
       <c r="F7" s="8" t="s">
@@ -6892,7 +6877,7 @@
       <c r="D8" s="8">
         <v>106134</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="14">
         <v>0.100351636462</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -6918,7 +6903,7 @@
       <c r="D9" s="8">
         <v>115918</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="14">
         <v>0.1055125178708</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -6944,7 +6929,7 @@
       <c r="D10" s="8">
         <v>120533</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="14">
         <v>0.11360000000000001</v>
       </c>
       <c r="F10" s="8" t="s">
@@ -6970,7 +6955,7 @@
       <c r="D11" s="8">
         <v>124553</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="14">
         <v>0.12479999999999999</v>
       </c>
       <c r="F11" s="8" t="s">
@@ -6996,7 +6981,7 @@
       <c r="D12" s="8">
         <v>133226</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="14">
         <v>0.1386</v>
       </c>
       <c r="F12" s="8" t="s">
@@ -7022,7 +7007,7 @@
       <c r="D13" s="8">
         <v>146467</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="14">
         <v>0.1101</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -7048,7 +7033,7 @@
       <c r="D14" s="8">
         <v>151810</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="14">
         <v>0.1105</v>
       </c>
       <c r="F14" s="8" t="s">
@@ -7074,7 +7059,7 @@
       <c r="D15" s="8">
         <v>158547</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="14">
         <v>0.1188</v>
       </c>
       <c r="F15" s="8" t="s">
@@ -7100,7 +7085,7 @@
       <c r="D16" s="8">
         <v>169536</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="14">
         <v>0.10630000000000001</v>
       </c>
       <c r="F16" s="8" t="s">
@@ -7126,7 +7111,7 @@
       <c r="D17" s="8">
         <v>176239</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="14">
         <v>0.1023</v>
       </c>
       <c r="F17" s="8" t="s">
@@ -7152,7 +7137,7 @@
       <c r="D18" s="8">
         <v>182710</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="14">
         <v>9.35E-2</v>
       </c>
       <c r="F18" s="8" t="s">
@@ -7178,7 +7163,7 @@
       <c r="D19" s="8">
         <v>190394</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="14">
         <v>9.7117268401900006E-2</v>
       </c>
       <c r="F19" s="8" t="s">
@@ -7204,7 +7189,7 @@
       <c r="D20" s="8">
         <v>205399</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="14">
         <v>9.4500000000000001E-2</v>
       </c>
       <c r="F20" s="8" t="s">
@@ -7230,7 +7215,7 @@
       <c r="D21" s="8">
         <v>216783</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="14">
         <v>8.5800000000000001E-2</v>
       </c>
       <c r="F21" s="8" t="s">
@@ -7256,7 +7241,7 @@
       <c r="D22" s="8">
         <v>225078</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="14">
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="F22" s="8" t="s">
@@ -7282,7 +7267,7 @@
       <c r="D23" s="8">
         <v>242547</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="14">
         <v>7.4399999999999994E-2</v>
       </c>
       <c r="F23" s="8" t="s">
@@ -7308,7 +7293,7 @@
       <c r="D24" s="8">
         <v>262816</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="14">
         <v>6.3700000000000007E-2</v>
       </c>
       <c r="F24" s="8" t="s">
@@ -7334,7 +7319,7 @@
       <c r="D25" s="8">
         <v>276021</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="14">
         <v>6.1199999999999997E-2</v>
       </c>
       <c r="F25" s="8" t="s">
@@ -7360,7 +7345,7 @@
       <c r="D26" s="8">
         <v>290517</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="14">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="F26" s="8" t="s">
@@ -7386,7 +7371,7 @@
       <c r="D27" s="8">
         <v>300384</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="14">
         <v>6.2899999999999998E-2</v>
       </c>
       <c r="F27" s="8" t="s">
@@ -7412,7 +7397,7 @@
       <c r="D28" s="8">
         <v>314790</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="14">
         <v>6.10670666381E-2</v>
       </c>
       <c r="F28" s="8" t="s">
@@ -7438,7 +7423,7 @@
       <c r="D29" s="8">
         <v>330300</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="14">
         <v>5.8381327098900003E-2</v>
       </c>
       <c r="F29" s="8" t="s">
@@ -7464,7 +7449,7 @@
       <c r="D30" s="8">
         <v>351775</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="14">
         <v>5.8799999999999998E-2</v>
       </c>
       <c r="F30" s="8" t="s">
@@ -7490,7 +7475,7 @@
       <c r="D31" s="8">
         <v>380648</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="14">
         <v>5.7299999999999997E-2</v>
       </c>
       <c r="F31" s="8" t="s">
@@ -7516,7 +7501,7 @@
       <c r="D32" s="8">
         <v>390560</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E32" s="14">
         <v>6.0400000000000002E-2</v>
       </c>
       <c r="F32" s="8" t="s">
@@ -7542,7 +7527,7 @@
       <c r="D33" s="8">
         <v>407398</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="14">
         <v>6.0199999999999997E-2</v>
       </c>
       <c r="F33" s="8" t="s">
@@ -7568,7 +7553,7 @@
       <c r="D34" s="8">
         <v>427210</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="14">
         <v>5.6754924069199998E-2</v>
       </c>
       <c r="F34" s="8" t="s">
@@ -7594,7 +7579,7 @@
       <c r="D35" s="8">
         <v>438938</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="14">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F35" s="8" t="s">
@@ -7620,7 +7605,7 @@
       <c r="D36" s="8">
         <v>455162</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="14">
         <v>5.8500000000000003E-2</v>
       </c>
       <c r="F36" s="8" t="s">
@@ -7646,7 +7631,7 @@
       <c r="D37" s="8">
         <v>477118</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="14">
         <v>5.8900000000000001E-2</v>
       </c>
       <c r="F37" s="8" t="s">
@@ -7672,7 +7657,7 @@
       <c r="D38" s="8">
         <v>489294</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="14">
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="F38" s="8" t="s">
@@ -7698,7 +7683,7 @@
       <c r="D39" s="8">
         <v>513978</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="14">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F39" s="8" t="s">
@@ -7724,7 +7709,7 @@
       <c r="D40" s="8">
         <v>525697</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="14">
         <v>6.3711443038399998E-2</v>
       </c>
       <c r="F40" s="8" t="s">
@@ -7750,7 +7735,7 @@
       <c r="D41" s="8">
         <v>538172</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="14">
         <v>6.9199999999999998E-2</v>
       </c>
       <c r="F41" s="8" t="s">
@@ -7776,7 +7761,7 @@
       <c r="D42" s="8">
         <v>587431</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E42" s="14">
         <v>5.3699999999999998E-2</v>
       </c>
       <c r="F42" s="8" t="s">
@@ -7802,7 +7787,7 @@
       <c r="D43" s="8">
         <v>623284</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E43" s="14">
         <v>5.0299999999999997E-2</v>
       </c>
       <c r="F43" s="8" t="s">
@@ -7828,7 +7813,7 @@
       <c r="D44" s="8">
         <v>645992</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="14">
         <v>5.0900000000000001E-2</v>
       </c>
       <c r="F44" s="8" t="s">
@@ -7854,7 +7839,7 @@
       <c r="D45" s="8">
         <v>678471</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="14">
         <v>4.8300000000000003E-2</v>
       </c>
       <c r="F45" s="8">
@@ -7880,7 +7865,7 @@
       <c r="D46" s="8">
         <v>693276</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="14">
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="F46" s="8">
@@ -7906,7 +7891,7 @@
       <c r="D47" s="8">
         <v>723013</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="14">
         <v>4.4720144337000001E-2</v>
       </c>
       <c r="F47" s="8">
@@ -7932,7 +7917,7 @@
       <c r="D48" s="8">
         <v>744937</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E48" s="14">
         <v>4.7E-2</v>
       </c>
       <c r="F48" s="8">
@@ -7958,7 +7943,7 @@
       <c r="D49" s="8">
         <v>770241</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E49" s="14">
         <v>5.4300000000000001E-2</v>
       </c>
       <c r="F49" s="8">
@@ -7984,7 +7969,7 @@
       <c r="D50" s="8">
         <v>800433</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="14">
         <v>5.5100000000000003E-2</v>
       </c>
       <c r="F50" s="8">
@@ -8010,7 +7995,7 @@
       <c r="D51" s="8">
         <v>834437</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E51" s="14">
         <v>5.3900000000000003E-2</v>
       </c>
       <c r="F51" s="8">
@@ -8036,7 +8021,7 @@
       <c r="D52" s="8">
         <v>870935</v>
       </c>
-      <c r="E52" s="17" t="s">
+      <c r="E52" s="14" t="s">
         <v>266</v>
       </c>
       <c r="F52" s="8" t="s">
@@ -8062,7 +8047,7 @@
       <c r="D53" s="8">
         <v>886354</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="14">
         <v>4.87E-2</v>
       </c>
       <c r="F53" s="8">
@@ -8088,7 +8073,7 @@
       <c r="D54" s="8">
         <v>906074</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E54" s="14">
         <v>5.1499999999999997E-2</v>
       </c>
       <c r="F54" s="8">
@@ -8114,7 +8099,7 @@
       <c r="D55" s="8">
         <v>943239</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E55" s="14">
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="F55" s="8">
@@ -8140,7 +8125,7 @@
       <c r="D56" s="8">
         <v>961861</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E56" s="14">
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="F56" s="8">
@@ -8166,7 +8151,7 @@
       <c r="D57" s="8">
         <v>989994</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E57" s="14">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="F57" s="8">
@@ -8192,7 +8177,7 @@
       <c r="D58" s="8">
         <v>1027449</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="14">
         <v>4.5600000000000002E-2</v>
       </c>
       <c r="F58" s="8">
@@ -8218,7 +8203,7 @@
       <c r="D59" s="8">
         <v>1054793</v>
       </c>
-      <c r="E59" s="17" t="s">
+      <c r="E59" s="14" t="s">
         <v>266</v>
       </c>
       <c r="F59" s="8" t="s">
@@ -8244,7 +8229,7 @@
       <c r="D60" s="8">
         <v>1073491</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E60" s="14">
         <v>5.43810873784E-2</v>
       </c>
       <c r="F60" s="8">
@@ -8270,7 +8255,7 @@
       <c r="D61" s="8">
         <v>1093676</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E61" s="14">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="F61" s="8">
@@ -8296,7 +8281,7 @@
       <c r="D62" s="8">
         <v>1117274</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E62" s="14">
         <v>6.6236912120929997E-2</v>
       </c>
       <c r="F62" s="8">
@@ -8322,7 +8307,7 @@
       <c r="D63" s="8">
         <v>1150868</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E63" s="14">
         <v>6.2599418158070005E-2</v>
       </c>
       <c r="F63" s="8">
@@ -8348,7 +8333,7 @@
       <c r="D64" s="8">
         <v>1174948</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E64" s="14">
         <v>6.0272963321670002E-2</v>
       </c>
       <c r="F64" s="8">
@@ -8374,7 +8359,7 @@
       <c r="D65" s="8">
         <v>1209187</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E65" s="14">
         <v>6.4378489924740004E-2</v>
       </c>
       <c r="F65" s="8">
@@ -8400,7 +8385,7 @@
       <c r="D66" s="8">
         <v>1218955</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E66" s="14">
         <v>8.0023118582630004E-2</v>
       </c>
       <c r="F66" s="8">
@@ -8426,7 +8411,7 @@
       <c r="D67" s="8">
         <v>1255899</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E67" s="14">
         <v>7.11381708088E-2</v>
       </c>
       <c r="F67" s="8">
@@ -8452,7 +8437,7 @@
       <c r="D68" s="8">
         <v>1286139</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E68" s="14">
         <v>6.6629016142149999E-2</v>
       </c>
       <c r="F68" s="8">
@@ -8478,7 +8463,7 @@
       <c r="D69" s="8">
         <v>1302049</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E69" s="14">
         <v>6.9239691807229997E-2</v>
       </c>
       <c r="F69" s="8">
@@ -8504,7 +8489,7 @@
       <c r="D70" s="8">
         <v>1348893</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E70" s="14">
         <v>6.8464816856909999E-2</v>
       </c>
       <c r="F70" s="8">
@@ -8530,7 +8515,7 @@
       <c r="D71" s="8">
         <v>1370131</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E71" s="14">
         <v>7.0522006760149997E-2</v>
       </c>
       <c r="F71" s="8">
@@ -8556,7 +8541,7 @@
       <c r="D72" s="8">
         <v>1404369</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E72" s="14">
         <v>7.2239317057989999E-2</v>
       </c>
       <c r="F72" s="8">
@@ -8582,7 +8567,7 @@
       <c r="D73" s="8">
         <v>1442950</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E73" s="14">
         <v>6.1077310009760001E-2</v>
       </c>
       <c r="F73" s="8">
@@ -8608,7 +8593,7 @@
       <c r="D74" s="8">
         <v>1463851</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E74" s="14">
         <v>6.6219239373599997E-2</v>
       </c>
       <c r="F74" s="8">
@@ -8634,7 +8619,7 @@
       <c r="D75" s="8">
         <v>1499015</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E75" s="14">
         <v>6.7095336844249995E-2</v>
       </c>
       <c r="F75" s="8">
@@ -8660,7 +8645,7 @@
       <c r="D76" s="8">
         <v>1522434</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E76" s="14">
         <v>6.9417073042089994E-2</v>
       </c>
       <c r="F76" s="8">
@@ -8686,7 +8671,7 @@
       <c r="D77" s="8">
         <v>1560537</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E77" s="14">
         <v>7.497728638027E-2</v>
       </c>
       <c r="F77" s="8">
@@ -8712,7 +8697,7 @@
       <c r="D78" s="8">
         <v>1576925</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E78" s="14">
         <v>8.5257188117199997E-2</v>
       </c>
       <c r="F78" s="8">
@@ -8738,7 +8723,7 @@
       <c r="D79" s="8">
         <v>1622851</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E79" s="14">
         <v>8.9369161754789997E-2</v>
       </c>
       <c r="F79" s="8">
@@ -8764,7 +8749,7 @@
       <c r="D80" s="8">
         <v>1690124</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E80" s="14">
         <v>8.7959443433230006E-2</v>
       </c>
       <c r="F80" s="8">
@@ -8777,7 +8762,7 @@
         <v>35311</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
         <v>44003</v>
       </c>
@@ -8790,7 +8775,7 @@
       <c r="D81" s="8">
         <v>1715177</v>
       </c>
-      <c r="E81" s="17">
+      <c r="E81" s="14">
         <v>9.5100000000000004E-2</v>
       </c>
       <c r="F81" s="8">
@@ -8803,7 +8788,7 @@
         <v>35904</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
         <v>44004</v>
       </c>
@@ -8816,7 +8801,7 @@
       <c r="D82" s="8">
         <v>1767701</v>
       </c>
-      <c r="E82" s="17">
+      <c r="E82" s="14">
         <v>9.7600000000000006E-2</v>
       </c>
       <c r="F82" s="8">
@@ -8829,7 +8814,7 @@
         <v>38384</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
         <v>44005</v>
       </c>
@@ -8842,7 +8827,7 @@
       <c r="D83" s="8">
         <v>1805642</v>
       </c>
-      <c r="E83" s="17">
+      <c r="E83" s="14">
         <v>0.10422837848208119</v>
       </c>
       <c r="F83" s="8">
@@ -8854,51 +8839,63 @@
       <c r="H83" s="8">
         <v>40458</v>
       </c>
-      <c r="J83" s="13"/>
-      <c r="K83" s="13"/>
-    </row>
-    <row r="84" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
         <v>44006</v>
       </c>
-      <c r="B84" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>266</v>
+      <c r="B84" s="8">
+        <v>1659340</v>
+      </c>
+      <c r="C84" s="8">
+        <v>176697</v>
       </c>
       <c r="D84" s="8">
         <v>1836037</v>
       </c>
-      <c r="E84" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="H84" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="27" t="s">
-        <v>279</v>
-      </c>
-      <c r="B86" s="25"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="25"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="25"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="25"/>
+      <c r="E84" s="14">
+        <v>0.11759188232067695</v>
+      </c>
+      <c r="F84" s="8">
+        <v>35943</v>
+      </c>
+      <c r="G84" s="8">
+        <v>3414</v>
+      </c>
+      <c r="H84" s="8">
+        <v>39357</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="16">
+        <v>44007</v>
+      </c>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8">
+        <v>1875197</v>
+      </c>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+    </row>
+    <row r="87" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="19"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="19"/>
+      <c r="H87" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A86:H86"/>
+    <mergeCell ref="A87:H87"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -8906,64 +8903,64 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>280</v>
-      </c>
-      <c r="B1" s="25"/>
+      <c r="A1" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B3" s="8">
-        <v>77868</v>
+        <v>78770</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B4" s="8">
-        <v>1758169</v>
+        <v>1796427</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B5" s="8">
-        <v>1836037</v>
+        <v>1875197</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>286</v>
-      </c>
-      <c r="B7" s="25"/>
+      <c r="A7" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8976,66 +8973,60 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>287</v>
-      </c>
-      <c r="B1" s="25"/>
-    </row>
-    <row r="2" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="19"/>
+    </row>
+    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="8">
+        <v>176697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>334</v>
-      </c>
-      <c r="B3" s="23">
-        <v>175384</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="B4" s="23">
-        <v>6770</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:2" s="21" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="B6" s="29"/>
-    </row>
-    <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="25"/>
+      <c r="B4" s="8">
+        <v>6823</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A7:B7"/>
     <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -9044,78 +9035,85 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="69" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>288</v>
-      </c>
-      <c r="B1" s="25"/>
+      <c r="A1" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B3" s="9">
-        <v>4389</v>
+        <v>4739</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B4" s="9">
-        <v>56707</v>
+        <v>57805</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B5" s="9">
-        <v>12951</v>
+        <v>12597</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B6" s="9">
-        <v>1320</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B7" s="9">
-        <v>5850</v>
-      </c>
+        <v>5778</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9123,16 +9121,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <pane ySplit="2" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -9140,21 +9138,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="A1" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>261</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -10059,9 +10057,28 @@
         <v>4389</v>
       </c>
     </row>
+    <row r="85" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>83</v>
+      </c>
+      <c r="B85" s="6">
+        <v>44007</v>
+      </c>
+      <c r="C85" s="9">
+        <v>4739</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="B87" s="19"/>
+      <c r="C87" s="19"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A87:C87"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -10069,16 +10086,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
@@ -10086,177 +10103,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
+      <c r="A1" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B3" s="11">
         <v>82</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="17">
         <f>B3/B$16</f>
-        <v>4.0483831152801778E-3</v>
+        <v>3.9846445405510474E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B4" s="11">
-        <v>325</v>
-      </c>
-      <c r="C4" s="18">
+        <v>333</v>
+      </c>
+      <c r="C4" s="17">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
-        <v>1.6045420883732411E-2</v>
+        <v>1.6181544292725593E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B5" s="11">
-        <v>863</v>
-      </c>
-      <c r="C5" s="18">
+        <v>886</v>
+      </c>
+      <c r="C5" s="17">
         <f t="shared" si="0"/>
-        <v>4.2606763762034067E-2</v>
+        <v>4.305359832839302E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B6" s="11">
-        <v>3386</v>
-      </c>
-      <c r="C6" s="18">
+        <v>3461</v>
+      </c>
+      <c r="C6" s="17">
         <f t="shared" si="0"/>
-        <v>0.16716860034559369</v>
+        <v>0.16818115554691676</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B7" s="11">
-        <v>3707</v>
-      </c>
-      <c r="C7" s="18">
+        <v>3770</v>
+      </c>
+      <c r="C7" s="17">
         <f t="shared" si="0"/>
-        <v>0.18301653912614169</v>
+        <v>0.18319646241313961</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B8" s="11">
-        <v>3681</v>
-      </c>
-      <c r="C8" s="18">
+        <v>3742</v>
+      </c>
+      <c r="C8" s="17">
         <f t="shared" si="0"/>
-        <v>0.1817329054554431</v>
+        <v>0.18183585208221975</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B9" s="11">
-        <v>3541</v>
-      </c>
-      <c r="C9" s="18">
+        <v>3575</v>
+      </c>
+      <c r="C9" s="17">
         <f t="shared" si="0"/>
-        <v>0.17482103184398914</v>
+        <v>0.1737207833228048</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B10" s="11">
-        <v>1419</v>
-      </c>
-      <c r="C10" s="18">
+        <v>1435</v>
+      </c>
+      <c r="C10" s="17">
         <f t="shared" si="0"/>
-        <v>7.0056776104665514E-2</v>
+        <v>6.9731279459643331E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B11" s="11">
-        <v>1056</v>
-      </c>
-      <c r="C11" s="18">
+        <v>1066</v>
+      </c>
+      <c r="C11" s="17">
         <f t="shared" si="0"/>
-        <v>5.213527524068131E-2</v>
+        <v>5.1800379027163612E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B12" s="11">
-        <v>675</v>
-      </c>
-      <c r="C12" s="18">
+        <v>688</v>
+      </c>
+      <c r="C12" s="17">
         <f t="shared" si="0"/>
-        <v>3.3325104912367315E-2</v>
+        <v>3.3432139559745375E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B13" s="11">
-        <v>505</v>
-      </c>
-      <c r="C13" s="18">
+        <v>513</v>
+      </c>
+      <c r="C13" s="17">
         <f t="shared" si="0"/>
-        <v>2.4932115527030362E-2</v>
+        <v>2.4928324991496185E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B14" s="11">
-        <v>1003</v>
-      </c>
-      <c r="C14" s="18">
+        <v>1016</v>
+      </c>
+      <c r="C14" s="17">
         <f t="shared" si="0"/>
-        <v>4.9518637373488029E-2</v>
+        <v>4.9370717721949557E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B15" s="11">
         <v>12</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="17">
         <f t="shared" si="0"/>
-        <v>5.9244630955319671E-4</v>
+        <v>5.8311871325137277E-4</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -10264,26 +10281,26 @@
         <v>258</v>
       </c>
       <c r="B16" s="11">
-        <v>20255</v>
-      </c>
-      <c r="C16" s="18">
+        <v>20579</v>
+      </c>
+      <c r="C16" s="17">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>315</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+      <c r="A18" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>316</v>
-      </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
+      <c r="A19" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
+++ b/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A7A3DCE4-2C13-42F6-B874-F19D761131C3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5657AC47-0F1E-4558-8A6B-6A6437A83F0C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,9 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="338">
-  <si>
-    <t>COVID-19 Cases and Fatalities by County as of 6/28 at 10:45AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="337">
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 6/29 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -812,10 +812,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/28 at 10:45AM CST</t>
-  </si>
-  <si>
-    <t>DISCLAIMER: All data are provisional and are subject to change.</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/29 at 10:45AM CST</t>
   </si>
   <si>
     <t>Date</t>
@@ -842,7 +839,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/28 at 3:00PM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/29 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -854,7 +851,7 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/28 at 3:00PM CST</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/29 at 3:00PM CST</t>
   </si>
   <si>
     <t>Viral Tests</t>
@@ -895,7 +892,7 @@
     <t>*Average of previous 7 days</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/28 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/29 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -916,7 +913,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Number of COVID-19 Antibody Tests in Texas as of 6/27 at 3:00PM CST</t>
+    <t>Number of COVID-19 Antibody Tests in Texas as of 6/28 at 3:00PM CST</t>
   </si>
   <si>
     <t>Antibody Tests</t>
@@ -928,7 +925,7 @@
     <t>Number of Positive Antibody Tests Reported</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 6/28 at 9:30AM CST</t>
+    <t>Texas Statewide Hospitalization Data as of 6/29 at 9:30AM CST</t>
   </si>
   <si>
     <t>Hospital data</t>
@@ -949,7 +946,7 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 6/28 at 9:30AM CST</t>
+    <t>Number of COVID-19 Hospitalizations by Day as of 6/29 at 9:30AM CST</t>
   </si>
   <si>
     <t>Obs</t>
@@ -958,7 +955,7 @@
     <t>Hospitalizations</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 6/28 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 6/29 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -1013,10 +1010,10 @@
     <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
   </si>
   <si>
-    <t>Completed case investigations received by DSHS =          21,262</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 6/28 at 9:30 AM CST</t>
+    <t>Completed case investigations received by DSHS =          21,290</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 6/29 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -1028,7 +1025,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 6/28 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 6/29 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -1049,16 +1046,16 @@
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 6/28 at 9:30 AM CST</t>
+    <t>Age of Confirmed Fatalities as of 6/29 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Completed investigations received by DSHS =          662</t>
   </si>
   <si>
-    <t>Gender of Confirmed Fatalities as of 6/28 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 6/28 at 9:30 AM CST</t>
+    <t>Gender of Confirmed Fatalities as of 6/29 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 6/29 at 9:30 AM CST</t>
   </si>
   <si>
     <t>06/16/2020-TDCJ*</t>
@@ -1076,10 +1073,10 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="#########0"/>
     <numFmt numFmtId="167" formatCode="#,###,###,##0"/>
-    <numFmt numFmtId="168" formatCode="##,###,##0"/>
-    <numFmt numFmtId="169" formatCode="###,###,###,###,##0"/>
-    <numFmt numFmtId="170" formatCode="##0"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="172" formatCode="##,###,##0"/>
+    <numFmt numFmtId="173" formatCode="###,###,###,###,##0"/>
+    <numFmt numFmtId="175" formatCode="##0"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1173,7 +1170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1201,20 +1198,29 @@
     <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1225,20 +1231,8 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1376,9 +1370,9 @@
   <dimension ref="A1:C257"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="B258" sqref="B258"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1389,11 +1383,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1444,7 +1438,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -1488,7 +1482,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -1521,7 +1515,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="C13" s="4">
         <v>6</v>
@@ -1543,7 +1537,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -1565,10 +1559,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>9652</v>
+        <v>10147</v>
       </c>
       <c r="C17" s="4">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1576,7 +1570,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -1598,7 +1592,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -1609,7 +1603,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>418</v>
+        <v>430</v>
       </c>
       <c r="C21" s="4">
         <v>13</v>
@@ -1620,7 +1614,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>2161</v>
+        <v>2217</v>
       </c>
       <c r="C22" s="4">
         <v>21</v>
@@ -1631,7 +1625,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>1720</v>
+        <v>1822</v>
       </c>
       <c r="C23" s="4">
         <v>29</v>
@@ -1686,7 +1680,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -1697,7 +1691,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C29" s="4">
         <v>3</v>
@@ -1708,7 +1702,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="C30" s="4">
         <v>2</v>
@@ -1774,7 +1768,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" s="4">
         <v>2</v>
@@ -1807,7 +1801,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="4">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="C39" s="4">
         <v>2</v>
@@ -1873,7 +1867,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>2671</v>
+        <v>2763</v>
       </c>
       <c r="C45" s="4">
         <v>42</v>
@@ -1950,7 +1944,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
@@ -1983,7 +1977,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" s="4">
         <v>0</v>
@@ -2027,10 +2021,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>19595</v>
+        <v>20165</v>
       </c>
       <c r="C59" s="4">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2071,7 +2065,7 @@
         <v>64</v>
       </c>
       <c r="B63" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63" s="4">
         <v>0</v>
@@ -2082,7 +2076,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>2630</v>
+        <v>2670</v>
       </c>
       <c r="C64" s="4">
         <v>37</v>
@@ -2126,7 +2120,7 @@
         <v>69</v>
       </c>
       <c r="B68" s="4">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C68" s="4">
         <v>0</v>
@@ -2170,10 +2164,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>5614</v>
+        <v>5745</v>
       </c>
       <c r="C72" s="4">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2203,7 +2197,7 @@
         <v>76</v>
       </c>
       <c r="B75" s="4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C75" s="4">
         <v>0</v>
@@ -2225,7 +2219,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="4">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C77" s="4">
         <v>2</v>
@@ -2291,7 +2285,7 @@
         <v>84</v>
       </c>
       <c r="B83" s="4">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
@@ -2324,7 +2318,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>2821</v>
+        <v>2923</v>
       </c>
       <c r="C86" s="4">
         <v>40</v>
@@ -2401,7 +2395,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="C93" s="4">
         <v>5</v>
@@ -2423,7 +2417,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>344</v>
+        <v>355</v>
       </c>
       <c r="C95" s="4">
         <v>2</v>
@@ -2467,7 +2461,7 @@
         <v>100</v>
       </c>
       <c r="B99" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C99" s="4">
         <v>1</v>
@@ -2511,10 +2505,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>29163</v>
+        <v>29276</v>
       </c>
       <c r="C103" s="4">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2522,7 +2516,7 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C104" s="4">
         <v>30</v>
@@ -2555,7 +2549,7 @@
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>2469</v>
+        <v>2586</v>
       </c>
       <c r="C107" s="4">
         <v>6</v>
@@ -2588,10 +2582,10 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>2892</v>
+        <v>3294</v>
       </c>
       <c r="C110" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2599,7 +2593,7 @@
         <v>112</v>
       </c>
       <c r="B111" s="4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C111" s="4">
         <v>1</v>
@@ -2753,7 +2747,7 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>1631</v>
+        <v>1638</v>
       </c>
       <c r="C125" s="4">
         <v>32</v>
@@ -2764,7 +2758,7 @@
         <v>127</v>
       </c>
       <c r="B126" s="4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C126" s="4">
         <v>0</v>
@@ -2775,7 +2769,7 @@
         <v>128</v>
       </c>
       <c r="B127" s="4">
-        <v>105</v>
+        <v>124</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
@@ -2874,7 +2868,7 @@
         <v>137</v>
       </c>
       <c r="B136" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C136" s="4">
         <v>0</v>
@@ -2907,7 +2901,7 @@
         <v>140</v>
       </c>
       <c r="B139" s="4">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C139" s="4">
         <v>1</v>
@@ -2962,7 +2956,7 @@
         <v>145</v>
       </c>
       <c r="B144" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C144" s="4">
         <v>0</v>
@@ -2984,7 +2978,7 @@
         <v>147</v>
       </c>
       <c r="B146" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C146" s="4">
         <v>3</v>
@@ -2995,7 +2989,7 @@
         <v>148</v>
       </c>
       <c r="B147" s="4">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C147" s="4">
         <v>0</v>
@@ -3006,7 +3000,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="C148" s="4">
         <v>3</v>
@@ -3017,7 +3011,7 @@
         <v>150</v>
       </c>
       <c r="B149" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C149" s="4">
         <v>1</v>
@@ -3050,7 +3044,7 @@
         <v>153</v>
       </c>
       <c r="B152" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" s="4">
         <v>0</v>
@@ -3072,7 +3066,7 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>1984</v>
+        <v>2041</v>
       </c>
       <c r="C154" s="4">
         <v>51</v>
@@ -3094,7 +3088,7 @@
         <v>157</v>
       </c>
       <c r="B156" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C156" s="4">
         <v>0</v>
@@ -3116,7 +3110,7 @@
         <v>159</v>
       </c>
       <c r="B158" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C158" s="4">
         <v>1</v>
@@ -3138,7 +3132,7 @@
         <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C160" s="4">
         <v>5</v>
@@ -3171,7 +3165,7 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>697</v>
+        <v>744</v>
       </c>
       <c r="C163" s="4">
         <v>6</v>
@@ -3292,7 +3286,7 @@
         <v>175</v>
       </c>
       <c r="B174" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C174" s="4">
         <v>0</v>
@@ -3358,10 +3352,10 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>1727</v>
+        <v>1915</v>
       </c>
       <c r="C180" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3413,7 +3407,7 @@
         <v>186</v>
       </c>
       <c r="B185" s="4">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C185" s="4">
         <v>25</v>
@@ -3446,7 +3440,7 @@
         <v>189</v>
       </c>
       <c r="B188" s="4">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C188" s="4">
         <v>0</v>
@@ -3545,7 +3539,7 @@
         <v>198</v>
       </c>
       <c r="B197" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C197" s="4">
         <v>0</v>
@@ -3556,7 +3550,7 @@
         <v>199</v>
       </c>
       <c r="B198" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C198" s="4">
         <v>0</v>
@@ -3578,7 +3572,7 @@
         <v>201</v>
       </c>
       <c r="B200" s="4">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -3611,7 +3605,7 @@
         <v>204</v>
       </c>
       <c r="B203" s="4">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C203" s="4">
         <v>3</v>
@@ -3677,7 +3671,7 @@
         <v>210</v>
       </c>
       <c r="B209" s="4">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C209" s="4">
         <v>0</v>
@@ -3754,7 +3748,7 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>496</v>
+        <v>551</v>
       </c>
       <c r="C216" s="4">
         <v>3</v>
@@ -3798,7 +3792,7 @@
         <v>221</v>
       </c>
       <c r="B220" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C220" s="4">
         <v>0</v>
@@ -3820,10 +3814,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>11083</v>
+        <v>11476</v>
       </c>
       <c r="C222" s="4">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3831,7 +3825,7 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C223" s="4">
         <v>5</v>
@@ -3875,7 +3869,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="C227" s="4">
         <v>4</v>
@@ -3886,7 +3880,7 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C228" s="4">
         <v>1</v>
@@ -3897,7 +3891,7 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>7825</v>
+        <v>8461</v>
       </c>
       <c r="C229" s="4">
         <v>117</v>
@@ -3952,7 +3946,7 @@
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C234" s="4">
         <v>1</v>
@@ -3996,7 +3990,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>1967</v>
+        <v>1981</v>
       </c>
       <c r="C238" s="4">
         <v>28</v>
@@ -4007,7 +4001,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4029,7 +4023,7 @@
         <v>242</v>
       </c>
       <c r="B241" s="4">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C241" s="4">
         <v>31</v>
@@ -4040,10 +4034,10 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>1262</v>
+        <v>1457</v>
       </c>
       <c r="C242" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4051,7 +4045,7 @@
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C243" s="4">
         <v>1</v>
@@ -4095,7 +4089,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C247" s="4">
         <v>3</v>
@@ -4106,7 +4100,7 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>1850</v>
+        <v>2019</v>
       </c>
       <c r="C248" s="4">
         <v>35</v>
@@ -4128,7 +4122,7 @@
         <v>251</v>
       </c>
       <c r="B250" s="4">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C250" s="4">
         <v>0</v>
@@ -4205,10 +4199,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>148723</v>
+        <v>153011</v>
       </c>
       <c r="C257" s="4">
-        <v>2393</v>
+        <v>2403</v>
       </c>
     </row>
   </sheetData>
@@ -4238,57 +4232,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="A1" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B3" s="11">
-        <v>10330</v>
-      </c>
-      <c r="C3" s="13">
+        <v>10345</v>
+      </c>
+      <c r="C3" s="20">
         <f>B3/B$6</f>
-        <v>0.48584328849590819</v>
+        <v>0.48590887740723343</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B4" s="11">
-        <v>10740</v>
-      </c>
-      <c r="C4" s="13">
+        <v>10753</v>
+      </c>
+      <c r="C4" s="20">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.50512651679051834</v>
+        <v>0.50507280413339595</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B5" s="11">
         <v>192</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="20">
         <f t="shared" si="0"/>
-        <v>9.0301947135735111E-3</v>
+        <v>9.0183184593705962E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4296,26 +4290,26 @@
         <v>258</v>
       </c>
       <c r="B6" s="11">
-        <v>21262</v>
-      </c>
-      <c r="C6" s="13">
+        <v>21290</v>
+      </c>
+      <c r="C6" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+    </row>
+    <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-    </row>
-    <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4346,93 +4340,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="A1" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B3" s="11">
         <v>602</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="20">
         <f>B3/B$9</f>
-        <v>2.8313423008183614E-2</v>
+        <v>2.8276186002818223E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B4" s="11">
-        <v>2535</v>
-      </c>
-      <c r="C4" s="13">
+        <v>2537</v>
+      </c>
+      <c r="C4" s="20">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.11922678957765027</v>
+        <v>0.11916392672616252</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B5" s="11">
-        <v>7750</v>
-      </c>
-      <c r="C5" s="13">
+        <v>7763</v>
+      </c>
+      <c r="C5" s="20">
         <f t="shared" si="0"/>
-        <v>0.36450004703226413</v>
+        <v>0.36463128229215597</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B6" s="11">
         <v>117</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="20">
         <f t="shared" si="0"/>
-        <v>5.5027749035838581E-3</v>
+        <v>5.4955378111789573E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B7" s="11">
-        <v>5606</v>
-      </c>
-      <c r="C7" s="13">
+        <v>5615</v>
+      </c>
+      <c r="C7" s="20">
         <f t="shared" si="0"/>
-        <v>0.26366287273069328</v>
+        <v>0.26373884452794738</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B8" s="11">
-        <v>4652</v>
-      </c>
-      <c r="C8" s="13">
+        <v>4656</v>
+      </c>
+      <c r="C8" s="20">
         <f t="shared" si="0"/>
-        <v>0.21879409274762487</v>
+        <v>0.21869422263973698</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4440,26 +4434,26 @@
         <v>258</v>
       </c>
       <c r="B9" s="11">
-        <v>21262</v>
-      </c>
-      <c r="C9" s="13">
+        <v>21290</v>
+      </c>
+      <c r="C9" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-    </row>
-    <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4490,175 +4484,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="A1" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B3" s="12">
         <v>0</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="20">
         <f>B3/B$16</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B4" s="12">
         <v>0</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="20">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B5" s="12">
         <v>0</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B6" s="12">
         <v>11</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="20">
         <f t="shared" si="0"/>
         <v>1.6616314199395771E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B7" s="12">
         <v>13</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="20">
         <f t="shared" si="0"/>
         <v>1.9637462235649546E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B8" s="12">
         <v>26</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="20">
         <f t="shared" si="0"/>
         <v>3.9274924471299093E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B9" s="12">
         <v>72</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="20">
         <f t="shared" si="0"/>
         <v>0.10876132930513595</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B10" s="12">
         <v>60</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="20">
         <f t="shared" si="0"/>
         <v>9.0634441087613288E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B11" s="12">
         <v>74</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="20">
         <f t="shared" si="0"/>
         <v>0.11178247734138973</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B12" s="12">
         <v>69</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="20">
         <f t="shared" si="0"/>
         <v>0.10422960725075529</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B13" s="12">
         <v>70</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="20">
         <f t="shared" si="0"/>
         <v>0.10574018126888217</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B14" s="12">
         <v>265</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="20">
         <f t="shared" si="0"/>
         <v>0.40030211480362538</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B15" s="12">
         <v>2</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="20">
         <f t="shared" si="0"/>
         <v>3.0211480362537764E-3</v>
       </c>
@@ -4670,24 +4664,24 @@
       <c r="B16" s="12">
         <v>662</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+      <c r="A18" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
+      <c r="A19" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4718,55 +4712,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="A1" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B3" s="12">
         <v>271</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="20">
         <f>B3/B$6</f>
         <v>0.40936555891238668</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B4" s="12">
         <v>363</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="20">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
         <v>0.54833836858006046</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B5" s="12">
         <v>28</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="20">
         <f t="shared" si="0"/>
         <v>4.2296072507552872E-2</v>
       </c>
@@ -4778,24 +4772,24 @@
       <c r="B6" s="12">
         <v>662</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4826,91 +4820,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="A1" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B3" s="12">
         <v>13</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="20">
         <f>B3/B$9</f>
         <v>1.9637462235649546E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B4" s="12">
         <v>85</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="20">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
         <v>0.12839879154078551</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B5" s="12">
         <v>171</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="20">
         <f t="shared" si="0"/>
         <v>0.2583081570996979</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B6" s="12">
         <v>5</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="20">
         <f t="shared" si="0"/>
         <v>7.5528700906344415E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B7" s="12">
         <v>269</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="20">
         <f t="shared" si="0"/>
         <v>0.40634441087613293</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B8" s="12">
         <v>119</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="20">
         <f t="shared" si="0"/>
         <v>0.1797583081570997</v>
       </c>
@@ -4922,24 +4916,24 @@
       <c r="B9" s="12">
         <v>662</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="A11" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="A12" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4948,262 +4942,270 @@
     <mergeCell ref="A12:C12"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
+      <selection pane="bottomLeft" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" customWidth="1"/>
     <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>265</v>
+    </row>
+    <row r="3" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>43916</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1394</v>
+      </c>
+      <c r="C3" s="4">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4">
+        <v>419</v>
+      </c>
+      <c r="E3" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B4" s="4">
-        <v>1394</v>
+        <v>1731</v>
       </c>
       <c r="C4" s="4">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4">
-        <v>419</v>
+        <v>337</v>
       </c>
       <c r="E4" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B5" s="4">
-        <v>1731</v>
+        <v>2048</v>
       </c>
       <c r="C5" s="4">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="E5" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B6" s="4">
-        <v>2048</v>
+        <v>2552</v>
       </c>
       <c r="C6" s="4">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4">
-        <v>317</v>
+        <v>504</v>
       </c>
       <c r="E6" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B7" s="4">
-        <v>2552</v>
+        <v>2874</v>
       </c>
       <c r="C7" s="4">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D7" s="4">
-        <v>504</v>
+        <v>322</v>
       </c>
       <c r="E7" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B8" s="4">
-        <v>2874</v>
+        <v>3266</v>
       </c>
       <c r="C8" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4">
-        <v>322</v>
+        <v>392</v>
       </c>
       <c r="E8" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B9" s="4">
-        <v>3266</v>
+        <v>3996</v>
       </c>
       <c r="C9" s="4">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D9" s="4">
-        <v>392</v>
+        <v>730</v>
       </c>
       <c r="E9" s="4">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B10" s="4">
-        <v>3996</v>
+        <v>4665</v>
       </c>
       <c r="C10" s="4">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D10" s="4">
-        <v>730</v>
+        <v>669</v>
       </c>
       <c r="E10" s="4">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B11" s="4">
-        <v>4665</v>
+        <v>5324</v>
       </c>
       <c r="C11" s="4">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D11" s="4">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="E11" s="4">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B12" s="4">
-        <v>5324</v>
+        <v>6112</v>
       </c>
       <c r="C12" s="4">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D12" s="4">
-        <v>659</v>
+        <v>788</v>
       </c>
       <c r="E12" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B13" s="4">
-        <v>6112</v>
+        <v>6793</v>
       </c>
       <c r="C13" s="4">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="D13" s="4">
-        <v>788</v>
+        <v>681</v>
       </c>
       <c r="E13" s="4">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B14" s="4">
-        <v>6793</v>
+        <v>7273</v>
       </c>
       <c r="C14" s="4">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D14" s="4">
-        <v>681</v>
+        <v>480</v>
       </c>
       <c r="E14" s="4">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B15" s="4">
-        <v>7273</v>
+        <v>8261</v>
       </c>
       <c r="C15" s="4">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="D15" s="4">
-        <v>480</v>
+        <v>988</v>
       </c>
       <c r="E15" s="4">
         <v>14</v>
@@ -5211,1448 +5213,1444 @@
     </row>
     <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B16" s="4">
-        <v>8261</v>
+        <v>9353</v>
       </c>
       <c r="C16" s="4">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D16" s="4">
-        <v>988</v>
+        <v>1092</v>
       </c>
       <c r="E16" s="4">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B17" s="4">
-        <v>9353</v>
+        <v>10230</v>
       </c>
       <c r="C17" s="4">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="D17" s="4">
-        <v>1092</v>
+        <v>877</v>
       </c>
       <c r="E17" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B18" s="4">
-        <v>10230</v>
+        <v>11671</v>
       </c>
       <c r="C18" s="4">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="D18" s="4">
-        <v>877</v>
+        <v>1441</v>
       </c>
       <c r="E18" s="4">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B19" s="4">
-        <v>11671</v>
+        <v>12561</v>
       </c>
       <c r="C19" s="4">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="D19" s="4">
-        <v>1441</v>
+        <v>890</v>
       </c>
       <c r="E19" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B20" s="4">
-        <v>12561</v>
+        <v>13484</v>
       </c>
       <c r="C20" s="4">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="D20" s="4">
-        <v>890</v>
+        <v>923</v>
       </c>
       <c r="E20" s="4">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B21" s="4">
-        <v>13484</v>
+        <v>13906</v>
       </c>
       <c r="C21" s="4">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="D21" s="4">
-        <v>923</v>
+        <v>422</v>
       </c>
       <c r="E21" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B22" s="4">
-        <v>13906</v>
+        <v>14624</v>
       </c>
       <c r="C22" s="4">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="D22" s="4">
-        <v>422</v>
+        <v>718</v>
       </c>
       <c r="E22" s="4">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B23" s="4">
-        <v>14624</v>
+        <v>15492</v>
       </c>
       <c r="C23" s="4">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="D23" s="4">
-        <v>718</v>
+        <v>868</v>
       </c>
       <c r="E23" s="4">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B24" s="4">
-        <v>15492</v>
+        <v>16455</v>
       </c>
       <c r="C24" s="4">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="D24" s="4">
-        <v>868</v>
+        <v>963</v>
       </c>
       <c r="E24" s="4">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B25" s="4">
-        <v>16455</v>
+        <v>17371</v>
       </c>
       <c r="C25" s="4">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="D25" s="4">
-        <v>963</v>
+        <v>916</v>
       </c>
       <c r="E25" s="4">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B26" s="4">
-        <v>17371</v>
+        <v>18260</v>
       </c>
       <c r="C26" s="4">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="D26" s="4">
-        <v>916</v>
+        <v>889</v>
       </c>
       <c r="E26" s="4">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B27" s="4">
-        <v>18260</v>
+        <v>18923</v>
       </c>
       <c r="C27" s="4">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="D27" s="4">
-        <v>889</v>
+        <v>663</v>
       </c>
       <c r="E27" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B28" s="4">
-        <v>18923</v>
+        <v>19458</v>
       </c>
       <c r="C28" s="4">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="D28" s="4">
-        <v>663</v>
+        <v>535</v>
       </c>
       <c r="E28" s="4">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B29" s="4">
-        <v>19458</v>
+        <v>20196</v>
       </c>
       <c r="C29" s="4">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="D29" s="4">
-        <v>535</v>
+        <v>738</v>
       </c>
       <c r="E29" s="4">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B30" s="4">
-        <v>20196</v>
+        <v>21069</v>
       </c>
       <c r="C30" s="4">
-        <v>517</v>
+        <v>543</v>
       </c>
       <c r="D30" s="4">
-        <v>738</v>
+        <v>873</v>
       </c>
       <c r="E30" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B31" s="4">
-        <v>21069</v>
+        <v>21944</v>
       </c>
       <c r="C31" s="4">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="D31" s="4">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="E31" s="4">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B32" s="4">
-        <v>21944</v>
+        <v>22806</v>
       </c>
       <c r="C32" s="4">
-        <v>561</v>
+        <v>593</v>
       </c>
       <c r="D32" s="4">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="E32" s="4">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B33" s="4">
-        <v>22806</v>
+        <v>23773</v>
       </c>
       <c r="C33" s="4">
-        <v>593</v>
+        <v>623</v>
       </c>
       <c r="D33" s="4">
-        <v>862</v>
+        <v>967</v>
       </c>
       <c r="E33" s="4">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B34" s="4">
-        <v>23773</v>
+        <v>24631</v>
       </c>
       <c r="C34" s="4">
-        <v>623</v>
+        <v>648</v>
       </c>
       <c r="D34" s="4">
-        <v>967</v>
+        <v>858</v>
       </c>
       <c r="E34" s="4">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B35" s="4">
-        <v>24631</v>
+        <v>25297</v>
       </c>
       <c r="C35" s="4">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="D35" s="4">
-        <v>858</v>
+        <v>666</v>
       </c>
       <c r="E35" s="4">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B36" s="4">
-        <v>25297</v>
+        <v>26171</v>
       </c>
       <c r="C36" s="4">
-        <v>663</v>
+        <v>690</v>
       </c>
       <c r="D36" s="4">
-        <v>666</v>
+        <v>874</v>
       </c>
       <c r="E36" s="4">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B37" s="4">
-        <v>26171</v>
+        <v>27054</v>
       </c>
       <c r="C37" s="4">
-        <v>690</v>
+        <v>732</v>
       </c>
       <c r="D37" s="4">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="E37" s="4">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B38" s="4">
-        <v>27054</v>
+        <v>28087</v>
       </c>
       <c r="C38" s="4">
-        <v>732</v>
+        <v>782</v>
       </c>
       <c r="D38" s="4">
-        <v>883</v>
+        <v>1033</v>
       </c>
       <c r="E38" s="4">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B39" s="4">
-        <v>28087</v>
+        <v>29229</v>
       </c>
       <c r="C39" s="4">
-        <v>782</v>
+        <v>816</v>
       </c>
       <c r="D39" s="4">
-        <v>1033</v>
+        <v>1142</v>
       </c>
       <c r="E39" s="4">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B40" s="4">
-        <v>29229</v>
+        <v>30522</v>
       </c>
       <c r="C40" s="4">
-        <v>816</v>
+        <v>847</v>
       </c>
       <c r="D40" s="4">
-        <v>1142</v>
+        <v>1293</v>
       </c>
       <c r="E40" s="4">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B41" s="4">
-        <v>30522</v>
+        <v>31548</v>
       </c>
       <c r="C41" s="4">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="D41" s="4">
-        <v>1293</v>
+        <v>1026</v>
       </c>
       <c r="E41" s="4">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B42" s="4">
-        <v>31548</v>
+        <v>32332</v>
       </c>
       <c r="C42" s="4">
-        <v>867</v>
+        <v>884</v>
       </c>
       <c r="D42" s="4">
-        <v>1026</v>
+        <v>784</v>
       </c>
       <c r="E42" s="4">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B43" s="4">
-        <v>32332</v>
+        <v>33369</v>
       </c>
       <c r="C43" s="4">
-        <v>884</v>
+        <v>906</v>
       </c>
       <c r="D43" s="4">
-        <v>784</v>
+        <v>1037</v>
       </c>
       <c r="E43" s="4">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B44" s="4">
-        <v>33369</v>
+        <v>34422</v>
       </c>
       <c r="C44" s="4">
-        <v>906</v>
+        <v>948</v>
       </c>
       <c r="D44" s="4">
-        <v>1037</v>
+        <v>1053</v>
       </c>
       <c r="E44" s="4">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B45" s="4">
-        <v>34422</v>
+        <v>35390</v>
       </c>
       <c r="C45" s="4">
-        <v>948</v>
+        <v>973</v>
       </c>
       <c r="D45" s="4">
-        <v>1053</v>
+        <v>968</v>
       </c>
       <c r="E45" s="4">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B46" s="4">
-        <v>35390</v>
+        <v>36609</v>
       </c>
       <c r="C46" s="4">
-        <v>973</v>
+        <v>1004</v>
       </c>
       <c r="D46" s="4">
-        <v>968</v>
+        <v>1219</v>
       </c>
       <c r="E46" s="4">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B47" s="4">
-        <v>36609</v>
+        <v>37860</v>
       </c>
       <c r="C47" s="4">
-        <v>1004</v>
+        <v>1049</v>
       </c>
       <c r="D47" s="4">
-        <v>1219</v>
+        <v>1251</v>
       </c>
       <c r="E47" s="4">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B48" s="4">
-        <v>37860</v>
+        <v>38869</v>
       </c>
       <c r="C48" s="4">
-        <v>1049</v>
+        <v>1088</v>
       </c>
       <c r="D48" s="4">
-        <v>1251</v>
+        <v>1009</v>
       </c>
       <c r="E48" s="4">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B49" s="4">
-        <v>38869</v>
+        <v>39869</v>
       </c>
       <c r="C49" s="4">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="D49" s="4">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="E49" s="4">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B50" s="4">
-        <v>39869</v>
+        <v>41048</v>
       </c>
       <c r="C50" s="4">
-        <v>1100</v>
+        <v>1133</v>
       </c>
       <c r="D50" s="4">
-        <v>1000</v>
+        <v>1179</v>
       </c>
       <c r="E50" s="4">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B51" s="4">
-        <v>41048</v>
+        <v>42403</v>
       </c>
       <c r="C51" s="4">
-        <v>1133</v>
+        <v>1158</v>
       </c>
       <c r="D51" s="4">
-        <v>1179</v>
+        <v>1355</v>
       </c>
       <c r="E51" s="4">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B52" s="4">
-        <v>42403</v>
+        <v>43851</v>
       </c>
       <c r="C52" s="4">
-        <v>1158</v>
+        <v>1216</v>
       </c>
       <c r="D52" s="4">
-        <v>1355</v>
+        <v>1448</v>
       </c>
       <c r="E52" s="4">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B53" s="4">
-        <v>43851</v>
+        <v>45198</v>
       </c>
       <c r="C53" s="4">
-        <v>1216</v>
+        <v>1272</v>
       </c>
       <c r="D53" s="4">
-        <v>1448</v>
+        <v>1347</v>
       </c>
       <c r="E53" s="4">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B54" s="4">
-        <v>45198</v>
+        <v>46999</v>
       </c>
       <c r="C54" s="4">
-        <v>1272</v>
+        <v>1305</v>
       </c>
       <c r="D54" s="4">
-        <v>1347</v>
+        <v>1801</v>
       </c>
       <c r="E54" s="4">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B55" s="4">
-        <v>46999</v>
+        <v>47784</v>
       </c>
       <c r="C55" s="4">
-        <v>1305</v>
+        <v>1336</v>
       </c>
       <c r="D55" s="4">
-        <v>1801</v>
+        <v>785</v>
       </c>
       <c r="E55" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B56" s="4">
-        <v>47784</v>
+        <v>48693</v>
       </c>
       <c r="C56" s="4">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D56" s="4">
-        <v>785</v>
+        <v>909</v>
       </c>
       <c r="E56" s="4">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B57" s="4">
-        <v>48693</v>
+        <v>49912</v>
       </c>
       <c r="C57" s="4">
-        <v>1347</v>
+        <v>1369</v>
       </c>
       <c r="D57" s="4">
-        <v>909</v>
+        <v>1219</v>
       </c>
       <c r="E57" s="4">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B58" s="4">
-        <v>49912</v>
+        <v>51323</v>
       </c>
       <c r="C58" s="4">
-        <v>1369</v>
+        <v>1419</v>
       </c>
       <c r="D58" s="4">
-        <v>1219</v>
+        <v>1411</v>
       </c>
       <c r="E58" s="4">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B59" s="4">
-        <v>51323</v>
+        <v>52268</v>
       </c>
       <c r="C59" s="4">
-        <v>1419</v>
+        <v>1440</v>
       </c>
       <c r="D59" s="4">
-        <v>1411</v>
+        <v>945</v>
       </c>
       <c r="E59" s="4">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B60" s="4">
-        <v>52268</v>
+        <v>53449</v>
       </c>
       <c r="C60" s="4">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="D60" s="4">
-        <v>945</v>
+        <v>1181</v>
       </c>
       <c r="E60" s="4">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B61" s="4">
-        <v>53449</v>
+        <v>54509</v>
       </c>
       <c r="C61" s="4">
-        <v>1480</v>
+        <v>1506</v>
       </c>
       <c r="D61" s="4">
-        <v>1181</v>
+        <v>1060</v>
       </c>
       <c r="E61" s="4">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B62" s="4">
-        <v>54509</v>
+        <v>55348</v>
       </c>
       <c r="C62" s="4">
-        <v>1506</v>
+        <v>1519</v>
       </c>
       <c r="D62" s="4">
-        <v>1060</v>
+        <v>839</v>
       </c>
       <c r="E62" s="4">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B63" s="4">
-        <v>55348</v>
+        <v>55971</v>
       </c>
       <c r="C63" s="4">
-        <v>1519</v>
+        <v>1527</v>
       </c>
       <c r="D63" s="4">
-        <v>839</v>
+        <v>623</v>
       </c>
       <c r="E63" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B64" s="4">
-        <v>55971</v>
+        <v>56560</v>
       </c>
       <c r="C64" s="4">
-        <v>1527</v>
+        <v>1536</v>
       </c>
       <c r="D64" s="4">
-        <v>623</v>
+        <v>589</v>
       </c>
       <c r="E64" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B65" s="4">
-        <v>56560</v>
+        <v>57921</v>
       </c>
       <c r="C65" s="4">
-        <v>1536</v>
+        <v>1562</v>
       </c>
       <c r="D65" s="4">
-        <v>589</v>
+        <v>1361</v>
       </c>
       <c r="E65" s="4">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B66" s="4">
-        <v>57921</v>
+        <v>59776</v>
       </c>
       <c r="C66" s="4">
-        <v>1562</v>
+        <v>1601</v>
       </c>
       <c r="D66" s="4">
-        <v>1361</v>
+        <v>1855</v>
       </c>
       <c r="E66" s="4">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B67" s="4">
-        <v>59776</v>
+        <v>61006</v>
       </c>
       <c r="C67" s="4">
-        <v>1601</v>
+        <v>1626</v>
       </c>
       <c r="D67" s="4">
-        <v>1855</v>
+        <v>1230</v>
       </c>
       <c r="E67" s="4">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B68" s="4">
-        <v>61006</v>
+        <v>62338</v>
       </c>
       <c r="C68" s="4">
-        <v>1626</v>
+        <v>1648</v>
       </c>
       <c r="D68" s="4">
-        <v>1230</v>
+        <v>1332</v>
       </c>
       <c r="E68" s="4">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B69" s="4">
-        <v>62338</v>
+        <v>64287</v>
       </c>
       <c r="C69" s="4">
-        <v>1648</v>
+        <v>1672</v>
       </c>
       <c r="D69" s="4">
-        <v>1332</v>
+        <v>1949</v>
       </c>
       <c r="E69" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B70" s="4">
-        <v>64287</v>
+        <v>64880</v>
       </c>
       <c r="C70" s="4">
-        <v>1672</v>
+        <v>1678</v>
       </c>
       <c r="D70" s="4">
-        <v>1949</v>
+        <v>593</v>
       </c>
       <c r="E70" s="4">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B71" s="4">
-        <v>64880</v>
+        <v>66568</v>
       </c>
       <c r="C71" s="4">
-        <v>1678</v>
+        <v>1698</v>
       </c>
       <c r="D71" s="4">
-        <v>593</v>
+        <v>1688</v>
       </c>
       <c r="E71" s="4">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B72" s="4">
-        <v>66568</v>
+        <v>68271</v>
       </c>
       <c r="C72" s="4">
-        <v>1698</v>
+        <v>1734</v>
       </c>
       <c r="D72" s="4">
-        <v>1688</v>
+        <v>1703</v>
       </c>
       <c r="E72" s="4">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B73" s="4">
-        <v>68271</v>
+        <v>69920</v>
       </c>
       <c r="C73" s="4">
-        <v>1734</v>
+        <v>1767</v>
       </c>
       <c r="D73" s="4">
-        <v>1703</v>
+        <v>1649</v>
       </c>
       <c r="E73" s="4">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B74" s="4">
-        <v>69920</v>
+        <v>71613</v>
       </c>
       <c r="C74" s="4">
-        <v>1767</v>
+        <v>1788</v>
       </c>
       <c r="D74" s="4">
-        <v>1649</v>
+        <v>1693</v>
       </c>
       <c r="E74" s="4">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B75" s="4">
-        <v>71613</v>
+        <v>73553</v>
       </c>
       <c r="C75" s="4">
-        <v>1788</v>
+        <v>1819</v>
       </c>
       <c r="D75" s="4">
-        <v>1693</v>
+        <v>1940</v>
       </c>
       <c r="E75" s="4">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B76" s="4">
-        <v>73553</v>
+        <v>74978</v>
       </c>
       <c r="C76" s="4">
-        <v>1819</v>
+        <v>1830</v>
       </c>
       <c r="D76" s="4">
-        <v>1940</v>
+        <v>1425</v>
       </c>
       <c r="E76" s="4">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B77" s="4">
-        <v>74978</v>
+        <v>75616</v>
       </c>
       <c r="C77" s="4">
-        <v>1830</v>
+        <v>1836</v>
       </c>
       <c r="D77" s="4">
-        <v>1425</v>
+        <v>638</v>
       </c>
       <c r="E77" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B78" s="4">
-        <v>75616</v>
+        <v>77253</v>
       </c>
       <c r="C78" s="4">
-        <v>1836</v>
+        <v>1853</v>
       </c>
       <c r="D78" s="4">
-        <v>638</v>
+        <v>1637</v>
       </c>
       <c r="E78" s="4">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B79" s="4">
-        <v>77253</v>
+        <v>79757</v>
       </c>
       <c r="C79" s="4">
-        <v>1853</v>
+        <v>1885</v>
       </c>
       <c r="D79" s="4">
-        <v>1637</v>
+        <v>2504</v>
       </c>
       <c r="E79" s="4">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B80" s="4">
-        <v>79757</v>
+        <v>81583</v>
       </c>
       <c r="C80" s="4">
-        <v>1885</v>
+        <v>1920</v>
       </c>
       <c r="D80" s="4">
-        <v>2504</v>
+        <v>1826</v>
       </c>
       <c r="E80" s="4">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B81" s="4">
-        <v>81583</v>
+        <v>83680</v>
       </c>
       <c r="C81" s="4">
-        <v>1920</v>
+        <v>1939</v>
       </c>
       <c r="D81" s="4">
-        <v>1826</v>
+        <v>2097</v>
       </c>
       <c r="E81" s="4">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B82" s="4">
-        <v>83680</v>
+        <v>86011</v>
       </c>
       <c r="C82" s="4">
-        <v>1939</v>
+        <v>1957</v>
       </c>
       <c r="D82" s="4">
-        <v>2097</v>
+        <v>2331</v>
       </c>
       <c r="E82" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B83" s="4">
-        <v>86011</v>
+        <v>87854</v>
       </c>
       <c r="C83" s="4">
-        <v>1957</v>
+        <v>1976</v>
       </c>
       <c r="D83" s="4">
-        <v>2331</v>
+        <v>1843</v>
       </c>
       <c r="E83" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B84" s="4">
-        <v>87854</v>
+        <v>89108</v>
       </c>
       <c r="C84" s="4">
-        <v>1976</v>
+        <v>1983</v>
       </c>
       <c r="D84" s="4">
-        <v>1843</v>
+        <v>1254</v>
       </c>
       <c r="E84" s="4">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B85" s="4">
-        <v>89108</v>
+        <v>91730</v>
       </c>
       <c r="C85" s="4">
-        <v>1983</v>
+        <v>2029</v>
       </c>
       <c r="D85" s="4">
-        <v>1254</v>
+        <v>2622</v>
       </c>
       <c r="E85" s="4">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6">
-        <v>43998</v>
+      <c r="A86" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="B86" s="4">
-        <v>91730</v>
+        <v>93206</v>
       </c>
       <c r="C86" s="4">
         <v>2029</v>
       </c>
       <c r="D86" s="4">
-        <v>2622</v>
+        <v>1476</v>
       </c>
       <c r="E86" s="4">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
-        <v>336</v>
+      <c r="A87" s="6">
+        <v>43999</v>
       </c>
       <c r="B87" s="4">
-        <v>93206</v>
+        <v>96335</v>
       </c>
       <c r="C87" s="4">
-        <v>2029</v>
+        <v>2062</v>
       </c>
       <c r="D87" s="4">
-        <v>1476</v>
+        <v>3129</v>
       </c>
       <c r="E87" s="4">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B88" s="4">
-        <v>96335</v>
+        <v>99851</v>
       </c>
       <c r="C88" s="4">
-        <v>2062</v>
+        <v>2105</v>
       </c>
       <c r="D88" s="4">
-        <v>3129</v>
+        <v>3516</v>
       </c>
       <c r="E88" s="4">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B89" s="4">
-        <v>99851</v>
+        <v>103305</v>
       </c>
       <c r="C89" s="4">
-        <v>2105</v>
+        <v>2140</v>
       </c>
       <c r="D89" s="4">
-        <v>3516</v>
+        <v>3454</v>
       </c>
       <c r="E89" s="4">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B90" s="4">
-        <v>103305</v>
+        <v>107735</v>
       </c>
       <c r="C90" s="4">
-        <v>2140</v>
+        <v>2165</v>
       </c>
       <c r="D90" s="4">
-        <v>3454</v>
+        <v>4430</v>
       </c>
       <c r="E90" s="4">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B91" s="4">
-        <v>107735</v>
+        <v>111601</v>
       </c>
       <c r="C91" s="4">
-        <v>2165</v>
+        <v>2182</v>
       </c>
       <c r="D91" s="4">
-        <v>4430</v>
+        <v>3866</v>
       </c>
       <c r="E91" s="4">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B92" s="4">
-        <v>111601</v>
+        <v>114881</v>
       </c>
       <c r="C92" s="4">
-        <v>2182</v>
+        <v>2192</v>
       </c>
       <c r="D92" s="4">
-        <v>3866</v>
+        <v>3280</v>
       </c>
       <c r="E92" s="4">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B93" s="4">
-        <v>114881</v>
+        <v>120370</v>
       </c>
       <c r="C93" s="4">
-        <v>2192</v>
+        <v>2220</v>
       </c>
       <c r="D93" s="4">
-        <v>3280</v>
+        <v>5489</v>
       </c>
       <c r="E93" s="4">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B94" s="4">
-        <v>120370</v>
+        <v>125921</v>
       </c>
       <c r="C94" s="4">
-        <v>2220</v>
+        <v>2249</v>
       </c>
       <c r="D94" s="4">
-        <v>5489</v>
+        <v>5551</v>
       </c>
       <c r="E94" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B95" s="4">
-        <v>125921</v>
+        <v>131917</v>
       </c>
       <c r="C95" s="4">
-        <v>2249</v>
+        <v>2296</v>
       </c>
       <c r="D95" s="4">
-        <v>5551</v>
+        <v>5996</v>
       </c>
       <c r="E95" s="4">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B96" s="4">
-        <v>131917</v>
+        <v>137624</v>
       </c>
       <c r="C96" s="4">
-        <v>2296</v>
+        <v>2324</v>
       </c>
       <c r="D96" s="4">
-        <v>5996</v>
+        <v>5707</v>
       </c>
       <c r="E96" s="4">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B97" s="4">
-        <v>137624</v>
+        <v>143366</v>
       </c>
       <c r="C97" s="4">
-        <v>2324</v>
+        <v>2366</v>
       </c>
       <c r="D97" s="4">
-        <v>5707</v>
+        <v>5742</v>
       </c>
       <c r="E97" s="4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="B98" s="4">
-        <v>143366</v>
+        <v>148723</v>
       </c>
       <c r="C98" s="4">
-        <v>2366</v>
+        <v>2393</v>
       </c>
       <c r="D98" s="4">
-        <f>B98-B97</f>
-        <v>5742</v>
+        <v>5357</v>
       </c>
       <c r="E98" s="4">
-        <v>42</v>
-      </c>
-      <c r="F98" s="21"/>
-    </row>
-    <row r="99" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
-        <v>44010</v>
+        <v>44011</v>
       </c>
       <c r="B99" s="4">
-        <v>148723</v>
+        <v>153011</v>
       </c>
       <c r="C99" s="4">
-        <v>2393</v>
+        <v>2403</v>
       </c>
       <c r="D99" s="4">
-        <f>B99-B98</f>
-        <v>5357</v>
+        <v>4288</v>
       </c>
       <c r="E99" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="35.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="B101" s="16"/>
+      <c r="C101" s="16"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
     <mergeCell ref="A101:E101"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
@@ -6667,7 +6665,7 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6677,32 +6675,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="B1" s="18"/>
+      <c r="A1" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>79974.2</v>
+        <v>81335</v>
       </c>
       <c r="B3" s="8">
-        <v>66356</v>
+        <v>69273</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="B5" s="18"/>
+      <c r="A5" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6716,12 +6714,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="J86" sqref="J86"/>
+      <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6729,46 +6727,46 @@
     <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="17" t="s">
         <v>274</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6776,25 +6774,25 @@
         <v>43925</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D3" s="8">
         <v>63751</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="18">
         <v>0.1056</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6802,25 +6800,25 @@
         <v>43926</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D4" s="8">
         <v>70938</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="18">
         <v>9.3299999999999994E-2</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6828,25 +6826,25 @@
         <v>43927</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D5" s="8">
         <v>85357</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="18">
         <v>8.8909998585200004E-2</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6854,25 +6852,25 @@
         <v>43928</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D6" s="8">
         <v>88649</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="18">
         <v>0.1094</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6880,25 +6878,25 @@
         <v>43929</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D7" s="8">
         <v>96258</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="18">
         <v>0.11070000000000001</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6906,25 +6904,25 @@
         <v>43930</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D8" s="8">
         <v>106134</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="18">
         <v>0.100351636462</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6932,25 +6930,25 @@
         <v>43931</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D9" s="8">
         <v>115918</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="18">
         <v>0.1055125178708</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6958,25 +6956,25 @@
         <v>43932</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D10" s="8">
         <v>120533</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="18">
         <v>0.11360000000000001</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6984,25 +6982,25 @@
         <v>43933</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D11" s="8">
         <v>124553</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="18">
         <v>0.12479999999999999</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7010,25 +7008,25 @@
         <v>43934</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D12" s="8">
         <v>133226</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="18">
         <v>0.1386</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7036,25 +7034,25 @@
         <v>43935</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D13" s="8">
         <v>146467</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="18">
         <v>0.1101</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7062,25 +7060,25 @@
         <v>43936</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D14" s="8">
         <v>151810</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="18">
         <v>0.1105</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7088,25 +7086,25 @@
         <v>43937</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D15" s="8">
         <v>158547</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="18">
         <v>0.1188</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7114,25 +7112,25 @@
         <v>43938</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D16" s="8">
         <v>169536</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="18">
         <v>0.10630000000000001</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7140,25 +7138,25 @@
         <v>43939</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D17" s="8">
         <v>176239</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="18">
         <v>0.1023</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7166,25 +7164,25 @@
         <v>43940</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D18" s="8">
         <v>182710</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="18">
         <v>9.35E-2</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7192,25 +7190,25 @@
         <v>43941</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D19" s="8">
         <v>190394</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="18">
         <v>9.7117268401900006E-2</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7218,25 +7216,25 @@
         <v>43942</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D20" s="8">
         <v>205399</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="18">
         <v>9.4500000000000001E-2</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7244,25 +7242,25 @@
         <v>43943</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D21" s="8">
         <v>216783</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="18">
         <v>8.5800000000000001E-2</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7270,25 +7268,25 @@
         <v>43944</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D22" s="8">
         <v>225078</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="18">
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7296,25 +7294,25 @@
         <v>43945</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D23" s="8">
         <v>242547</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="18">
         <v>7.4399999999999994E-2</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7322,25 +7320,25 @@
         <v>43946</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D24" s="8">
         <v>262816</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="18">
         <v>6.3700000000000007E-2</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7348,25 +7346,25 @@
         <v>43947</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D25" s="8">
         <v>276021</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="18">
         <v>6.1199999999999997E-2</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7374,25 +7372,25 @@
         <v>43948</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D26" s="8">
         <v>290517</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="18">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7400,25 +7398,25 @@
         <v>43949</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D27" s="8">
         <v>300384</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="18">
         <v>6.2899999999999998E-2</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7426,25 +7424,25 @@
         <v>43950</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D28" s="8">
         <v>314790</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="18">
         <v>6.10670666381E-2</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7452,25 +7450,25 @@
         <v>43951</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D29" s="8">
         <v>330300</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="18">
         <v>5.8381327098900003E-2</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7478,25 +7476,25 @@
         <v>43952</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D30" s="8">
         <v>351775</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="18">
         <v>5.8799999999999998E-2</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7504,25 +7502,25 @@
         <v>43953</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D31" s="8">
         <v>380648</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="18">
         <v>5.7299999999999997E-2</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7530,25 +7528,25 @@
         <v>43954</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D32" s="8">
         <v>390560</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="18">
         <v>6.0400000000000002E-2</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7556,25 +7554,25 @@
         <v>43955</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D33" s="8">
         <v>407398</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="18">
         <v>6.0199999999999997E-2</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7582,25 +7580,25 @@
         <v>43956</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D34" s="8">
         <v>427210</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="18">
         <v>5.6754924069199998E-2</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7608,25 +7606,25 @@
         <v>43957</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D35" s="8">
         <v>438938</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="18">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7634,25 +7632,25 @@
         <v>43958</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D36" s="8">
         <v>455162</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="18">
         <v>5.8500000000000003E-2</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7660,25 +7658,25 @@
         <v>43959</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D37" s="8">
         <v>477118</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="18">
         <v>5.8900000000000001E-2</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7694,17 +7692,17 @@
       <c r="D38" s="8">
         <v>489294</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="18">
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7720,17 +7718,17 @@
       <c r="D39" s="8">
         <v>513978</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="18">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7746,17 +7744,17 @@
       <c r="D40" s="8">
         <v>525697</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="18">
         <v>6.3711443038399998E-2</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7772,20 +7770,20 @@
       <c r="D41" s="8">
         <v>538172</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="18">
         <v>6.9199999999999998E-2</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>43964</v>
       </c>
@@ -7798,17 +7796,17 @@
       <c r="D42" s="8">
         <v>587431</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="18">
         <v>5.3699999999999998E-2</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7824,17 +7822,17 @@
       <c r="D43" s="8">
         <v>623284</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="18">
         <v>5.0299999999999997E-2</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7850,17 +7848,17 @@
       <c r="D44" s="8">
         <v>645992</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="18">
         <v>5.0900000000000001E-2</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7876,7 +7874,7 @@
       <c r="D45" s="8">
         <v>678471</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="18">
         <v>4.8300000000000003E-2</v>
       </c>
       <c r="F45" s="8">
@@ -7902,7 +7900,7 @@
       <c r="D46" s="8">
         <v>693276</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="18">
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="F46" s="8">
@@ -7928,7 +7926,7 @@
       <c r="D47" s="8">
         <v>723013</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="18">
         <v>4.4720144337000001E-2</v>
       </c>
       <c r="F47" s="8">
@@ -7954,7 +7952,7 @@
       <c r="D48" s="8">
         <v>744937</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="18">
         <v>4.7E-2</v>
       </c>
       <c r="F48" s="8">
@@ -7980,7 +7978,7 @@
       <c r="D49" s="8">
         <v>770241</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="18">
         <v>5.4300000000000001E-2</v>
       </c>
       <c r="F49" s="8">
@@ -8006,7 +8004,7 @@
       <c r="D50" s="8">
         <v>800433</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="18">
         <v>5.5100000000000003E-2</v>
       </c>
       <c r="F50" s="8">
@@ -8032,7 +8030,7 @@
       <c r="D51" s="8">
         <v>834437</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="18">
         <v>5.3900000000000003E-2</v>
       </c>
       <c r="F51" s="8">
@@ -8050,22 +8048,22 @@
         <v>43974</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D52" s="8">
         <v>870935</v>
       </c>
-      <c r="E52" s="15" t="s">
-        <v>266</v>
+      <c r="E52" s="18" t="s">
+        <v>265</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H52" s="8">
         <v>27495</v>
@@ -8084,7 +8082,7 @@
       <c r="D53" s="8">
         <v>886354</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="18">
         <v>4.87E-2</v>
       </c>
       <c r="F53" s="8">
@@ -8110,7 +8108,7 @@
       <c r="D54" s="8">
         <v>906074</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="18">
         <v>5.1499999999999997E-2</v>
       </c>
       <c r="F54" s="8">
@@ -8136,7 +8134,7 @@
       <c r="D55" s="8">
         <v>943239</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="18">
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="F55" s="8">
@@ -8162,7 +8160,7 @@
       <c r="D56" s="8">
         <v>961861</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="18">
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="F56" s="8">
@@ -8188,7 +8186,7 @@
       <c r="D57" s="8">
         <v>989994</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="18">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="F57" s="8">
@@ -8214,7 +8212,7 @@
       <c r="D58" s="8">
         <v>1027449</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="18">
         <v>4.5600000000000002E-2</v>
       </c>
       <c r="F58" s="8">
@@ -8240,14 +8238,14 @@
       <c r="D59" s="8">
         <v>1054793</v>
       </c>
-      <c r="E59" s="15" t="s">
-        <v>266</v>
+      <c r="E59" s="18" t="s">
+        <v>265</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H59" s="8">
         <v>26265</v>
@@ -8266,7 +8264,7 @@
       <c r="D60" s="8">
         <v>1073491</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="18">
         <v>5.43810873784E-2</v>
       </c>
       <c r="F60" s="8">
@@ -8292,7 +8290,7 @@
       <c r="D61" s="8">
         <v>1093676</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="18">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="F61" s="8">
@@ -8318,7 +8316,7 @@
       <c r="D62" s="8">
         <v>1117274</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E62" s="18">
         <v>6.6199999999999995E-2</v>
       </c>
       <c r="F62" s="8">
@@ -8344,7 +8342,7 @@
       <c r="D63" s="8">
         <v>1150868</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E63" s="18">
         <v>6.2600000000000003E-2</v>
       </c>
       <c r="F63" s="8">
@@ -8370,7 +8368,7 @@
       <c r="D64" s="8">
         <v>1174948</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E64" s="18">
         <v>6.0299999999999999E-2</v>
       </c>
       <c r="F64" s="8">
@@ -8396,7 +8394,7 @@
       <c r="D65" s="8">
         <v>1209187</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E65" s="18">
         <v>6.4399999999999999E-2</v>
       </c>
       <c r="F65" s="8">
@@ -8422,7 +8420,7 @@
       <c r="D66" s="8">
         <v>1218955</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E66" s="18">
         <v>0.08</v>
       </c>
       <c r="F66" s="8">
@@ -8448,7 +8446,7 @@
       <c r="D67" s="8">
         <v>1255899</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E67" s="18">
         <v>7.11381708088E-2</v>
       </c>
       <c r="F67" s="8">
@@ -8474,7 +8472,7 @@
       <c r="D68" s="8">
         <v>1286139</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E68" s="18">
         <v>6.6600000000000006E-2</v>
       </c>
       <c r="F68" s="8">
@@ -8500,7 +8498,7 @@
       <c r="D69" s="8">
         <v>1302049</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E69" s="18">
         <v>6.9199999999999998E-2</v>
       </c>
       <c r="F69" s="8">
@@ -8526,7 +8524,7 @@
       <c r="D70" s="8">
         <v>1348893</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E70" s="18">
         <v>6.8500000000000005E-2</v>
       </c>
       <c r="F70" s="8">
@@ -8552,7 +8550,7 @@
       <c r="D71" s="8">
         <v>1370131</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E71" s="18">
         <v>7.0499999999999993E-2</v>
       </c>
       <c r="F71" s="8">
@@ -8578,7 +8576,7 @@
       <c r="D72" s="8">
         <v>1404369</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E72" s="18">
         <v>7.22E-2</v>
       </c>
       <c r="F72" s="8">
@@ -8604,7 +8602,7 @@
       <c r="D73" s="8">
         <v>1442950</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E73" s="18">
         <v>6.1100000000000002E-2</v>
       </c>
       <c r="F73" s="8">
@@ -8630,7 +8628,7 @@
       <c r="D74" s="8">
         <v>1463851</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E74" s="18">
         <v>6.6219239373599997E-2</v>
       </c>
       <c r="F74" s="8">
@@ -8656,7 +8654,7 @@
       <c r="D75" s="8">
         <v>1499015</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E75" s="18">
         <v>6.7100000000000007E-2</v>
       </c>
       <c r="F75" s="8">
@@ -8682,7 +8680,7 @@
       <c r="D76" s="8">
         <v>1522434</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E76" s="18">
         <v>6.9400000000000003E-2</v>
       </c>
       <c r="F76" s="8">
@@ -8708,7 +8706,7 @@
       <c r="D77" s="8">
         <v>1560537</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E77" s="18">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="F77" s="8">
@@ -8734,7 +8732,7 @@
       <c r="D78" s="8">
         <v>1576925</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E78" s="18">
         <v>8.5257188117199997E-2</v>
       </c>
       <c r="F78" s="8">
@@ -8760,7 +8758,7 @@
       <c r="D79" s="8">
         <v>1622851</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E79" s="18">
         <v>8.9399999999999993E-2</v>
       </c>
       <c r="F79" s="8">
@@ -8786,7 +8784,7 @@
       <c r="D80" s="8">
         <v>1690124</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E80" s="18">
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="F80" s="8">
@@ -8812,7 +8810,7 @@
       <c r="D81" s="8">
         <v>1715177</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E81" s="18">
         <v>9.5100000000000004E-2</v>
       </c>
       <c r="F81" s="8">
@@ -8838,7 +8836,7 @@
       <c r="D82" s="8">
         <v>1767701</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E82" s="18">
         <v>9.64E-2</v>
       </c>
       <c r="F82" s="8">
@@ -8864,7 +8862,7 @@
       <c r="D83" s="8">
         <v>1805642</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E83" s="18">
         <v>0.1042</v>
       </c>
       <c r="F83" s="8">
@@ -8890,7 +8888,7 @@
       <c r="D84" s="8">
         <v>1836037</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E84" s="18">
         <v>0.1176</v>
       </c>
       <c r="F84" s="8">
@@ -8916,7 +8914,7 @@
       <c r="D85" s="8">
         <v>1875197</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E85" s="18">
         <v>0.1173</v>
       </c>
       <c r="F85" s="8">
@@ -8942,7 +8940,7 @@
       <c r="D86" s="8">
         <v>1903661</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E86" s="18">
         <v>0.1323</v>
       </c>
       <c r="F86" s="8">
@@ -8968,7 +8966,7 @@
       <c r="D87" s="8">
         <v>1959617</v>
       </c>
-      <c r="E87" s="15">
+      <c r="E87" s="18">
         <v>0.1431</v>
       </c>
       <c r="F87" s="8">
@@ -8985,60 +8983,86 @@
       <c r="A88" s="6">
         <v>44010</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>266</v>
+      <c r="B88" s="8">
+        <v>1819189</v>
+      </c>
+      <c r="C88" s="8">
+        <v>187535</v>
       </c>
       <c r="D88" s="8">
         <v>2006724</v>
       </c>
-      <c r="E88" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="H88" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="20" t="s">
+      <c r="E88" s="18">
+        <v>0.13739999999999999</v>
+      </c>
+      <c r="F88" s="8">
+        <v>38597</v>
+      </c>
+      <c r="G88" s="8">
+        <v>3052</v>
+      </c>
+      <c r="H88" s="8">
+        <v>41650</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <v>44011</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D89" s="8">
+        <v>2061939</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="H89" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="14"/>
+    </row>
+    <row r="92" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-    </row>
-    <row r="91" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A90:H90"/>
     <mergeCell ref="A91:H91"/>
+    <mergeCell ref="A92:H92"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9059,48 +9083,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="B1" s="18"/>
+      <c r="A1" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B3" s="8">
-        <v>83799</v>
+        <v>84533</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B4" s="8">
-        <v>1922925</v>
+        <v>1977406</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2061939</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="B5" s="8">
-        <v>2006724</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9129,40 +9153,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="B1" s="18"/>
+      <c r="A1" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B3" s="8">
-        <v>184398</v>
+        <v>187535</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B4" s="8">
-        <v>6940</v>
+        <v>6973</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="B6" s="18"/>
+      <c r="A6" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9191,64 +9215,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="B1" s="18"/>
+      <c r="A1" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B3" s="9">
-        <v>5497</v>
+        <v>5913</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B4" s="9">
-        <v>54701</v>
+        <v>54244</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B5" s="9">
-        <v>12751</v>
+        <v>13825</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B6" s="9">
-        <v>1355</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B7" s="9">
-        <v>5605</v>
+        <v>5670</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="B9" s="18"/>
+      <c r="A9" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B9" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9262,10 +9286,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
@@ -9278,21 +9302,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="A1" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9724,7 +9748,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -10241,17 +10265,28 @@
         <v>5497</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
+    <row r="89" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>87</v>
+      </c>
+      <c r="B89" s="6">
+        <v>44011</v>
+      </c>
+      <c r="C89" s="9">
+        <v>5913</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A91:C91"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -10276,175 +10311,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="A1" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B3" s="11">
         <v>85</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="20">
         <f>B3/B$16</f>
-        <v>3.9977424513216063E-3</v>
+        <v>3.992484734617191E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B4" s="11">
-        <v>342</v>
-      </c>
-      <c r="C4" s="13">
+        <v>343</v>
+      </c>
+      <c r="C4" s="20">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
-        <v>1.6085034333552819E-2</v>
+        <v>1.611085016439643E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B5" s="11">
-        <v>931</v>
-      </c>
-      <c r="C5" s="13">
+        <v>933</v>
+      </c>
+      <c r="C5" s="20">
         <f t="shared" si="0"/>
-        <v>4.3787037908004894E-2</v>
+        <v>4.3823391263503993E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B6" s="11">
-        <v>3623</v>
-      </c>
-      <c r="C6" s="13">
+        <v>3628</v>
+      </c>
+      <c r="C6" s="20">
         <f t="shared" si="0"/>
-        <v>0.17039789295456684</v>
+        <v>0.17040864255519023</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B7" s="11">
-        <v>3906</v>
-      </c>
-      <c r="C7" s="13">
+        <v>3914</v>
+      </c>
+      <c r="C7" s="20">
         <f t="shared" si="0"/>
-        <v>0.18370802370426112</v>
+        <v>0.18384217942696102</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B8" s="11">
-        <v>3860</v>
-      </c>
-      <c r="C8" s="13">
+        <v>3864</v>
+      </c>
+      <c r="C8" s="20">
         <f t="shared" si="0"/>
-        <v>0.18154453955413413</v>
+        <v>0.18149365899483325</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B9" s="11">
-        <v>3690</v>
-      </c>
-      <c r="C9" s="13">
+        <v>3691</v>
+      </c>
+      <c r="C9" s="20">
         <f t="shared" si="0"/>
-        <v>0.17354905465149092</v>
+        <v>0.1733677782996712</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B10" s="11">
-        <v>1472</v>
-      </c>
-      <c r="C10" s="13">
+        <v>1476</v>
+      </c>
+      <c r="C10" s="20">
         <f t="shared" si="0"/>
-        <v>6.9231492804063585E-2</v>
+        <v>6.9328323156411464E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B11" s="11">
         <v>1086</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="20">
         <f t="shared" si="0"/>
-        <v>5.1077038848650176E-2</v>
+        <v>5.1009863785814936E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B12" s="11">
         <v>697</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="20">
         <f t="shared" si="0"/>
-        <v>3.2781488100837176E-2</v>
+        <v>3.2738374823860966E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B13" s="11">
         <v>526</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="20">
         <f t="shared" si="0"/>
-        <v>2.4738970934060765E-2</v>
+        <v>2.470643494598403E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B14" s="11">
-        <v>1044</v>
-      </c>
-      <c r="C14" s="13">
+        <v>1047</v>
+      </c>
+      <c r="C14" s="20">
         <f t="shared" si="0"/>
-        <v>4.9101683755055969E-2</v>
+        <v>4.9178017848755286E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B15" s="11">
         <v>0</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10454,26 +10489,26 @@
         <v>258</v>
       </c>
       <c r="B16" s="11">
-        <v>21262</v>
-      </c>
-      <c r="C16" s="13">
+        <v>21290</v>
+      </c>
+      <c r="C16" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-    </row>
-    <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
+++ b/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A7A3DCE4-2C13-42F6-B874-F19D761131C3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E064965-5F2B-4C30-BC29-221D0C066FA4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6350" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
@@ -33,9 +33,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="338">
-  <si>
-    <t>COVID-19 Cases and Fatalities by County as of 6/28 at 10:45AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="337">
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 6/30 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -812,10 +812,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/28 at 10:45AM CST</t>
-  </si>
-  <si>
-    <t>DISCLAIMER: All data are provisional and are subject to change.</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/30 at 10:45AM CST</t>
   </si>
   <si>
     <t>Date</t>
@@ -842,7 +839,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/28 at 3:00PM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/30 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -854,7 +851,7 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/28 at 3:00PM CST</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/30 at 3:00PM CST</t>
   </si>
   <si>
     <t>Viral Tests</t>
@@ -895,7 +892,7 @@
     <t>*Average of previous 7 days</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/28 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/30 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -916,7 +913,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Number of COVID-19 Antibody Tests in Texas as of 6/27 at 3:00PM CST</t>
+    <t>Number of COVID-19 Antibody Tests in Texas as of 6/29 at 3:00PM CST</t>
   </si>
   <si>
     <t>Antibody Tests</t>
@@ -928,7 +925,7 @@
     <t>Number of Positive Antibody Tests Reported</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 6/28 at 9:30AM CST</t>
+    <t>Texas Statewide Hospitalization Data as of 6/30 at 9:30AM CST</t>
   </si>
   <si>
     <t>Hospital data</t>
@@ -949,7 +946,7 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 6/28 at 9:30AM CST</t>
+    <t>Number of COVID-19 Hospitalizations by Day as of 6/30 at 9:30AM CST</t>
   </si>
   <si>
     <t>Obs</t>
@@ -958,7 +955,7 @@
     <t>Hospitalizations</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 6/28 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 6/30 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -1013,10 +1010,10 @@
     <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
   </si>
   <si>
-    <t>Completed case investigations received by DSHS =          21,262</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 6/28 at 9:30 AM CST</t>
+    <t>Completed case investigations received by DSHS =          21,361</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 6/30 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -1028,7 +1025,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 6/28 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 6/30 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -1049,19 +1046,19 @@
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 6/28 at 9:30 AM CST</t>
+    <t>Age of Confirmed Fatalities as of 6/30 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Completed investigations received by DSHS =          662</t>
   </si>
   <si>
-    <t>Gender of Confirmed Fatalities as of 6/28 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 6/28 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>06/16/2020-TDCJ*</t>
+    <t>Gender of Confirmed Fatalities as of 6/30 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 6/30 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>06/16/20-TDCJ*</t>
   </si>
   <si>
     <t>* The total reported cases for June 16 include 2,622 new cases and an additional 1,476 cases that were previously diagnosed among Texas Department of Criminal Justice inmates.</t>
@@ -1076,10 +1073,10 @@
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="#########0"/>
     <numFmt numFmtId="167" formatCode="#,###,###,##0"/>
-    <numFmt numFmtId="168" formatCode="##,###,##0"/>
-    <numFmt numFmtId="169" formatCode="###,###,###,###,##0"/>
-    <numFmt numFmtId="170" formatCode="##0"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="172" formatCode="##,###,##0"/>
+    <numFmt numFmtId="173" formatCode="###,###,###,###,##0"/>
+    <numFmt numFmtId="175" formatCode="##0"/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1173,7 +1170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1201,20 +1198,26 @@
     <xf numFmtId="167" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="175" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1225,20 +1228,11 @@
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1376,9 +1370,8 @@
   <dimension ref="A1:C257"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="B258" sqref="B258"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1389,11 +1382,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1411,7 +1404,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>1016</v>
+        <v>1032</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
@@ -1422,7 +1415,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
@@ -1433,7 +1426,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="C5" s="4">
         <v>6</v>
@@ -1444,7 +1437,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="4">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
@@ -1455,7 +1448,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
@@ -1477,7 +1470,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
@@ -1488,7 +1481,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
@@ -1499,7 +1492,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
@@ -1521,7 +1514,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="C13" s="4">
         <v>6</v>
@@ -1543,7 +1536,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
@@ -1554,10 +1547,10 @@
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>1128</v>
+        <v>1187</v>
       </c>
       <c r="C16" s="4">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1565,10 +1558,10 @@
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>9652</v>
+        <v>10797</v>
       </c>
       <c r="C17" s="4">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1576,7 +1569,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -1598,7 +1591,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
@@ -1609,7 +1602,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="C21" s="4">
         <v>13</v>
@@ -1620,7 +1613,7 @@
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>2161</v>
+        <v>2269</v>
       </c>
       <c r="C22" s="4">
         <v>21</v>
@@ -1631,7 +1624,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>1720</v>
+        <v>1943</v>
       </c>
       <c r="C23" s="4">
         <v>29</v>
@@ -1642,10 +1635,10 @@
         <v>25</v>
       </c>
       <c r="B24" s="4">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="C24" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -1675,7 +1668,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="4">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C27" s="4">
         <v>10</v>
@@ -1686,7 +1679,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
@@ -1697,7 +1690,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="C29" s="4">
         <v>3</v>
@@ -1708,7 +1701,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="C30" s="4">
         <v>2</v>
@@ -1719,7 +1712,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="4">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C31" s="4">
         <v>3</v>
@@ -1741,7 +1734,7 @@
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>2183</v>
+        <v>2296</v>
       </c>
       <c r="C33" s="4">
         <v>55</v>
@@ -1774,7 +1767,7 @@
         <v>37</v>
       </c>
       <c r="B36" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C36" s="4">
         <v>2</v>
@@ -1785,7 +1778,7 @@
         <v>38</v>
       </c>
       <c r="B37" s="4">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
@@ -1796,7 +1789,7 @@
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="C38" s="4">
         <v>2</v>
@@ -1807,7 +1800,7 @@
         <v>40</v>
       </c>
       <c r="B39" s="4">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="C39" s="4">
         <v>2</v>
@@ -1829,7 +1822,7 @@
         <v>42</v>
       </c>
       <c r="B41" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C41" s="4">
         <v>0</v>
@@ -1873,7 +1866,7 @@
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>2671</v>
+        <v>2882</v>
       </c>
       <c r="C45" s="4">
         <v>42</v>
@@ -1917,7 +1910,7 @@
         <v>50</v>
       </c>
       <c r="B49" s="4">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
@@ -1928,7 +1921,7 @@
         <v>51</v>
       </c>
       <c r="B50" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C50" s="4">
         <v>0</v>
@@ -1939,7 +1932,7 @@
         <v>52</v>
       </c>
       <c r="B51" s="4">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
@@ -1950,7 +1943,7 @@
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
@@ -1972,7 +1965,7 @@
         <v>55</v>
       </c>
       <c r="B54" s="4">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C54" s="4">
         <v>8</v>
@@ -1983,7 +1976,7 @@
         <v>56</v>
       </c>
       <c r="B55" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C55" s="4">
         <v>0</v>
@@ -1994,7 +1987,7 @@
         <v>57</v>
       </c>
       <c r="B56" s="4">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
@@ -2016,7 +2009,7 @@
         <v>59</v>
       </c>
       <c r="B58" s="4">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" s="4">
         <v>1</v>
@@ -2027,10 +2020,10 @@
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>19595</v>
+        <v>20737</v>
       </c>
       <c r="C59" s="4">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2038,7 +2031,7 @@
         <v>61</v>
       </c>
       <c r="B60" s="4">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C60" s="4">
         <v>1</v>
@@ -2060,7 +2053,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="4">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="C62" s="4">
         <v>16</v>
@@ -2071,7 +2064,7 @@
         <v>64</v>
       </c>
       <c r="B63" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63" s="4">
         <v>0</v>
@@ -2082,7 +2075,7 @@
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>2630</v>
+        <v>2740</v>
       </c>
       <c r="C64" s="4">
         <v>37</v>
@@ -2104,7 +2097,7 @@
         <v>67</v>
       </c>
       <c r="B66" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C66" s="4">
         <v>0</v>
@@ -2126,7 +2119,7 @@
         <v>69</v>
       </c>
       <c r="B68" s="4">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="C68" s="4">
         <v>0</v>
@@ -2137,7 +2130,7 @@
         <v>70</v>
       </c>
       <c r="B69" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C69" s="4">
         <v>0</v>
@@ -2148,7 +2141,7 @@
         <v>71</v>
       </c>
       <c r="B70" s="4">
-        <v>506</v>
+        <v>558</v>
       </c>
       <c r="C70" s="4">
         <v>7</v>
@@ -2170,10 +2163,10 @@
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>5614</v>
+        <v>5928</v>
       </c>
       <c r="C72" s="4">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2181,7 +2174,7 @@
         <v>74</v>
       </c>
       <c r="B73" s="4">
-        <v>711</v>
+        <v>820</v>
       </c>
       <c r="C73" s="4">
         <v>19</v>
@@ -2192,7 +2185,7 @@
         <v>75</v>
       </c>
       <c r="B74" s="4">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C74" s="4">
         <v>1</v>
@@ -2203,7 +2196,7 @@
         <v>76</v>
       </c>
       <c r="B75" s="4">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C75" s="4">
         <v>0</v>
@@ -2214,7 +2207,7 @@
         <v>77</v>
       </c>
       <c r="B76" s="4">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C76" s="4">
         <v>7</v>
@@ -2225,7 +2218,7 @@
         <v>78</v>
       </c>
       <c r="B77" s="4">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C77" s="4">
         <v>2</v>
@@ -2247,7 +2240,7 @@
         <v>80</v>
       </c>
       <c r="B79" s="4">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C79" s="4">
         <v>0</v>
@@ -2269,7 +2262,7 @@
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>3716</v>
+        <v>3722</v>
       </c>
       <c r="C81" s="4">
         <v>53</v>
@@ -2291,7 +2284,7 @@
         <v>84</v>
       </c>
       <c r="B83" s="4">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
@@ -2302,7 +2295,7 @@
         <v>85</v>
       </c>
       <c r="B84" s="4">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
@@ -2313,7 +2306,7 @@
         <v>86</v>
       </c>
       <c r="B85" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C85" s="4">
         <v>0</v>
@@ -2324,7 +2317,7 @@
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>2821</v>
+        <v>3062</v>
       </c>
       <c r="C86" s="4">
         <v>40</v>
@@ -2346,7 +2339,7 @@
         <v>89</v>
       </c>
       <c r="B88" s="4">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C88" s="4">
         <v>0</v>
@@ -2368,7 +2361,7 @@
         <v>91</v>
       </c>
       <c r="B90" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C90" s="4">
         <v>0</v>
@@ -2379,7 +2372,7 @@
         <v>92</v>
       </c>
       <c r="B91" s="4">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="C91" s="4">
         <v>4</v>
@@ -2401,7 +2394,7 @@
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="C93" s="4">
         <v>5</v>
@@ -2412,7 +2405,7 @@
         <v>95</v>
       </c>
       <c r="B94" s="4">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="C94" s="4">
         <v>13</v>
@@ -2423,7 +2416,7 @@
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>344</v>
+        <v>513</v>
       </c>
       <c r="C95" s="4">
         <v>2</v>
@@ -2434,7 +2427,7 @@
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>638</v>
+        <v>698</v>
       </c>
       <c r="C96" s="4">
         <v>1</v>
@@ -2445,7 +2438,7 @@
         <v>98</v>
       </c>
       <c r="B97" s="4">
-        <v>235</v>
+        <v>285</v>
       </c>
       <c r="C97" s="4">
         <v>7</v>
@@ -2467,7 +2460,7 @@
         <v>100</v>
       </c>
       <c r="B99" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C99" s="4">
         <v>1</v>
@@ -2489,7 +2482,7 @@
         <v>102</v>
       </c>
       <c r="B101" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C101" s="4">
         <v>0</v>
@@ -2500,7 +2493,7 @@
         <v>103</v>
       </c>
       <c r="B102" s="4">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="C102" s="4">
         <v>5</v>
@@ -2511,10 +2504,10 @@
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>29163</v>
+        <v>30729</v>
       </c>
       <c r="C103" s="4">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2522,7 +2515,7 @@
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="C104" s="4">
         <v>30</v>
@@ -2533,7 +2526,7 @@
         <v>106</v>
       </c>
       <c r="B105" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C105" s="4">
         <v>2</v>
@@ -2544,7 +2537,7 @@
         <v>107</v>
       </c>
       <c r="B106" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C106" s="4">
         <v>0</v>
@@ -2555,7 +2548,7 @@
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>2469</v>
+        <v>2661</v>
       </c>
       <c r="C107" s="4">
         <v>6</v>
@@ -2577,7 +2570,7 @@
         <v>110</v>
       </c>
       <c r="B109" s="4">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="C109" s="4">
         <v>4</v>
@@ -2588,10 +2581,10 @@
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>2892</v>
+        <v>3542</v>
       </c>
       <c r="C110" s="4">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2599,7 +2592,7 @@
         <v>112</v>
       </c>
       <c r="B111" s="4">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C111" s="4">
         <v>1</v>
@@ -2610,7 +2603,7 @@
         <v>113</v>
       </c>
       <c r="B112" s="4">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C112" s="4">
         <v>1</v>
@@ -2621,7 +2614,7 @@
         <v>114</v>
       </c>
       <c r="B113" s="4">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C113" s="4">
         <v>4</v>
@@ -2632,7 +2625,7 @@
         <v>115</v>
       </c>
       <c r="B114" s="4">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C114" s="4">
         <v>0</v>
@@ -2654,7 +2647,7 @@
         <v>117</v>
       </c>
       <c r="B116" s="4">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
@@ -2687,7 +2680,7 @@
         <v>120</v>
       </c>
       <c r="B119" s="4">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C119" s="4">
         <v>0</v>
@@ -2709,7 +2702,7 @@
         <v>122</v>
       </c>
       <c r="B121" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C121" s="4">
         <v>0</v>
@@ -2720,7 +2713,7 @@
         <v>123</v>
       </c>
       <c r="B122" s="4">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C122" s="4">
         <v>1</v>
@@ -2742,7 +2735,7 @@
         <v>125</v>
       </c>
       <c r="B124" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C124" s="4">
         <v>0</v>
@@ -2753,10 +2746,10 @@
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>1631</v>
+        <v>1787</v>
       </c>
       <c r="C125" s="4">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -2764,7 +2757,7 @@
         <v>127</v>
       </c>
       <c r="B126" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C126" s="4">
         <v>0</v>
@@ -2775,7 +2768,7 @@
         <v>128</v>
       </c>
       <c r="B127" s="4">
-        <v>105</v>
+        <v>142</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
@@ -2786,7 +2779,7 @@
         <v>129</v>
       </c>
       <c r="B128" s="4">
-        <v>372</v>
+        <v>436</v>
       </c>
       <c r="C128" s="4">
         <v>4</v>
@@ -2797,7 +2790,7 @@
         <v>130</v>
       </c>
       <c r="B129" s="4">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
@@ -2808,7 +2801,7 @@
         <v>131</v>
       </c>
       <c r="B130" s="4">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="C130" s="4">
         <v>0</v>
@@ -2819,7 +2812,7 @@
         <v>132</v>
       </c>
       <c r="B131" s="4">
-        <v>518</v>
+        <v>586</v>
       </c>
       <c r="C131" s="4">
         <v>4</v>
@@ -2830,7 +2823,7 @@
         <v>133</v>
       </c>
       <c r="B132" s="4">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C132" s="4">
         <v>0</v>
@@ -2863,7 +2856,7 @@
         <v>136</v>
       </c>
       <c r="B135" s="4">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C135" s="4">
         <v>1</v>
@@ -2874,7 +2867,7 @@
         <v>137</v>
       </c>
       <c r="B136" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C136" s="4">
         <v>0</v>
@@ -2907,7 +2900,7 @@
         <v>140</v>
       </c>
       <c r="B139" s="4">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C139" s="4">
         <v>1</v>
@@ -2918,7 +2911,7 @@
         <v>141</v>
       </c>
       <c r="B140" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C140" s="4">
         <v>0</v>
@@ -2929,7 +2922,7 @@
         <v>142</v>
       </c>
       <c r="B141" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C141" s="4">
         <v>0</v>
@@ -2940,7 +2933,7 @@
         <v>143</v>
       </c>
       <c r="B142" s="4">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="C142" s="4">
         <v>13</v>
@@ -2951,7 +2944,7 @@
         <v>144</v>
       </c>
       <c r="B143" s="4">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C143" s="4">
         <v>0</v>
@@ -2962,7 +2955,7 @@
         <v>145</v>
       </c>
       <c r="B144" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C144" s="4">
         <v>0</v>
@@ -2973,7 +2966,7 @@
         <v>146</v>
       </c>
       <c r="B145" s="4">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C145" s="4">
         <v>1</v>
@@ -2984,7 +2977,7 @@
         <v>147</v>
       </c>
       <c r="B146" s="4">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C146" s="4">
         <v>3</v>
@@ -2995,7 +2988,7 @@
         <v>148</v>
       </c>
       <c r="B147" s="4">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C147" s="4">
         <v>0</v>
@@ -3006,7 +2999,7 @@
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>275</v>
+        <v>314</v>
       </c>
       <c r="C148" s="4">
         <v>3</v>
@@ -3017,7 +3010,7 @@
         <v>150</v>
       </c>
       <c r="B149" s="4">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C149" s="4">
         <v>1</v>
@@ -3039,7 +3032,7 @@
         <v>152</v>
       </c>
       <c r="B151" s="4">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C151" s="4">
         <v>0</v>
@@ -3050,7 +3043,7 @@
         <v>153</v>
       </c>
       <c r="B152" s="4">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C152" s="4">
         <v>0</v>
@@ -3072,7 +3065,7 @@
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>1984</v>
+        <v>2095</v>
       </c>
       <c r="C154" s="4">
         <v>51</v>
@@ -3083,7 +3076,7 @@
         <v>156</v>
       </c>
       <c r="B155" s="4">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C155" s="4">
         <v>1</v>
@@ -3116,7 +3109,7 @@
         <v>159</v>
       </c>
       <c r="B158" s="4">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C158" s="4">
         <v>1</v>
@@ -3138,7 +3131,7 @@
         <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>152</v>
+        <v>172</v>
       </c>
       <c r="C160" s="4">
         <v>5</v>
@@ -3160,7 +3153,7 @@
         <v>163</v>
       </c>
       <c r="B162" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C162" s="4">
         <v>0</v>
@@ -3171,10 +3164,10 @@
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>697</v>
+        <v>795</v>
       </c>
       <c r="C163" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3193,7 +3186,7 @@
         <v>166</v>
       </c>
       <c r="B165" s="4">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C165" s="4">
         <v>2</v>
@@ -3204,7 +3197,7 @@
         <v>167</v>
       </c>
       <c r="B166" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C166" s="4">
         <v>0</v>
@@ -3215,7 +3208,7 @@
         <v>168</v>
       </c>
       <c r="B167" s="4">
-        <v>563</v>
+        <v>651</v>
       </c>
       <c r="C167" s="4">
         <v>14</v>
@@ -3226,7 +3219,7 @@
         <v>169</v>
       </c>
       <c r="B168" s="4">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C168" s="4">
         <v>1</v>
@@ -3248,7 +3241,7 @@
         <v>171</v>
       </c>
       <c r="B170" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C170" s="4">
         <v>0</v>
@@ -3259,7 +3252,7 @@
         <v>172</v>
       </c>
       <c r="B171" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C171" s="4">
         <v>1</v>
@@ -3270,7 +3263,7 @@
         <v>173</v>
       </c>
       <c r="B172" s="4">
-        <v>1952</v>
+        <v>2028</v>
       </c>
       <c r="C172" s="4">
         <v>36</v>
@@ -3281,7 +3274,7 @@
         <v>174</v>
       </c>
       <c r="B173" s="4">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="C173" s="4">
         <v>15</v>
@@ -3292,7 +3285,7 @@
         <v>175</v>
       </c>
       <c r="B174" s="4">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C174" s="4">
         <v>0</v>
@@ -3314,7 +3307,7 @@
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="C176" s="4">
         <v>26</v>
@@ -3325,7 +3318,7 @@
         <v>178</v>
       </c>
       <c r="B177" s="4">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="C177" s="4">
         <v>6</v>
@@ -3358,10 +3351,10 @@
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>1727</v>
+        <v>2120</v>
       </c>
       <c r="C180" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3391,7 +3384,7 @@
         <v>184</v>
       </c>
       <c r="B183" s="4">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="C183" s="4">
         <v>3</v>
@@ -3402,7 +3395,7 @@
         <v>185</v>
       </c>
       <c r="B184" s="4">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C184" s="4">
         <v>2</v>
@@ -3413,7 +3406,7 @@
         <v>186</v>
       </c>
       <c r="B185" s="4">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C185" s="4">
         <v>25</v>
@@ -3424,7 +3417,7 @@
         <v>187</v>
       </c>
       <c r="B186" s="4">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="C186" s="4">
         <v>1</v>
@@ -3435,7 +3428,7 @@
         <v>188</v>
       </c>
       <c r="B187" s="4">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C187" s="4">
         <v>8</v>
@@ -3446,7 +3439,7 @@
         <v>189</v>
       </c>
       <c r="B188" s="4">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C188" s="4">
         <v>0</v>
@@ -3457,7 +3450,7 @@
         <v>190</v>
       </c>
       <c r="B189" s="4">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="C189" s="4">
         <v>0</v>
@@ -3468,7 +3461,7 @@
         <v>191</v>
       </c>
       <c r="B190" s="4">
-        <v>2858</v>
+        <v>2873</v>
       </c>
       <c r="C190" s="4">
         <v>39</v>
@@ -3479,7 +3472,7 @@
         <v>192</v>
       </c>
       <c r="B191" s="4">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C191" s="4">
         <v>0</v>
@@ -3490,7 +3483,7 @@
         <v>193</v>
       </c>
       <c r="B192" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C192" s="4">
         <v>0</v>
@@ -3501,10 +3494,10 @@
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>825</v>
+        <v>844</v>
       </c>
       <c r="C193" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3512,7 +3505,7 @@
         <v>195</v>
       </c>
       <c r="B194" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C194" s="4">
         <v>0</v>
@@ -3534,7 +3527,7 @@
         <v>197</v>
       </c>
       <c r="B196" s="4">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="C196" s="4">
         <v>10</v>
@@ -3545,7 +3538,7 @@
         <v>198</v>
       </c>
       <c r="B197" s="4">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C197" s="4">
         <v>0</v>
@@ -3556,7 +3549,7 @@
         <v>199</v>
       </c>
       <c r="B198" s="4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C198" s="4">
         <v>0</v>
@@ -3578,7 +3571,7 @@
         <v>201</v>
       </c>
       <c r="B200" s="4">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
@@ -3589,7 +3582,7 @@
         <v>202</v>
       </c>
       <c r="B201" s="4">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="C201" s="4">
         <v>16</v>
@@ -3600,7 +3593,7 @@
         <v>203</v>
       </c>
       <c r="B202" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C202" s="4">
         <v>0</v>
@@ -3611,7 +3604,7 @@
         <v>204</v>
       </c>
       <c r="B203" s="4">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C203" s="4">
         <v>3</v>
@@ -3622,7 +3615,7 @@
         <v>205</v>
       </c>
       <c r="B204" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C204" s="4">
         <v>1</v>
@@ -3633,7 +3626,7 @@
         <v>206</v>
       </c>
       <c r="B205" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C205" s="4">
         <v>7</v>
@@ -3644,7 +3637,7 @@
         <v>207</v>
       </c>
       <c r="B206" s="4">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C206" s="4">
         <v>0</v>
@@ -3655,7 +3648,7 @@
         <v>208</v>
       </c>
       <c r="B207" s="4">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="C207" s="4">
         <v>0</v>
@@ -3677,7 +3670,7 @@
         <v>210</v>
       </c>
       <c r="B209" s="4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C209" s="4">
         <v>0</v>
@@ -3710,7 +3703,7 @@
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C212" s="4">
         <v>9</v>
@@ -3732,7 +3725,7 @@
         <v>215</v>
       </c>
       <c r="B214" s="4">
-        <v>499</v>
+        <v>566</v>
       </c>
       <c r="C214" s="4">
         <v>4</v>
@@ -3743,7 +3736,7 @@
         <v>216</v>
       </c>
       <c r="B215" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C215" s="4">
         <v>0</v>
@@ -3754,7 +3747,7 @@
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>496</v>
+        <v>578</v>
       </c>
       <c r="C216" s="4">
         <v>3</v>
@@ -3765,7 +3758,7 @@
         <v>218</v>
       </c>
       <c r="B217" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" s="4">
         <v>0</v>
@@ -3798,7 +3791,7 @@
         <v>221</v>
       </c>
       <c r="B220" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C220" s="4">
         <v>0</v>
@@ -3820,10 +3813,10 @@
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>11083</v>
+        <v>11739</v>
       </c>
       <c r="C222" s="4">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3831,7 +3824,7 @@
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="C223" s="4">
         <v>5</v>
@@ -3842,7 +3835,7 @@
         <v>225</v>
       </c>
       <c r="B224" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C224" s="4">
         <v>0</v>
@@ -3853,7 +3846,7 @@
         <v>226</v>
       </c>
       <c r="B225" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C225" s="4">
         <v>0</v>
@@ -3875,7 +3868,7 @@
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>683</v>
+        <v>702</v>
       </c>
       <c r="C227" s="4">
         <v>4</v>
@@ -3886,7 +3879,7 @@
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>268</v>
+        <v>299</v>
       </c>
       <c r="C228" s="4">
         <v>1</v>
@@ -3897,10 +3890,10 @@
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>7825</v>
+        <v>8969</v>
       </c>
       <c r="C229" s="4">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -3930,7 +3923,7 @@
         <v>233</v>
       </c>
       <c r="B232" s="4">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="C232" s="4">
         <v>0</v>
@@ -3941,7 +3934,7 @@
         <v>234</v>
       </c>
       <c r="B233" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C233" s="4">
         <v>0</v>
@@ -3952,7 +3945,7 @@
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="C234" s="4">
         <v>1</v>
@@ -3974,7 +3967,7 @@
         <v>237</v>
       </c>
       <c r="B236" s="4">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C236" s="4">
         <v>3</v>
@@ -3996,7 +3989,7 @@
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>1967</v>
+        <v>1991</v>
       </c>
       <c r="C238" s="4">
         <v>28</v>
@@ -4007,7 +4000,7 @@
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
@@ -4018,7 +4011,7 @@
         <v>241</v>
       </c>
       <c r="B240" s="4">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C240" s="4">
         <v>0</v>
@@ -4029,7 +4022,7 @@
         <v>242</v>
       </c>
       <c r="B241" s="4">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="C241" s="4">
         <v>31</v>
@@ -4040,10 +4033,10 @@
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>1262</v>
+        <v>1503</v>
       </c>
       <c r="C242" s="4">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="243" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4051,7 +4044,7 @@
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C243" s="4">
         <v>1</v>
@@ -4073,7 +4066,7 @@
         <v>246</v>
       </c>
       <c r="B245" s="4">
-        <v>300</v>
+        <v>318</v>
       </c>
       <c r="C245" s="4">
         <v>2</v>
@@ -4084,7 +4077,7 @@
         <v>247</v>
       </c>
       <c r="B246" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C246" s="4">
         <v>0</v>
@@ -4095,7 +4088,7 @@
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="C247" s="4">
         <v>3</v>
@@ -4106,10 +4099,10 @@
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>1850</v>
+        <v>2100</v>
       </c>
       <c r="C248" s="4">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="249" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4117,7 +4110,7 @@
         <v>250</v>
       </c>
       <c r="B249" s="4">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C249" s="4">
         <v>5</v>
@@ -4128,7 +4121,7 @@
         <v>251</v>
       </c>
       <c r="B250" s="4">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C250" s="4">
         <v>0</v>
@@ -4139,7 +4132,7 @@
         <v>252</v>
       </c>
       <c r="B251" s="4">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C251" s="4">
         <v>5</v>
@@ -4150,7 +4143,7 @@
         <v>253</v>
       </c>
       <c r="B252" s="4">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C252" s="4">
         <v>5</v>
@@ -4161,7 +4154,7 @@
         <v>254</v>
       </c>
       <c r="B253" s="4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C253" s="4">
         <v>0</v>
@@ -4172,7 +4165,7 @@
         <v>255</v>
       </c>
       <c r="B254" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C254" s="4">
         <v>1</v>
@@ -4183,7 +4176,7 @@
         <v>256</v>
       </c>
       <c r="B255" s="4">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C255" s="4">
         <v>0</v>
@@ -4194,7 +4187,7 @@
         <v>257</v>
       </c>
       <c r="B256" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C256" s="4">
         <v>0</v>
@@ -4205,10 +4198,10 @@
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>148723</v>
+        <v>159986</v>
       </c>
       <c r="C257" s="4">
-        <v>2393</v>
+        <v>2424</v>
       </c>
     </row>
   </sheetData>
@@ -4226,7 +4219,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4238,57 +4231,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>321</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="A1" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B3" s="11">
-        <v>10330</v>
-      </c>
-      <c r="C3" s="13">
+        <v>10371</v>
+      </c>
+      <c r="C3" s="20">
         <f>B3/B$6</f>
-        <v>0.48584328849590819</v>
+        <v>0.48551097795047049</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B4" s="11">
-        <v>10740</v>
-      </c>
-      <c r="C4" s="13">
+        <v>10800</v>
+      </c>
+      <c r="C4" s="20">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.50512651679051834</v>
+        <v>0.50559430738261313</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B5" s="11">
-        <v>192</v>
-      </c>
-      <c r="C5" s="13">
+        <v>190</v>
+      </c>
+      <c r="C5" s="20">
         <f t="shared" si="0"/>
-        <v>9.0301947135735111E-3</v>
+        <v>8.8947146669163431E-3</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4296,26 +4289,26 @@
         <v>258</v>
       </c>
       <c r="B6" s="11">
-        <v>21262</v>
-      </c>
-      <c r="C6" s="13">
+        <v>21361</v>
+      </c>
+      <c r="C6" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+    </row>
+    <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-    </row>
-    <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4334,7 +4327,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4346,93 +4339,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="A1" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B3" s="11">
-        <v>602</v>
-      </c>
-      <c r="C3" s="13">
+        <v>604</v>
+      </c>
+      <c r="C3" s="20">
         <f>B3/B$9</f>
-        <v>2.8313423008183614E-2</v>
+        <v>2.8275829783249849E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B4" s="11">
-        <v>2535</v>
-      </c>
-      <c r="C4" s="13">
+        <v>2548</v>
+      </c>
+      <c r="C4" s="20">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.11922678957765027</v>
+        <v>0.11928280511212022</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B5" s="11">
-        <v>7750</v>
-      </c>
-      <c r="C5" s="13">
+        <v>7803</v>
+      </c>
+      <c r="C5" s="20">
         <f t="shared" si="0"/>
-        <v>0.36450004703226413</v>
+        <v>0.365291887083938</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B6" s="11">
-        <v>117</v>
-      </c>
-      <c r="C6" s="13">
+        <v>118</v>
+      </c>
+      <c r="C6" s="20">
         <f t="shared" si="0"/>
-        <v>5.5027749035838581E-3</v>
+        <v>5.5240859510322553E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B7" s="11">
-        <v>5606</v>
-      </c>
-      <c r="C7" s="13">
+        <v>5628</v>
+      </c>
+      <c r="C7" s="20">
         <f t="shared" si="0"/>
-        <v>0.26366287273069328</v>
+        <v>0.26347081129160621</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B8" s="11">
-        <v>4652</v>
-      </c>
-      <c r="C8" s="13">
+        <v>4660</v>
+      </c>
+      <c r="C8" s="20">
         <f t="shared" si="0"/>
-        <v>0.21879409274762487</v>
+        <v>0.21815458077805347</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -4440,26 +4433,26 @@
         <v>258</v>
       </c>
       <c r="B9" s="11">
-        <v>21262</v>
-      </c>
-      <c r="C9" s="13">
+        <v>21361</v>
+      </c>
+      <c r="C9" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-    </row>
-    <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4478,7 +4471,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4490,175 +4483,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="A1" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B3" s="12">
         <v>0</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="20">
         <f>B3/B$16</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B4" s="12">
         <v>0</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="20">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B5" s="12">
         <v>0</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B6" s="12">
         <v>11</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="20">
         <f t="shared" si="0"/>
         <v>1.6616314199395771E-2</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B7" s="12">
         <v>13</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="20">
         <f t="shared" si="0"/>
         <v>1.9637462235649546E-2</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B8" s="12">
         <v>26</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="20">
         <f t="shared" si="0"/>
         <v>3.9274924471299093E-2</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B9" s="12">
         <v>72</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="20">
         <f t="shared" si="0"/>
         <v>0.10876132930513595</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B10" s="12">
         <v>60</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="20">
         <f t="shared" si="0"/>
         <v>9.0634441087613288E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B11" s="12">
         <v>74</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="20">
         <f t="shared" si="0"/>
         <v>0.11178247734138973</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B12" s="12">
         <v>69</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="20">
         <f t="shared" si="0"/>
         <v>0.10422960725075529</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B13" s="12">
         <v>70</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="20">
         <f t="shared" si="0"/>
         <v>0.10574018126888217</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B14" s="12">
         <v>265</v>
       </c>
-      <c r="C14" s="13">
+      <c r="C14" s="20">
         <f t="shared" si="0"/>
         <v>0.40030211480362538</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B15" s="12">
         <v>2</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="20">
         <f t="shared" si="0"/>
         <v>3.0211480362537764E-3</v>
       </c>
@@ -4670,24 +4663,24 @@
       <c r="B16" s="12">
         <v>662</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+      <c r="A18" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
     </row>
     <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
+      <c r="A19" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4706,7 +4699,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4718,55 +4711,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>334</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="A1" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B3" s="12">
         <v>271</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="20">
         <f>B3/B$6</f>
         <v>0.40936555891238668</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B4" s="12">
         <v>363</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="20">
         <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
         <v>0.54833836858006046</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B5" s="12">
         <v>28</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="20">
         <f t="shared" si="0"/>
         <v>4.2296072507552872E-2</v>
       </c>
@@ -4778,24 +4771,24 @@
       <c r="B6" s="12">
         <v>662</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4814,7 +4807,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -4826,91 +4819,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>335</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="A1" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B3" s="12">
         <v>13</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="20">
         <f>B3/B$9</f>
         <v>1.9637462235649546E-2</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B4" s="12">
         <v>85</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="20">
         <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
         <v>0.12839879154078551</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B5" s="12">
         <v>171</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="20">
         <f t="shared" si="0"/>
         <v>0.2583081570996979</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B6" s="12">
         <v>5</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="20">
         <f t="shared" si="0"/>
         <v>7.5528700906344415E-3</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B7" s="12">
         <v>269</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="20">
         <f t="shared" si="0"/>
         <v>0.40634441087613293</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B8" s="12">
         <v>119</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="20">
         <f t="shared" si="0"/>
         <v>0.1797583081570997</v>
       </c>
@@ -4922,24 +4915,24 @@
       <c r="B9" s="12">
         <v>662</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="A11" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
-        <v>333</v>
-      </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="A12" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4948,262 +4941,270 @@
     <mergeCell ref="A12:C12"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="H91" sqref="H91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+    </row>
+    <row r="2" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-    </row>
-    <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>265</v>
+    </row>
+    <row r="3" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>43916</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1394</v>
+      </c>
+      <c r="C3" s="4">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4">
+        <v>419</v>
+      </c>
+      <c r="E3" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B4" s="4">
-        <v>1394</v>
+        <v>1731</v>
       </c>
       <c r="C4" s="4">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4" s="4">
-        <v>419</v>
+        <v>337</v>
       </c>
       <c r="E4" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B5" s="4">
-        <v>1731</v>
+        <v>2048</v>
       </c>
       <c r="C5" s="4">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" s="4">
-        <v>337</v>
+        <v>317</v>
       </c>
       <c r="E5" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B6" s="4">
-        <v>2048</v>
+        <v>2552</v>
       </c>
       <c r="C6" s="4">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4">
-        <v>317</v>
+        <v>504</v>
       </c>
       <c r="E6" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B7" s="4">
-        <v>2552</v>
+        <v>2874</v>
       </c>
       <c r="C7" s="4">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D7" s="4">
-        <v>504</v>
+        <v>322</v>
       </c>
       <c r="E7" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B8" s="4">
-        <v>2874</v>
+        <v>3266</v>
       </c>
       <c r="C8" s="4">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D8" s="4">
-        <v>322</v>
+        <v>392</v>
       </c>
       <c r="E8" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B9" s="4">
-        <v>3266</v>
+        <v>3996</v>
       </c>
       <c r="C9" s="4">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="D9" s="4">
-        <v>392</v>
+        <v>730</v>
       </c>
       <c r="E9" s="4">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B10" s="4">
-        <v>3996</v>
+        <v>4665</v>
       </c>
       <c r="C10" s="4">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="D10" s="4">
-        <v>730</v>
+        <v>669</v>
       </c>
       <c r="E10" s="4">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B11" s="4">
-        <v>4665</v>
+        <v>5324</v>
       </c>
       <c r="C11" s="4">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="D11" s="4">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="E11" s="4">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B12" s="4">
-        <v>5324</v>
+        <v>6112</v>
       </c>
       <c r="C12" s="4">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="D12" s="4">
-        <v>659</v>
+        <v>788</v>
       </c>
       <c r="E12" s="4">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B13" s="4">
-        <v>6112</v>
+        <v>6793</v>
       </c>
       <c r="C13" s="4">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="D13" s="4">
-        <v>788</v>
+        <v>681</v>
       </c>
       <c r="E13" s="4">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B14" s="4">
-        <v>6793</v>
+        <v>7273</v>
       </c>
       <c r="C14" s="4">
-        <v>126</v>
+        <v>140</v>
       </c>
       <c r="D14" s="4">
-        <v>681</v>
+        <v>480</v>
       </c>
       <c r="E14" s="4">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B15" s="4">
-        <v>7273</v>
+        <v>8261</v>
       </c>
       <c r="C15" s="4">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="D15" s="4">
-        <v>480</v>
+        <v>988</v>
       </c>
       <c r="E15" s="4">
         <v>14</v>
@@ -5211,1449 +5212,1462 @@
     </row>
     <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B16" s="4">
-        <v>8261</v>
+        <v>9353</v>
       </c>
       <c r="C16" s="4">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D16" s="4">
-        <v>988</v>
+        <v>1092</v>
       </c>
       <c r="E16" s="4">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B17" s="4">
-        <v>9353</v>
+        <v>10230</v>
       </c>
       <c r="C17" s="4">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="D17" s="4">
-        <v>1092</v>
+        <v>877</v>
       </c>
       <c r="E17" s="4">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B18" s="4">
-        <v>10230</v>
+        <v>11671</v>
       </c>
       <c r="C18" s="4">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="D18" s="4">
-        <v>877</v>
+        <v>1441</v>
       </c>
       <c r="E18" s="4">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B19" s="4">
-        <v>11671</v>
+        <v>12561</v>
       </c>
       <c r="C19" s="4">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="D19" s="4">
-        <v>1441</v>
+        <v>890</v>
       </c>
       <c r="E19" s="4">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B20" s="4">
-        <v>12561</v>
+        <v>13484</v>
       </c>
       <c r="C20" s="4">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="D20" s="4">
-        <v>890</v>
+        <v>923</v>
       </c>
       <c r="E20" s="4">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B21" s="4">
-        <v>13484</v>
+        <v>13906</v>
       </c>
       <c r="C21" s="4">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="D21" s="4">
-        <v>923</v>
+        <v>422</v>
       </c>
       <c r="E21" s="4">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B22" s="4">
-        <v>13906</v>
+        <v>14624</v>
       </c>
       <c r="C22" s="4">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="D22" s="4">
-        <v>422</v>
+        <v>718</v>
       </c>
       <c r="E22" s="4">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B23" s="4">
-        <v>14624</v>
+        <v>15492</v>
       </c>
       <c r="C23" s="4">
-        <v>318</v>
+        <v>364</v>
       </c>
       <c r="D23" s="4">
-        <v>718</v>
+        <v>868</v>
       </c>
       <c r="E23" s="4">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B24" s="4">
-        <v>15492</v>
+        <v>16455</v>
       </c>
       <c r="C24" s="4">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="D24" s="4">
-        <v>868</v>
+        <v>963</v>
       </c>
       <c r="E24" s="4">
-        <v>46</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B25" s="4">
-        <v>16455</v>
+        <v>17371</v>
       </c>
       <c r="C25" s="4">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="D25" s="4">
-        <v>963</v>
+        <v>916</v>
       </c>
       <c r="E25" s="4">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B26" s="4">
-        <v>17371</v>
+        <v>18260</v>
       </c>
       <c r="C26" s="4">
-        <v>428</v>
+        <v>453</v>
       </c>
       <c r="D26" s="4">
-        <v>916</v>
+        <v>889</v>
       </c>
       <c r="E26" s="4">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B27" s="4">
-        <v>18260</v>
+        <v>18923</v>
       </c>
       <c r="C27" s="4">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="D27" s="4">
-        <v>889</v>
+        <v>663</v>
       </c>
       <c r="E27" s="4">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B28" s="4">
-        <v>18923</v>
+        <v>19458</v>
       </c>
       <c r="C28" s="4">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="D28" s="4">
-        <v>663</v>
+        <v>535</v>
       </c>
       <c r="E28" s="4">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B29" s="4">
-        <v>19458</v>
+        <v>20196</v>
       </c>
       <c r="C29" s="4">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="D29" s="4">
-        <v>535</v>
+        <v>738</v>
       </c>
       <c r="E29" s="4">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B30" s="4">
-        <v>20196</v>
+        <v>21069</v>
       </c>
       <c r="C30" s="4">
-        <v>517</v>
+        <v>543</v>
       </c>
       <c r="D30" s="4">
-        <v>738</v>
+        <v>873</v>
       </c>
       <c r="E30" s="4">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B31" s="4">
-        <v>21069</v>
+        <v>21944</v>
       </c>
       <c r="C31" s="4">
-        <v>543</v>
+        <v>561</v>
       </c>
       <c r="D31" s="4">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="E31" s="4">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B32" s="4">
-        <v>21944</v>
+        <v>22806</v>
       </c>
       <c r="C32" s="4">
-        <v>561</v>
+        <v>593</v>
       </c>
       <c r="D32" s="4">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="E32" s="4">
-        <v>18</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B33" s="4">
-        <v>22806</v>
+        <v>23773</v>
       </c>
       <c r="C33" s="4">
-        <v>593</v>
+        <v>623</v>
       </c>
       <c r="D33" s="4">
-        <v>862</v>
+        <v>967</v>
       </c>
       <c r="E33" s="4">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B34" s="4">
-        <v>23773</v>
+        <v>24631</v>
       </c>
       <c r="C34" s="4">
-        <v>623</v>
+        <v>648</v>
       </c>
       <c r="D34" s="4">
-        <v>967</v>
+        <v>858</v>
       </c>
       <c r="E34" s="4">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B35" s="4">
-        <v>24631</v>
+        <v>25297</v>
       </c>
       <c r="C35" s="4">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="D35" s="4">
-        <v>858</v>
+        <v>666</v>
       </c>
       <c r="E35" s="4">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B36" s="4">
-        <v>25297</v>
+        <v>26171</v>
       </c>
       <c r="C36" s="4">
-        <v>663</v>
+        <v>690</v>
       </c>
       <c r="D36" s="4">
-        <v>666</v>
+        <v>874</v>
       </c>
       <c r="E36" s="4">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
-        <v>43949</v>
+        <v>43950</v>
       </c>
       <c r="B37" s="4">
-        <v>26171</v>
+        <v>27054</v>
       </c>
       <c r="C37" s="4">
-        <v>690</v>
+        <v>732</v>
       </c>
       <c r="D37" s="4">
-        <v>874</v>
+        <v>883</v>
       </c>
       <c r="E37" s="4">
-        <v>27</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
-        <v>43950</v>
+        <v>43951</v>
       </c>
       <c r="B38" s="4">
-        <v>27054</v>
+        <v>28087</v>
       </c>
       <c r="C38" s="4">
-        <v>732</v>
+        <v>782</v>
       </c>
       <c r="D38" s="4">
-        <v>883</v>
+        <v>1033</v>
       </c>
       <c r="E38" s="4">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
-        <v>43951</v>
+        <v>43952</v>
       </c>
       <c r="B39" s="4">
-        <v>28087</v>
+        <v>29229</v>
       </c>
       <c r="C39" s="4">
-        <v>782</v>
+        <v>816</v>
       </c>
       <c r="D39" s="4">
-        <v>1033</v>
+        <v>1142</v>
       </c>
       <c r="E39" s="4">
-        <v>50</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
-        <v>43952</v>
+        <v>43953</v>
       </c>
       <c r="B40" s="4">
-        <v>29229</v>
+        <v>30522</v>
       </c>
       <c r="C40" s="4">
-        <v>816</v>
+        <v>847</v>
       </c>
       <c r="D40" s="4">
-        <v>1142</v>
+        <v>1293</v>
       </c>
       <c r="E40" s="4">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
-        <v>43953</v>
+        <v>43954</v>
       </c>
       <c r="B41" s="4">
-        <v>30522</v>
+        <v>31548</v>
       </c>
       <c r="C41" s="4">
-        <v>847</v>
+        <v>867</v>
       </c>
       <c r="D41" s="4">
-        <v>1293</v>
+        <v>1026</v>
       </c>
       <c r="E41" s="4">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
-        <v>43954</v>
+        <v>43955</v>
       </c>
       <c r="B42" s="4">
-        <v>31548</v>
+        <v>32332</v>
       </c>
       <c r="C42" s="4">
-        <v>867</v>
+        <v>884</v>
       </c>
       <c r="D42" s="4">
-        <v>1026</v>
+        <v>784</v>
       </c>
       <c r="E42" s="4">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="6">
-        <v>43955</v>
+        <v>43956</v>
       </c>
       <c r="B43" s="4">
-        <v>32332</v>
+        <v>33369</v>
       </c>
       <c r="C43" s="4">
-        <v>884</v>
+        <v>906</v>
       </c>
       <c r="D43" s="4">
-        <v>784</v>
+        <v>1037</v>
       </c>
       <c r="E43" s="4">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="6">
-        <v>43956</v>
+        <v>43957</v>
       </c>
       <c r="B44" s="4">
-        <v>33369</v>
+        <v>34422</v>
       </c>
       <c r="C44" s="4">
-        <v>906</v>
+        <v>948</v>
       </c>
       <c r="D44" s="4">
-        <v>1037</v>
+        <v>1053</v>
       </c>
       <c r="E44" s="4">
-        <v>22</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B45" s="4">
-        <v>34422</v>
+        <v>35390</v>
       </c>
       <c r="C45" s="4">
-        <v>948</v>
+        <v>973</v>
       </c>
       <c r="D45" s="4">
-        <v>1053</v>
+        <v>968</v>
       </c>
       <c r="E45" s="4">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B46" s="4">
-        <v>35390</v>
+        <v>36609</v>
       </c>
       <c r="C46" s="4">
-        <v>973</v>
+        <v>1004</v>
       </c>
       <c r="D46" s="4">
-        <v>968</v>
+        <v>1219</v>
       </c>
       <c r="E46" s="4">
-        <v>25</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6">
-        <v>43959</v>
+        <v>43960</v>
       </c>
       <c r="B47" s="4">
-        <v>36609</v>
+        <v>37860</v>
       </c>
       <c r="C47" s="4">
-        <v>1004</v>
+        <v>1049</v>
       </c>
       <c r="D47" s="4">
-        <v>1219</v>
+        <v>1251</v>
       </c>
       <c r="E47" s="4">
-        <v>31</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6">
-        <v>43960</v>
+        <v>43961</v>
       </c>
       <c r="B48" s="4">
-        <v>37860</v>
+        <v>38869</v>
       </c>
       <c r="C48" s="4">
-        <v>1049</v>
+        <v>1088</v>
       </c>
       <c r="D48" s="4">
-        <v>1251</v>
+        <v>1009</v>
       </c>
       <c r="E48" s="4">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
-        <v>43961</v>
+        <v>43962</v>
       </c>
       <c r="B49" s="4">
-        <v>38869</v>
+        <v>39869</v>
       </c>
       <c r="C49" s="4">
-        <v>1088</v>
+        <v>1100</v>
       </c>
       <c r="D49" s="4">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="E49" s="4">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B50" s="4">
-        <v>39869</v>
+        <v>41048</v>
       </c>
       <c r="C50" s="4">
-        <v>1100</v>
+        <v>1133</v>
       </c>
       <c r="D50" s="4">
-        <v>1000</v>
+        <v>1179</v>
       </c>
       <c r="E50" s="4">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B51" s="4">
-        <v>41048</v>
+        <v>42403</v>
       </c>
       <c r="C51" s="4">
-        <v>1133</v>
+        <v>1158</v>
       </c>
       <c r="D51" s="4">
-        <v>1179</v>
+        <v>1355</v>
       </c>
       <c r="E51" s="4">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B52" s="4">
-        <v>42403</v>
+        <v>43851</v>
       </c>
       <c r="C52" s="4">
-        <v>1158</v>
+        <v>1216</v>
       </c>
       <c r="D52" s="4">
-        <v>1355</v>
+        <v>1448</v>
       </c>
       <c r="E52" s="4">
-        <v>25</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
-        <v>43965</v>
+        <v>43966</v>
       </c>
       <c r="B53" s="4">
-        <v>43851</v>
+        <v>45198</v>
       </c>
       <c r="C53" s="4">
-        <v>1216</v>
+        <v>1272</v>
       </c>
       <c r="D53" s="4">
-        <v>1448</v>
+        <v>1347</v>
       </c>
       <c r="E53" s="4">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6">
-        <v>43966</v>
+        <v>43967</v>
       </c>
       <c r="B54" s="4">
-        <v>45198</v>
+        <v>46999</v>
       </c>
       <c r="C54" s="4">
-        <v>1272</v>
+        <v>1305</v>
       </c>
       <c r="D54" s="4">
-        <v>1347</v>
+        <v>1801</v>
       </c>
       <c r="E54" s="4">
-        <v>56</v>
+        <v>33</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6">
-        <v>43967</v>
+        <v>43968</v>
       </c>
       <c r="B55" s="4">
-        <v>46999</v>
+        <v>47784</v>
       </c>
       <c r="C55" s="4">
-        <v>1305</v>
+        <v>1336</v>
       </c>
       <c r="D55" s="4">
-        <v>1801</v>
+        <v>785</v>
       </c>
       <c r="E55" s="4">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6">
-        <v>43968</v>
+        <v>43969</v>
       </c>
       <c r="B56" s="4">
-        <v>47784</v>
+        <v>48693</v>
       </c>
       <c r="C56" s="4">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="D56" s="4">
-        <v>785</v>
+        <v>909</v>
       </c>
       <c r="E56" s="4">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B57" s="4">
-        <v>48693</v>
+        <v>49912</v>
       </c>
       <c r="C57" s="4">
-        <v>1347</v>
+        <v>1369</v>
       </c>
       <c r="D57" s="4">
-        <v>909</v>
+        <v>1219</v>
       </c>
       <c r="E57" s="4">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B58" s="4">
-        <v>49912</v>
+        <v>51323</v>
       </c>
       <c r="C58" s="4">
-        <v>1369</v>
+        <v>1419</v>
       </c>
       <c r="D58" s="4">
-        <v>1219</v>
+        <v>1411</v>
       </c>
       <c r="E58" s="4">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B59" s="4">
-        <v>51323</v>
+        <v>52268</v>
       </c>
       <c r="C59" s="4">
-        <v>1419</v>
+        <v>1440</v>
       </c>
       <c r="D59" s="4">
-        <v>1411</v>
+        <v>945</v>
       </c>
       <c r="E59" s="4">
-        <v>50</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
-        <v>43972</v>
+        <v>43973</v>
       </c>
       <c r="B60" s="4">
-        <v>52268</v>
+        <v>53449</v>
       </c>
       <c r="C60" s="4">
-        <v>1440</v>
+        <v>1480</v>
       </c>
       <c r="D60" s="4">
-        <v>945</v>
+        <v>1181</v>
       </c>
       <c r="E60" s="4">
-        <v>21</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="B61" s="4">
-        <v>53449</v>
+        <v>54509</v>
       </c>
       <c r="C61" s="4">
-        <v>1480</v>
+        <v>1506</v>
       </c>
       <c r="D61" s="4">
-        <v>1181</v>
+        <v>1060</v>
       </c>
       <c r="E61" s="4">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="B62" s="4">
-        <v>54509</v>
+        <v>55348</v>
       </c>
       <c r="C62" s="4">
-        <v>1506</v>
+        <v>1519</v>
       </c>
       <c r="D62" s="4">
-        <v>1060</v>
+        <v>839</v>
       </c>
       <c r="E62" s="4">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B63" s="4">
-        <v>55348</v>
+        <v>55971</v>
       </c>
       <c r="C63" s="4">
-        <v>1519</v>
+        <v>1527</v>
       </c>
       <c r="D63" s="4">
-        <v>839</v>
+        <v>623</v>
       </c>
       <c r="E63" s="4">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
-        <v>43976</v>
+        <v>43977</v>
       </c>
       <c r="B64" s="4">
-        <v>55971</v>
+        <v>56560</v>
       </c>
       <c r="C64" s="4">
-        <v>1527</v>
+        <v>1536</v>
       </c>
       <c r="D64" s="4">
-        <v>623</v>
+        <v>589</v>
       </c>
       <c r="E64" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6">
-        <v>43977</v>
+        <v>43978</v>
       </c>
       <c r="B65" s="4">
-        <v>56560</v>
+        <v>57921</v>
       </c>
       <c r="C65" s="4">
-        <v>1536</v>
+        <v>1562</v>
       </c>
       <c r="D65" s="4">
-        <v>589</v>
+        <v>1361</v>
       </c>
       <c r="E65" s="4">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B66" s="4">
-        <v>57921</v>
+        <v>59776</v>
       </c>
       <c r="C66" s="4">
-        <v>1562</v>
+        <v>1601</v>
       </c>
       <c r="D66" s="4">
-        <v>1361</v>
+        <v>1855</v>
       </c>
       <c r="E66" s="4">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
-        <v>43979</v>
+        <v>43980</v>
       </c>
       <c r="B67" s="4">
-        <v>59776</v>
+        <v>61006</v>
       </c>
       <c r="C67" s="4">
-        <v>1601</v>
+        <v>1626</v>
       </c>
       <c r="D67" s="4">
-        <v>1855</v>
+        <v>1230</v>
       </c>
       <c r="E67" s="4">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6">
-        <v>43980</v>
+        <v>43981</v>
       </c>
       <c r="B68" s="4">
-        <v>61006</v>
+        <v>62338</v>
       </c>
       <c r="C68" s="4">
-        <v>1626</v>
+        <v>1648</v>
       </c>
       <c r="D68" s="4">
-        <v>1230</v>
+        <v>1332</v>
       </c>
       <c r="E68" s="4">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6">
-        <v>43981</v>
+        <v>43982</v>
       </c>
       <c r="B69" s="4">
-        <v>62338</v>
+        <v>64287</v>
       </c>
       <c r="C69" s="4">
-        <v>1648</v>
+        <v>1672</v>
       </c>
       <c r="D69" s="4">
-        <v>1332</v>
+        <v>1949</v>
       </c>
       <c r="E69" s="4">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6">
-        <v>43982</v>
+        <v>43983</v>
       </c>
       <c r="B70" s="4">
-        <v>64287</v>
+        <v>64880</v>
       </c>
       <c r="C70" s="4">
-        <v>1672</v>
+        <v>1678</v>
       </c>
       <c r="D70" s="4">
-        <v>1949</v>
+        <v>593</v>
       </c>
       <c r="E70" s="4">
-        <v>24</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6">
-        <v>43983</v>
+        <v>43984</v>
       </c>
       <c r="B71" s="4">
-        <v>64880</v>
+        <v>66568</v>
       </c>
       <c r="C71" s="4">
-        <v>1678</v>
+        <v>1698</v>
       </c>
       <c r="D71" s="4">
-        <v>593</v>
+        <v>1688</v>
       </c>
       <c r="E71" s="4">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B72" s="4">
-        <v>66568</v>
+        <v>68271</v>
       </c>
       <c r="C72" s="4">
-        <v>1698</v>
+        <v>1734</v>
       </c>
       <c r="D72" s="4">
-        <v>1688</v>
+        <v>1703</v>
       </c>
       <c r="E72" s="4">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B73" s="4">
-        <v>68271</v>
+        <v>69920</v>
       </c>
       <c r="C73" s="4">
-        <v>1734</v>
+        <v>1767</v>
       </c>
       <c r="D73" s="4">
-        <v>1703</v>
+        <v>1649</v>
       </c>
       <c r="E73" s="4">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B74" s="4">
-        <v>69920</v>
+        <v>71613</v>
       </c>
       <c r="C74" s="4">
-        <v>1767</v>
+        <v>1788</v>
       </c>
       <c r="D74" s="4">
-        <v>1649</v>
+        <v>1693</v>
       </c>
       <c r="E74" s="4">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6">
-        <v>43987</v>
+        <v>43988</v>
       </c>
       <c r="B75" s="4">
-        <v>71613</v>
+        <v>73553</v>
       </c>
       <c r="C75" s="4">
-        <v>1788</v>
+        <v>1819</v>
       </c>
       <c r="D75" s="4">
-        <v>1693</v>
+        <v>1940</v>
       </c>
       <c r="E75" s="4">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6">
-        <v>43988</v>
+        <v>43989</v>
       </c>
       <c r="B76" s="4">
-        <v>73553</v>
+        <v>74978</v>
       </c>
       <c r="C76" s="4">
-        <v>1819</v>
+        <v>1830</v>
       </c>
       <c r="D76" s="4">
-        <v>1940</v>
+        <v>1425</v>
       </c>
       <c r="E76" s="4">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6">
-        <v>43989</v>
+        <v>43990</v>
       </c>
       <c r="B77" s="4">
-        <v>74978</v>
+        <v>75616</v>
       </c>
       <c r="C77" s="4">
-        <v>1830</v>
+        <v>1836</v>
       </c>
       <c r="D77" s="4">
-        <v>1425</v>
+        <v>638</v>
       </c>
       <c r="E77" s="4">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B78" s="4">
-        <v>75616</v>
+        <v>77253</v>
       </c>
       <c r="C78" s="4">
-        <v>1836</v>
+        <v>1853</v>
       </c>
       <c r="D78" s="4">
-        <v>638</v>
+        <v>1637</v>
       </c>
       <c r="E78" s="4">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B79" s="4">
-        <v>77253</v>
+        <v>79757</v>
       </c>
       <c r="C79" s="4">
-        <v>1853</v>
+        <v>1885</v>
       </c>
       <c r="D79" s="4">
-        <v>1637</v>
+        <v>2504</v>
       </c>
       <c r="E79" s="4">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="B80" s="4">
-        <v>79757</v>
+        <v>81583</v>
       </c>
       <c r="C80" s="4">
-        <v>1885</v>
+        <v>1920</v>
       </c>
       <c r="D80" s="4">
-        <v>2504</v>
+        <v>1826</v>
       </c>
       <c r="E80" s="4">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6">
-        <v>43993</v>
+        <v>43994</v>
       </c>
       <c r="B81" s="4">
-        <v>81583</v>
+        <v>83680</v>
       </c>
       <c r="C81" s="4">
-        <v>1920</v>
+        <v>1939</v>
       </c>
       <c r="D81" s="4">
-        <v>1826</v>
+        <v>2097</v>
       </c>
       <c r="E81" s="4">
-        <v>35</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6">
-        <v>43994</v>
+        <v>43995</v>
       </c>
       <c r="B82" s="4">
-        <v>83680</v>
+        <v>86011</v>
       </c>
       <c r="C82" s="4">
-        <v>1939</v>
+        <v>1957</v>
       </c>
       <c r="D82" s="4">
-        <v>2097</v>
+        <v>2331</v>
       </c>
       <c r="E82" s="4">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6">
-        <v>43995</v>
+        <v>43996</v>
       </c>
       <c r="B83" s="4">
-        <v>86011</v>
+        <v>87854</v>
       </c>
       <c r="C83" s="4">
-        <v>1957</v>
+        <v>1976</v>
       </c>
       <c r="D83" s="4">
-        <v>2331</v>
+        <v>1843</v>
       </c>
       <c r="E83" s="4">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B84" s="4">
-        <v>87854</v>
+        <v>89108</v>
       </c>
       <c r="C84" s="4">
-        <v>1976</v>
+        <v>1983</v>
       </c>
       <c r="D84" s="4">
-        <v>1843</v>
+        <v>1254</v>
       </c>
       <c r="E84" s="4">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B85" s="4">
-        <v>89108</v>
+        <v>91730</v>
       </c>
       <c r="C85" s="4">
-        <v>1983</v>
+        <v>2029</v>
       </c>
       <c r="D85" s="4">
-        <v>1254</v>
+        <v>2622</v>
       </c>
       <c r="E85" s="4">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="6">
-        <v>43998</v>
+      <c r="A86" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="B86" s="4">
-        <v>91730</v>
+        <v>93206</v>
       </c>
       <c r="C86" s="4">
         <v>2029</v>
       </c>
       <c r="D86" s="4">
-        <v>2622</v>
+        <v>1476</v>
       </c>
       <c r="E86" s="4">
-        <v>46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
-        <v>336</v>
+      <c r="A87" s="6">
+        <v>43999</v>
       </c>
       <c r="B87" s="4">
-        <v>93206</v>
+        <v>96335</v>
       </c>
       <c r="C87" s="4">
-        <v>2029</v>
+        <v>2062</v>
       </c>
       <c r="D87" s="4">
-        <v>1476</v>
+        <v>3129</v>
       </c>
       <c r="E87" s="4">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B88" s="4">
-        <v>96335</v>
+        <v>99851</v>
       </c>
       <c r="C88" s="4">
-        <v>2062</v>
+        <v>2105</v>
       </c>
       <c r="D88" s="4">
-        <v>3129</v>
+        <v>3516</v>
       </c>
       <c r="E88" s="4">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B89" s="4">
-        <v>99851</v>
+        <v>103305</v>
       </c>
       <c r="C89" s="4">
-        <v>2105</v>
+        <v>2140</v>
       </c>
       <c r="D89" s="4">
-        <v>3516</v>
+        <v>3454</v>
       </c>
       <c r="E89" s="4">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6">
-        <v>44001</v>
+        <v>44002</v>
       </c>
       <c r="B90" s="4">
-        <v>103305</v>
+        <v>107735</v>
       </c>
       <c r="C90" s="4">
-        <v>2140</v>
+        <v>2165</v>
       </c>
       <c r="D90" s="4">
-        <v>3454</v>
+        <v>4430</v>
       </c>
       <c r="E90" s="4">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6">
-        <v>44002</v>
+        <v>44003</v>
       </c>
       <c r="B91" s="4">
-        <v>107735</v>
+        <v>111601</v>
       </c>
       <c r="C91" s="4">
-        <v>2165</v>
+        <v>2182</v>
       </c>
       <c r="D91" s="4">
-        <v>4430</v>
+        <v>3866</v>
       </c>
       <c r="E91" s="4">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6">
-        <v>44003</v>
+        <v>44004</v>
       </c>
       <c r="B92" s="4">
-        <v>111601</v>
+        <v>114881</v>
       </c>
       <c r="C92" s="4">
-        <v>2182</v>
+        <v>2192</v>
       </c>
       <c r="D92" s="4">
-        <v>3866</v>
+        <v>3280</v>
       </c>
       <c r="E92" s="4">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="6">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B93" s="4">
-        <v>114881</v>
+        <v>120370</v>
       </c>
       <c r="C93" s="4">
-        <v>2192</v>
+        <v>2220</v>
       </c>
       <c r="D93" s="4">
-        <v>3280</v>
+        <v>5489</v>
       </c>
       <c r="E93" s="4">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="6">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B94" s="4">
-        <v>120370</v>
+        <v>125921</v>
       </c>
       <c r="C94" s="4">
-        <v>2220</v>
+        <v>2249</v>
       </c>
       <c r="D94" s="4">
-        <v>5489</v>
+        <v>5551</v>
       </c>
       <c r="E94" s="4">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6">
-        <v>44006</v>
+        <v>44007</v>
       </c>
       <c r="B95" s="4">
-        <v>125921</v>
+        <v>131917</v>
       </c>
       <c r="C95" s="4">
-        <v>2249</v>
+        <v>2296</v>
       </c>
       <c r="D95" s="4">
-        <v>5551</v>
+        <v>5996</v>
       </c>
       <c r="E95" s="4">
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6">
-        <v>44007</v>
+        <v>44008</v>
       </c>
       <c r="B96" s="4">
-        <v>131917</v>
+        <v>137624</v>
       </c>
       <c r="C96" s="4">
-        <v>2296</v>
+        <v>2324</v>
       </c>
       <c r="D96" s="4">
-        <v>5996</v>
+        <v>5707</v>
       </c>
       <c r="E96" s="4">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6">
-        <v>44008</v>
+        <v>44009</v>
       </c>
       <c r="B97" s="4">
-        <v>137624</v>
+        <v>143366</v>
       </c>
       <c r="C97" s="4">
-        <v>2324</v>
+        <v>2366</v>
       </c>
       <c r="D97" s="4">
-        <v>5707</v>
+        <v>5742</v>
       </c>
       <c r="E97" s="4">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6">
-        <v>44009</v>
+        <v>44010</v>
       </c>
       <c r="B98" s="4">
-        <v>143366</v>
+        <v>148723</v>
       </c>
       <c r="C98" s="4">
-        <v>2366</v>
+        <v>2393</v>
       </c>
       <c r="D98" s="4">
-        <f>B98-B97</f>
-        <v>5742</v>
+        <v>5357</v>
       </c>
       <c r="E98" s="4">
-        <v>42</v>
-      </c>
-      <c r="F98" s="21"/>
-    </row>
-    <row r="99" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6">
-        <v>44010</v>
+        <v>44011</v>
       </c>
       <c r="B99" s="4">
-        <v>148723</v>
+        <v>153011</v>
       </c>
       <c r="C99" s="4">
-        <v>2393</v>
+        <v>2403</v>
       </c>
       <c r="D99" s="4">
-        <f>B99-B98</f>
-        <v>5357</v>
+        <v>4288</v>
       </c>
       <c r="E99" s="4">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
+        <v>44012</v>
+      </c>
+      <c r="B100" s="4">
+        <v>159986</v>
+      </c>
+      <c r="C100" s="4">
+        <v>2424</v>
+      </c>
+      <c r="D100" s="4">
+        <v>6975</v>
+      </c>
+      <c r="E100" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="B102" s="19"/>
+      <c r="C102" s="19"/>
+      <c r="D102" s="19"/>
+      <c r="E102" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A102:E102"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6666,8 +6680,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6677,32 +6691,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="B1" s="18"/>
+      <c r="A1" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
-        <v>79974.2</v>
+        <v>84817.600000000006</v>
       </c>
       <c r="B3" s="8">
-        <v>66356</v>
+        <v>72744</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="B5" s="18"/>
+      <c r="A5" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6716,12 +6730,12 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="J86" sqref="J86"/>
+      <pane ySplit="2" topLeftCell="A69" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6729,46 +6743,46 @@
     <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+    </row>
+    <row r="2" spans="1:8" ht="58" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-    </row>
-    <row r="2" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="F2" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6776,25 +6790,25 @@
         <v>43925</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D3" s="8">
         <v>63751</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="17">
         <v>0.1056</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6802,25 +6816,25 @@
         <v>43926</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D4" s="8">
         <v>70938</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="17">
         <v>9.3299999999999994E-2</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6828,25 +6842,25 @@
         <v>43927</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D5" s="8">
         <v>85357</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="17">
         <v>8.8909998585200004E-2</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6854,25 +6868,25 @@
         <v>43928</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D6" s="8">
         <v>88649</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="17">
         <v>0.1094</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6880,25 +6894,25 @@
         <v>43929</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D7" s="8">
         <v>96258</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="17">
         <v>0.11070000000000001</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6906,25 +6920,25 @@
         <v>43930</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D8" s="8">
         <v>106134</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="17">
         <v>0.100351636462</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6932,25 +6946,25 @@
         <v>43931</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D9" s="8">
         <v>115918</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="17">
         <v>0.1055125178708</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6958,25 +6972,25 @@
         <v>43932</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D10" s="8">
         <v>120533</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="17">
         <v>0.11360000000000001</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -6984,25 +6998,25 @@
         <v>43933</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D11" s="8">
         <v>124553</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="17">
         <v>0.12479999999999999</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7010,25 +7024,25 @@
         <v>43934</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D12" s="8">
         <v>133226</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="17">
         <v>0.1386</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7036,25 +7050,25 @@
         <v>43935</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D13" s="8">
         <v>146467</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="17">
         <v>0.1101</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7062,25 +7076,25 @@
         <v>43936</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D14" s="8">
         <v>151810</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="17">
         <v>0.1105</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7088,25 +7102,25 @@
         <v>43937</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D15" s="8">
         <v>158547</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="17">
         <v>0.1188</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7114,25 +7128,25 @@
         <v>43938</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D16" s="8">
         <v>169536</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="17">
         <v>0.10630000000000001</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7140,25 +7154,25 @@
         <v>43939</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D17" s="8">
         <v>176239</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="17">
         <v>0.1023</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7166,25 +7180,25 @@
         <v>43940</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D18" s="8">
         <v>182710</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="17">
         <v>9.35E-2</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7192,25 +7206,25 @@
         <v>43941</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D19" s="8">
         <v>190394</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="17">
         <v>9.7117268401900006E-2</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7218,25 +7232,25 @@
         <v>43942</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D20" s="8">
         <v>205399</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="17">
         <v>9.4500000000000001E-2</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7244,25 +7258,25 @@
         <v>43943</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D21" s="8">
         <v>216783</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="17">
         <v>8.5800000000000001E-2</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7270,25 +7284,25 @@
         <v>43944</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D22" s="8">
         <v>225078</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="17">
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7296,25 +7310,25 @@
         <v>43945</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D23" s="8">
         <v>242547</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="17">
         <v>7.4399999999999994E-2</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7322,51 +7336,51 @@
         <v>43946</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D24" s="8">
         <v>262816</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="17">
         <v>6.3700000000000007E-2</v>
       </c>
       <c r="F24" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>43947</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D25" s="8">
         <v>276021</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="17">
         <v>6.1199999999999997E-2</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7374,25 +7388,25 @@
         <v>43948</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D26" s="8">
         <v>290517</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="17">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="F26" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7400,25 +7414,25 @@
         <v>43949</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D27" s="8">
         <v>300384</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="17">
         <v>6.2899999999999998E-2</v>
       </c>
       <c r="F27" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7426,25 +7440,25 @@
         <v>43950</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D28" s="8">
         <v>314790</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="17">
         <v>6.10670666381E-2</v>
       </c>
       <c r="F28" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7452,25 +7466,25 @@
         <v>43951</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D29" s="8">
         <v>330300</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="17">
         <v>5.8381327098900003E-2</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7478,25 +7492,25 @@
         <v>43952</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D30" s="8">
         <v>351775</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="17">
         <v>5.8799999999999998E-2</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7504,25 +7518,25 @@
         <v>43953</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D31" s="8">
         <v>380648</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="17">
         <v>5.7299999999999997E-2</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7530,25 +7544,25 @@
         <v>43954</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D32" s="8">
         <v>390560</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="17">
         <v>6.0400000000000002E-2</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7556,25 +7570,25 @@
         <v>43955</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D33" s="8">
         <v>407398</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="17">
         <v>6.0199999999999997E-2</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7582,25 +7596,25 @@
         <v>43956</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D34" s="8">
         <v>427210</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="17">
         <v>5.6754924069199998E-2</v>
       </c>
       <c r="F34" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7608,25 +7622,25 @@
         <v>43957</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D35" s="8">
         <v>438938</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="17">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7634,25 +7648,25 @@
         <v>43958</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D36" s="8">
         <v>455162</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="17">
         <v>5.8500000000000003E-2</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7660,25 +7674,25 @@
         <v>43959</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D37" s="8">
         <v>477118</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="17">
         <v>5.8900000000000001E-2</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7694,17 +7708,17 @@
       <c r="D38" s="8">
         <v>489294</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="17">
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7720,17 +7734,17 @@
       <c r="D39" s="8">
         <v>513978</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="17">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7746,17 +7760,17 @@
       <c r="D40" s="8">
         <v>525697</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="17">
         <v>6.3711443038399998E-2</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7772,17 +7786,17 @@
       <c r="D41" s="8">
         <v>538172</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="17">
         <v>6.9199999999999998E-2</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7798,17 +7812,17 @@
       <c r="D42" s="8">
         <v>587431</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="17">
         <v>5.3699999999999998E-2</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G42" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7824,17 +7838,17 @@
       <c r="D43" s="8">
         <v>623284</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="17">
         <v>5.0299999999999997E-2</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7850,17 +7864,17 @@
       <c r="D44" s="8">
         <v>645992</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="17">
         <v>5.0900000000000001E-2</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -7876,7 +7890,7 @@
       <c r="D45" s="8">
         <v>678471</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="17">
         <v>4.8300000000000003E-2</v>
       </c>
       <c r="F45" s="8">
@@ -7902,7 +7916,7 @@
       <c r="D46" s="8">
         <v>693276</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="17">
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="F46" s="8">
@@ -7928,7 +7942,7 @@
       <c r="D47" s="8">
         <v>723013</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="17">
         <v>4.4720144337000001E-2</v>
       </c>
       <c r="F47" s="8">
@@ -7954,7 +7968,7 @@
       <c r="D48" s="8">
         <v>744937</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="17">
         <v>4.7E-2</v>
       </c>
       <c r="F48" s="8">
@@ -7980,7 +7994,7 @@
       <c r="D49" s="8">
         <v>770241</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="17">
         <v>5.4300000000000001E-2</v>
       </c>
       <c r="F49" s="8">
@@ -8006,7 +8020,7 @@
       <c r="D50" s="8">
         <v>800433</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="17">
         <v>5.5100000000000003E-2</v>
       </c>
       <c r="F50" s="8">
@@ -8032,7 +8046,7 @@
       <c r="D51" s="8">
         <v>834437</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="17">
         <v>5.3900000000000003E-2</v>
       </c>
       <c r="F51" s="8">
@@ -8050,22 +8064,22 @@
         <v>43974</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D52" s="8">
         <v>870935</v>
       </c>
-      <c r="E52" s="15" t="s">
-        <v>266</v>
+      <c r="E52" s="17" t="s">
+        <v>265</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H52" s="8">
         <v>27495</v>
@@ -8084,7 +8098,7 @@
       <c r="D53" s="8">
         <v>886354</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="17">
         <v>4.87E-2</v>
       </c>
       <c r="F53" s="8">
@@ -8110,7 +8124,7 @@
       <c r="D54" s="8">
         <v>906074</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="17">
         <v>5.1499999999999997E-2</v>
       </c>
       <c r="F54" s="8">
@@ -8136,7 +8150,7 @@
       <c r="D55" s="8">
         <v>943239</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="17">
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="F55" s="8">
@@ -8162,7 +8176,7 @@
       <c r="D56" s="8">
         <v>961861</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="17">
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="F56" s="8">
@@ -8188,7 +8202,7 @@
       <c r="D57" s="8">
         <v>989994</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="17">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="F57" s="8">
@@ -8214,7 +8228,7 @@
       <c r="D58" s="8">
         <v>1027449</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="17">
         <v>4.5600000000000002E-2</v>
       </c>
       <c r="F58" s="8">
@@ -8240,14 +8254,14 @@
       <c r="D59" s="8">
         <v>1054793</v>
       </c>
-      <c r="E59" s="15" t="s">
-        <v>266</v>
+      <c r="E59" s="17" t="s">
+        <v>265</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H59" s="8">
         <v>26265</v>
@@ -8266,7 +8280,7 @@
       <c r="D60" s="8">
         <v>1073491</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="17">
         <v>5.43810873784E-2</v>
       </c>
       <c r="F60" s="8">
@@ -8292,7 +8306,7 @@
       <c r="D61" s="8">
         <v>1093676</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="17">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="F61" s="8">
@@ -8318,7 +8332,7 @@
       <c r="D62" s="8">
         <v>1117274</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E62" s="17">
         <v>6.6199999999999995E-2</v>
       </c>
       <c r="F62" s="8">
@@ -8344,7 +8358,7 @@
       <c r="D63" s="8">
         <v>1150868</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E63" s="17">
         <v>6.2600000000000003E-2</v>
       </c>
       <c r="F63" s="8">
@@ -8370,7 +8384,7 @@
       <c r="D64" s="8">
         <v>1174948</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E64" s="17">
         <v>6.0299999999999999E-2</v>
       </c>
       <c r="F64" s="8">
@@ -8396,7 +8410,7 @@
       <c r="D65" s="8">
         <v>1209187</v>
       </c>
-      <c r="E65" s="15">
+      <c r="E65" s="17">
         <v>6.4399999999999999E-2</v>
       </c>
       <c r="F65" s="8">
@@ -8422,7 +8436,7 @@
       <c r="D66" s="8">
         <v>1218955</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E66" s="17">
         <v>0.08</v>
       </c>
       <c r="F66" s="8">
@@ -8448,7 +8462,7 @@
       <c r="D67" s="8">
         <v>1255899</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E67" s="17">
         <v>7.11381708088E-2</v>
       </c>
       <c r="F67" s="8">
@@ -8474,7 +8488,7 @@
       <c r="D68" s="8">
         <v>1286139</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E68" s="17">
         <v>6.6600000000000006E-2</v>
       </c>
       <c r="F68" s="8">
@@ -8500,7 +8514,7 @@
       <c r="D69" s="8">
         <v>1302049</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E69" s="17">
         <v>6.9199999999999998E-2</v>
       </c>
       <c r="F69" s="8">
@@ -8526,7 +8540,7 @@
       <c r="D70" s="8">
         <v>1348893</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E70" s="17">
         <v>6.8500000000000005E-2</v>
       </c>
       <c r="F70" s="8">
@@ -8552,7 +8566,7 @@
       <c r="D71" s="8">
         <v>1370131</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E71" s="17">
         <v>7.0499999999999993E-2</v>
       </c>
       <c r="F71" s="8">
@@ -8578,7 +8592,7 @@
       <c r="D72" s="8">
         <v>1404369</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E72" s="17">
         <v>7.22E-2</v>
       </c>
       <c r="F72" s="8">
@@ -8604,7 +8618,7 @@
       <c r="D73" s="8">
         <v>1442950</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E73" s="17">
         <v>6.1100000000000002E-2</v>
       </c>
       <c r="F73" s="8">
@@ -8630,7 +8644,7 @@
       <c r="D74" s="8">
         <v>1463851</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E74" s="17">
         <v>6.6219239373599997E-2</v>
       </c>
       <c r="F74" s="8">
@@ -8656,7 +8670,7 @@
       <c r="D75" s="8">
         <v>1499015</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E75" s="17">
         <v>6.7100000000000007E-2</v>
       </c>
       <c r="F75" s="8">
@@ -8682,7 +8696,7 @@
       <c r="D76" s="8">
         <v>1522434</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E76" s="17">
         <v>6.9400000000000003E-2</v>
       </c>
       <c r="F76" s="8">
@@ -8708,7 +8722,7 @@
       <c r="D77" s="8">
         <v>1560537</v>
       </c>
-      <c r="E77" s="15">
+      <c r="E77" s="17">
         <v>7.4999999999999997E-2</v>
       </c>
       <c r="F77" s="8">
@@ -8734,7 +8748,7 @@
       <c r="D78" s="8">
         <v>1576925</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E78" s="17">
         <v>8.5257188117199997E-2</v>
       </c>
       <c r="F78" s="8">
@@ -8760,7 +8774,7 @@
       <c r="D79" s="8">
         <v>1622851</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E79" s="17">
         <v>8.9399999999999993E-2</v>
       </c>
       <c r="F79" s="8">
@@ -8786,7 +8800,7 @@
       <c r="D80" s="8">
         <v>1690124</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E80" s="17">
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="F80" s="8">
@@ -8812,7 +8826,7 @@
       <c r="D81" s="8">
         <v>1715177</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E81" s="17">
         <v>9.5100000000000004E-2</v>
       </c>
       <c r="F81" s="8">
@@ -8838,7 +8852,7 @@
       <c r="D82" s="8">
         <v>1767701</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E82" s="17">
         <v>9.64E-2</v>
       </c>
       <c r="F82" s="8">
@@ -8864,7 +8878,7 @@
       <c r="D83" s="8">
         <v>1805642</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E83" s="17">
         <v>0.1042</v>
       </c>
       <c r="F83" s="8">
@@ -8890,7 +8904,7 @@
       <c r="D84" s="8">
         <v>1836037</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E84" s="17">
         <v>0.1176</v>
       </c>
       <c r="F84" s="8">
@@ -8916,7 +8930,7 @@
       <c r="D85" s="8">
         <v>1875197</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E85" s="17">
         <v>0.1173</v>
       </c>
       <c r="F85" s="8">
@@ -8942,7 +8956,7 @@
       <c r="D86" s="8">
         <v>1903661</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E86" s="17">
         <v>0.1323</v>
       </c>
       <c r="F86" s="8">
@@ -8968,7 +8982,7 @@
       <c r="D87" s="8">
         <v>1959617</v>
       </c>
-      <c r="E87" s="15">
+      <c r="E87" s="17">
         <v>0.1431</v>
       </c>
       <c r="F87" s="8">
@@ -8985,60 +8999,112 @@
       <c r="A88" s="6">
         <v>44010</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>266</v>
+      <c r="B88" s="8">
+        <v>1819189</v>
+      </c>
+      <c r="C88" s="8">
+        <v>187535</v>
       </c>
       <c r="D88" s="8">
         <v>2006724</v>
       </c>
-      <c r="E88" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="H88" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="20" t="s">
+      <c r="E88" s="17">
+        <v>0.13739999999999999</v>
+      </c>
+      <c r="F88" s="8">
+        <v>38597</v>
+      </c>
+      <c r="G88" s="8">
+        <v>3052</v>
+      </c>
+      <c r="H88" s="8">
+        <v>41650</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <v>44011</v>
+      </c>
+      <c r="B89" s="8">
+        <v>1869282</v>
+      </c>
+      <c r="C89" s="8">
+        <v>192657</v>
+      </c>
+      <c r="D89" s="8">
+        <v>2061939</v>
+      </c>
+      <c r="E89" s="17">
+        <v>0.14019999999999999</v>
+      </c>
+      <c r="F89" s="8">
+        <v>38856</v>
+      </c>
+      <c r="G89" s="8">
+        <v>3178</v>
+      </c>
+      <c r="H89" s="8">
+        <v>42034</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <v>44012</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="D90" s="8">
+        <v>2119036</v>
+      </c>
+      <c r="E90" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="G90" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="H90" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="14"/>
+    </row>
+    <row r="93" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-    </row>
-    <row r="91" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A91:H91"/>
+    <mergeCell ref="A92:H92"/>
+    <mergeCell ref="A93:H93"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9048,8 +9114,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9059,48 +9125,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>281</v>
-      </c>
-      <c r="B1" s="18"/>
+      <c r="A1" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B3" s="8">
-        <v>83799</v>
+        <v>84899</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B4" s="8">
-        <v>1922925</v>
+        <v>2034137</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5" s="8">
+        <v>2119036</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="B5" s="8">
-        <v>2006724</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9118,8 +9184,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9129,40 +9195,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="B1" s="18"/>
+      <c r="A1" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B3" s="8">
-        <v>184398</v>
+        <v>192657</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B4" s="8">
-        <v>6940</v>
+        <v>7116</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="B6" s="18"/>
+      <c r="A6" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9180,8 +9246,8 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9191,64 +9257,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="B1" s="18"/>
+      <c r="A1" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B3" s="9">
-        <v>5497</v>
+        <v>6533</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B4" s="9">
-        <v>54701</v>
+        <v>55266</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B5" s="9">
-        <v>12751</v>
+        <v>13711</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B6" s="9">
-        <v>1355</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B7" s="9">
-        <v>5605</v>
+        <v>5561</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="B9" s="18"/>
+      <c r="A9" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B9" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9262,11 +9328,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C92"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <pane ySplit="2" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -9278,21 +9344,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="A1" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
@@ -9537,7 +9603,7 @@
         <v>1597</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -10241,17 +10307,39 @@
         <v>5497</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
+    <row r="89" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>87</v>
+      </c>
+      <c r="B89" s="6">
+        <v>44011</v>
+      </c>
+      <c r="C89" s="9">
+        <v>5913</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>88</v>
+      </c>
+      <c r="B90" s="6">
+        <v>44012</v>
+      </c>
+      <c r="C90" s="9">
+        <v>6533</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="A92:C92"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -10264,7 +10352,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection sqref="A1:C1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
       <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
@@ -10276,175 +10364,175 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>302</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="A1" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B3" s="11">
         <v>85</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="20">
         <f>B3/B$16</f>
-        <v>3.9977424513216063E-3</v>
+        <v>3.9792144562520483E-3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B4" s="11">
-        <v>342</v>
-      </c>
-      <c r="C4" s="13">
+        <v>344</v>
+      </c>
+      <c r="C4" s="20">
         <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
-        <v>1.6085034333552819E-2</v>
+        <v>1.6104114975890642E-2</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B5" s="11">
-        <v>931</v>
-      </c>
-      <c r="C5" s="13">
+        <v>941</v>
+      </c>
+      <c r="C5" s="20">
         <f t="shared" si="0"/>
-        <v>4.3787037908004894E-2</v>
+        <v>4.4052244745096204E-2</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B6" s="11">
-        <v>3623</v>
-      </c>
-      <c r="C6" s="13">
+        <v>3644</v>
+      </c>
+      <c r="C6" s="20">
         <f t="shared" si="0"/>
-        <v>0.17039789295456684</v>
+        <v>0.17059126445391135</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B7" s="11">
-        <v>3906</v>
-      </c>
-      <c r="C7" s="13">
+        <v>3933</v>
+      </c>
+      <c r="C7" s="20">
         <f t="shared" si="0"/>
-        <v>0.18370802370426112</v>
+        <v>0.1841205936051683</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B8" s="11">
-        <v>3860</v>
-      </c>
-      <c r="C8" s="13">
+        <v>3876</v>
+      </c>
+      <c r="C8" s="20">
         <f t="shared" si="0"/>
-        <v>0.18154453955413413</v>
+        <v>0.18145217920509341</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B9" s="11">
-        <v>3690</v>
-      </c>
-      <c r="C9" s="13">
+        <v>3699</v>
+      </c>
+      <c r="C9" s="20">
         <f t="shared" si="0"/>
-        <v>0.17354905465149092</v>
+        <v>0.17316605027854501</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B10" s="11">
-        <v>1472</v>
-      </c>
-      <c r="C10" s="13">
+        <v>1478</v>
+      </c>
+      <c r="C10" s="20">
         <f t="shared" si="0"/>
-        <v>6.9231492804063585E-2</v>
+        <v>6.9191517251065024E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B11" s="11">
-        <v>1086</v>
-      </c>
-      <c r="C11" s="13">
+        <v>1085</v>
+      </c>
+      <c r="C11" s="20">
         <f t="shared" si="0"/>
-        <v>5.1077038848650176E-2</v>
+        <v>5.0793502176864382E-2</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B12" s="11">
-        <v>697</v>
-      </c>
-      <c r="C12" s="13">
+        <v>699</v>
+      </c>
+      <c r="C12" s="20">
         <f t="shared" si="0"/>
-        <v>3.2781488100837176E-2</v>
+        <v>3.2723187116708019E-2</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B13" s="11">
-        <v>526</v>
-      </c>
-      <c r="C13" s="13">
+        <v>528</v>
+      </c>
+      <c r="C13" s="20">
         <f t="shared" si="0"/>
-        <v>2.4738970934060765E-2</v>
+        <v>2.4717943916483312E-2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B14" s="11">
-        <v>1044</v>
-      </c>
-      <c r="C14" s="13">
+        <v>1049</v>
+      </c>
+      <c r="C14" s="20">
         <f t="shared" si="0"/>
-        <v>4.9101683755055969E-2</v>
+        <v>4.9108187818922337E-2</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B15" s="11">
         <v>0</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10454,26 +10542,26 @@
         <v>258</v>
       </c>
       <c r="B16" s="11">
-        <v>21262</v>
-      </c>
-      <c r="C16" s="13">
+        <v>21361</v>
+      </c>
+      <c r="C16" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
         <v>319</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-    </row>
-    <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
+++ b/output/snapshot/6feb4082-4929-52a1-a1e7-b5d0fd898e2f.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\CHS-AAU\Epi\Covid\For Ektron\CaseCountArchive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A7A3DCE4-2C13-42F6-B874-F19D761131C3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3C7CB3FB-09D3-4EEC-8134-AB956647F20F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12413" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Case and Fatalities" sheetId="1" r:id="rId1"/>
@@ -28,14 +28,14 @@
     <sheet name="Fatalities by Gender" sheetId="13" r:id="rId13"/>
     <sheet name="Fatalities by Race-Ethnicity" sheetId="14" r:id="rId14"/>
   </sheets>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="338">
-  <si>
-    <t>COVID-19 Cases and Fatalities by County as of 6/28 at 10:45AM CST</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="336">
+  <si>
+    <t>COVID-19 Cases and Fatalities by County as of 7/01 at 10:45AM CST</t>
   </si>
   <si>
     <t>County</t>
@@ -812,7 +812,7 @@
     <t>Total</t>
   </si>
   <si>
-    <t>COVID-19 Positive Cases and Fatalities over Time as of 6/28 at 10:45AM CST</t>
+    <t>COVID-19 Positive Cases and Fatalities over Time as of 7/01 at 10:45AM CST</t>
   </si>
   <si>
     <t>DISCLAIMER: All data are provisional and are subject to change.</t>
@@ -842,7 +842,7 @@
     <t>.</t>
   </si>
   <si>
-    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 6/28 at 3:00PM CST</t>
+    <t>Estimated Number of People Recovered from and Active Cases of SARS-CoV-2 as of 7/01 at 3:00PM CST</t>
   </si>
   <si>
     <t>Recovered</t>
@@ -854,7 +854,7 @@
     <t>This number is an estimate based on several assumptions related to hospitalization rates and recovery times, which were informed by data available to date. These assumptions are subject to change as we learn more about COVID-19. The estimated number does not include data from any cases reported prior to 3/24/2020.</t>
   </si>
   <si>
-    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 6/28 at 3:00PM CST</t>
+    <t>Testing and Positivity Rate (Previous 7 Days) over Time as of 7/01 at 3:00PM CST</t>
   </si>
   <si>
     <t>Viral Tests</t>
@@ -895,7 +895,7 @@
     <t>*Average of previous 7 days</t>
   </si>
   <si>
-    <t>Number of People Tested for SARS-CoV-2 in Texas as of 6/28 at 3:00PM CST</t>
+    <t>Number of People Tested for SARS-CoV-2 in Texas as of 7/01 at 3:00PM CST</t>
   </si>
   <si>
     <t>Location</t>
@@ -916,7 +916,7 @@
     <t>*Unable to deduplicate figures for Commercial labs.</t>
   </si>
   <si>
-    <t>Number of COVID-19 Antibody Tests in Texas as of 6/27 at 3:00PM CST</t>
+    <t>Number of COVID-19 Antibody Tests in Texas as of 7/30 at 3:00PM CST</t>
   </si>
   <si>
     <t>Antibody Tests</t>
@@ -928,7 +928,7 @@
     <t>Number of Positive Antibody Tests Reported</t>
   </si>
   <si>
-    <t>Texas Statewide Hospitalization Data as of 6/28 at 9:30AM CST</t>
+    <t>Texas Statewide Hospitalization Data as of 7/01 at 9:30AM CST</t>
   </si>
   <si>
     <t>Hospital data</t>
@@ -949,7 +949,7 @@
     <t>Available Texas Ventilators</t>
   </si>
   <si>
-    <t>Number of COVID-19 Hospitalizations by Day as of 6/28 at 9:30AM CST</t>
+    <t>Number of COVID-19 Hospitalizations by Day as of 7/01 at 9:30AM CST</t>
   </si>
   <si>
     <t>Obs</t>
@@ -958,7 +958,7 @@
     <t>Hospitalizations</t>
   </si>
   <si>
-    <t>Age of Confirmed Cases as of 6/28 at 9:30 AM CST</t>
+    <t>Age of Confirmed Cases as of 7/01 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Age
@@ -1013,10 +1013,10 @@
     <t>Demographic data comes from completed case investigations by local and regional health departments received by DSHS.</t>
   </si>
   <si>
-    <t>Completed case investigations received by DSHS =          21,262</t>
-  </si>
-  <si>
-    <t>Gender of Confirmed Cases as of 6/28 at 9:30 AM CST</t>
+    <t>Completed case investigations received by DSHS =          21,960</t>
+  </si>
+  <si>
+    <t>Gender of Confirmed Cases as of 7/01 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Gender</t>
@@ -1028,7 +1028,7 @@
     <t>Male</t>
   </si>
   <si>
-    <t>Race/Ethnicity of Confirmed Cases as of 6/28 at 9:30 AM CST</t>
+    <t>Race/Ethnicity of Confirmed Cases as of 7/01 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Race/Ethnicity</t>
@@ -1049,37 +1049,34 @@
     <t>White</t>
   </si>
   <si>
-    <t>Age of Confirmed Fatalities as of 6/28 at 9:30 AM CST</t>
+    <t>Age of Confirmed Fatalities as of 7/01 at 9:30 AM CST</t>
   </si>
   <si>
     <t>Completed investigations received by DSHS =          662</t>
   </si>
   <si>
-    <t>Gender of Confirmed Fatalities as of 6/28 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>Race/Ethnicity of Confirmed Fatalities as of 6/28 at 9:30 AM CST</t>
-  </si>
-  <si>
-    <t>06/16/2020-TDCJ*</t>
-  </si>
-  <si>
-    <t>* The total reported cases for June 16 include 2,622 new cases and an additional 1,476 cases that were previously diagnosed among Texas Department of Criminal Justice inmates.</t>
+    <t>Gender of Confirmed Fatalities as of 7/01 at 9:30 AM CST</t>
+  </si>
+  <si>
+    <t>Race/Ethnicity of Confirmed Fatalities as of 7/01 at 9:30 AM CST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="###,##0"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="#########0"/>
     <numFmt numFmtId="167" formatCode="#,###,###,##0"/>
-    <numFmt numFmtId="168" formatCode="##,###,##0"/>
-    <numFmt numFmtId="169" formatCode="###,###,###,###,##0"/>
-    <numFmt numFmtId="170" formatCode="##0"/>
-    <numFmt numFmtId="171" formatCode="0.0%"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="#0.000"/>
+    <numFmt numFmtId="170" formatCode="#####0"/>
+    <numFmt numFmtId="171" formatCode="##0.00"/>
+    <numFmt numFmtId="172" formatCode="##,###,##0"/>
+    <numFmt numFmtId="173" formatCode="###,###,###,###,##0"/>
+    <numFmt numFmtId="175" formatCode="##0"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -1173,7 +1170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1204,9 +1201,6 @@
     <xf numFmtId="168" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="169" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1216,14 +1210,17 @@
     <xf numFmtId="171" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="175" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1231,13 +1228,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1376,26 +1376,26 @@
   <dimension ref="A1:C257"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A237" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="B258" sqref="B258"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
     </row>
-    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1406,62 +1406,62 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4">
-        <v>1016</v>
+        <v>1040</v>
       </c>
       <c r="C3" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="4">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="4">
-        <v>464</v>
+        <v>507</v>
       </c>
       <c r="C5" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="4">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
@@ -1472,62 +1472,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="4">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="C9" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="4">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="4">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C11" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="4">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="4">
-        <v>417</v>
+        <v>446</v>
       </c>
       <c r="C13" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
@@ -1538,51 +1538,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="4">
-        <v>1128</v>
+        <v>1315</v>
       </c>
       <c r="C16" s="4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="4">
-        <v>9652</v>
+        <v>12065</v>
       </c>
       <c r="C17" s="4">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B18" s="4">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
@@ -1593,73 +1593,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="4">
-        <v>418</v>
+        <v>438</v>
       </c>
       <c r="C21" s="4">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="4">
-        <v>2161</v>
+        <v>2336</v>
       </c>
       <c r="C22" s="4">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="4">
-        <v>1720</v>
+        <v>2005</v>
       </c>
       <c r="C23" s="4">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="4">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="C24" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>27</v>
       </c>
@@ -1670,95 +1670,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="4">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C27" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="4">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="4">
-        <v>117</v>
+        <v>135</v>
       </c>
       <c r="C29" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="4">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="C30" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="4">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C31" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C32" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="4">
-        <v>2183</v>
+        <v>2399</v>
       </c>
       <c r="C33" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="4">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C34" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>36</v>
       </c>
@@ -1769,51 +1769,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="4">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C36" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="4">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="C37" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="4">
-        <v>272</v>
+        <v>308</v>
       </c>
       <c r="C38" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="4">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="C39" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>41</v>
       </c>
@@ -1824,18 +1824,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C41" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>43</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>44</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>45</v>
       </c>
@@ -1868,18 +1868,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="4">
-        <v>2671</v>
+        <v>2997</v>
       </c>
       <c r="C45" s="4">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>47</v>
       </c>
@@ -1890,73 +1890,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B47" s="4">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B48" s="4">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="C48" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B49" s="4">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C49" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B50" s="4">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C50" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="4">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B52" s="4">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C52" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>54</v>
       </c>
@@ -1967,40 +1967,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B54" s="4">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C54" s="4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B55" s="4">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C55" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="4">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="C56" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>58</v>
       </c>
@@ -2011,84 +2011,84 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>59</v>
       </c>
       <c r="B58" s="4">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C58" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B59" s="4">
-        <v>19595</v>
+        <v>21338</v>
       </c>
       <c r="C59" s="4">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B60" s="4">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C60" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B61" s="4">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C61" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>63</v>
       </c>
       <c r="B62" s="4">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="C62" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>64</v>
       </c>
       <c r="B63" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C63" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B64" s="4">
-        <v>2630</v>
+        <v>2845</v>
       </c>
       <c r="C64" s="4">
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>66</v>
       </c>
@@ -2099,18 +2099,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B66" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C66" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>68</v>
       </c>
@@ -2121,40 +2121,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B68" s="4">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C68" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B69" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C69" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B70" s="4">
-        <v>506</v>
+        <v>558</v>
       </c>
       <c r="C70" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>72</v>
       </c>
@@ -2165,73 +2165,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>73</v>
       </c>
       <c r="B72" s="4">
-        <v>5614</v>
+        <v>6124</v>
       </c>
       <c r="C72" s="4">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B73" s="4">
-        <v>711</v>
+        <v>862</v>
       </c>
       <c r="C73" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>75</v>
       </c>
       <c r="B74" s="4">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="C74" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>76</v>
       </c>
       <c r="B75" s="4">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C75" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>77</v>
       </c>
       <c r="B76" s="4">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C76" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>78</v>
       </c>
       <c r="B77" s="4">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="C77" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>79</v>
       </c>
@@ -2242,18 +2242,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>80</v>
       </c>
       <c r="B79" s="4">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C79" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>81</v>
       </c>
@@ -2264,18 +2264,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B81" s="4">
-        <v>3716</v>
+        <v>3782</v>
       </c>
       <c r="C81" s="4">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>83</v>
       </c>
@@ -2286,51 +2286,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>84</v>
       </c>
       <c r="B83" s="4">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B84" s="4">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>86</v>
       </c>
       <c r="B85" s="4">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C85" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3" t="s">
         <v>87</v>
       </c>
       <c r="B86" s="4">
-        <v>2821</v>
+        <v>3293</v>
       </c>
       <c r="C86" s="4">
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>88</v>
       </c>
@@ -2341,18 +2341,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B88" s="4">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C88" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3" t="s">
         <v>90</v>
       </c>
@@ -2363,95 +2363,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B90" s="4">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C90" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3" t="s">
         <v>92</v>
       </c>
       <c r="B91" s="4">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="C91" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>93</v>
       </c>
       <c r="B92" s="4">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C92" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B93" s="4">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="C93" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>95</v>
       </c>
       <c r="B94" s="4">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="C94" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3" t="s">
         <v>96</v>
       </c>
       <c r="B95" s="4">
-        <v>344</v>
+        <v>539</v>
       </c>
       <c r="C95" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B96" s="4">
-        <v>638</v>
+        <v>705</v>
       </c>
       <c r="C96" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3" t="s">
         <v>98</v>
       </c>
       <c r="B97" s="4">
-        <v>235</v>
+        <v>300</v>
       </c>
       <c r="C97" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>99</v>
       </c>
@@ -2462,18 +2462,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3" t="s">
         <v>100</v>
       </c>
       <c r="B99" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C99" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>101</v>
       </c>
@@ -2484,183 +2484,183 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3" t="s">
         <v>102</v>
       </c>
       <c r="B101" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C101" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>103</v>
       </c>
       <c r="B102" s="4">
-        <v>217</v>
+        <v>254</v>
       </c>
       <c r="C102" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3" t="s">
         <v>104</v>
       </c>
       <c r="B103" s="4">
-        <v>29163</v>
+        <v>31422</v>
       </c>
       <c r="C103" s="4">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B104" s="4">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="C104" s="4">
         <v>30</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3" t="s">
         <v>106</v>
       </c>
       <c r="B105" s="4">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C105" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B106" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C106" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B107" s="4">
-        <v>2469</v>
+        <v>2819</v>
       </c>
       <c r="C107" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B108" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B109" s="4">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="C109" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B110" s="4">
-        <v>2892</v>
+        <v>3982</v>
       </c>
       <c r="C110" s="4">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B111" s="4">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C111" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3" t="s">
         <v>113</v>
       </c>
       <c r="B112" s="4">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C112" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B113" s="4">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="C113" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B114" s="4">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="C114" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3" t="s">
         <v>116</v>
       </c>
       <c r="B115" s="4">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C115" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3" t="s">
         <v>117</v>
       </c>
       <c r="B116" s="4">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C116" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3" t="s">
         <v>118</v>
       </c>
@@ -2671,29 +2671,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3" t="s">
         <v>119</v>
       </c>
       <c r="B118" s="4">
-        <v>392</v>
+        <v>452</v>
       </c>
       <c r="C118" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B119" s="4">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C119" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3" t="s">
         <v>121</v>
       </c>
@@ -2704,139 +2704,139 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B121" s="4">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C121" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B122" s="4">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C122" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3" t="s">
         <v>124</v>
       </c>
       <c r="B123" s="4">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C123" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B124" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C124" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B125" s="4">
-        <v>1631</v>
+        <v>1875</v>
       </c>
       <c r="C125" s="4">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B126" s="4">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C126" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3" t="s">
         <v>128</v>
       </c>
       <c r="B127" s="4">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3" t="s">
         <v>129</v>
       </c>
       <c r="B128" s="4">
-        <v>372</v>
+        <v>448</v>
       </c>
       <c r="C128" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3" t="s">
         <v>130</v>
       </c>
       <c r="B129" s="4">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B130" s="4">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C130" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3" t="s">
         <v>132</v>
       </c>
       <c r="B131" s="4">
-        <v>518</v>
+        <v>627</v>
       </c>
       <c r="C131" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3" t="s">
         <v>133</v>
       </c>
       <c r="B132" s="4">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="C132" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3" t="s">
         <v>134</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3" t="s">
         <v>135</v>
       </c>
@@ -2858,29 +2858,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3" t="s">
         <v>136</v>
       </c>
       <c r="B135" s="4">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="C135" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3" t="s">
         <v>137</v>
       </c>
       <c r="B136" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C136" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3" t="s">
         <v>138</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3" t="s">
         <v>139</v>
       </c>
@@ -2902,161 +2902,161 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
         <v>140</v>
       </c>
       <c r="B139" s="4">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="C139" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3" t="s">
         <v>141</v>
       </c>
       <c r="B140" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C140" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
         <v>142</v>
       </c>
       <c r="B141" s="4">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C141" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B142" s="4">
-        <v>265</v>
+        <v>296</v>
       </c>
       <c r="C142" s="4">
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3" t="s">
         <v>144</v>
       </c>
       <c r="B143" s="4">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C143" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B144" s="4">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C144" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3" t="s">
         <v>146</v>
       </c>
       <c r="B145" s="4">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C145" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3" t="s">
         <v>147</v>
       </c>
       <c r="B146" s="4">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C146" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B147" s="4">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C147" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B148" s="4">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="C148" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3" t="s">
         <v>150</v>
       </c>
       <c r="B149" s="4">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C149" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B150" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C150" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3" t="s">
         <v>152</v>
       </c>
       <c r="B151" s="4">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C151" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
         <v>153</v>
       </c>
       <c r="B152" s="4">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C152" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3" t="s">
         <v>154</v>
       </c>
@@ -3067,117 +3067,117 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3" t="s">
         <v>155</v>
       </c>
       <c r="B154" s="4">
-        <v>1984</v>
+        <v>2273</v>
       </c>
       <c r="C154" s="4">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3" t="s">
         <v>156</v>
       </c>
       <c r="B155" s="4">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C155" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B156" s="4">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C156" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B157" s="4">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C157" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B158" s="4">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C158" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3" t="s">
         <v>160</v>
       </c>
       <c r="B159" s="4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C159" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3" t="s">
         <v>161</v>
       </c>
       <c r="B160" s="4">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="C160" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3" t="s">
         <v>162</v>
       </c>
       <c r="B161" s="4">
-        <v>311</v>
+        <v>434</v>
       </c>
       <c r="C161" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3" t="s">
         <v>163</v>
       </c>
       <c r="B162" s="4">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C162" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B163" s="4">
-        <v>697</v>
+        <v>957</v>
       </c>
       <c r="C163" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3" t="s">
         <v>165</v>
       </c>
@@ -3188,51 +3188,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3" t="s">
         <v>166</v>
       </c>
       <c r="B165" s="4">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="C165" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3" t="s">
         <v>167</v>
       </c>
       <c r="B166" s="4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C166" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3" t="s">
         <v>168</v>
       </c>
       <c r="B167" s="4">
-        <v>563</v>
+        <v>701</v>
       </c>
       <c r="C167" s="4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3" t="s">
         <v>169</v>
       </c>
       <c r="B168" s="4">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="C168" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3" t="s">
         <v>170</v>
       </c>
@@ -3243,62 +3243,62 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3" t="s">
         <v>171</v>
       </c>
       <c r="B170" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C170" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3" t="s">
         <v>172</v>
       </c>
       <c r="B171" s="4">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C171" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3" t="s">
         <v>173</v>
       </c>
       <c r="B172" s="4">
-        <v>1952</v>
+        <v>2133</v>
       </c>
       <c r="C172" s="4">
         <v>36</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3" t="s">
         <v>174</v>
       </c>
       <c r="B173" s="4">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="C173" s="4">
         <v>15</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B174" s="4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C174" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3" t="s">
         <v>176</v>
       </c>
@@ -3309,29 +3309,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3" t="s">
         <v>177</v>
       </c>
       <c r="B176" s="4">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="C176" s="4">
         <v>26</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B177" s="4">
-        <v>185</v>
+        <v>241</v>
       </c>
       <c r="C177" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="178" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3" t="s">
         <v>179</v>
       </c>
@@ -3342,29 +3342,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3" t="s">
         <v>180</v>
       </c>
       <c r="B179" s="4">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C179" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3" t="s">
         <v>181</v>
       </c>
       <c r="B180" s="4">
-        <v>1727</v>
+        <v>2394</v>
       </c>
       <c r="C180" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3" t="s">
         <v>182</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3" t="s">
         <v>183</v>
       </c>
@@ -3386,139 +3386,139 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3" t="s">
         <v>184</v>
       </c>
       <c r="B183" s="4">
-        <v>198</v>
+        <v>272</v>
       </c>
       <c r="C183" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="3" t="s">
         <v>185</v>
       </c>
       <c r="B184" s="4">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C184" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B185" s="4">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C185" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3" t="s">
         <v>187</v>
       </c>
       <c r="B186" s="4">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="C186" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B187" s="4">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="C187" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B188" s="4">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C188" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3" t="s">
         <v>190</v>
       </c>
       <c r="B189" s="4">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C189" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3" t="s">
         <v>191</v>
       </c>
       <c r="B190" s="4">
-        <v>2858</v>
+        <v>2885</v>
       </c>
       <c r="C190" s="4">
         <v>39</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3" t="s">
         <v>192</v>
       </c>
       <c r="B191" s="4">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C191" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3" t="s">
         <v>193</v>
       </c>
       <c r="B192" s="4">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C192" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3" t="s">
         <v>194</v>
       </c>
       <c r="B193" s="4">
-        <v>825</v>
+        <v>863</v>
       </c>
       <c r="C193" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3" t="s">
         <v>195</v>
       </c>
       <c r="B194" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C194" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3" t="s">
         <v>196</v>
       </c>
@@ -3529,40 +3529,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3" t="s">
         <v>197</v>
       </c>
       <c r="B196" s="4">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C196" s="4">
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3" t="s">
         <v>198</v>
       </c>
       <c r="B197" s="4">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C197" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3" t="s">
         <v>199</v>
       </c>
       <c r="B198" s="4">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C198" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3" t="s">
         <v>200</v>
       </c>
@@ -3573,95 +3573,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3" t="s">
         <v>201</v>
       </c>
       <c r="B200" s="4">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3" t="s">
         <v>202</v>
       </c>
       <c r="B201" s="4">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C201" s="4">
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3" t="s">
         <v>203</v>
       </c>
       <c r="B202" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C202" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3" t="s">
         <v>204</v>
       </c>
       <c r="B203" s="4">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="C203" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3" t="s">
         <v>205</v>
       </c>
       <c r="B204" s="4">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C204" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3" t="s">
         <v>206</v>
       </c>
       <c r="B205" s="4">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C205" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="206" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B206" s="4">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C206" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3" t="s">
         <v>208</v>
       </c>
       <c r="B207" s="4">
-        <v>109</v>
+        <v>161</v>
       </c>
       <c r="C207" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3" t="s">
         <v>209</v>
       </c>
@@ -3672,29 +3672,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B209" s="4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C209" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B210" s="4">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C210" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3" t="s">
         <v>212</v>
       </c>
@@ -3705,18 +3705,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3" t="s">
         <v>213</v>
       </c>
       <c r="B212" s="4">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C212" s="4">
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3" t="s">
         <v>214</v>
       </c>
@@ -3727,51 +3727,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B214" s="4">
-        <v>499</v>
+        <v>618</v>
       </c>
       <c r="C214" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="215" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3" t="s">
         <v>216</v>
       </c>
       <c r="B215" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C215" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3" t="s">
         <v>217</v>
       </c>
       <c r="B216" s="4">
-        <v>496</v>
+        <v>642</v>
       </c>
       <c r="C216" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3" t="s">
         <v>218</v>
       </c>
       <c r="B217" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3" t="s">
         <v>219</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3" t="s">
         <v>220</v>
       </c>
@@ -3793,73 +3793,73 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3" t="s">
         <v>221</v>
       </c>
       <c r="B220" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C220" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3" t="s">
         <v>222</v>
       </c>
       <c r="B221" s="4">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C221" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3" t="s">
         <v>223</v>
       </c>
       <c r="B222" s="4">
-        <v>11083</v>
+        <v>12344</v>
       </c>
       <c r="C222" s="4">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3" t="s">
         <v>224</v>
       </c>
       <c r="B223" s="4">
-        <v>346</v>
+        <v>400</v>
       </c>
       <c r="C223" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3" t="s">
         <v>225</v>
       </c>
       <c r="B224" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C224" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3" t="s">
         <v>226</v>
       </c>
       <c r="B225" s="4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C225" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>227</v>
       </c>
@@ -3870,51 +3870,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="3" t="s">
         <v>228</v>
       </c>
       <c r="B227" s="4">
-        <v>683</v>
+        <v>710</v>
       </c>
       <c r="C227" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="228" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="3" t="s">
         <v>229</v>
       </c>
       <c r="B228" s="4">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="C228" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3" t="s">
         <v>230</v>
       </c>
       <c r="B229" s="4">
-        <v>7825</v>
+        <v>9527</v>
       </c>
       <c r="C229" s="4">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3" t="s">
         <v>231</v>
       </c>
       <c r="B230" s="4">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C230" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3" t="s">
         <v>232</v>
       </c>
@@ -3925,40 +3925,40 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="3" t="s">
         <v>233</v>
       </c>
       <c r="B232" s="4">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C232" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3" t="s">
         <v>234</v>
       </c>
       <c r="B233" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C233" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="3" t="s">
         <v>235</v>
       </c>
       <c r="B234" s="4">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="C234" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3" t="s">
         <v>236</v>
       </c>
@@ -3969,95 +3969,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="3" t="s">
         <v>237</v>
       </c>
       <c r="B236" s="4">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C236" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="3" t="s">
         <v>238</v>
       </c>
       <c r="B237" s="4">
-        <v>480</v>
+        <v>697</v>
       </c>
       <c r="C237" s="4">
         <v>8</v>
       </c>
     </row>
-    <row r="238" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3" t="s">
         <v>239</v>
       </c>
       <c r="B238" s="4">
-        <v>1967</v>
+        <v>2028</v>
       </c>
       <c r="C238" s="4">
         <v>28</v>
       </c>
     </row>
-    <row r="239" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B239" s="4">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="C239" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3" t="s">
         <v>241</v>
       </c>
       <c r="B240" s="4">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C240" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="3" t="s">
         <v>242</v>
       </c>
       <c r="B241" s="4">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="C241" s="4">
         <v>31</v>
       </c>
     </row>
-    <row r="242" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B242" s="4">
-        <v>1262</v>
+        <v>1538</v>
       </c>
       <c r="C242" s="4">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="3" t="s">
         <v>244</v>
       </c>
       <c r="B243" s="4">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="C243" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="3" t="s">
         <v>245</v>
       </c>
@@ -4068,147 +4068,147 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="3" t="s">
         <v>246</v>
       </c>
       <c r="B245" s="4">
-        <v>300</v>
+        <v>363</v>
       </c>
       <c r="C245" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="3" t="s">
         <v>247</v>
       </c>
       <c r="B246" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C246" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="3" t="s">
         <v>248</v>
       </c>
       <c r="B247" s="4">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="C247" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="3" t="s">
         <v>249</v>
       </c>
       <c r="B248" s="4">
-        <v>1850</v>
+        <v>2230</v>
       </c>
       <c r="C248" s="4">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="3" t="s">
         <v>250</v>
       </c>
       <c r="B249" s="4">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C249" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="3" t="s">
         <v>251</v>
       </c>
       <c r="B250" s="4">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C250" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="3" t="s">
         <v>252</v>
       </c>
       <c r="B251" s="4">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C251" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="3" t="s">
         <v>253</v>
       </c>
       <c r="B252" s="4">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C252" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3" t="s">
         <v>254</v>
       </c>
       <c r="B253" s="4">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C253" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="3" t="s">
         <v>255</v>
       </c>
       <c r="B254" s="4">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C254" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3" t="s">
         <v>256</v>
       </c>
       <c r="B255" s="4">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="C255" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3" t="s">
         <v>257</v>
       </c>
       <c r="B256" s="4">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C256" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B257" s="4">
-        <v>148723</v>
+        <v>168062</v>
       </c>
       <c r="C257" s="4">
-        <v>2393</v>
+        <v>2481</v>
       </c>
     </row>
   </sheetData>
@@ -4227,24 +4227,24 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
         <v>321</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
     </row>
-    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>322</v>
       </c>
@@ -4255,63 +4255,59 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B3" s="11">
-        <v>10330</v>
-      </c>
-      <c r="C3" s="13">
-        <f>B3/B$6</f>
-        <v>0.48584328849590819</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="15">
+        <v>10667</v>
+      </c>
+      <c r="C3" s="21">
+        <v>48.574681239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B4" s="11">
-        <v>10740</v>
-      </c>
-      <c r="C4" s="13">
-        <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.50512651679051834</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="15">
+        <v>11090</v>
+      </c>
+      <c r="C4" s="21">
+        <v>50.500910746999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B5" s="11">
-        <v>192</v>
-      </c>
-      <c r="C5" s="13">
-        <f t="shared" si="0"/>
-        <v>9.0301947135735111E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="15">
+        <v>203</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0.92440801459999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="11">
-        <v>21262</v>
-      </c>
-      <c r="C6" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="B6" s="15">
+        <v>21960</v>
+      </c>
+      <c r="C6" s="21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
         <v>319</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
     </row>
-    <row r="9" spans="1:3" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:3" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
         <v>320</v>
       </c>
       <c r="B9" s="18"/>
@@ -4335,24 +4331,24 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
         <v>325</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
     </row>
-    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>326</v>
       </c>
@@ -4363,99 +4359,92 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B3" s="11">
-        <v>602</v>
-      </c>
-      <c r="C3" s="13">
-        <f>B3/B$9</f>
-        <v>2.8313423008183614E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="15">
+        <v>614</v>
+      </c>
+      <c r="C3" s="21">
+        <v>2.795992714</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B4" s="11">
-        <v>2535</v>
-      </c>
-      <c r="C4" s="13">
-        <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.11922678957765027</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="15">
+        <v>2592</v>
+      </c>
+      <c r="C4" s="21">
+        <v>11.803278689000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B5" s="11">
-        <v>7750</v>
-      </c>
-      <c r="C5" s="13">
-        <f t="shared" si="0"/>
-        <v>0.36450004703226413</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="15">
+        <v>8138</v>
+      </c>
+      <c r="C5" s="21">
+        <v>37.058287796000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B6" s="11">
-        <v>117</v>
-      </c>
-      <c r="C6" s="13">
-        <f t="shared" si="0"/>
-        <v>5.5027749035838581E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="15">
+        <v>119</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0.54189435340000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B7" s="11">
-        <v>5606</v>
-      </c>
-      <c r="C7" s="13">
-        <f t="shared" si="0"/>
-        <v>0.26366287273069328</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="15">
+        <v>5720</v>
+      </c>
+      <c r="C7" s="21">
+        <v>26.047358834000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B8" s="11">
-        <v>4652</v>
-      </c>
-      <c r="C8" s="13">
-        <f t="shared" si="0"/>
-        <v>0.21879409274762487</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="15">
+        <v>4777</v>
+      </c>
+      <c r="C8" s="21">
+        <v>21.753187614000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="11">
-        <v>21262</v>
-      </c>
-      <c r="C9" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="B9" s="15">
+        <v>21960</v>
+      </c>
+      <c r="C9" s="21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
         <v>319</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
     </row>
-    <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
         <v>320</v>
       </c>
       <c r="B12" s="18"/>
@@ -4479,211 +4468,197 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" style="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
         <v>332</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
     </row>
-    <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>303</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="20" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B3" s="12">
-        <v>0</v>
-      </c>
-      <c r="C3" s="13">
-        <f>B3/B$16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="16">
+        <v>0</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B4" s="12">
-        <v>0</v>
-      </c>
-      <c r="C4" s="13">
-        <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="16">
+        <v>0</v>
+      </c>
+      <c r="C4" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B5" s="12">
-        <v>0</v>
-      </c>
-      <c r="C5" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="16">
+        <v>0</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="16">
         <v>11</v>
       </c>
-      <c r="C6" s="13">
-        <f t="shared" si="0"/>
-        <v>1.6616314199395771E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="21">
+        <v>1.6616314199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="16">
         <v>13</v>
       </c>
-      <c r="C7" s="13">
-        <f t="shared" si="0"/>
-        <v>1.9637462235649546E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="21">
+        <v>1.9637462236000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="16">
         <v>26</v>
       </c>
-      <c r="C8" s="13">
-        <f t="shared" si="0"/>
-        <v>3.9274924471299093E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="21">
+        <v>3.9274924471000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="16">
         <v>72</v>
       </c>
-      <c r="C9" s="13">
-        <f t="shared" si="0"/>
-        <v>0.10876132930513595</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="21">
+        <v>10.876132931000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="16">
         <v>60</v>
       </c>
-      <c r="C10" s="13">
-        <f t="shared" si="0"/>
-        <v>9.0634441087613288E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="21">
+        <v>9.0634441088000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="16">
         <v>74</v>
       </c>
-      <c r="C11" s="13">
-        <f t="shared" si="0"/>
-        <v>0.11178247734138973</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="21">
+        <v>11.178247733999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="16">
         <v>69</v>
       </c>
-      <c r="C12" s="13">
-        <f t="shared" si="0"/>
-        <v>0.10422960725075529</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="21">
+        <v>10.422960724999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="16">
         <v>70</v>
       </c>
-      <c r="C13" s="13">
-        <f t="shared" si="0"/>
-        <v>0.10574018126888217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="21">
+        <v>10.574018127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="16">
         <v>265</v>
       </c>
-      <c r="C14" s="13">
-        <f t="shared" si="0"/>
-        <v>0.40030211480362538</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="21">
+        <v>40.030211479999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="16">
         <v>2</v>
       </c>
-      <c r="C15" s="13">
-        <f t="shared" si="0"/>
-        <v>3.0211480362537764E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="21">
+        <v>0.30211480359999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="16">
         <v>662</v>
       </c>
-      <c r="C16" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="C16" s="21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
         <v>319</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
     </row>
-    <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
         <v>333</v>
       </c>
       <c r="B19" s="18"/>
@@ -4707,24 +4682,24 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
         <v>334</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
     </row>
-    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>322</v>
       </c>
@@ -4735,63 +4710,59 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="16">
         <v>271</v>
       </c>
-      <c r="C3" s="13">
-        <f>B3/B$6</f>
-        <v>0.40936555891238668</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="21">
+        <v>40.936555890999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="16">
         <v>363</v>
       </c>
-      <c r="C4" s="13">
-        <f t="shared" ref="C4:C6" si="0">B4/B$6</f>
-        <v>0.54833836858006046</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="21">
+        <v>54.833836857999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="16">
         <v>28</v>
       </c>
-      <c r="C5" s="13">
-        <f t="shared" si="0"/>
-        <v>4.2296072507552872E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="21">
+        <v>4.2296072508</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="16">
         <v>662</v>
       </c>
-      <c r="C6" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="C6" s="21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
         <v>319</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="18"/>
     </row>
-    <row r="9" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
         <v>333</v>
       </c>
       <c r="B9" s="18"/>
@@ -4815,24 +4786,24 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
         <v>335</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
     </row>
-    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>326</v>
       </c>
@@ -4843,99 +4814,92 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="16">
         <v>13</v>
       </c>
-      <c r="C3" s="13">
-        <f>B3/B$9</f>
-        <v>1.9637462235649546E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="21">
+        <v>1.9637462236000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="16">
         <v>85</v>
       </c>
-      <c r="C4" s="13">
-        <f t="shared" ref="C4:C9" si="0">B4/B$9</f>
-        <v>0.12839879154078551</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="21">
+        <v>12.839879154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="16">
         <v>171</v>
       </c>
-      <c r="C5" s="13">
-        <f t="shared" si="0"/>
-        <v>0.2583081570996979</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="21">
+        <v>25.83081571</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="16">
         <v>5</v>
       </c>
-      <c r="C6" s="13">
-        <f t="shared" si="0"/>
-        <v>7.5528700906344415E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="21">
+        <v>0.75528700910000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="16">
         <v>269</v>
       </c>
-      <c r="C7" s="13">
-        <f t="shared" si="0"/>
-        <v>0.40634441087613293</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="21">
+        <v>40.634441088000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="16">
         <v>119</v>
       </c>
-      <c r="C8" s="13">
-        <f t="shared" si="0"/>
-        <v>0.1797583081570997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="21">
+        <v>17.975830815999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="16">
         <v>662</v>
       </c>
-      <c r="C9" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="58" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="C9" s="21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="58.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19" t="s">
         <v>319</v>
       </c>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
     </row>
-    <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
         <v>333</v>
       </c>
       <c r="B12" s="18"/>
@@ -4948,29 +4912,29 @@
     <mergeCell ref="A12:C12"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
         <v>259</v>
       </c>
@@ -4979,7 +4943,7 @@
       <c r="D1" s="18"/>
       <c r="E1" s="18"/>
     </row>
-    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="17" t="s">
         <v>260</v>
       </c>
@@ -4988,7 +4952,7 @@
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
     </row>
-    <row r="3" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="43.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>261</v>
       </c>
@@ -5005,7 +4969,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>43916</v>
       </c>
@@ -5022,7 +4986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>43917</v>
       </c>
@@ -5039,7 +5003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>43918</v>
       </c>
@@ -5056,7 +5020,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>43919</v>
       </c>
@@ -5073,7 +5037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>43920</v>
       </c>
@@ -5090,7 +5054,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>43921</v>
       </c>
@@ -5107,7 +5071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>43922</v>
       </c>
@@ -5124,7 +5088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>43923</v>
       </c>
@@ -5141,7 +5105,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>43924</v>
       </c>
@@ -5158,7 +5122,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>43925</v>
       </c>
@@ -5175,7 +5139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>43926</v>
       </c>
@@ -5192,7 +5156,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>43927</v>
       </c>
@@ -5209,7 +5173,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>43928</v>
       </c>
@@ -5226,7 +5190,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>43929</v>
       </c>
@@ -5243,7 +5207,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>43930</v>
       </c>
@@ -5260,7 +5224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>43931</v>
       </c>
@@ -5277,7 +5241,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>43932</v>
       </c>
@@ -5294,7 +5258,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>43933</v>
       </c>
@@ -5311,7 +5275,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>43934</v>
       </c>
@@ -5328,7 +5292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>43935</v>
       </c>
@@ -5345,7 +5309,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>43936</v>
       </c>
@@ -5362,7 +5326,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>43937</v>
       </c>
@@ -5379,7 +5343,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>43938</v>
       </c>
@@ -5396,7 +5360,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>43939</v>
       </c>
@@ -5413,7 +5377,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>43940</v>
       </c>
@@ -5430,7 +5394,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>43941</v>
       </c>
@@ -5447,7 +5411,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>43942</v>
       </c>
@@ -5464,7 +5428,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>43943</v>
       </c>
@@ -5481,7 +5445,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>43944</v>
       </c>
@@ -5498,7 +5462,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>43945</v>
       </c>
@@ -5515,7 +5479,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>43946</v>
       </c>
@@ -5532,7 +5496,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>43947</v>
       </c>
@@ -5549,7 +5513,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>43948</v>
       </c>
@@ -5566,7 +5530,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>43949</v>
       </c>
@@ -5583,7 +5547,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>43950</v>
       </c>
@@ -5600,7 +5564,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>43951</v>
       </c>
@@ -5617,7 +5581,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>43952</v>
       </c>
@@ -5634,7 +5598,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>43953</v>
       </c>
@@ -5651,7 +5615,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>43954</v>
       </c>
@@ -5668,7 +5632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>43955</v>
       </c>
@@ -5685,7 +5649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43956</v>
       </c>
@@ -5702,7 +5666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>43957</v>
       </c>
@@ -5719,7 +5683,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>43958</v>
       </c>
@@ -5736,7 +5700,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>43959</v>
       </c>
@@ -5753,7 +5717,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>43960</v>
       </c>
@@ -5770,7 +5734,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>43961</v>
       </c>
@@ -5787,7 +5751,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>43962</v>
       </c>
@@ -5804,7 +5768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>43963</v>
       </c>
@@ -5821,7 +5785,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>43964</v>
       </c>
@@ -5838,7 +5802,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>43965</v>
       </c>
@@ -5855,7 +5819,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>43966</v>
       </c>
@@ -5872,7 +5836,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>43967</v>
       </c>
@@ -5889,7 +5853,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>43968</v>
       </c>
@@ -5906,7 +5870,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>43969</v>
       </c>
@@ -5923,7 +5887,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>43970</v>
       </c>
@@ -5940,7 +5904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>43971</v>
       </c>
@@ -5957,7 +5921,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>43972</v>
       </c>
@@ -5974,7 +5938,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>43973</v>
       </c>
@@ -5991,7 +5955,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>43974</v>
       </c>
@@ -6008,7 +5972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>43975</v>
       </c>
@@ -6025,7 +5989,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>43976</v>
       </c>
@@ -6042,7 +6006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>43977</v>
       </c>
@@ -6059,7 +6023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>43978</v>
       </c>
@@ -6076,7 +6040,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>43979</v>
       </c>
@@ -6093,7 +6057,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>43980</v>
       </c>
@@ -6110,7 +6074,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>43981</v>
       </c>
@@ -6127,7 +6091,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>43982</v>
       </c>
@@ -6144,7 +6108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>43983</v>
       </c>
@@ -6161,7 +6125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>43984</v>
       </c>
@@ -6178,7 +6142,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>43985</v>
       </c>
@@ -6195,7 +6159,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>43986</v>
       </c>
@@ -6212,7 +6176,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>43987</v>
       </c>
@@ -6229,7 +6193,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>43988</v>
       </c>
@@ -6246,7 +6210,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>43989</v>
       </c>
@@ -6263,7 +6227,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>43990</v>
       </c>
@@ -6280,7 +6244,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>43991</v>
       </c>
@@ -6297,7 +6261,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>43992</v>
       </c>
@@ -6314,7 +6278,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>43993</v>
       </c>
@@ -6331,7 +6295,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>43994</v>
       </c>
@@ -6348,7 +6312,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>43995</v>
       </c>
@@ -6365,7 +6329,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>43996</v>
       </c>
@@ -6382,7 +6346,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>43997</v>
       </c>
@@ -6399,7 +6363,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>43998</v>
       </c>
@@ -6416,9 +6380,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
-        <v>336</v>
+        <v>266</v>
       </c>
       <c r="B87" s="4">
         <v>93206</v>
@@ -6433,7 +6397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>43999</v>
       </c>
@@ -6450,7 +6414,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6">
         <v>44000</v>
       </c>
@@ -6467,7 +6431,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6">
         <v>44001</v>
       </c>
@@ -6484,7 +6448,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6">
         <v>44002</v>
       </c>
@@ -6501,7 +6465,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6">
         <v>44003</v>
       </c>
@@ -6518,7 +6482,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6">
         <v>44004</v>
       </c>
@@ -6535,7 +6499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6">
         <v>44005</v>
       </c>
@@ -6552,7 +6516,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>44006</v>
       </c>
@@ -6569,7 +6533,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>44007</v>
       </c>
@@ -6586,7 +6550,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>44008</v>
       </c>
@@ -6603,7 +6567,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>44009</v>
       </c>
@@ -6614,15 +6578,13 @@
         <v>2366</v>
       </c>
       <c r="D98" s="4">
-        <f>B98-B97</f>
         <v>5742</v>
       </c>
       <c r="E98" s="4">
         <v>42</v>
       </c>
-      <c r="F98" s="21"/>
-    </row>
-    <row r="99" spans="1:6" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>44010</v>
       </c>
@@ -6633,27 +6595,67 @@
         <v>2393</v>
       </c>
       <c r="D99" s="4">
-        <f>B99-B98</f>
         <v>5357</v>
       </c>
       <c r="E99" s="4">
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="44" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="B101" s="19"/>
-      <c r="C101" s="19"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
+    <row r="100" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="6">
+        <v>44011</v>
+      </c>
+      <c r="B100" s="4">
+        <v>153011</v>
+      </c>
+      <c r="C100" s="4">
+        <v>2403</v>
+      </c>
+      <c r="D100" s="4">
+        <v>4288</v>
+      </c>
+      <c r="E100" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="6">
+        <v>44012</v>
+      </c>
+      <c r="B101" s="4">
+        <v>159986</v>
+      </c>
+      <c r="C101" s="4">
+        <v>2424</v>
+      </c>
+      <c r="D101" s="4">
+        <v>6975</v>
+      </c>
+      <c r="E101" s="4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="6">
+        <v>44013</v>
+      </c>
+      <c r="B102" s="4">
+        <v>168062</v>
+      </c>
+      <c r="C102" s="4">
+        <v>2481</v>
+      </c>
+      <c r="D102" s="4">
+        <v>8076</v>
+      </c>
+      <c r="E102" s="4">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A101:E101"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6667,22 +6669,22 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="101" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
         <v>267</v>
       </c>
       <c r="B1" s="18"/>
     </row>
-    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>268</v>
       </c>
@@ -6690,16 +6692,16 @@
         <v>269</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8">
-        <v>79974.2</v>
+        <v>87556.4</v>
       </c>
       <c r="B3" s="8">
-        <v>66356</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+        <v>78025</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="218" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
         <v>270</v>
       </c>
       <c r="B5" s="18"/>
@@ -6716,24 +6718,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" activeCell="J86" sqref="J86"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
         <v>271</v>
       </c>
@@ -6745,7 +6747,7 @@
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
     </row>
-    <row r="2" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="58.05" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>261</v>
       </c>
@@ -6758,7 +6760,7 @@
       <c r="D2" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="5" t="s">
         <v>275</v>
       </c>
       <c r="F2" s="5" t="s">
@@ -6771,7 +6773,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>43925</v>
       </c>
@@ -6784,7 +6786,7 @@
       <c r="D3" s="8">
         <v>63751</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="9">
         <v>0.1056</v>
       </c>
       <c r="F3" s="8" t="s">
@@ -6797,7 +6799,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>43926</v>
       </c>
@@ -6810,7 +6812,7 @@
       <c r="D4" s="8">
         <v>70938</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="9">
         <v>9.3299999999999994E-2</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -6823,7 +6825,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>43927</v>
       </c>
@@ -6836,7 +6838,7 @@
       <c r="D5" s="8">
         <v>85357</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="9">
         <v>8.8909998585200004E-2</v>
       </c>
       <c r="F5" s="8" t="s">
@@ -6849,7 +6851,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>43928</v>
       </c>
@@ -6862,7 +6864,7 @@
       <c r="D6" s="8">
         <v>88649</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="9">
         <v>0.1094</v>
       </c>
       <c r="F6" s="8" t="s">
@@ -6875,7 +6877,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>43929</v>
       </c>
@@ -6888,7 +6890,7 @@
       <c r="D7" s="8">
         <v>96258</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="9">
         <v>0.11070000000000001</v>
       </c>
       <c r="F7" s="8" t="s">
@@ -6901,7 +6903,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>43930</v>
       </c>
@@ -6914,7 +6916,7 @@
       <c r="D8" s="8">
         <v>106134</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="9">
         <v>0.100351636462</v>
       </c>
       <c r="F8" s="8" t="s">
@@ -6927,7 +6929,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>43931</v>
       </c>
@@ -6940,7 +6942,7 @@
       <c r="D9" s="8">
         <v>115918</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="9">
         <v>0.1055125178708</v>
       </c>
       <c r="F9" s="8" t="s">
@@ -6953,7 +6955,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>43932</v>
       </c>
@@ -6966,7 +6968,7 @@
       <c r="D10" s="8">
         <v>120533</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="9">
         <v>0.11360000000000001</v>
       </c>
       <c r="F10" s="8" t="s">
@@ -6979,7 +6981,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>43933</v>
       </c>
@@ -6992,7 +6994,7 @@
       <c r="D11" s="8">
         <v>124553</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="9">
         <v>0.12479999999999999</v>
       </c>
       <c r="F11" s="8" t="s">
@@ -7005,7 +7007,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>43934</v>
       </c>
@@ -7018,7 +7020,7 @@
       <c r="D12" s="8">
         <v>133226</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="9">
         <v>0.1386</v>
       </c>
       <c r="F12" s="8" t="s">
@@ -7031,7 +7033,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>43935</v>
       </c>
@@ -7044,7 +7046,7 @@
       <c r="D13" s="8">
         <v>146467</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="9">
         <v>0.1101</v>
       </c>
       <c r="F13" s="8" t="s">
@@ -7057,7 +7059,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>43936</v>
       </c>
@@ -7070,7 +7072,7 @@
       <c r="D14" s="8">
         <v>151810</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="9">
         <v>0.1105</v>
       </c>
       <c r="F14" s="8" t="s">
@@ -7083,7 +7085,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>43937</v>
       </c>
@@ -7096,7 +7098,7 @@
       <c r="D15" s="8">
         <v>158547</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="9">
         <v>0.1188</v>
       </c>
       <c r="F15" s="8" t="s">
@@ -7109,7 +7111,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>43938</v>
       </c>
@@ -7122,7 +7124,7 @@
       <c r="D16" s="8">
         <v>169536</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="9">
         <v>0.10630000000000001</v>
       </c>
       <c r="F16" s="8" t="s">
@@ -7135,7 +7137,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>43939</v>
       </c>
@@ -7148,7 +7150,7 @@
       <c r="D17" s="8">
         <v>176239</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="9">
         <v>0.1023</v>
       </c>
       <c r="F17" s="8" t="s">
@@ -7161,7 +7163,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>43940</v>
       </c>
@@ -7174,7 +7176,7 @@
       <c r="D18" s="8">
         <v>182710</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="9">
         <v>9.35E-2</v>
       </c>
       <c r="F18" s="8" t="s">
@@ -7187,7 +7189,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>43941</v>
       </c>
@@ -7200,7 +7202,7 @@
       <c r="D19" s="8">
         <v>190394</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="9">
         <v>9.7117268401900006E-2</v>
       </c>
       <c r="F19" s="8" t="s">
@@ -7213,7 +7215,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>43942</v>
       </c>
@@ -7226,7 +7228,7 @@
       <c r="D20" s="8">
         <v>205399</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="9">
         <v>9.4500000000000001E-2</v>
       </c>
       <c r="F20" s="8" t="s">
@@ -7239,7 +7241,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>43943</v>
       </c>
@@ -7252,7 +7254,7 @@
       <c r="D21" s="8">
         <v>216783</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="9">
         <v>8.5800000000000001E-2</v>
       </c>
       <c r="F21" s="8" t="s">
@@ -7265,7 +7267,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>43944</v>
       </c>
@@ -7278,7 +7280,7 @@
       <c r="D22" s="8">
         <v>225078</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="9">
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="F22" s="8" t="s">
@@ -7291,7 +7293,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>43945</v>
       </c>
@@ -7304,7 +7306,7 @@
       <c r="D23" s="8">
         <v>242547</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="9">
         <v>7.4399999999999994E-2</v>
       </c>
       <c r="F23" s="8" t="s">
@@ -7317,7 +7319,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>43946</v>
       </c>
@@ -7330,7 +7332,7 @@
       <c r="D24" s="8">
         <v>262816</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E24" s="9">
         <v>6.3700000000000007E-2</v>
       </c>
       <c r="F24" s="8" t="s">
@@ -7343,7 +7345,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>43947</v>
       </c>
@@ -7356,7 +7358,7 @@
       <c r="D25" s="8">
         <v>276021</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="9">
         <v>6.1199999999999997E-2</v>
       </c>
       <c r="F25" s="8" t="s">
@@ -7369,7 +7371,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>43948</v>
       </c>
@@ -7382,7 +7384,7 @@
       <c r="D26" s="8">
         <v>290517</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="9">
         <v>5.8299999999999998E-2</v>
       </c>
       <c r="F26" s="8" t="s">
@@ -7395,7 +7397,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>43949</v>
       </c>
@@ -7408,7 +7410,7 @@
       <c r="D27" s="8">
         <v>300384</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E27" s="9">
         <v>6.2899999999999998E-2</v>
       </c>
       <c r="F27" s="8" t="s">
@@ -7421,7 +7423,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>43950</v>
       </c>
@@ -7434,7 +7436,7 @@
       <c r="D28" s="8">
         <v>314790</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="9">
         <v>6.10670666381E-2</v>
       </c>
       <c r="F28" s="8" t="s">
@@ -7447,7 +7449,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>43951</v>
       </c>
@@ -7460,7 +7462,7 @@
       <c r="D29" s="8">
         <v>330300</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="9">
         <v>5.8381327098900003E-2</v>
       </c>
       <c r="F29" s="8" t="s">
@@ -7473,7 +7475,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>43952</v>
       </c>
@@ -7486,7 +7488,7 @@
       <c r="D30" s="8">
         <v>351775</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E30" s="9">
         <v>5.8799999999999998E-2</v>
       </c>
       <c r="F30" s="8" t="s">
@@ -7499,7 +7501,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>43953</v>
       </c>
@@ -7512,7 +7514,7 @@
       <c r="D31" s="8">
         <v>380648</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E31" s="9">
         <v>5.7299999999999997E-2</v>
       </c>
       <c r="F31" s="8" t="s">
@@ -7525,7 +7527,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>43954</v>
       </c>
@@ -7538,7 +7540,7 @@
       <c r="D32" s="8">
         <v>390560</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E32" s="9">
         <v>6.0400000000000002E-2</v>
       </c>
       <c r="F32" s="8" t="s">
@@ -7551,7 +7553,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>43955</v>
       </c>
@@ -7564,7 +7566,7 @@
       <c r="D33" s="8">
         <v>407398</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="9">
         <v>6.0199999999999997E-2</v>
       </c>
       <c r="F33" s="8" t="s">
@@ -7577,7 +7579,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>43956</v>
       </c>
@@ -7590,7 +7592,7 @@
       <c r="D34" s="8">
         <v>427210</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E34" s="9">
         <v>5.6754924069199998E-2</v>
       </c>
       <c r="F34" s="8" t="s">
@@ -7603,7 +7605,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>43957</v>
       </c>
@@ -7616,7 +7618,7 @@
       <c r="D35" s="8">
         <v>438938</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E35" s="9">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F35" s="8" t="s">
@@ -7629,7 +7631,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>43958</v>
       </c>
@@ -7642,7 +7644,7 @@
       <c r="D36" s="8">
         <v>455162</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E36" s="9">
         <v>5.8500000000000003E-2</v>
       </c>
       <c r="F36" s="8" t="s">
@@ -7655,7 +7657,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>43959</v>
       </c>
@@ -7668,7 +7670,7 @@
       <c r="D37" s="8">
         <v>477118</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E37" s="9">
         <v>5.8900000000000001E-2</v>
       </c>
       <c r="F37" s="8" t="s">
@@ -7681,7 +7683,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>43960</v>
       </c>
@@ -7694,7 +7696,7 @@
       <c r="D38" s="8">
         <v>489294</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E38" s="9">
         <v>6.7500000000000004E-2</v>
       </c>
       <c r="F38" s="8" t="s">
@@ -7707,7 +7709,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>43961</v>
       </c>
@@ -7720,7 +7722,7 @@
       <c r="D39" s="8">
         <v>513978</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E39" s="9">
         <v>5.9299999999999999E-2</v>
       </c>
       <c r="F39" s="8" t="s">
@@ -7733,7 +7735,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>43962</v>
       </c>
@@ -7746,7 +7748,7 @@
       <c r="D40" s="8">
         <v>525697</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E40" s="9">
         <v>6.3711443038399998E-2</v>
       </c>
       <c r="F40" s="8" t="s">
@@ -7759,7 +7761,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>43963</v>
       </c>
@@ -7772,7 +7774,7 @@
       <c r="D41" s="8">
         <v>538172</v>
       </c>
-      <c r="E41" s="15">
+      <c r="E41" s="9">
         <v>6.9199999999999998E-2</v>
       </c>
       <c r="F41" s="8" t="s">
@@ -7785,7 +7787,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>43964</v>
       </c>
@@ -7798,7 +7800,7 @@
       <c r="D42" s="8">
         <v>587431</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E42" s="9">
         <v>5.3699999999999998E-2</v>
       </c>
       <c r="F42" s="8" t="s">
@@ -7811,7 +7813,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>43965</v>
       </c>
@@ -7824,7 +7826,7 @@
       <c r="D43" s="8">
         <v>623284</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E43" s="9">
         <v>5.0299999999999997E-2</v>
       </c>
       <c r="F43" s="8" t="s">
@@ -7837,7 +7839,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43966</v>
       </c>
@@ -7850,7 +7852,7 @@
       <c r="D44" s="8">
         <v>645992</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E44" s="9">
         <v>5.0900000000000001E-2</v>
       </c>
       <c r="F44" s="8" t="s">
@@ -7863,7 +7865,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>43967</v>
       </c>
@@ -7876,7 +7878,7 @@
       <c r="D45" s="8">
         <v>678471</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E45" s="9">
         <v>4.8300000000000003E-2</v>
       </c>
       <c r="F45" s="8">
@@ -7889,7 +7891,7 @@
         <v>27025</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>43968</v>
       </c>
@@ -7902,7 +7904,7 @@
       <c r="D46" s="8">
         <v>693276</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E46" s="9">
         <v>4.9700000000000001E-2</v>
       </c>
       <c r="F46" s="8">
@@ -7915,7 +7917,7 @@
         <v>25614</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>43969</v>
       </c>
@@ -7928,7 +7930,7 @@
       <c r="D47" s="8">
         <v>723013</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E47" s="9">
         <v>4.4720144337000001E-2</v>
       </c>
       <c r="F47" s="8">
@@ -7941,7 +7943,7 @@
         <v>28188</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>43970</v>
       </c>
@@ -7954,7 +7956,7 @@
       <c r="D48" s="8">
         <v>744937</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E48" s="10">
         <v>4.7E-2</v>
       </c>
       <c r="F48" s="8">
@@ -7967,7 +7969,7 @@
         <v>29538</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>43971</v>
       </c>
@@ -7980,7 +7982,7 @@
       <c r="D49" s="8">
         <v>770241</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E49" s="9">
         <v>5.4300000000000001E-2</v>
       </c>
       <c r="F49" s="8">
@@ -7993,7 +7995,7 @@
         <v>26116</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>43972</v>
       </c>
@@ -8006,7 +8008,7 @@
       <c r="D50" s="8">
         <v>800433</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E50" s="9">
         <v>5.5100000000000003E-2</v>
       </c>
       <c r="F50" s="8">
@@ -8019,7 +8021,7 @@
         <v>25307</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>43973</v>
       </c>
@@ -8032,7 +8034,7 @@
       <c r="D51" s="8">
         <v>834437</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E51" s="9">
         <v>5.3900000000000003E-2</v>
       </c>
       <c r="F51" s="8">
@@ -8045,7 +8047,7 @@
         <v>26921</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>43974</v>
       </c>
@@ -8058,7 +8060,7 @@
       <c r="D52" s="8">
         <v>870935</v>
       </c>
-      <c r="E52" s="15" t="s">
+      <c r="E52" s="11" t="s">
         <v>266</v>
       </c>
       <c r="F52" s="8" t="s">
@@ -8071,7 +8073,7 @@
         <v>27495</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>43975</v>
       </c>
@@ -8084,7 +8086,7 @@
       <c r="D53" s="8">
         <v>886354</v>
       </c>
-      <c r="E53" s="15">
+      <c r="E53" s="9">
         <v>4.87E-2</v>
       </c>
       <c r="F53" s="8">
@@ -8097,7 +8099,7 @@
         <v>27583</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>43976</v>
       </c>
@@ -8110,7 +8112,7 @@
       <c r="D54" s="8">
         <v>906074</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E54" s="9">
         <v>5.1499999999999997E-2</v>
       </c>
       <c r="F54" s="8">
@@ -8123,7 +8125,7 @@
         <v>26152</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>43977</v>
       </c>
@@ -8136,7 +8138,7 @@
       <c r="D55" s="8">
         <v>943239</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E55" s="9">
         <v>4.2700000000000002E-2</v>
       </c>
       <c r="F55" s="8">
@@ -8149,7 +8151,7 @@
         <v>28329</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>43978</v>
       </c>
@@ -8162,7 +8164,7 @@
       <c r="D56" s="8">
         <v>961861</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E56" s="9">
         <v>4.3299999999999998E-2</v>
       </c>
       <c r="F56" s="8">
@@ -8175,7 +8177,7 @@
         <v>27374</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>43979</v>
       </c>
@@ -8188,7 +8190,7 @@
       <c r="D57" s="8">
         <v>989994</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E57" s="10">
         <v>4.9000000000000002E-2</v>
       </c>
       <c r="F57" s="8">
@@ -8201,7 +8203,7 @@
         <v>27080</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>43980</v>
       </c>
@@ -8214,7 +8216,7 @@
       <c r="D58" s="8">
         <v>1027449</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E58" s="9">
         <v>4.5600000000000002E-2</v>
       </c>
       <c r="F58" s="8">
@@ -8227,7 +8229,7 @@
         <v>27573</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>43981</v>
       </c>
@@ -8240,7 +8242,7 @@
       <c r="D59" s="8">
         <v>1054793</v>
       </c>
-      <c r="E59" s="15" t="s">
+      <c r="E59" s="11" t="s">
         <v>266</v>
       </c>
       <c r="F59" s="8" t="s">
@@ -8253,7 +8255,7 @@
         <v>26265</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>43982</v>
       </c>
@@ -8266,7 +8268,7 @@
       <c r="D60" s="8">
         <v>1073491</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E60" s="9">
         <v>5.43810873784E-2</v>
       </c>
       <c r="F60" s="8">
@@ -8279,7 +8281,7 @@
         <v>26734</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>43983</v>
       </c>
@@ -8292,7 +8294,7 @@
       <c r="D61" s="8">
         <v>1093676</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E61" s="10">
         <v>5.3999999999999999E-2</v>
       </c>
       <c r="F61" s="8">
@@ -8305,7 +8307,7 @@
         <v>26800</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>43984</v>
       </c>
@@ -8318,8 +8320,8 @@
       <c r="D62" s="8">
         <v>1117274</v>
       </c>
-      <c r="E62" s="15">
-        <v>6.6199999999999995E-2</v>
+      <c r="E62" s="9">
+        <v>6.6236912120929997E-2</v>
       </c>
       <c r="F62" s="8">
         <v>21585</v>
@@ -8331,7 +8333,7 @@
         <v>24862</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>43985</v>
       </c>
@@ -8344,8 +8346,8 @@
       <c r="D63" s="8">
         <v>1150868</v>
       </c>
-      <c r="E63" s="15">
-        <v>6.2600000000000003E-2</v>
+      <c r="E63" s="9">
+        <v>6.2599418158070005E-2</v>
       </c>
       <c r="F63" s="8">
         <v>23620</v>
@@ -8357,7 +8359,7 @@
         <v>27001</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>43986</v>
       </c>
@@ -8370,8 +8372,8 @@
       <c r="D64" s="8">
         <v>1174948</v>
       </c>
-      <c r="E64" s="15">
-        <v>6.0299999999999999E-2</v>
+      <c r="E64" s="9">
+        <v>6.0272963321670002E-2</v>
       </c>
       <c r="F64" s="8">
         <v>24043</v>
@@ -8383,7 +8385,7 @@
         <v>26422</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>43987</v>
       </c>
@@ -8396,8 +8398,8 @@
       <c r="D65" s="8">
         <v>1209187</v>
       </c>
-      <c r="E65" s="15">
-        <v>6.4399999999999999E-2</v>
+      <c r="E65" s="9">
+        <v>6.4378489924740004E-2</v>
       </c>
       <c r="F65" s="8">
         <v>23537</v>
@@ -8409,7 +8411,7 @@
         <v>25963</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>43988</v>
       </c>
@@ -8422,8 +8424,8 @@
       <c r="D66" s="8">
         <v>1218955</v>
       </c>
-      <c r="E66" s="15">
-        <v>0.08</v>
+      <c r="E66" s="12">
+        <v>8.0023118582630004E-2</v>
       </c>
       <c r="F66" s="8">
         <v>20021</v>
@@ -8435,7 +8437,7 @@
         <v>23452</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>43989</v>
       </c>
@@ -8448,7 +8450,7 @@
       <c r="D67" s="8">
         <v>1255899</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E67" s="9">
         <v>7.11381708088E-2</v>
       </c>
       <c r="F67" s="8">
@@ -8461,7 +8463,7 @@
         <v>26058</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>43990</v>
       </c>
@@ -8474,8 +8476,8 @@
       <c r="D68" s="8">
         <v>1286139</v>
       </c>
-      <c r="E68" s="15">
-        <v>6.6600000000000006E-2</v>
+      <c r="E68" s="9">
+        <v>6.6629016142149999E-2</v>
       </c>
       <c r="F68" s="8">
         <v>23019</v>
@@ -8487,7 +8489,7 @@
         <v>27495</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>43991</v>
       </c>
@@ -8500,8 +8502,8 @@
       <c r="D69" s="8">
         <v>1302049</v>
       </c>
-      <c r="E69" s="15">
-        <v>6.9199999999999998E-2</v>
+      <c r="E69" s="9">
+        <v>6.9239691807229997E-2</v>
       </c>
       <c r="F69" s="8">
         <v>22046</v>
@@ -8513,7 +8515,7 @@
         <v>26396</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>43992</v>
       </c>
@@ -8526,8 +8528,8 @@
       <c r="D70" s="8">
         <v>1348893</v>
       </c>
-      <c r="E70" s="15">
-        <v>6.8500000000000005E-2</v>
+      <c r="E70" s="9">
+        <v>6.8464816856909999E-2</v>
       </c>
       <c r="F70" s="8">
         <v>23966</v>
@@ -8539,7 +8541,7 @@
         <v>28289</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>43993</v>
       </c>
@@ -8552,8 +8554,8 @@
       <c r="D71" s="8">
         <v>1370131</v>
       </c>
-      <c r="E71" s="15">
-        <v>7.0499999999999993E-2</v>
+      <c r="E71" s="9">
+        <v>7.0522006760149997E-2</v>
       </c>
       <c r="F71" s="8">
         <v>23626</v>
@@ -8565,7 +8567,7 @@
         <v>27883</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>43994</v>
       </c>
@@ -8578,8 +8580,8 @@
       <c r="D72" s="8">
         <v>1404369</v>
       </c>
-      <c r="E72" s="15">
-        <v>7.22E-2</v>
+      <c r="E72" s="9">
+        <v>7.2239317057989999E-2</v>
       </c>
       <c r="F72" s="8">
         <v>23863</v>
@@ -8591,7 +8593,7 @@
         <v>27883</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>43995</v>
       </c>
@@ -8604,8 +8606,8 @@
       <c r="D73" s="8">
         <v>1442950</v>
       </c>
-      <c r="E73" s="15">
-        <v>6.1100000000000002E-2</v>
+      <c r="E73" s="9">
+        <v>6.1077310009760001E-2</v>
       </c>
       <c r="F73" s="8">
         <v>29139</v>
@@ -8617,7 +8619,7 @@
         <v>31999</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6">
         <v>43996</v>
       </c>
@@ -8630,7 +8632,7 @@
       <c r="D74" s="8">
         <v>1463851</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E74" s="9">
         <v>6.6219239373599997E-2</v>
       </c>
       <c r="F74" s="8">
@@ -8643,7 +8645,7 @@
         <v>29707</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6">
         <v>43997</v>
       </c>
@@ -8656,8 +8658,8 @@
       <c r="D75" s="8">
         <v>1499015</v>
       </c>
-      <c r="E75" s="15">
-        <v>6.7100000000000007E-2</v>
+      <c r="E75" s="9">
+        <v>6.7095336844249995E-2</v>
       </c>
       <c r="F75" s="8">
         <v>28727</v>
@@ -8669,7 +8671,7 @@
         <v>30411</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6">
         <v>43998</v>
       </c>
@@ -8682,8 +8684,8 @@
       <c r="D76" s="8">
         <v>1522434</v>
       </c>
-      <c r="E76" s="15">
-        <v>6.9400000000000003E-2</v>
+      <c r="E76" s="9">
+        <v>6.9417073042089994E-2</v>
       </c>
       <c r="F76" s="8">
         <v>29793</v>
@@ -8695,7 +8697,7 @@
         <v>31484</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6">
         <v>43999</v>
       </c>
@@ -8708,8 +8710,8 @@
       <c r="D77" s="8">
         <v>1560537</v>
       </c>
-      <c r="E77" s="15">
-        <v>7.4999999999999997E-2</v>
+      <c r="E77" s="10">
+        <v>7.497728638027E-2</v>
       </c>
       <c r="F77" s="8">
         <v>28774</v>
@@ -8721,7 +8723,7 @@
         <v>30235</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6">
         <v>44000</v>
       </c>
@@ -8734,7 +8736,7 @@
       <c r="D78" s="8">
         <v>1576925</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E78" s="9">
         <v>8.5257188117199997E-2</v>
       </c>
       <c r="F78" s="8">
@@ -8747,7 +8749,7 @@
         <v>29542</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6">
         <v>44001</v>
       </c>
@@ -8760,8 +8762,8 @@
       <c r="D79" s="8">
         <v>1622851</v>
       </c>
-      <c r="E79" s="15">
-        <v>8.9399999999999993E-2</v>
+      <c r="E79" s="9">
+        <v>8.9369161754789997E-2</v>
       </c>
       <c r="F79" s="8">
         <v>29011</v>
@@ -8773,7 +8775,7 @@
         <v>31212</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6">
         <v>44002</v>
       </c>
@@ -8786,8 +8788,8 @@
       <c r="D80" s="8">
         <v>1690124</v>
       </c>
-      <c r="E80" s="15">
-        <v>8.7999999999999995E-2</v>
+      <c r="E80" s="10">
+        <v>8.7959443433230006E-2</v>
       </c>
       <c r="F80" s="8">
         <v>32885</v>
@@ -8799,7 +8801,7 @@
         <v>35311</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6">
         <v>44003</v>
       </c>
@@ -8812,7 +8814,7 @@
       <c r="D81" s="8">
         <v>1715177</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E81" s="9">
         <v>9.5100000000000004E-2</v>
       </c>
       <c r="F81" s="8">
@@ -8825,7 +8827,7 @@
         <v>35904</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6">
         <v>44004</v>
       </c>
@@ -8838,8 +8840,8 @@
       <c r="D82" s="8">
         <v>1767701</v>
       </c>
-      <c r="E82" s="15">
-        <v>9.64E-2</v>
+      <c r="E82" s="9">
+        <v>9.6402615600719999E-2</v>
       </c>
       <c r="F82" s="8">
         <v>35550</v>
@@ -8851,7 +8853,7 @@
         <v>38384</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6">
         <v>44005</v>
       </c>
@@ -8864,20 +8866,20 @@
       <c r="D83" s="8">
         <v>1805642</v>
       </c>
-      <c r="E83" s="15">
-        <v>0.1042</v>
-      </c>
-      <c r="F83" s="8">
-        <v>37231</v>
-      </c>
-      <c r="G83" s="8">
-        <v>3227</v>
-      </c>
-      <c r="H83" s="8">
-        <v>40458</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E83" s="9">
+        <v>0.10422837848208</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H83" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6">
         <v>44006</v>
       </c>
@@ -8890,8 +8892,8 @@
       <c r="D84" s="8">
         <v>1836037</v>
       </c>
-      <c r="E84" s="15">
-        <v>0.1176</v>
+      <c r="E84" s="9">
+        <v>0.11759188232068001</v>
       </c>
       <c r="F84" s="8">
         <v>35943</v>
@@ -8903,7 +8905,7 @@
         <v>39357</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6">
         <v>44007</v>
       </c>
@@ -8916,8 +8918,8 @@
       <c r="D85" s="8">
         <v>1875197</v>
       </c>
-      <c r="E85" s="15">
-        <v>0.1173</v>
+      <c r="E85" s="9">
+        <v>0.11727744861385</v>
       </c>
       <c r="F85" s="8">
         <v>39060</v>
@@ -8929,7 +8931,7 @@
         <v>42610</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6">
         <v>44008</v>
       </c>
@@ -8942,8 +8944,8 @@
       <c r="D86" s="8">
         <v>1903661</v>
       </c>
-      <c r="E86" s="15">
-        <v>0.1323</v>
+      <c r="E86" s="9">
+        <v>0.13228718565458999</v>
       </c>
       <c r="F86" s="8">
         <v>37061</v>
@@ -8955,7 +8957,7 @@
         <v>40116</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6">
         <v>44009</v>
       </c>
@@ -8968,8 +8970,8 @@
       <c r="D87" s="8">
         <v>1959617</v>
       </c>
-      <c r="E87" s="15">
-        <v>0.1431</v>
+      <c r="E87" s="9">
+        <v>0.14309405354181001</v>
       </c>
       <c r="F87" s="8">
         <v>35577</v>
@@ -8981,61 +8983,139 @@
         <v>38499</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="6">
         <v>44010</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>266</v>
+      <c r="B88" s="8">
+        <v>1819189</v>
+      </c>
+      <c r="C88" s="8">
+        <v>187535</v>
       </c>
       <c r="D88" s="8">
         <v>2006724</v>
       </c>
-      <c r="E88" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="H88" s="8" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="20" t="s">
+      <c r="E88" s="9">
+        <v>0.13739729069508999</v>
+      </c>
+      <c r="F88" s="8">
+        <v>38597</v>
+      </c>
+      <c r="G88" s="8">
+        <v>3052</v>
+      </c>
+      <c r="H88" s="8">
+        <v>41650</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="6">
+        <v>44011</v>
+      </c>
+      <c r="B89" s="8">
+        <v>1869282</v>
+      </c>
+      <c r="C89" s="8">
+        <v>192657</v>
+      </c>
+      <c r="D89" s="8">
+        <v>2061939</v>
+      </c>
+      <c r="E89" s="9">
+        <v>0.14018794670431001</v>
+      </c>
+      <c r="F89" s="8">
+        <v>38856</v>
+      </c>
+      <c r="G89" s="8">
+        <v>3178</v>
+      </c>
+      <c r="H89" s="8">
+        <v>42034</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="6">
+        <v>44012</v>
+      </c>
+      <c r="B90" s="8">
+        <v>1921948</v>
+      </c>
+      <c r="C90" s="8">
+        <v>197088</v>
+      </c>
+      <c r="D90" s="8">
+        <v>2119036</v>
+      </c>
+      <c r="E90" s="9">
+        <v>0.13581542048065001</v>
+      </c>
+      <c r="F90" s="8">
+        <v>41670</v>
+      </c>
+      <c r="G90" s="8">
+        <v>3101</v>
+      </c>
+      <c r="H90" s="8">
+        <v>44771</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="6">
+        <v>44013</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D91" s="8">
+        <v>2174548</v>
+      </c>
+      <c r="E91" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G91" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="H91" s="8" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="43.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
-      <c r="D90" s="18"/>
-      <c r="E90" s="18"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="18"/>
-    </row>
-    <row r="91" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="20" t="s">
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+    </row>
+    <row r="94" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="19" t="s">
         <v>280</v>
       </c>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
-      <c r="D91" s="18"/>
-      <c r="E91" s="18"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="18"/>
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A90:H90"/>
-    <mergeCell ref="A91:H91"/>
+    <mergeCell ref="A93:H93"/>
+    <mergeCell ref="A94:H94"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9049,22 +9129,22 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="55" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
         <v>281</v>
       </c>
       <c r="B1" s="18"/>
     </row>
-    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>282</v>
       </c>
@@ -9072,32 +9152,32 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>284</v>
       </c>
       <c r="B3" s="8">
-        <v>83799</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86739</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>285</v>
       </c>
       <c r="B4" s="8">
-        <v>1922925</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2087809</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>286</v>
       </c>
       <c r="B5" s="8">
-        <v>2006724</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+        <v>2174548</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="19" t="s">
         <v>287</v>
       </c>
       <c r="B7" s="18"/>
@@ -9119,22 +9199,22 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="79" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
         <v>288</v>
       </c>
       <c r="B1" s="18"/>
     </row>
-    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>289</v>
       </c>
@@ -9142,24 +9222,24 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>290</v>
       </c>
       <c r="B3" s="8">
-        <v>184398</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+        <v>197088</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>291</v>
       </c>
       <c r="B4" s="8">
-        <v>6940</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+        <v>7234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
         <v>287</v>
       </c>
       <c r="B6" s="18"/>
@@ -9176,27 +9256,27 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="69" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
         <v>292</v>
       </c>
       <c r="B1" s="18"/>
     </row>
-    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>293</v>
       </c>
@@ -9204,56 +9284,49 @@
         <v>283</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="B3" s="9">
-        <v>5497</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="13">
+        <v>6904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B4" s="9">
-        <v>54701</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="13">
+        <v>57227</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="B5" s="9">
-        <v>12751</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="13">
+        <v>12894</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B6" s="9">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="13">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="B7" s="9">
-        <v>5605</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="14" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="B9" s="18"/>
+      <c r="B7" s="13">
+        <v>5622</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A9:B9"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -9262,29 +9335,29 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="L41" sqref="L41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="50" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
         <v>299</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
     </row>
-    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>300</v>
       </c>
@@ -9295,963 +9368,988 @@
         <v>301</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="6">
         <v>43925</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="13">
         <v>827</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="6">
         <v>43926</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="13">
         <v>1132</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="6">
         <v>43927</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="13">
         <v>1153</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="6">
         <v>43928</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="13">
         <v>1252</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
       <c r="B7" s="6">
         <v>43929</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="13">
         <v>1491</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>6</v>
       </c>
       <c r="B8" s="6">
         <v>43930</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="13">
         <v>1439</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>7</v>
       </c>
       <c r="B9" s="6">
         <v>43931</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="13">
         <v>1532</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>8</v>
       </c>
       <c r="B10" s="6">
         <v>43932</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="13">
         <v>1514</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>9</v>
       </c>
       <c r="B11" s="6">
         <v>43933</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="13">
         <v>1338</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="6">
         <v>43934</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="13">
         <v>1176</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="6">
         <v>43935</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="13">
         <v>1409</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="6">
         <v>43936</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="13">
         <v>1538</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>13</v>
       </c>
       <c r="B15" s="6">
         <v>43937</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="13">
         <v>1459</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>14</v>
       </c>
       <c r="B16" s="6">
         <v>43938</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="13">
         <v>1522</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>15</v>
       </c>
       <c r="B17" s="6">
         <v>43939</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="13">
         <v>1321</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>16</v>
       </c>
       <c r="B18" s="6">
         <v>43940</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="13">
         <v>1471</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>17</v>
       </c>
       <c r="B19" s="6">
         <v>43941</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="13">
         <v>1411</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>18</v>
       </c>
       <c r="B20" s="6">
         <v>43942</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="13">
         <v>1419</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>19</v>
       </c>
       <c r="B21" s="6">
         <v>43943</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="13">
         <v>1678</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>20</v>
       </c>
       <c r="B22" s="6">
         <v>43944</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="13">
         <v>1649</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>21</v>
       </c>
       <c r="B23" s="6">
         <v>43945</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="13">
         <v>1674</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>22</v>
       </c>
       <c r="B24" s="6">
         <v>43946</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="13">
         <v>1597</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>23</v>
       </c>
       <c r="B25" s="6">
         <v>43947</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="13">
         <v>1542</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>24</v>
       </c>
       <c r="B26" s="6">
         <v>43948</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="13">
         <v>1563</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" s="6">
         <v>43949</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="13">
         <v>1682</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>26</v>
       </c>
       <c r="B28" s="6">
         <v>43950</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="13">
         <v>1702</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>27</v>
       </c>
       <c r="B29" s="6">
         <v>43951</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="13">
         <v>1686</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>28</v>
       </c>
       <c r="B30" s="6">
         <v>43952</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="13">
         <v>1778</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>29</v>
       </c>
       <c r="B31" s="6">
         <v>43953</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="13">
         <v>1725</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>30</v>
       </c>
       <c r="B32" s="6">
         <v>43954</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="13">
         <v>1540</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" s="6">
         <v>43955</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="13">
         <v>1533</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" s="6">
         <v>43956</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="13">
         <v>1888</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>33</v>
       </c>
       <c r="B35" s="6">
         <v>43957</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="13">
         <v>1812</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>34</v>
       </c>
       <c r="B36" s="6">
         <v>43958</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="13">
         <v>1750</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>35</v>
       </c>
       <c r="B37" s="6">
         <v>43959</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="13">
         <v>1734</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>36</v>
       </c>
       <c r="B38" s="6">
         <v>43960</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="13">
         <v>1735</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39" s="6">
         <v>43961</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="13">
         <v>1626</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40" s="6">
         <v>43962</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="13">
         <v>1525</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41" s="6">
         <v>43963</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="13">
         <v>1725</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42" s="6">
         <v>43964</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="13">
         <v>1676</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>41</v>
       </c>
       <c r="B43" s="6">
         <v>43965</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="13">
         <v>1648</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>42</v>
       </c>
       <c r="B44" s="6">
         <v>43966</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="13">
         <v>1716</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>43</v>
       </c>
       <c r="B45" s="6">
         <v>43967</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="13">
         <v>1791</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>44</v>
       </c>
       <c r="B46" s="6">
         <v>43968</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="13">
         <v>1512</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>45</v>
       </c>
       <c r="B47" s="6">
         <v>43969</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="13">
         <v>1551</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>46</v>
       </c>
       <c r="B48" s="6">
         <v>43970</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="13">
         <v>1732</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>47</v>
       </c>
       <c r="B49" s="6">
         <v>43971</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="13">
         <v>1791</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>48</v>
       </c>
       <c r="B50" s="6">
         <v>43972</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="13">
         <v>1680</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>49</v>
       </c>
       <c r="B51" s="6">
         <v>43973</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="13">
         <v>1578</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>50</v>
       </c>
       <c r="B52" s="6">
         <v>43974</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="13">
         <v>1688</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>51</v>
       </c>
       <c r="B53" s="6">
         <v>43975</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="13">
         <v>1572</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>52</v>
       </c>
       <c r="B54" s="6">
         <v>43976</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="13">
         <v>1511</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>53</v>
       </c>
       <c r="B55" s="6">
         <v>43977</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="13">
         <v>1534</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>54</v>
       </c>
       <c r="B56" s="6">
         <v>43978</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="13">
         <v>1645</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2">
         <v>55</v>
       </c>
       <c r="B57" s="6">
         <v>43979</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="13">
         <v>1692</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>56</v>
       </c>
       <c r="B58" s="6">
         <v>43980</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="13">
         <v>1701</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>57</v>
       </c>
       <c r="B59" s="6">
         <v>43981</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="13">
         <v>1752</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>58</v>
       </c>
       <c r="B60" s="6">
         <v>43982</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="13">
         <v>1684</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>59</v>
       </c>
       <c r="B61" s="6">
         <v>43983</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="13">
         <v>1756</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>60</v>
       </c>
       <c r="B62" s="6">
         <v>43984</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="13">
         <v>1773</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>61</v>
       </c>
       <c r="B63" s="6">
         <v>43985</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="13">
         <v>1799</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>62</v>
       </c>
       <c r="B64" s="6">
         <v>43986</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="13">
         <v>1796</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>63</v>
       </c>
       <c r="B65" s="6">
         <v>43987</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="13">
         <v>1855</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>64</v>
       </c>
       <c r="B66" s="6">
         <v>43988</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="13">
         <v>1822</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>65</v>
       </c>
       <c r="B67" s="6">
         <v>43989</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="13">
         <v>1878</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>66</v>
       </c>
       <c r="B68" s="6">
         <v>43990</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="13">
         <v>1935</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>67</v>
       </c>
       <c r="B69" s="6">
         <v>43991</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="13">
         <v>2056</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>68</v>
       </c>
       <c r="B70" s="6">
         <v>43992</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="13">
         <v>2153</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2">
         <v>69</v>
       </c>
       <c r="B71" s="6">
         <v>43993</v>
       </c>
-      <c r="C71" s="9">
+      <c r="C71" s="13">
         <v>2008</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>70</v>
       </c>
       <c r="B72" s="6">
         <v>43994</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="13">
         <v>2166</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>71</v>
       </c>
       <c r="B73" s="6">
         <v>43995</v>
       </c>
-      <c r="C73" s="9">
+      <c r="C73" s="13">
         <v>2242</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>72</v>
       </c>
       <c r="B74" s="6">
         <v>43996</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="13">
         <v>2287</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>73</v>
       </c>
       <c r="B75" s="6">
         <v>43997</v>
       </c>
-      <c r="C75" s="9">
+      <c r="C75" s="13">
         <v>2326</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>74</v>
       </c>
       <c r="B76" s="6">
         <v>43998</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="13">
         <v>2518</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>75</v>
       </c>
       <c r="B77" s="6">
         <v>43999</v>
       </c>
-      <c r="C77" s="9">
+      <c r="C77" s="13">
         <v>2793</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>76</v>
       </c>
       <c r="B78" s="6">
         <v>44000</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="13">
         <v>2947</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>77</v>
       </c>
       <c r="B79" s="6">
         <v>44001</v>
       </c>
-      <c r="C79" s="9">
+      <c r="C79" s="13">
         <v>3148</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2">
         <v>78</v>
       </c>
       <c r="B80" s="6">
         <v>44002</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="13">
         <v>3247</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2">
         <v>79</v>
       </c>
       <c r="B81" s="6">
         <v>44003</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="13">
         <v>3409</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>80</v>
       </c>
       <c r="B82" s="6">
         <v>44004</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C82" s="13">
         <v>3711</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>81</v>
       </c>
       <c r="B83" s="6">
         <v>44005</v>
       </c>
-      <c r="C83" s="9">
+      <c r="C83" s="13">
         <v>4092</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>82</v>
       </c>
       <c r="B84" s="6">
         <v>44006</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C84" s="13">
         <v>4389</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>83</v>
       </c>
       <c r="B85" s="6">
         <v>44007</v>
       </c>
-      <c r="C85" s="9">
+      <c r="C85" s="13">
         <v>4739</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>84</v>
       </c>
       <c r="B86" s="6">
         <v>44008</v>
       </c>
-      <c r="C86" s="9">
+      <c r="C86" s="13">
         <v>5102</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>85</v>
       </c>
       <c r="B87" s="6">
         <v>44009</v>
       </c>
-      <c r="C87" s="9">
+      <c r="C87" s="13">
         <v>5523</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>86</v>
       </c>
       <c r="B88" s="6">
         <v>44010</v>
       </c>
-      <c r="C88" s="9">
+      <c r="C88" s="13">
         <v>5497</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="20" t="s">
-        <v>287</v>
-      </c>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
+    <row r="89" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="2">
+        <v>87</v>
+      </c>
+      <c r="B89" s="6">
+        <v>44011</v>
+      </c>
+      <c r="C89" s="13">
+        <v>5913</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="2">
+        <v>88</v>
+      </c>
+      <c r="B90" s="6">
+        <v>44012</v>
+      </c>
+      <c r="C90" s="13">
+        <v>6533</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="2">
+        <v>89</v>
+      </c>
+      <c r="B91" s="6">
+        <v>44013</v>
+      </c>
+      <c r="C91" s="13">
+        <v>6904</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A90:C90"/>
   </mergeCells>
   <pageMargins left="0.05" right="0.05" top="0.5" bottom="0.5" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -10265,25 +10363,25 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection sqref="A1:C1"/>
-      <selection pane="bottomLeft" sqref="A1:C1"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
         <v>302</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
     </row>
-    <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>303</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -10293,183 +10391,169 @@
         <v>305</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="B3" s="11">
-        <v>85</v>
-      </c>
-      <c r="C3" s="13">
-        <f>B3/B$16</f>
-        <v>3.9977424513216063E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="15">
+        <v>88</v>
+      </c>
+      <c r="C3" s="21">
+        <v>0.40072859750000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="B4" s="11">
-        <v>342</v>
-      </c>
-      <c r="C4" s="13">
-        <f t="shared" ref="C4:C16" si="0">B4/B$16</f>
-        <v>1.6085034333552819E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="15">
+        <v>363</v>
+      </c>
+      <c r="C4" s="21">
+        <v>1.6530054645000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="B5" s="11">
-        <v>931</v>
-      </c>
-      <c r="C5" s="13">
-        <f t="shared" si="0"/>
-        <v>4.3787037908004894E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="15">
+        <v>984</v>
+      </c>
+      <c r="C5" s="21">
+        <v>4.4808743168999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="B6" s="11">
-        <v>3623</v>
-      </c>
-      <c r="C6" s="13">
-        <f t="shared" si="0"/>
-        <v>0.17039789295456684</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="15">
+        <v>3802</v>
+      </c>
+      <c r="C6" s="21">
+        <v>17.313296903000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="B7" s="11">
-        <v>3906</v>
-      </c>
-      <c r="C7" s="13">
-        <f t="shared" si="0"/>
-        <v>0.18370802370426112</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="15">
+        <v>4037</v>
+      </c>
+      <c r="C7" s="21">
+        <v>18.383424408</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="B8" s="11">
-        <v>3860</v>
-      </c>
-      <c r="C8" s="13">
-        <f t="shared" si="0"/>
-        <v>0.18154453955413413</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="15">
+        <v>3976</v>
+      </c>
+      <c r="C8" s="21">
+        <v>18.105646629999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="B9" s="11">
-        <v>3690</v>
-      </c>
-      <c r="C9" s="13">
-        <f t="shared" si="0"/>
-        <v>0.17354905465149092</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="15">
+        <v>3779</v>
+      </c>
+      <c r="C9" s="21">
+        <v>17.208561020000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B10" s="11">
-        <v>1472</v>
-      </c>
-      <c r="C10" s="13">
-        <f t="shared" si="0"/>
-        <v>6.9231492804063585E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="15">
+        <v>1511</v>
+      </c>
+      <c r="C10" s="21">
+        <v>6.8806921676000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="B11" s="11">
-        <v>1086</v>
-      </c>
-      <c r="C11" s="13">
-        <f t="shared" si="0"/>
-        <v>5.1077038848650176E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="15">
+        <v>1105</v>
+      </c>
+      <c r="C11" s="21">
+        <v>5.0318761384000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="B12" s="11">
-        <v>697</v>
-      </c>
-      <c r="C12" s="13">
-        <f t="shared" si="0"/>
-        <v>3.2781488100837176E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="15">
+        <v>712</v>
+      </c>
+      <c r="C12" s="21">
+        <v>3.2422586520999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="B13" s="11">
-        <v>526</v>
-      </c>
-      <c r="C13" s="13">
-        <f t="shared" si="0"/>
-        <v>2.4738970934060765E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="15">
+        <v>538</v>
+      </c>
+      <c r="C13" s="21">
+        <v>2.4499089252999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="B14" s="11">
-        <v>1044</v>
-      </c>
-      <c r="C14" s="13">
-        <f t="shared" si="0"/>
-        <v>4.9101683755055969E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="15">
+        <v>1065</v>
+      </c>
+      <c r="C14" s="21">
+        <v>4.8497267759999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B15" s="11">
-        <v>0</v>
-      </c>
-      <c r="C15" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="15">
+        <v>0</v>
+      </c>
+      <c r="C15" s="21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="B16" s="11">
-        <v>21262</v>
-      </c>
-      <c r="C16" s="13">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="B16" s="15">
+        <v>21960</v>
+      </c>
+      <c r="C16" s="21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19" t="s">
         <v>319</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
     </row>
-    <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:3" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="19" t="s">
         <v>320</v>
       </c>
       <c r="B19" s="18"/>
